--- a/NetRealmsNanSetup/nanDECK/cards.xlsx
+++ b/NetRealmsNanSetup/nanDECK/cards.xlsx
@@ -12,9 +12,10 @@
     <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="11820"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Lands" sheetId="1" r:id="rId1"/>
+    <sheet name="WorldWeavers" sheetId="2" r:id="rId2"/>
+    <sheet name="Units" sheetId="3" r:id="rId3"/>
+    <sheet name="Relics" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
@@ -616,12 +617,217 @@
   <si>
     <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Gaming\CrimsonCircuitWyvern.jpeg</t>
   </si>
+  <si>
+    <t>Xieon, Lord of the Code</t>
+  </si>
+  <si>
+    <t>Ashke, Seductress of the Server</t>
+  </si>
+  <si>
+    <t>ProtoMyke, Sculptor of Realms</t>
+  </si>
+  <si>
+    <t>Vexis, Whisperer of Shadows</t>
+  </si>
+  <si>
+    <t>Lyra, Harbinger of Discord</t>
+  </si>
+  <si>
+    <t>Legendary WorldWeaver - Xieon</t>
+  </si>
+  <si>
+    <t>Legendary WorldWeaver - Ashke</t>
+  </si>
+  <si>
+    <t>Legendary WorldWeaver - ProtoMyke</t>
+  </si>
+  <si>
+    <t>Legendary WorldWeaver - Vexis</t>
+  </si>
+  <si>
+    <t>Legendary WorldWeaver - Lyra</t>
+  </si>
+  <si>
+    <t>Fragmented Disk</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\frames\frame_common.png</t>
+  </si>
+  <si>
+    <t>Corrupted Mirror</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\frames\frame_uncommon.png</t>
+  </si>
+  <si>
+    <t>Holo-Key</t>
+  </si>
+  <si>
+    <t>Defective Processon</t>
+  </si>
+  <si>
+    <t>Glitched Beacon</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\frames\frame_rare.png</t>
+  </si>
+  <si>
+    <t>Static Core</t>
+  </si>
+  <si>
+    <t>Broken Modulator</t>
+  </si>
+  <si>
+    <t>Crash Helm</t>
+  </si>
+  <si>
+    <t>Data Worm</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\frames\frame_epic.png</t>
+  </si>
+  <si>
+    <t>Error Generator</t>
+  </si>
+  <si>
+    <t>Loop Disk</t>
+  </si>
+  <si>
+    <t>Misaligned Node</t>
+  </si>
+  <si>
+    <t>Corrupting Lense</t>
+  </si>
+  <si>
+    <t>Patchwork Circuit</t>
+  </si>
+  <si>
+    <t>Digital Relic</t>
+  </si>
+  <si>
+    <t>Relic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tap: Add one mana of any color. When you use this mana to upload a Program, lose 1 Integrity.
+</t>
+  </si>
+  <si>
+    <t>Tap: Add one energy of any Node, When you use this energy to upload a Program, lose 1 Integrity</t>
+  </si>
+  <si>
+    <t>Tap: Copy target Unit's abilities untill end of turn, You lose 1 Integrity</t>
+  </si>
+  <si>
+    <t>Tape" Search your archive for a Program and put it into your hand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Its data may be incomplete, but its potential remains infinite </t>
+  </si>
+  <si>
+    <t xml:space="preserve">It reflects more than just an image—it reveals possibilities you wish it wouldn’t. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The doors it unlocks are endless. Just don’t expect to know what’s on the other side. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Faulty, yet functional. The Grid's greatest inventions are often its accidents. </t>
+  </si>
+  <si>
+    <t>Its light guides the lost, but its glow is tainted with chaos."</t>
+  </si>
+  <si>
+    <t>Its light guides the lost, but its glow is tainted with chaos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An unstable core that turns invulnerability into vulnerability. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Even when malfunctioning, its power redefines the battlefield. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The last line of defense for those braving the Grid’s chaos. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">It burrows through archives, leaving a trail of corrupted knowledge. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">From the heart of chaos, it rewrites the rules of existence." </t>
+  </si>
+  <si>
+    <t>From the heart of chaos, it rewrites the rules of existence.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It plays the same song over and over, each time in a different key. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">It channels energy unpredictably, but somehow it always works out. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">What it shows is not always true, but it’s always dangerous. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A cobbled-together relic, its true strength lies in its imperfections. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A piece of history, its data laced with secrets no one dares to decode. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tap: Draw a card, then discard a card. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Units you control with Glitch energy gain +1/+0. </t>
+  </si>
+  <si>
+    <t>Tap: Target Unit loses Shielded until end of turn.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tap: Switch the attack and defense of target Unit until end of turn. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equipped Unit gains +1/+2. Whenever it blocks, lose 1 Integrity. </t>
+  </si>
+  <si>
+    <t>Equipped Unit gains +1/+2. Whenever it blocks, lose 1 Integrity.  Tap 2 to Equip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whenever a Unit attacks, its controller mills 2 cards. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tap: Exile the top card of each player’s archive. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tap: Return target card from your exile to your hand. Lose 2 Integrity. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add GG. Spend this Energy only to upload Programs. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tap: Add GG. Spend this Energy only to upload Programs. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tap: Target Unit gains -1/-0 until end of turn. </t>
+  </si>
+  <si>
+    <t>Whenever you upload a Program, gain 1 Energy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At the beginning of your upload, draw a card, then discard a card. </t>
+  </si>
+  <si>
+    <t>C:\Users\Twizt\OneDrive\Desktop\Github\NetRealm-XGCTCG\NetRealmsNanSetup\nanDECK\netrealms\cards\Glitch\Relic</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>Game</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -672,16 +878,54 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="Segoe UI"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <name val="Segoe UI"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB7DEE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF95B3D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF548ED5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8DB3E3"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -689,11 +933,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
       <alignment wrapText="1"/>
@@ -721,6 +985,22 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
       <alignment/>
     </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="3" applyFill="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="4" applyFill="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="5" applyFill="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="6" applyFill="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="2" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="5" applyFill="1" borderId="2" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="6" applyFill="1" borderId="2" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="4" applyFill="1" borderId="2" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1037,21 +1317,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="C23">
-      <selection activeCell="C31" activeCellId="0" sqref="C31"/>
+    <sheetView workbookViewId="0" topLeftCell="A9">
+      <selection activeCell="B31" activeCellId="0" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" customWidth="1"/>
-    <col min="2" max="2" width="60.5703125" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" customWidth="1"/>
+    <col min="2" max="2" width="63.44140625" customWidth="1"/>
     <col min="3" max="3" width="64.28515625" customWidth="1"/>
     <col min="4" max="4" width="13.140625" customWidth="1"/>
-    <col min="5" max="5" width="27" customWidth="1"/>
-    <col min="6" max="6" width="27" customWidth="1" style="6"/>
-    <col min="7" max="7" width="27" customWidth="1" style="6"/>
-    <col min="8" max="8" width="27" customWidth="1" style="6"/>
-    <col min="11" max="11" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="31.5546875" customWidth="1"/>
+    <col min="6" max="6" width="85.109375" customWidth="1" style="6" bestFit="1"/>
+    <col min="7" max="7" width="81.21875" customWidth="1" style="6" bestFit="1"/>
+    <col min="8" max="8" width="137.6640625" customWidth="1" style="6"/>
+    <col min="9" max="9" width="6.77734375" customWidth="1"/>
+    <col min="10" max="10" width="5.5546875" customWidth="1"/>
+    <col min="11" max="11" width="72.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1397,76 +1679,76 @@
         <v>193</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>12</v>
-      </c>
-      <c r="B30" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" t="s">
-        <v>195</v>
-      </c>
-      <c r="D30" t="s">
-        <v>136</v>
-      </c>
-      <c r="E30" t="s">
-        <v>34</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="J30">
-        <v>5</v>
-      </c>
-      <c r="K30" t="s">
-        <v>47</v>
-      </c>
-    </row>
+    <row r="30" customFormat="1" s="0"/>
     <row r="31">
-      <c r="A31" t="s">
-        <v>53</v>
-      </c>
-      <c r="B31" t="s">
-        <v>23</v>
-      </c>
-      <c r="C31" t="s">
-        <v>197</v>
-      </c>
-      <c r="D31">
-        <v>4</v>
-      </c>
-      <c r="E31" t="s">
-        <v>61</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="I31">
-        <v>5</v>
-      </c>
-      <c r="J31">
-        <v>4</v>
-      </c>
-      <c r="K31" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="2"/>
+    </row>
+    <row r="33">
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+    </row>
+    <row r="37" customFormat="1" s="0"/>
+    <row r="38">
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+    </row>
+    <row r="40" customFormat="1" s="0"/>
+    <row r="41">
+      <c r="K41" s="4"/>
+    </row>
+    <row r="42">
+      <c r="K42" s="4"/>
+    </row>
+    <row r="43">
+      <c r="K43" s="4"/>
+    </row>
+    <row r="44">
+      <c r="F44" s="4"/>
+      <c r="K44" s="4"/>
+    </row>
+    <row r="45">
+      <c r="F45" s="4"/>
+      <c r="K45" s="4"/>
+    </row>
+    <row r="46">
+      <c r="K46" s="4"/>
+    </row>
+    <row r="47">
+      <c r="F47" s="4"/>
+      <c r="K47" s="4"/>
+    </row>
+    <row r="48">
+      <c r="F48" s="4"/>
+      <c r="K48" s="4"/>
+    </row>
+    <row r="49">
+      <c r="F49" s="4"/>
+      <c r="K49" s="4"/>
+    </row>
+    <row r="50">
+      <c r="F50" s="4"/>
+      <c r="K50" s="4"/>
+    </row>
+    <row r="51">
+      <c r="F51" s="4"/>
+      <c r="K51" s="4"/>
+    </row>
+    <row r="52">
+      <c r="F52" s="4"/>
+      <c r="K52" s="4"/>
+    </row>
+    <row r="53">
+      <c r="F53" s="4"/>
+      <c r="K53" s="4"/>
+    </row>
+    <row r="54">
+      <c r="K54" s="4"/>
+    </row>
+    <row r="55">
+      <c r="F55" s="4"/>
+      <c r="K55" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1477,10 +1759,147 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection activeCell="B9" activeCellId="0" sqref="B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="26.109375" customWidth="1"/>
+    <col min="2" max="2" width="61.77734375" customWidth="1"/>
+    <col min="3" max="3" width="59.77734375" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" width="31.77734375" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" width="80.109375" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" width="81.21875" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" width="134.33203125" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" width="48.33203125" customWidth="1" bestFit="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2">
+        <v>5</v>
+      </c>
+      <c r="K2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>204</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>202</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1489,10 +1908,412 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection activeCell="D2" activeCellId="0" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="21.5546875" customWidth="1"/>
+    <col min="2" max="2" width="19.77734375" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" width="59.88671875" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" width="70.44140625" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" width="5.5546875" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" width="25.109375" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" width="85.109375" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" width="49.5546875" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" width="84.21875" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" width="72.77734375" customWidth="1" bestFit="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="J2">
+        <v>5</v>
+      </c>
+      <c r="K2">
+        <v>4</v>
+      </c>
+      <c r="L2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetViews>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection activeCell="C3" activeCellId="0" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" width="61.109375" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" width="70.44140625" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" width="80.33203125" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" width="63.109375" customWidth="1" bestFit="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F2" t="s">
+        <v>229</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E3" t="s">
+        <v>227</v>
+      </c>
+      <c r="F3" t="s">
+        <v>230</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B4" t="s">
+        <v>209</v>
+      </c>
+      <c r="E4" t="s">
+        <v>227</v>
+      </c>
+      <c r="F4" t="s">
+        <v>231</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E5" t="s">
+        <v>227</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>214</v>
+      </c>
+      <c r="B6" t="s">
+        <v>215</v>
+      </c>
+      <c r="E6" t="s">
+        <v>227</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>216</v>
+      </c>
+      <c r="B7" t="s">
+        <v>211</v>
+      </c>
+      <c r="E7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F7" t="s">
+        <v>251</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>217</v>
+      </c>
+      <c r="B8" t="s">
+        <v>215</v>
+      </c>
+      <c r="E8" t="s">
+        <v>227</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>218</v>
+      </c>
+      <c r="B9" t="s">
+        <v>209</v>
+      </c>
+      <c r="E9" t="s">
+        <v>227</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>219</v>
+      </c>
+      <c r="B10" t="s">
+        <v>220</v>
+      </c>
+      <c r="E10" t="s">
+        <v>227</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>221</v>
+      </c>
+      <c r="B11" t="s">
+        <v>220</v>
+      </c>
+      <c r="E11" t="s">
+        <v>227</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>222</v>
+      </c>
+      <c r="B12" t="s">
+        <v>215</v>
+      </c>
+      <c r="E12" t="s">
+        <v>227</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>223</v>
+      </c>
+      <c r="B13" t="s">
+        <v>209</v>
+      </c>
+      <c r="E13" t="s">
+        <v>227</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>224</v>
+      </c>
+      <c r="B14" t="s">
+        <v>211</v>
+      </c>
+      <c r="E14" t="s">
+        <v>227</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>225</v>
+      </c>
+      <c r="B15" t="s">
+        <v>209</v>
+      </c>
+      <c r="E15" t="s">
+        <v>227</v>
+      </c>
+      <c r="F15" t="s">
+        <v>261</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>226</v>
+      </c>
+      <c r="B16" t="s">
+        <v>220</v>
+      </c>
+      <c r="E16" t="s">
+        <v>227</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/NetRealmsNanSetup/nanDECK/cards.xlsx
+++ b/NetRealmsNanSetup/nanDECK/cards.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="11820"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="11820" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Lands" sheetId="1" r:id="rId1"/>
@@ -822,12 +822,165 @@
   <si>
     <t>Game</t>
   </si>
+  <si>
+    <t>Glitch</t>
+  </si>
+  <si>
+    <t>Encrypted Drive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tap: Add one Energy of any color. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Without the key, it’s just a shiny paperweight </t>
+  </si>
+  <si>
+    <t>Without the key, it’s just a shiny paperweight .</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Syntax Core</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Programs you upload cost 1 less to upload. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perfect syntax is the foundation of every masterpiece. </t>
+  </si>
+  <si>
+    <t>Debugging Lense</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tap: Exile target Unit until end of turn. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">No error escapes the Debugger’s gaze. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feed it chaos; it returns clarity. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Memories can be recovered, but never without cost. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Codeweaver spins possibilities into reality. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Its logic is flawless. Its purpose, unknown. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">It stabilizes the Grid, no matter the storm. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Firewalls aren’t meant to stop you, just to make you reconsider. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Every decision branches into infinite outcomes. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">At the heart of every system lies the pulse of progress. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The most valuable treasures are those unseen. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Every process feeds the next in perfect harmony. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A spectrum of possibilities, all within reach. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Where all pathways converge, knowledge flows. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tap: Target Program gains "When this is uploaded, draw a card." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tap: Add one Energy of any color. Spend this Energy only on Units. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Units you control gain +1/+1 as long as you control three or more Programs. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tap: Exile a card from your hand. You may play it from exile during your next upload. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tap: Add C. Spend this Energy only for Programs. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tap: Add Code. Spend this Energy only for Programs. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tap: Look at the top card of your deck. You may put it on the bottom. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equipped Unit gains +1/+0 and can’t be blocked by more than one Unit. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add CC. Spend this Energy only to upload Units. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">At the beginning of your upload, draw a card. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You may rearrange the order of the top three cards of your deck. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Return a Program from your archive to your hand. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tap: Draw a card. </t>
+  </si>
+  <si>
+    <t>Quantum Nexus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algorithmic Prism </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recursive Frame </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Vaul </t>
+  </si>
+  <si>
+    <t>Data Vault</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Processor Core </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logic Gate Pendant </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Firewall Orb </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server Anchor </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infinite Algorithm </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Codeweaver’s Loom </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Memory Fragment </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code Compiler </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pixelated Trophy </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -891,8 +1044,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="Segoe UI"/>
+      <color rgb="FF000000"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -924,8 +1082,18 @@
         <fgColor rgb="FF8DB3E3"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBFBFBF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD99594"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -953,11 +1121,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
       <alignment wrapText="1"/>
@@ -1001,6 +1184,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="7" applyFill="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="7" applyFill="1" borderId="3" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="3" applyFill="1" borderId="3" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="8" applyFill="1" borderId="3" applyBorder="1" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1909,12 +2096,12 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="21.5546875" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" customWidth="1"/>
     <col min="2" max="2" width="19.77734375" customWidth="1" bestFit="1"/>
     <col min="3" max="3" width="59.88671875" customWidth="1" bestFit="1"/>
     <col min="4" max="4" width="70.44140625" customWidth="1" bestFit="1"/>
@@ -2010,307 +2197,781 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection activeCell="C3" activeCellId="0" sqref="C3"/>
+    <sheetView workbookViewId="0" topLeftCell="A19" tabSelected="1" zoomScale="70" zoomScaleNormal="70">
+      <selection activeCell="C32" activeCellId="0" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" width="61.109375" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" width="70.44140625" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" width="80.33203125" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" width="63.109375" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" width="61.109375" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" width="70.44140625" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" width="80.33203125" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" width="63.109375" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>48</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>32</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>43</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>44</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>45</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="B2" t="s">
         <v>208</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>209</v>
       </c>
-      <c r="E2" t="s">
-        <v>227</v>
-      </c>
       <c r="F2" t="s">
+        <v>227</v>
+      </c>
+      <c r="G2" t="s">
         <v>229</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
+      <c r="A3" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="B3" t="s">
         <v>210</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>211</v>
       </c>
-      <c r="E3" t="s">
-        <v>227</v>
-      </c>
       <c r="F3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G3" t="s">
         <v>230</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
+      <c r="A4" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="B4" t="s">
         <v>212</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>209</v>
       </c>
-      <c r="E4" t="s">
-        <v>227</v>
-      </c>
       <c r="F4" t="s">
+        <v>227</v>
+      </c>
+      <c r="G4" t="s">
         <v>231</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="L4" s="4" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
+      <c r="A5" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="B5" t="s">
         <v>213</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>211</v>
       </c>
-      <c r="E5" t="s">
-        <v>227</v>
-      </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" t="s">
+        <v>227</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="L5" s="4" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
+      <c r="A6" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="B6" t="s">
         <v>214</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>215</v>
       </c>
-      <c r="E6" t="s">
-        <v>227</v>
-      </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" t="s">
+        <v>227</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="L6" s="4" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
+      <c r="A7" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="B7" t="s">
         <v>216</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>211</v>
       </c>
-      <c r="E7" t="s">
-        <v>227</v>
-      </c>
       <c r="F7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G7" t="s">
         <v>251</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="L7" s="4" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
+      <c r="A8" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="B8" t="s">
         <v>217</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>215</v>
       </c>
-      <c r="E8" t="s">
-        <v>227</v>
-      </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" t="s">
+        <v>227</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="L8" s="4" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
+      <c r="A9" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="B9" t="s">
         <v>218</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>209</v>
       </c>
-      <c r="E9" t="s">
-        <v>227</v>
-      </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" t="s">
+        <v>227</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="L9" s="4" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
+      <c r="A10" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="B10" t="s">
         <v>219</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>220</v>
       </c>
-      <c r="E10" t="s">
-        <v>227</v>
-      </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" t="s">
+        <v>227</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="L10" s="4" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
+      <c r="A11" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="B11" t="s">
         <v>221</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>220</v>
       </c>
-      <c r="E11" t="s">
-        <v>227</v>
-      </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" t="s">
+        <v>227</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="L11" s="4" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s">
+      <c r="A12" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="B12" t="s">
         <v>222</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>215</v>
       </c>
-      <c r="E12" t="s">
-        <v>227</v>
-      </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" t="s">
+        <v>227</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="L12" s="4" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
+      <c r="A13" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="B13" t="s">
         <v>223</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>209</v>
       </c>
-      <c r="E13" t="s">
-        <v>227</v>
-      </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" t="s">
+        <v>227</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="L13" s="4" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s">
+      <c r="A14" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="B14" t="s">
         <v>224</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>211</v>
       </c>
-      <c r="E14" t="s">
-        <v>227</v>
-      </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" t="s">
+        <v>227</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="L14" s="4" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s">
+      <c r="A15" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="B15" t="s">
         <v>225</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>209</v>
       </c>
-      <c r="E15" t="s">
-        <v>227</v>
-      </c>
       <c r="F15" t="s">
+        <v>227</v>
+      </c>
+      <c r="G15" t="s">
         <v>261</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="L15" s="4" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
+      <c r="A16" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="B16" t="s">
         <v>226</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>220</v>
       </c>
-      <c r="E16" t="s">
-        <v>227</v>
-      </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" t="s">
+        <v>227</v>
+      </c>
+      <c r="G16" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="K16" s="4" t="s">
+      <c r="L16" s="4" t="s">
         <v>248</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="B17" t="s">
+        <v>267</v>
+      </c>
+      <c r="C17" t="s">
+        <v>209</v>
+      </c>
+      <c r="F17" t="s">
+        <v>227</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="B18" t="s">
+        <v>272</v>
+      </c>
+      <c r="C18" t="s">
+        <v>220</v>
+      </c>
+      <c r="F18" t="s">
+        <v>227</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="B19" t="s">
+        <v>275</v>
+      </c>
+      <c r="C19" t="s">
+        <v>209</v>
+      </c>
+      <c r="F19" t="s">
+        <v>227</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="C20" t="s">
+        <v>215</v>
+      </c>
+      <c r="F20" t="s">
+        <v>227</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C21" t="s">
+        <v>211</v>
+      </c>
+      <c r="F21" t="s">
+        <v>227</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="C22" t="s">
+        <v>220</v>
+      </c>
+      <c r="F22" t="s">
+        <v>227</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C23" t="s">
+        <v>220</v>
+      </c>
+      <c r="F23" t="s">
+        <v>227</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C24" t="s">
+        <v>215</v>
+      </c>
+      <c r="F24" t="s">
+        <v>227</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="C25" t="s">
+        <v>209</v>
+      </c>
+      <c r="F25" t="s">
+        <v>227</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="C26" t="s">
+        <v>211</v>
+      </c>
+      <c r="F26" t="s">
+        <v>227</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="C27" t="s">
+        <v>209</v>
+      </c>
+      <c r="F27" t="s">
+        <v>227</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="C28" t="s">
+        <v>215</v>
+      </c>
+      <c r="F28" t="s">
+        <v>227</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="C29" t="s">
+        <v>215</v>
+      </c>
+      <c r="F29" t="s">
+        <v>227</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C30" t="s">
+        <v>211</v>
+      </c>
+      <c r="F30" t="s">
+        <v>227</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="B31" t="s">
+        <v>303</v>
+      </c>
+      <c r="C31" t="s">
+        <v>23</v>
+      </c>
+      <c r="F31" t="s">
+        <v>227</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="C32" t="s">
+        <v>209</v>
+      </c>
+      <c r="F32" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="F33" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="F34" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="F35" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="F36" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="F37" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="F38" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="F39" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="F40" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="F41" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="F42" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="F43" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="F44" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="F45" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="F46" t="s">
+        <v>227</v>
       </c>
     </row>
   </sheetData>

--- a/NetRealmsNanSetup/nanDECK/cards.xlsx
+++ b/NetRealmsNanSetup/nanDECK/cards.xlsx
@@ -975,12 +975,271 @@
   <si>
     <t xml:space="preserve">Pixelated Trophy </t>
   </si>
+  <si>
+    <t>Gameing</t>
+  </si>
+  <si>
+    <t>Gaming</t>
+  </si>
+  <si>
+    <t>Player's Console</t>
+  </si>
+  <si>
+    <r>
+      <t>Gamepad of Mastery</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <vertAlign val="baseline"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <vertAlign val="baseline"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>Gamepad of Mastery</t>
+  </si>
+  <si>
+    <t>Loading Screen Fragment</t>
+  </si>
+  <si>
+    <t>Pixel Shield</t>
+  </si>
+  <si>
+    <t>Achievement Badge</t>
+  </si>
+  <si>
+    <t>Level-Up Core</t>
+  </si>
+  <si>
+    <t>Respawn Anchor</t>
+  </si>
+  <si>
+    <t>Victory Crown</t>
+  </si>
+  <si>
+    <t>Leaderboard Scroll</t>
+  </si>
+  <si>
+    <t>Save Point Beacon</t>
+  </si>
+  <si>
+    <t>Speedrun Stopwatch</t>
+  </si>
+  <si>
+    <t>Boss Key</t>
+  </si>
+  <si>
+    <t>Cheat Code Chip</t>
+  </si>
+  <si>
+    <t>XP Orb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add G. Spend this Energy only to upload Units. </t>
+  </si>
+  <si>
+    <t>Draw a card. Use this ability only if you’ve uploaded a Unit this turn.</t>
+  </si>
+  <si>
+    <t>2G</t>
+  </si>
+  <si>
+    <t>3G</t>
+  </si>
+  <si>
+    <t>1G</t>
+  </si>
+  <si>
+    <t>2GG</t>
+  </si>
+  <si>
+    <t>4G</t>
+  </si>
+  <si>
+    <t>3g</t>
+  </si>
+  <si>
+    <r>
+      <t>Whenever you upload a Unit, gain 1 Integrity.</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <vertAlign val="baseline"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <vertAlign val="baseline"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ </t>
+  </si>
+  <si>
+    <t>tt</t>
+  </si>
+  <si>
+    <t>Whenever you upload a Unit, Gain 1 Integrity</t>
+  </si>
+  <si>
+    <t>Tap: Add GG. Spend this energy only to upload Unit Programs</t>
+  </si>
+  <si>
+    <t>Equiped Unit gains +2/+0</t>
+  </si>
+  <si>
+    <t>2 Equip</t>
+  </si>
+  <si>
+    <t>Tap: Look at the top 3 cards of your deck, then put them back in any order</t>
+  </si>
+  <si>
+    <t>Equiped Unit gains +0/+3 and Shielded</t>
+  </si>
+  <si>
+    <t>3 Equip</t>
+  </si>
+  <si>
+    <t>2 equip</t>
+  </si>
+  <si>
+    <t>Gain 1 Integrity.</t>
+  </si>
+  <si>
+    <t>Tap: Target Unit gains +1/+1 untill end of turn.</t>
+  </si>
+  <si>
+    <t>Tap: Return target unit from your Archive to the Grid</t>
+  </si>
+  <si>
+    <t>Units you control gain +1/+0</t>
+  </si>
+  <si>
+    <t>Tap: Target player reveals their hand.</t>
+  </si>
+  <si>
+    <t>At the beginning of your upload, gain 1 integrity.</t>
+  </si>
+  <si>
+    <t>Units you control with Turbo cost 1 less to upload</t>
+  </si>
+  <si>
+    <t>Tap: Destroy target shielded Unit.</t>
+  </si>
+  <si>
+    <t>2C</t>
+  </si>
+  <si>
+    <t>3C</t>
+  </si>
+  <si>
+    <t>1C</t>
+  </si>
+  <si>
+    <t>4C</t>
+  </si>
+  <si>
+    <t>4CC</t>
+  </si>
+  <si>
+    <t>5C</t>
+  </si>
+  <si>
+    <t>1GL</t>
+  </si>
+  <si>
+    <t>2GL</t>
+  </si>
+  <si>
+    <t>2GLGL</t>
+  </si>
+  <si>
+    <t>3GL</t>
+  </si>
+  <si>
+    <t>4GL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Victory may be virtual, but the pride is real. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plug in, press start, and prepare for greatness </t>
+  </si>
+  <si>
+    <t>Plug in, press start, and prepare for greatness .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Master the pad, master the game. </t>
+  </si>
+  <si>
+    <t>Patience is a skill every gamer learns.</t>
+  </si>
+  <si>
+    <t>Protection coded to perfection.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A token of past glories and future triumphs. </t>
+  </si>
+  <si>
+    <t>Stronger, faster, better. The next level awaits.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Game over? Not while this stands. </t>
+  </si>
+  <si>
+    <t>Wear it well, for glory is fleeting.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Knowing your opponent is half the battle. </t>
+  </si>
+  <si>
+    <t>Take a breather. The fight resumes soon.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time isn’t an obstacle; it’s a challenge. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The boss fights hard, but the key fights harder. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why play fair when you can play smart? </t>
+  </si>
+  <si>
+    <t>Experience is the ultimate power-up.</t>
+  </si>
+  <si>
+    <t>Movie</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1049,8 +1308,13 @@
       <name val="Segoe UI"/>
       <color rgb="FF000000"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="Segoe UI"/>
+      <color rgb="FF000000"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1092,8 +1356,13 @@
         <fgColor rgb="FFD99594"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB3A2C7"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1136,11 +1405,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
       <alignment wrapText="1"/>
@@ -1188,6 +1472,8 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="7" applyFill="1" borderId="3" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="3" applyFill="1" borderId="3" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="8" applyFill="1" borderId="3" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="9" applyFill="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="9" applyFill="1" borderId="4" applyBorder="1" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2197,13 +2483,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A19" tabSelected="1" zoomScale="70" zoomScaleNormal="70">
-      <selection activeCell="C32" activeCellId="0" sqref="C32"/>
+    <sheetView workbookViewId="0" topLeftCell="A1" tabSelected="1" zoomScale="60" zoomScaleNormal="60">
+      <selection activeCell="B47" activeCellId="0" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="2" max="2" width="17.33203125" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" width="21.5546875" customWidth="1" bestFit="1"/>
     <col min="3" max="3" width="61.109375" customWidth="1" bestFit="1"/>
     <col min="4" max="4" width="70.44140625" customWidth="1" bestFit="1"/>
     <col min="7" max="7" width="80.33203125" customWidth="1" bestFit="1"/>
@@ -2258,6 +2544,9 @@
       <c r="C2" t="s">
         <v>209</v>
       </c>
+      <c r="E2" t="s">
+        <v>367</v>
+      </c>
       <c r="F2" t="s">
         <v>227</v>
       </c>
@@ -2278,6 +2567,9 @@
       <c r="C3" t="s">
         <v>211</v>
       </c>
+      <c r="E3" t="s">
+        <v>368</v>
+      </c>
       <c r="F3" t="s">
         <v>227</v>
       </c>
@@ -2298,6 +2590,9 @@
       <c r="C4" t="s">
         <v>209</v>
       </c>
+      <c r="E4" t="s">
+        <v>367</v>
+      </c>
       <c r="F4" t="s">
         <v>227</v>
       </c>
@@ -2318,6 +2613,9 @@
       <c r="C5" t="s">
         <v>211</v>
       </c>
+      <c r="E5" t="s">
+        <v>369</v>
+      </c>
       <c r="F5" t="s">
         <v>227</v>
       </c>
@@ -2338,6 +2636,9 @@
       <c r="C6" t="s">
         <v>215</v>
       </c>
+      <c r="E6" t="s">
+        <v>370</v>
+      </c>
       <c r="F6" t="s">
         <v>227</v>
       </c>
@@ -2358,6 +2659,9 @@
       <c r="C7" t="s">
         <v>211</v>
       </c>
+      <c r="E7" t="s">
+        <v>368</v>
+      </c>
       <c r="F7" t="s">
         <v>227</v>
       </c>
@@ -2378,6 +2682,9 @@
       <c r="C8" t="s">
         <v>215</v>
       </c>
+      <c r="E8" t="s">
+        <v>370</v>
+      </c>
       <c r="F8" t="s">
         <v>227</v>
       </c>
@@ -2398,11 +2705,17 @@
       <c r="C9" t="s">
         <v>209</v>
       </c>
+      <c r="E9" t="s">
+        <v>368</v>
+      </c>
       <c r="F9" t="s">
         <v>227</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
+      </c>
+      <c r="H9" t="s">
+        <v>352</v>
       </c>
       <c r="L9" s="4" t="s">
         <v>240</v>
@@ -2418,6 +2731,9 @@
       <c r="C10" t="s">
         <v>220</v>
       </c>
+      <c r="E10" t="s">
+        <v>370</v>
+      </c>
       <c r="F10" t="s">
         <v>227</v>
       </c>
@@ -2438,6 +2754,9 @@
       <c r="C11" t="s">
         <v>220</v>
       </c>
+      <c r="E11" t="s">
+        <v>371</v>
+      </c>
       <c r="F11" t="s">
         <v>227</v>
       </c>
@@ -2458,6 +2777,9 @@
       <c r="C12" t="s">
         <v>215</v>
       </c>
+      <c r="E12" t="s">
+        <v>369</v>
+      </c>
       <c r="F12" t="s">
         <v>227</v>
       </c>
@@ -2478,6 +2800,9 @@
       <c r="C13" t="s">
         <v>209</v>
       </c>
+      <c r="E13" t="s">
+        <v>370</v>
+      </c>
       <c r="F13" t="s">
         <v>227</v>
       </c>
@@ -2498,6 +2823,9 @@
       <c r="C14" t="s">
         <v>211</v>
       </c>
+      <c r="E14" t="s">
+        <v>368</v>
+      </c>
       <c r="F14" t="s">
         <v>227</v>
       </c>
@@ -2518,6 +2846,9 @@
       <c r="C15" t="s">
         <v>209</v>
       </c>
+      <c r="E15" t="s">
+        <v>367</v>
+      </c>
       <c r="F15" t="s">
         <v>227</v>
       </c>
@@ -2538,6 +2869,9 @@
       <c r="C16" t="s">
         <v>220</v>
       </c>
+      <c r="E16" t="s">
+        <v>370</v>
+      </c>
       <c r="F16" t="s">
         <v>227</v>
       </c>
@@ -2558,6 +2892,9 @@
       <c r="C17" t="s">
         <v>209</v>
       </c>
+      <c r="E17" t="s">
+        <v>361</v>
+      </c>
       <c r="F17" t="s">
         <v>227</v>
       </c>
@@ -2578,6 +2915,9 @@
       <c r="C18" t="s">
         <v>220</v>
       </c>
+      <c r="E18" t="s">
+        <v>362</v>
+      </c>
       <c r="F18" t="s">
         <v>227</v>
       </c>
@@ -2598,6 +2938,9 @@
       <c r="C19" t="s">
         <v>209</v>
       </c>
+      <c r="E19" t="s">
+        <v>363</v>
+      </c>
       <c r="F19" t="s">
         <v>227</v>
       </c>
@@ -2618,6 +2961,9 @@
       <c r="C20" t="s">
         <v>215</v>
       </c>
+      <c r="E20" t="s">
+        <v>364</v>
+      </c>
       <c r="F20" t="s">
         <v>227</v>
       </c>
@@ -2638,6 +2984,9 @@
       <c r="C21" t="s">
         <v>211</v>
       </c>
+      <c r="E21" t="s">
+        <v>361</v>
+      </c>
       <c r="F21" t="s">
         <v>227</v>
       </c>
@@ -2658,6 +3007,9 @@
       <c r="C22" t="s">
         <v>220</v>
       </c>
+      <c r="E22" t="s">
+        <v>365</v>
+      </c>
       <c r="F22" t="s">
         <v>227</v>
       </c>
@@ -2678,6 +3030,9 @@
       <c r="C23" t="s">
         <v>220</v>
       </c>
+      <c r="E23" t="s">
+        <v>364</v>
+      </c>
       <c r="F23" t="s">
         <v>227</v>
       </c>
@@ -2698,6 +3053,9 @@
       <c r="C24" t="s">
         <v>215</v>
       </c>
+      <c r="E24" t="s">
+        <v>362</v>
+      </c>
       <c r="F24" t="s">
         <v>227</v>
       </c>
@@ -2718,6 +3076,9 @@
       <c r="C25" t="s">
         <v>209</v>
       </c>
+      <c r="E25" t="s">
+        <v>361</v>
+      </c>
       <c r="F25" t="s">
         <v>227</v>
       </c>
@@ -2738,6 +3099,9 @@
       <c r="C26" t="s">
         <v>211</v>
       </c>
+      <c r="E26" t="s">
+        <v>361</v>
+      </c>
       <c r="F26" t="s">
         <v>227</v>
       </c>
@@ -2758,6 +3122,9 @@
       <c r="C27" t="s">
         <v>209</v>
       </c>
+      <c r="E27" t="s">
+        <v>363</v>
+      </c>
       <c r="F27" t="s">
         <v>227</v>
       </c>
@@ -2778,6 +3145,9 @@
       <c r="C28" t="s">
         <v>215</v>
       </c>
+      <c r="E28" t="s">
+        <v>364</v>
+      </c>
       <c r="F28" t="s">
         <v>227</v>
       </c>
@@ -2798,6 +3168,9 @@
       <c r="C29" t="s">
         <v>215</v>
       </c>
+      <c r="E29" t="s">
+        <v>362</v>
+      </c>
       <c r="F29" t="s">
         <v>227</v>
       </c>
@@ -2818,6 +3191,9 @@
       <c r="C30" t="s">
         <v>211</v>
       </c>
+      <c r="E30" t="s">
+        <v>361</v>
+      </c>
       <c r="F30" t="s">
         <v>227</v>
       </c>
@@ -2838,6 +3214,9 @@
       <c r="C31" t="s">
         <v>23</v>
       </c>
+      <c r="E31" t="s">
+        <v>366</v>
+      </c>
       <c r="F31" t="s">
         <v>227</v>
       </c>
@@ -2850,7 +3229,7 @@
     </row>
     <row r="32">
       <c r="A32" s="28" t="s">
-        <v>271</v>
+        <v>318</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>316</v>
@@ -2858,120 +3237,420 @@
       <c r="C32" t="s">
         <v>209</v>
       </c>
+      <c r="E32" t="s">
+        <v>336</v>
+      </c>
       <c r="F32" t="s">
         <v>227</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="28" t="s">
-        <v>271</v>
+        <v>318</v>
+      </c>
+      <c r="B33" t="s">
+        <v>319</v>
+      </c>
+      <c r="C33" t="s">
+        <v>215</v>
+      </c>
+      <c r="E33" t="s">
+        <v>337</v>
       </c>
       <c r="F33" t="s">
         <v>227</v>
+      </c>
+      <c r="G33" t="s">
+        <v>335</v>
+      </c>
+      <c r="L33" s="4" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="28" t="s">
-        <v>271</v>
+        <v>318</v>
+      </c>
+      <c r="B34" t="s">
+        <v>321</v>
+      </c>
+      <c r="C34" t="s">
+        <v>209</v>
+      </c>
+      <c r="E34" t="s">
+        <v>338</v>
       </c>
       <c r="F34" t="s">
         <v>227</v>
+      </c>
+      <c r="G34" t="s">
+        <v>347</v>
+      </c>
+      <c r="H34" t="s">
+        <v>348</v>
+      </c>
+      <c r="L34" s="4" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="28" t="s">
-        <v>271</v>
+        <v>318</v>
+      </c>
+      <c r="B35" t="s">
+        <v>322</v>
+      </c>
+      <c r="C35" t="s">
+        <v>211</v>
+      </c>
+      <c r="E35" t="s">
+        <v>336</v>
       </c>
       <c r="F35" t="s">
         <v>227</v>
+      </c>
+      <c r="G35" t="s">
+        <v>349</v>
+      </c>
+      <c r="L35" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="28" t="s">
-        <v>271</v>
+        <v>318</v>
+      </c>
+      <c r="B36" t="s">
+        <v>323</v>
+      </c>
+      <c r="C36" t="s">
+        <v>215</v>
+      </c>
+      <c r="E36" t="s">
+        <v>337</v>
       </c>
       <c r="F36" t="s">
         <v>227</v>
+      </c>
+      <c r="G36" t="s">
+        <v>350</v>
+      </c>
+      <c r="H36" t="s">
+        <v>351</v>
+      </c>
+      <c r="L36" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="28" t="s">
-        <v>271</v>
+        <v>318</v>
+      </c>
+      <c r="B37" t="s">
+        <v>324</v>
+      </c>
+      <c r="C37" t="s">
+        <v>209</v>
+      </c>
+      <c r="E37" t="s">
+        <v>338</v>
       </c>
       <c r="F37" t="s">
         <v>227</v>
+      </c>
+      <c r="G37" t="s">
+        <v>353</v>
+      </c>
+      <c r="L37" s="4" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="28" t="s">
-        <v>271</v>
+        <v>318</v>
+      </c>
+      <c r="B38" t="s">
+        <v>325</v>
+      </c>
+      <c r="C38" t="s">
+        <v>215</v>
+      </c>
+      <c r="E38" t="s">
+        <v>339</v>
       </c>
       <c r="F38" t="s">
         <v>227</v>
+      </c>
+      <c r="G38" t="s">
+        <v>354</v>
+      </c>
+      <c r="L38" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="28" t="s">
-        <v>271</v>
+        <v>318</v>
+      </c>
+      <c r="B39" t="s">
+        <v>326</v>
+      </c>
+      <c r="C39" t="s">
+        <v>23</v>
+      </c>
+      <c r="E39" t="s">
+        <v>340</v>
       </c>
       <c r="F39" t="s">
         <v>227</v>
+      </c>
+      <c r="G39" t="s">
+        <v>355</v>
+      </c>
+      <c r="L39" s="4" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="28" t="s">
-        <v>271</v>
+        <v>318</v>
+      </c>
+      <c r="B40" t="s">
+        <v>327</v>
+      </c>
+      <c r="C40" t="s">
+        <v>215</v>
+      </c>
+      <c r="E40" t="s">
+        <v>337</v>
       </c>
       <c r="F40" t="s">
         <v>227</v>
+      </c>
+      <c r="G40" t="s">
+        <v>356</v>
+      </c>
+      <c r="L40" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="28" t="s">
-        <v>271</v>
+        <v>318</v>
+      </c>
+      <c r="B41" t="s">
+        <v>328</v>
+      </c>
+      <c r="C41" t="s">
+        <v>211</v>
+      </c>
+      <c r="E41" t="s">
+        <v>336</v>
       </c>
       <c r="F41" t="s">
         <v>227</v>
+      </c>
+      <c r="G41" t="s">
+        <v>357</v>
+      </c>
+      <c r="L41" s="4" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="28" t="s">
-        <v>271</v>
+        <v>318</v>
+      </c>
+      <c r="B42" t="s">
+        <v>329</v>
+      </c>
+      <c r="C42" t="s">
+        <v>215</v>
+      </c>
+      <c r="E42" t="s">
+        <v>337</v>
       </c>
       <c r="F42" t="s">
         <v>227</v>
+      </c>
+      <c r="G42" t="s">
+        <v>358</v>
+      </c>
+      <c r="L42" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="28" t="s">
-        <v>271</v>
+        <v>318</v>
+      </c>
+      <c r="B43" t="s">
+        <v>330</v>
+      </c>
+      <c r="C43" t="s">
+        <v>211</v>
+      </c>
+      <c r="E43" t="s">
+        <v>336</v>
       </c>
       <c r="F43" t="s">
         <v>227</v>
+      </c>
+      <c r="G43" t="s">
+        <v>359</v>
+      </c>
+      <c r="L43" s="4" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="28" t="s">
-        <v>271</v>
+        <v>318</v>
+      </c>
+      <c r="B44" t="s">
+        <v>331</v>
+      </c>
+      <c r="C44" t="s">
+        <v>220</v>
+      </c>
+      <c r="E44" t="s">
+        <v>337</v>
       </c>
       <c r="F44" t="s">
         <v>227</v>
+      </c>
+      <c r="G44" t="s">
+        <v>360</v>
+      </c>
+      <c r="L44" s="4" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="28" t="s">
-        <v>271</v>
+        <v>318</v>
+      </c>
+      <c r="B45" t="s">
+        <v>332</v>
+      </c>
+      <c r="C45" t="s">
+        <v>209</v>
+      </c>
+      <c r="E45" t="s">
+        <v>338</v>
       </c>
       <c r="F45" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="46">
+      <c r="G45" t="s">
+        <v>346</v>
+      </c>
+      <c r="L45" s="4" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" ht="15.75">
       <c r="A46" s="28" t="s">
-        <v>271</v>
+        <v>318</v>
+      </c>
+      <c r="B46" t="s">
+        <v>333</v>
+      </c>
+      <c r="C46" t="s">
+        <v>23</v>
+      </c>
+      <c r="E46" t="s">
+        <v>336</v>
       </c>
       <c r="F46" t="s">
         <v>227</v>
+      </c>
+      <c r="G46" t="s">
+        <v>345</v>
+      </c>
+      <c r="L46" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="30" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="30" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="30" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="30" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="30" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="30" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="30" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="30" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="30" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="30" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="30" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="30" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="30" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="30" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="30" t="s">
+        <v>388</v>
       </c>
     </row>
   </sheetData>

--- a/NetRealmsNanSetup/nanDECK/cards.xlsx
+++ b/NetRealmsNanSetup/nanDECK/cards.xlsx
@@ -990,22 +990,15 @@
     </r>
     <r>
       <rPr>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
         <rFont val="Segoe UI"/>
         <sz val="9"/>
         <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
       </rPr>
       <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
+ </t>
     </r>
   </si>
   <si>
@@ -1077,22 +1070,15 @@
     </r>
     <r>
       <rPr>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
         <rFont val="Segoe UI"/>
         <sz val="9"/>
         <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
       </rPr>
       <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
+ </t>
     </r>
   </si>
   <si>
@@ -1233,13 +1219,49 @@
   </si>
   <si>
     <t>Movie</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Glitch\Relic</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Glitch\Relic\</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Glitch\Relic\FragmentedDisk,jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Glitch\Relic\CorruptedMirror.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Gaming\Units\CrimsonCircuitWyvern.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Glitch\Relic\FragmentedDisk.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\frames\frame_commonr.png</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\frames\frame_uncommonr.png</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\frames\frame_epicr.png</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\frames\frame_rarer.png</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\frames\frame_legendaryr.png</t>
+  </si>
+  <si>
+    <t>GL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1312,6 +1334,13 @@
       <sz val="9"/>
       <name val="Segoe UI"/>
       <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Segoe UI"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="10">
@@ -1424,7 +1453,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
       <alignment wrapText="1"/>
@@ -1474,6 +1503,7 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="8" applyFill="1" borderId="3" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="9" applyFill="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="9" applyFill="1" borderId="4" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="0" applyFill="1" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2381,8 +2411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView workbookViewId="0" topLeftCell="B1">
+      <selection activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2448,7 +2478,7 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>197</v>
+        <v>393</v>
       </c>
       <c r="E2">
         <v>4</v>
@@ -2483,17 +2513,17 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1" tabSelected="1" zoomScale="60" zoomScaleNormal="60">
-      <selection activeCell="B47" activeCellId="0" sqref="B47"/>
+    <sheetView workbookViewId="0" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" tabSelected="1">
+      <selection activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="2" max="2" width="21.5546875" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" width="61.109375" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" width="70.44140625" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" width="80.33203125" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" width="63.109375" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" width="65.140625" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" width="73.42578125" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" width="80.33203125" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" width="63.109375" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2513,28 +2543,31 @@
         <v>48</v>
       </c>
       <c r="F1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" t="s">
         <v>32</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>43</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>44</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>45</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" ht="19.5">
       <c r="A2" s="26" t="s">
         <v>266</v>
       </c>
@@ -2542,18 +2575,24 @@
         <v>208</v>
       </c>
       <c r="C2" t="s">
-        <v>209</v>
-      </c>
-      <c r="E2" t="s">
-        <v>367</v>
+        <v>395</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>394</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>227</v>
+        <v>400</v>
       </c>
       <c r="G2" t="s">
+        <v>227</v>
+      </c>
+      <c r="H2" t="s">
         <v>229</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>232</v>
       </c>
     </row>
@@ -2565,18 +2604,21 @@
         <v>210</v>
       </c>
       <c r="C3" t="s">
-        <v>211</v>
+        <v>396</v>
+      </c>
+      <c r="D3" t="s">
+        <v>392</v>
       </c>
       <c r="E3" t="s">
         <v>368</v>
       </c>
-      <c r="F3" t="s">
-        <v>227</v>
-      </c>
       <c r="G3" t="s">
+        <v>227</v>
+      </c>
+      <c r="H3" t="s">
         <v>230</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>233</v>
       </c>
     </row>
@@ -2588,18 +2630,18 @@
         <v>212</v>
       </c>
       <c r="C4" t="s">
-        <v>209</v>
+        <v>395</v>
       </c>
       <c r="E4" t="s">
         <v>367</v>
       </c>
-      <c r="F4" t="s">
-        <v>227</v>
-      </c>
       <c r="G4" t="s">
+        <v>227</v>
+      </c>
+      <c r="H4" t="s">
         <v>231</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="M4" s="4" t="s">
         <v>234</v>
       </c>
     </row>
@@ -2611,18 +2653,18 @@
         <v>213</v>
       </c>
       <c r="C5" t="s">
-        <v>211</v>
+        <v>396</v>
       </c>
       <c r="E5" t="s">
         <v>369</v>
       </c>
-      <c r="F5" t="s">
-        <v>227</v>
-      </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" t="s">
+        <v>227</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="M5" s="4" t="s">
         <v>235</v>
       </c>
     </row>
@@ -2634,18 +2676,18 @@
         <v>214</v>
       </c>
       <c r="C6" t="s">
-        <v>215</v>
+        <v>398</v>
       </c>
       <c r="E6" t="s">
         <v>370</v>
       </c>
-      <c r="F6" t="s">
-        <v>227</v>
-      </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" t="s">
+        <v>227</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="M6" s="4" t="s">
         <v>237</v>
       </c>
     </row>
@@ -2657,18 +2699,18 @@
         <v>216</v>
       </c>
       <c r="C7" t="s">
-        <v>211</v>
+        <v>396</v>
       </c>
       <c r="E7" t="s">
         <v>368</v>
       </c>
-      <c r="F7" t="s">
-        <v>227</v>
-      </c>
       <c r="G7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H7" t="s">
         <v>251</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="M7" s="4" t="s">
         <v>238</v>
       </c>
     </row>
@@ -2680,18 +2722,18 @@
         <v>217</v>
       </c>
       <c r="C8" t="s">
-        <v>215</v>
+        <v>398</v>
       </c>
       <c r="E8" t="s">
         <v>370</v>
       </c>
-      <c r="F8" t="s">
-        <v>227</v>
-      </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" t="s">
+        <v>227</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="M8" s="4" t="s">
         <v>239</v>
       </c>
     </row>
@@ -2703,21 +2745,21 @@
         <v>218</v>
       </c>
       <c r="C9" t="s">
-        <v>209</v>
+        <v>395</v>
       </c>
       <c r="E9" t="s">
         <v>368</v>
       </c>
-      <c r="F9" t="s">
-        <v>227</v>
-      </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" t="s">
+        <v>227</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>352</v>
       </c>
-      <c r="L9" s="4" t="s">
+      <c r="M9" s="4" t="s">
         <v>240</v>
       </c>
     </row>
@@ -2729,18 +2771,18 @@
         <v>219</v>
       </c>
       <c r="C10" t="s">
-        <v>220</v>
+        <v>397</v>
       </c>
       <c r="E10" t="s">
         <v>370</v>
       </c>
-      <c r="F10" t="s">
-        <v>227</v>
-      </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" t="s">
+        <v>227</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="L10" s="4" t="s">
+      <c r="M10" s="4" t="s">
         <v>241</v>
       </c>
     </row>
@@ -2752,18 +2794,18 @@
         <v>221</v>
       </c>
       <c r="C11" t="s">
-        <v>220</v>
+        <v>397</v>
       </c>
       <c r="E11" t="s">
         <v>371</v>
       </c>
-      <c r="F11" t="s">
-        <v>227</v>
-      </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" t="s">
+        <v>227</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="L11" s="4" t="s">
+      <c r="M11" s="4" t="s">
         <v>243</v>
       </c>
     </row>
@@ -2775,18 +2817,18 @@
         <v>222</v>
       </c>
       <c r="C12" t="s">
-        <v>215</v>
+        <v>398</v>
       </c>
       <c r="E12" t="s">
         <v>369</v>
       </c>
-      <c r="F12" t="s">
-        <v>227</v>
-      </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" t="s">
+        <v>227</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="L12" s="4" t="s">
+      <c r="M12" s="4" t="s">
         <v>244</v>
       </c>
     </row>
@@ -2798,18 +2840,18 @@
         <v>223</v>
       </c>
       <c r="C13" t="s">
-        <v>209</v>
+        <v>395</v>
       </c>
       <c r="E13" t="s">
         <v>370</v>
       </c>
-      <c r="F13" t="s">
-        <v>227</v>
-      </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" t="s">
+        <v>227</v>
+      </c>
+      <c r="H13" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="L13" s="4" t="s">
+      <c r="M13" s="4" t="s">
         <v>245</v>
       </c>
     </row>
@@ -2821,18 +2863,18 @@
         <v>224</v>
       </c>
       <c r="C14" t="s">
-        <v>211</v>
+        <v>396</v>
       </c>
       <c r="E14" t="s">
         <v>368</v>
       </c>
-      <c r="F14" t="s">
-        <v>227</v>
-      </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" t="s">
+        <v>227</v>
+      </c>
+      <c r="H14" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="L14" s="4" t="s">
+      <c r="M14" s="4" t="s">
         <v>246</v>
       </c>
     </row>
@@ -2844,18 +2886,18 @@
         <v>225</v>
       </c>
       <c r="C15" t="s">
-        <v>209</v>
+        <v>395</v>
       </c>
       <c r="E15" t="s">
         <v>367</v>
       </c>
-      <c r="F15" t="s">
-        <v>227</v>
-      </c>
       <c r="G15" t="s">
+        <v>227</v>
+      </c>
+      <c r="H15" t="s">
         <v>261</v>
       </c>
-      <c r="L15" s="4" t="s">
+      <c r="M15" s="4" t="s">
         <v>247</v>
       </c>
     </row>
@@ -2867,18 +2909,18 @@
         <v>226</v>
       </c>
       <c r="C16" t="s">
-        <v>220</v>
+        <v>397</v>
       </c>
       <c r="E16" t="s">
         <v>370</v>
       </c>
-      <c r="F16" t="s">
-        <v>227</v>
-      </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" t="s">
+        <v>227</v>
+      </c>
+      <c r="H16" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="L16" s="4" t="s">
+      <c r="M16" s="4" t="s">
         <v>248</v>
       </c>
     </row>
@@ -2890,18 +2932,18 @@
         <v>267</v>
       </c>
       <c r="C17" t="s">
-        <v>209</v>
+        <v>395</v>
       </c>
       <c r="E17" t="s">
         <v>361</v>
       </c>
-      <c r="F17" t="s">
-        <v>227</v>
-      </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" t="s">
+        <v>227</v>
+      </c>
+      <c r="H17" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="L17" s="4" t="s">
+      <c r="M17" s="4" t="s">
         <v>270</v>
       </c>
     </row>
@@ -2913,18 +2955,18 @@
         <v>272</v>
       </c>
       <c r="C18" t="s">
-        <v>220</v>
+        <v>397</v>
       </c>
       <c r="E18" t="s">
         <v>362</v>
       </c>
-      <c r="F18" t="s">
-        <v>227</v>
-      </c>
-      <c r="G18" s="4" t="s">
+      <c r="G18" t="s">
+        <v>227</v>
+      </c>
+      <c r="H18" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="L18" s="4" t="s">
+      <c r="M18" s="4" t="s">
         <v>274</v>
       </c>
     </row>
@@ -2936,18 +2978,18 @@
         <v>275</v>
       </c>
       <c r="C19" t="s">
-        <v>209</v>
+        <v>395</v>
       </c>
       <c r="E19" t="s">
         <v>363</v>
       </c>
-      <c r="F19" t="s">
-        <v>227</v>
-      </c>
-      <c r="G19" s="4" t="s">
+      <c r="G19" t="s">
+        <v>227</v>
+      </c>
+      <c r="H19" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="L19" s="4" t="s">
+      <c r="M19" s="4" t="s">
         <v>277</v>
       </c>
     </row>
@@ -2959,18 +3001,18 @@
         <v>315</v>
       </c>
       <c r="C20" t="s">
-        <v>215</v>
+        <v>398</v>
       </c>
       <c r="E20" t="s">
         <v>364</v>
       </c>
-      <c r="F20" t="s">
-        <v>227</v>
-      </c>
-      <c r="G20" s="4" t="s">
+      <c r="G20" t="s">
+        <v>227</v>
+      </c>
+      <c r="H20" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="L20" s="4" t="s">
+      <c r="M20" s="4" t="s">
         <v>278</v>
       </c>
     </row>
@@ -2982,18 +3024,18 @@
         <v>314</v>
       </c>
       <c r="C21" t="s">
-        <v>211</v>
+        <v>396</v>
       </c>
       <c r="E21" t="s">
         <v>361</v>
       </c>
-      <c r="F21" t="s">
-        <v>227</v>
-      </c>
-      <c r="G21" s="4" t="s">
+      <c r="G21" t="s">
+        <v>227</v>
+      </c>
+      <c r="H21" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="L21" s="4" t="s">
+      <c r="M21" s="4" t="s">
         <v>279</v>
       </c>
     </row>
@@ -3005,18 +3047,18 @@
         <v>313</v>
       </c>
       <c r="C22" t="s">
-        <v>220</v>
+        <v>397</v>
       </c>
       <c r="E22" t="s">
         <v>365</v>
       </c>
-      <c r="F22" t="s">
-        <v>227</v>
-      </c>
-      <c r="G22" s="4" t="s">
+      <c r="G22" t="s">
+        <v>227</v>
+      </c>
+      <c r="H22" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="L22" s="4" t="s">
+      <c r="M22" s="4" t="s">
         <v>280</v>
       </c>
     </row>
@@ -3028,18 +3070,18 @@
         <v>312</v>
       </c>
       <c r="C23" t="s">
-        <v>220</v>
+        <v>397</v>
       </c>
       <c r="E23" t="s">
         <v>364</v>
       </c>
-      <c r="F23" t="s">
-        <v>227</v>
-      </c>
-      <c r="G23" s="4" t="s">
+      <c r="G23" t="s">
+        <v>227</v>
+      </c>
+      <c r="H23" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="L23" s="4" t="s">
+      <c r="M23" s="4" t="s">
         <v>281</v>
       </c>
     </row>
@@ -3051,18 +3093,18 @@
         <v>311</v>
       </c>
       <c r="C24" t="s">
-        <v>215</v>
+        <v>398</v>
       </c>
       <c r="E24" t="s">
         <v>362</v>
       </c>
-      <c r="F24" t="s">
-        <v>227</v>
-      </c>
-      <c r="G24" s="4" t="s">
+      <c r="G24" t="s">
+        <v>227</v>
+      </c>
+      <c r="H24" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="L24" s="4" t="s">
+      <c r="M24" s="4" t="s">
         <v>282</v>
       </c>
     </row>
@@ -3074,18 +3116,18 @@
         <v>310</v>
       </c>
       <c r="C25" t="s">
-        <v>209</v>
+        <v>395</v>
       </c>
       <c r="E25" t="s">
         <v>361</v>
       </c>
-      <c r="F25" t="s">
-        <v>227</v>
-      </c>
-      <c r="G25" s="4" t="s">
+      <c r="G25" t="s">
+        <v>227</v>
+      </c>
+      <c r="H25" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="L25" s="4" t="s">
+      <c r="M25" s="4" t="s">
         <v>283</v>
       </c>
     </row>
@@ -3097,18 +3139,18 @@
         <v>309</v>
       </c>
       <c r="C26" t="s">
-        <v>211</v>
+        <v>396</v>
       </c>
       <c r="E26" t="s">
         <v>361</v>
       </c>
-      <c r="F26" t="s">
-        <v>227</v>
-      </c>
-      <c r="G26" s="4" t="s">
+      <c r="G26" t="s">
+        <v>227</v>
+      </c>
+      <c r="H26" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="L26" s="4" t="s">
+      <c r="M26" s="4" t="s">
         <v>284</v>
       </c>
     </row>
@@ -3120,18 +3162,18 @@
         <v>308</v>
       </c>
       <c r="C27" t="s">
-        <v>209</v>
+        <v>395</v>
       </c>
       <c r="E27" t="s">
         <v>363</v>
       </c>
-      <c r="F27" t="s">
-        <v>227</v>
-      </c>
-      <c r="G27" s="4" t="s">
+      <c r="G27" t="s">
+        <v>227</v>
+      </c>
+      <c r="H27" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="L27" s="4" t="s">
+      <c r="M27" s="4" t="s">
         <v>285</v>
       </c>
     </row>
@@ -3143,18 +3185,18 @@
         <v>307</v>
       </c>
       <c r="C28" t="s">
-        <v>215</v>
+        <v>398</v>
       </c>
       <c r="E28" t="s">
         <v>364</v>
       </c>
-      <c r="F28" t="s">
-        <v>227</v>
-      </c>
-      <c r="G28" s="4" t="s">
+      <c r="G28" t="s">
+        <v>227</v>
+      </c>
+      <c r="H28" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="L28" s="4" t="s">
+      <c r="M28" s="4" t="s">
         <v>286</v>
       </c>
     </row>
@@ -3166,18 +3208,18 @@
         <v>305</v>
       </c>
       <c r="C29" t="s">
-        <v>215</v>
+        <v>398</v>
       </c>
       <c r="E29" t="s">
         <v>362</v>
       </c>
-      <c r="F29" t="s">
-        <v>227</v>
-      </c>
-      <c r="G29" s="4" t="s">
+      <c r="G29" t="s">
+        <v>227</v>
+      </c>
+      <c r="H29" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="L29" s="4" t="s">
+      <c r="M29" s="4" t="s">
         <v>287</v>
       </c>
     </row>
@@ -3189,18 +3231,18 @@
         <v>304</v>
       </c>
       <c r="C30" t="s">
-        <v>211</v>
+        <v>396</v>
       </c>
       <c r="E30" t="s">
         <v>361</v>
       </c>
-      <c r="F30" t="s">
-        <v>227</v>
-      </c>
-      <c r="G30" s="4" t="s">
+      <c r="G30" t="s">
+        <v>227</v>
+      </c>
+      <c r="H30" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="L30" s="4" t="s">
+      <c r="M30" s="4" t="s">
         <v>288</v>
       </c>
     </row>
@@ -3212,18 +3254,18 @@
         <v>303</v>
       </c>
       <c r="C31" t="s">
-        <v>23</v>
+        <v>399</v>
       </c>
       <c r="E31" t="s">
         <v>366</v>
       </c>
-      <c r="F31" t="s">
-        <v>227</v>
-      </c>
-      <c r="G31" s="4" t="s">
+      <c r="G31" t="s">
+        <v>227</v>
+      </c>
+      <c r="H31" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="L31" s="4" t="s">
+      <c r="M31" s="4" t="s">
         <v>289</v>
       </c>
     </row>
@@ -3235,18 +3277,18 @@
         <v>316</v>
       </c>
       <c r="C32" t="s">
-        <v>209</v>
+        <v>395</v>
       </c>
       <c r="E32" t="s">
         <v>336</v>
       </c>
-      <c r="F32" t="s">
-        <v>227</v>
-      </c>
-      <c r="G32" s="4" t="s">
+      <c r="G32" t="s">
+        <v>227</v>
+      </c>
+      <c r="H32" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="L32" s="4" t="s">
+      <c r="M32" s="4" t="s">
         <v>372</v>
       </c>
     </row>
@@ -3258,18 +3300,18 @@
         <v>319</v>
       </c>
       <c r="C33" t="s">
-        <v>215</v>
+        <v>398</v>
       </c>
       <c r="E33" t="s">
         <v>337</v>
       </c>
-      <c r="F33" t="s">
-        <v>227</v>
-      </c>
       <c r="G33" t="s">
+        <v>227</v>
+      </c>
+      <c r="H33" t="s">
         <v>335</v>
       </c>
-      <c r="L33" s="4" t="s">
+      <c r="M33" s="4" t="s">
         <v>374</v>
       </c>
     </row>
@@ -3281,21 +3323,21 @@
         <v>321</v>
       </c>
       <c r="C34" t="s">
-        <v>209</v>
+        <v>395</v>
       </c>
       <c r="E34" t="s">
         <v>338</v>
       </c>
-      <c r="F34" t="s">
-        <v>227</v>
-      </c>
       <c r="G34" t="s">
+        <v>227</v>
+      </c>
+      <c r="H34" t="s">
         <v>347</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>348</v>
       </c>
-      <c r="L34" s="4" t="s">
+      <c r="M34" s="4" t="s">
         <v>375</v>
       </c>
     </row>
@@ -3307,18 +3349,18 @@
         <v>322</v>
       </c>
       <c r="C35" t="s">
-        <v>211</v>
+        <v>396</v>
       </c>
       <c r="E35" t="s">
         <v>336</v>
       </c>
-      <c r="F35" t="s">
-        <v>227</v>
-      </c>
       <c r="G35" t="s">
+        <v>227</v>
+      </c>
+      <c r="H35" t="s">
         <v>349</v>
       </c>
-      <c r="L35" t="s">
+      <c r="M35" t="s">
         <v>376</v>
       </c>
     </row>
@@ -3330,21 +3372,21 @@
         <v>323</v>
       </c>
       <c r="C36" t="s">
-        <v>215</v>
+        <v>398</v>
       </c>
       <c r="E36" t="s">
         <v>337</v>
       </c>
-      <c r="F36" t="s">
-        <v>227</v>
-      </c>
       <c r="G36" t="s">
+        <v>227</v>
+      </c>
+      <c r="H36" t="s">
         <v>350</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>351</v>
       </c>
-      <c r="L36" t="s">
+      <c r="M36" t="s">
         <v>377</v>
       </c>
     </row>
@@ -3356,18 +3398,18 @@
         <v>324</v>
       </c>
       <c r="C37" t="s">
-        <v>209</v>
+        <v>395</v>
       </c>
       <c r="E37" t="s">
         <v>338</v>
       </c>
-      <c r="F37" t="s">
-        <v>227</v>
-      </c>
       <c r="G37" t="s">
+        <v>227</v>
+      </c>
+      <c r="H37" t="s">
         <v>353</v>
       </c>
-      <c r="L37" s="4" t="s">
+      <c r="M37" s="4" t="s">
         <v>378</v>
       </c>
     </row>
@@ -3379,18 +3421,18 @@
         <v>325</v>
       </c>
       <c r="C38" t="s">
-        <v>215</v>
+        <v>398</v>
       </c>
       <c r="E38" t="s">
         <v>339</v>
       </c>
-      <c r="F38" t="s">
-        <v>227</v>
-      </c>
       <c r="G38" t="s">
+        <v>227</v>
+      </c>
+      <c r="H38" t="s">
         <v>354</v>
       </c>
-      <c r="L38" t="s">
+      <c r="M38" t="s">
         <v>379</v>
       </c>
     </row>
@@ -3402,18 +3444,18 @@
         <v>326</v>
       </c>
       <c r="C39" t="s">
-        <v>23</v>
+        <v>399</v>
       </c>
       <c r="E39" t="s">
         <v>340</v>
       </c>
-      <c r="F39" t="s">
-        <v>227</v>
-      </c>
       <c r="G39" t="s">
+        <v>227</v>
+      </c>
+      <c r="H39" t="s">
         <v>355</v>
       </c>
-      <c r="L39" s="4" t="s">
+      <c r="M39" s="4" t="s">
         <v>380</v>
       </c>
     </row>
@@ -3425,18 +3467,18 @@
         <v>327</v>
       </c>
       <c r="C40" t="s">
-        <v>215</v>
+        <v>398</v>
       </c>
       <c r="E40" t="s">
         <v>337</v>
       </c>
-      <c r="F40" t="s">
-        <v>227</v>
-      </c>
       <c r="G40" t="s">
+        <v>227</v>
+      </c>
+      <c r="H40" t="s">
         <v>356</v>
       </c>
-      <c r="L40" t="s">
+      <c r="M40" t="s">
         <v>381</v>
       </c>
     </row>
@@ -3448,18 +3490,18 @@
         <v>328</v>
       </c>
       <c r="C41" t="s">
-        <v>211</v>
+        <v>396</v>
       </c>
       <c r="E41" t="s">
         <v>336</v>
       </c>
-      <c r="F41" t="s">
-        <v>227</v>
-      </c>
       <c r="G41" t="s">
+        <v>227</v>
+      </c>
+      <c r="H41" t="s">
         <v>357</v>
       </c>
-      <c r="L41" s="4" t="s">
+      <c r="M41" s="4" t="s">
         <v>382</v>
       </c>
     </row>
@@ -3471,18 +3513,18 @@
         <v>329</v>
       </c>
       <c r="C42" t="s">
-        <v>215</v>
+        <v>398</v>
       </c>
       <c r="E42" t="s">
         <v>337</v>
       </c>
-      <c r="F42" t="s">
-        <v>227</v>
-      </c>
       <c r="G42" t="s">
+        <v>227</v>
+      </c>
+      <c r="H42" t="s">
         <v>358</v>
       </c>
-      <c r="L42" t="s">
+      <c r="M42" t="s">
         <v>383</v>
       </c>
     </row>
@@ -3494,18 +3536,18 @@
         <v>330</v>
       </c>
       <c r="C43" t="s">
-        <v>211</v>
+        <v>396</v>
       </c>
       <c r="E43" t="s">
         <v>336</v>
       </c>
-      <c r="F43" t="s">
-        <v>227</v>
-      </c>
       <c r="G43" t="s">
+        <v>227</v>
+      </c>
+      <c r="H43" t="s">
         <v>359</v>
       </c>
-      <c r="L43" s="4" t="s">
+      <c r="M43" s="4" t="s">
         <v>384</v>
       </c>
     </row>
@@ -3517,18 +3559,18 @@
         <v>331</v>
       </c>
       <c r="C44" t="s">
-        <v>220</v>
+        <v>397</v>
       </c>
       <c r="E44" t="s">
         <v>337</v>
       </c>
-      <c r="F44" t="s">
-        <v>227</v>
-      </c>
       <c r="G44" t="s">
+        <v>227</v>
+      </c>
+      <c r="H44" t="s">
         <v>360</v>
       </c>
-      <c r="L44" s="4" t="s">
+      <c r="M44" s="4" t="s">
         <v>385</v>
       </c>
     </row>
@@ -3540,18 +3582,18 @@
         <v>332</v>
       </c>
       <c r="C45" t="s">
-        <v>209</v>
+        <v>395</v>
       </c>
       <c r="E45" t="s">
         <v>338</v>
       </c>
-      <c r="F45" t="s">
-        <v>227</v>
-      </c>
       <c r="G45" t="s">
+        <v>227</v>
+      </c>
+      <c r="H45" t="s">
         <v>346</v>
       </c>
-      <c r="L45" s="4" t="s">
+      <c r="M45" s="4" t="s">
         <v>386</v>
       </c>
     </row>
@@ -3563,18 +3605,18 @@
         <v>333</v>
       </c>
       <c r="C46" t="s">
-        <v>23</v>
+        <v>399</v>
       </c>
       <c r="E46" t="s">
         <v>336</v>
       </c>
-      <c r="F46" t="s">
-        <v>227</v>
-      </c>
       <c r="G46" t="s">
+        <v>227</v>
+      </c>
+      <c r="H46" t="s">
         <v>345</v>
       </c>
-      <c r="L46" t="s">
+      <c r="M46" t="s">
         <v>387</v>
       </c>
     </row>

--- a/NetRealmsNanSetup/nanDECK/cards.xlsx
+++ b/NetRealmsNanSetup/nanDECK/cards.xlsx
@@ -1256,12 +1256,561 @@
   <si>
     <t>GL</t>
   </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Glitch\Relic\Holo-Key.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Glitch\Relic\DefectiveProcessor</t>
+  </si>
+  <si>
+    <t>Defective Processor</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Glitch\Relic\DefectiveProcessor.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Glitch\Relic\GlitchedBeacon.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Glitch\Relic\StaticCore.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Glitch\Relic\BrokenModulator.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Glitch\Relic\CrashHelm.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Glitch\Relic\DataWorm.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Glitch\Relic\ErrorGenerator.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Glitch\Relic\LoopDisk.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Glitch\Relic\MisalignedNode.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Glitch\Relic\CorruptingLens</t>
+  </si>
+  <si>
+    <t>Corrupting Lens</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Glitch\Relic\CorruptingLens.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Glitch\Relic\PatchworkCircuit.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Glitch\Relic\DigitalRelic.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Code\Relic\</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Code\Relic\QuantumNexus.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Code\Relic\EncryptedDrive.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Code\Relic\SyntaxCore.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Code\Relic\DebuggingLens.jpeg</t>
+  </si>
+  <si>
+    <t>Debugging Lens</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Code\Relic\CodeCompiler</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Code\Relic\MemoryFragment.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Code\Relic\CodeCompiler.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Code\Relic\CodeweaversLoom.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Code\Relic\InfiniteAlgorithm.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Code\Relic\ServerAnchor.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Code\Relic\FirewallOrb.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Code\Relic\LogicGatePendant.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Code\Relic\ProcessorCore.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Code\Relic\DataVault.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Code\Relic\RecursiveFrame.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Code\Relic\AlgorithmicPrism.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Gaming\Relic\</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Gaming\Relic\PixelatedTrophy.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Gaming\Relic\XPOrb.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Gaming\Relic\PlayersConsole.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Gaming\Relic\GamepadofMastery.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Gaming\Relic\LoadingScreenFragment.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Gaming\Relic\PixelShield.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Gaming\Relic\AchievementBadge.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Gaming\Relic\LevelUpCore.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Gaming\Relic\RespawnAnchor.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Gaming\Relic\VictoryCrown.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Gaming\Relic\LeaderboardScroll.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Gaming\Relic\SavePointBeacon.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Gaming\Relic\SpeedrunStopwatch.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Gaming\Relic\BossKey.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Gaming\Relic\CheatCodeChip.jpeg</t>
+  </si>
+  <si>
+    <t>Director's Clapperboard</t>
+  </si>
+  <si>
+    <t>Film Reel Chronometer</t>
+  </si>
+  <si>
+    <t>Stunt Harness</t>
+  </si>
+  <si>
+    <t>Holo-Projector</t>
+  </si>
+  <si>
+    <t>Award Statue</t>
+  </si>
+  <si>
+    <t>Editing Table</t>
+  </si>
+  <si>
+    <t>Horror Prop Knife</t>
+  </si>
+  <si>
+    <t>Eerie Film Reel</t>
+  </si>
+  <si>
+    <t>Cursed Theater Mask</t>
+  </si>
+  <si>
+    <t>Sci-Fi Director's Chair</t>
+  </si>
+  <si>
+    <t>Final Cut Blade</t>
+  </si>
+  <si>
+    <t>Premiere Spotlight</t>
+  </si>
+  <si>
+    <t>Action Scene Rig</t>
+  </si>
+  <si>
+    <t>Virtual Script Binder</t>
+  </si>
+  <si>
+    <t>Time-Lapse Camera</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Movies\Relic\XPOrb.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Movies\Relic\</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Movies\Relic\DirectorsClapperboard.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Movies\Relic\FillReelChronometer.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Movies\Relic\StuntHarness.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Movies\Relic\Holo-Projector.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Movies\Relic\AwardStatue.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Movies\Relic\EditingTable.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Movies\Relic\HorrorPropKnife.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Movies\Relic\EerieFilmReel.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Movies\Relic\CursedTheaterMask.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Movies\Relic\Sci-FiDirectorsChair.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Movies\Relic\FinalCutBlade.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Movies\Relic\PremiereSpotlight.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Movies\Relic\ActionSceneRig.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Movies\Relic\VirtualScriptBinder.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Movies\Relic\TimeLapseCamera.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Movies\Relic\SciFiDirectorsChair.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Movies\Relic\HoloProjector.jpeg</t>
+  </si>
+  <si>
+    <t>MO</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tap: Scry 2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tap: Skip your opponent’s next draw step. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equipped Unit gains +1/+1 and Flying. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tap: Create a 1/1 colorless "Hologram" Unit token. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tap: Gain 2 Energy. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tap: Return target card from your archive to your hand. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tap: Target Unit gains Deathtouch until end of turn. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tap: Target Unit gains Delete until end of turn. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">At the beginning of your upload, mill two cards, then return one Unit from your archive to the Grid. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equipped Unit gains +2/+0 and Fear. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tap: Target Unit gains +1/+0 and Haste until end of turn. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tap: Destroy target Unit with Integrity 2 or less. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tap: Target Unit becomes unblockable until end of turn. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equipped Unit gains +3/+0 and Trample. </t>
+  </si>
+  <si>
+    <t>Tap: Take an extra upload after this one.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capture time, and bend it to your will. </t>
+  </si>
+  <si>
+    <t>Every great tale begins with a single line.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Take one, take them all. </t>
+  </si>
+  <si>
+    <t>Every hero deserves their moment.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cut away the noise, and find the truth. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Every great story needs a visionary. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drama, horror, tragedy—choose your role. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The past haunts every frame. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Every scream tells a story. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cut, rearrange, and perfect the narrative. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recognition is the ultimate reward. </t>
+  </si>
+  <si>
+    <t>A world brought to life, one pixel at a time.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Even in chaos, the show must go on. </t>
+  </si>
+  <si>
+    <t>Rewind the clock, rewrite the story.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lights, camera, strategy. </t>
+  </si>
+  <si>
+    <t>Creep</t>
+  </si>
+  <si>
+    <t>Echo Chamber Node</t>
+  </si>
+  <si>
+    <t>Profile Scraper</t>
+  </si>
+  <si>
+    <t>Digital Doppelganger</t>
+  </si>
+  <si>
+    <t>Invisible Handshake</t>
+  </si>
+  <si>
+    <t>Botnet Relay</t>
+  </si>
+  <si>
+    <t>Phantom Ping</t>
+  </si>
+  <si>
+    <t>Mirror Stalker Lens</t>
+  </si>
+  <si>
+    <t>Thread Tracker</t>
+  </si>
+  <si>
+    <t>Proxy Cloak</t>
+  </si>
+  <si>
+    <t>Keylogger Disk</t>
+  </si>
+  <si>
+    <t>Phishing Probe</t>
+  </si>
+  <si>
+    <t>Ghost Ping Terminal</t>
+  </si>
+  <si>
+    <t>Shadow Cache</t>
+  </si>
+  <si>
+    <t>Social Wormhole</t>
+  </si>
+  <si>
+    <t>Obsessive Tracker Node</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Creep\Relic\</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Creep\Relic\EchoChamberNode.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Creep\Relic\ProfileScraper.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Creep\Relic\DigitalDoppelganger.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Creep\RelicInvisibleHandshake.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Creep\Relic\BotnetRelay.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Creep\RelicPhantomPing.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Creep\Relic\MirrorStalkerLens.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Creep\Relic\ThreadTracker.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Creep\Relic\ProxyCloak.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Creep\Relic\KeyloggerDisk.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Creep\Relic\PhishingProbe.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Creep\Relic\GhostPingTerminal.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Creep\Relic\ShadowCache.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Creep\Relic\SocialWormhole.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Creep\Relic\ObsessiveTrackerNode.jpeg</t>
+  </si>
+  <si>
+    <t>CR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whenever an opponent draws a card, they lose 1 Integrity. </t>
+  </si>
+  <si>
+    <t>Tap: Exchange control of two target Units until end of turn.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tap: Add GG. Spend this Energy only to upload Units. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tap: Add CR CR. Spend this Energy only to upload Units. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">At the beginning of each opponent’s upload, that player mills 2 cards. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tap: Each opponent discards a card, then loses 1 Integrity. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tap: Target player reveals their hand. </t>
+  </si>
+  <si>
+    <t>Equipped Unit gains +0/+2 and can’t be targeted by Programs or abilities your opponents control.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tap: Draw a card if you’ve lost Integrity this turn. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tap: Target Unit gains -1/-1 until end of turn. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tap: Target player loses 1 Energy. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tap: Target Unit taps and does not untap next turn. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Units your opponents control enter the Grid tapped. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tap: Target Unit loses +1/+1 until end of turn. </t>
+  </si>
+  <si>
+    <t>Tap: Create a token that's a copy of target Unit until end of turn.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tap: Look at the top three cards of an opponent's archive. You may exile one. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tap: Target player mills 1 card. </t>
+  </si>
+  <si>
+    <t>Every whisper you hear is your own… or so it seems.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Every detail of your life, neatly cataloged. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imitation is the sincerest form of possession. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You never saw it coming—just the chill it left behind. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Once you’re in the net, you’ll never move freely again. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A message you’ll regret answering, but never forget. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">They’re watching, but who are they? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Follow the thread, but don’t expect to find the end. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can’t track what you can’t see. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Every key you press leaves a trace. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">One wrong click, and it’s too late. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A signal you’ll never stop hearing. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deep within the cache lies the power to deceive. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Connections are fleeting, but the damage lingers. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">It knows you better than you know yourself. </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1342,8 +1891,48 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <name val="Segoe UI"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Segoe UI"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Segoe UI"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <color theme="1"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Segoe UI"/>
+      <color rgb="FF000000"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1390,8 +1979,13 @@
         <fgColor rgb="FFB3A2C7"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6D9F1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1449,11 +2043,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
       <alignment wrapText="1"/>
@@ -1504,6 +2113,20 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="9" applyFill="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="9" applyFill="1" borderId="4" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="0" applyFill="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="0" applyFill="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="0" applyFill="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="0" applyFill="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="0" applyFill="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="7" applyFill="1" borderId="5" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="0" applyFill="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="3" applyFill="1" borderId="5" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="8" applyFill="1" borderId="5" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="9" applyFill="1" borderId="5" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="10" applyFill="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="10" applyFill="1" borderId="5" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="10" applyFill="1" borderId="5" applyBorder="1" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2513,20 +3136,20 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" tabSelected="1">
-      <selection activeCell="E2" activeCellId="0" sqref="E2"/>
+    <sheetView workbookViewId="0" topLeftCell="A1" zoomScale="80" zoomScaleNormal="80" tabSelected="1">
+      <selection activeCell="I57" activeCellId="0" sqref="I57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" customHeight="false"/>
   <cols>
-    <col min="2" max="2" width="21.5546875" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" width="65.140625" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" width="73.42578125" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" width="80.33203125" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" width="63.109375" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" width="21.5546875" customWidth="1" bestFit="1" style="0"/>
+    <col min="3" max="3" width="64.88671875" customWidth="1" style="0"/>
+    <col min="4" max="4" width="82.33203125" customWidth="1" style="0"/>
+    <col min="9" max="9" width="86" customWidth="1" style="0"/>
+    <col min="14" max="14" width="63.109375" customWidth="1" bestFit="1" style="0"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" customFormat="1" s="0">
       <c r="A1" t="s">
         <v>264</v>
       </c>
@@ -2546,28 +3169,31 @@
         <v>49</v>
       </c>
       <c r="G1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" t="s">
         <v>32</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>43</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>44</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>45</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" ht="19.5">
+    <row r="2" customFormat="1" s="0">
       <c r="A2" s="26" t="s">
         <v>266</v>
       </c>
@@ -2577,7 +3203,7 @@
       <c r="C2" t="s">
         <v>395</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="35" t="s">
         <v>394</v>
       </c>
       <c r="E2">
@@ -2586,17 +3212,17 @@
       <c r="F2" t="s">
         <v>400</v>
       </c>
-      <c r="G2" t="s">
-        <v>227</v>
-      </c>
       <c r="H2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I2" t="s">
         <v>229</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="35" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" customFormat="1" s="0">
       <c r="A3" s="26" t="s">
         <v>266</v>
       </c>
@@ -2609,20 +3235,23 @@
       <c r="D3" t="s">
         <v>392</v>
       </c>
-      <c r="E3" t="s">
-        <v>368</v>
-      </c>
-      <c r="G3" t="s">
-        <v>227</v>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>400</v>
       </c>
       <c r="H3" t="s">
+        <v>227</v>
+      </c>
+      <c r="I3" t="s">
         <v>230</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="N3" s="35" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" customFormat="1" s="0">
       <c r="A4" s="26" t="s">
         <v>266</v>
       </c>
@@ -2632,43 +3261,58 @@
       <c r="C4" t="s">
         <v>395</v>
       </c>
-      <c r="E4" t="s">
-        <v>367</v>
-      </c>
-      <c r="G4" t="s">
-        <v>227</v>
+      <c r="D4" t="s">
+        <v>401</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>400</v>
       </c>
       <c r="H4" t="s">
+        <v>227</v>
+      </c>
+      <c r="I4" t="s">
         <v>231</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="N4" s="35" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" customFormat="1" s="0">
       <c r="A5" s="26" t="s">
         <v>266</v>
       </c>
       <c r="B5" t="s">
-        <v>213</v>
+        <v>403</v>
       </c>
       <c r="C5" t="s">
         <v>396</v>
       </c>
-      <c r="E5" t="s">
-        <v>369</v>
+      <c r="D5" t="s">
+        <v>404</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>400</v>
       </c>
       <c r="G5" t="s">
-        <v>227</v>
-      </c>
-      <c r="H5" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="H5" t="s">
+        <v>227</v>
+      </c>
+      <c r="I5" s="35" t="s">
         <v>249</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="N5" s="35" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" customFormat="1" s="0">
       <c r="A6" s="26" t="s">
         <v>266</v>
       </c>
@@ -2678,20 +3322,26 @@
       <c r="C6" t="s">
         <v>398</v>
       </c>
-      <c r="E6" t="s">
-        <v>370</v>
-      </c>
-      <c r="G6" t="s">
-        <v>227</v>
-      </c>
-      <c r="H6" s="4" t="s">
+      <c r="D6" t="s">
+        <v>405</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>400</v>
+      </c>
+      <c r="H6" t="s">
+        <v>227</v>
+      </c>
+      <c r="I6" s="35" t="s">
         <v>250</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="N6" s="35" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" customFormat="1" s="0">
       <c r="A7" s="26" t="s">
         <v>266</v>
       </c>
@@ -2701,20 +3351,26 @@
       <c r="C7" t="s">
         <v>396</v>
       </c>
-      <c r="E7" t="s">
-        <v>368</v>
-      </c>
-      <c r="G7" t="s">
-        <v>227</v>
+      <c r="D7" t="s">
+        <v>406</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>400</v>
       </c>
       <c r="H7" t="s">
+        <v>227</v>
+      </c>
+      <c r="I7" t="s">
         <v>251</v>
       </c>
-      <c r="M7" s="4" t="s">
+      <c r="N7" s="35" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" customFormat="1" s="0">
       <c r="A8" s="26" t="s">
         <v>266</v>
       </c>
@@ -2724,20 +3380,26 @@
       <c r="C8" t="s">
         <v>398</v>
       </c>
-      <c r="E8" t="s">
-        <v>370</v>
-      </c>
-      <c r="G8" t="s">
-        <v>227</v>
-      </c>
-      <c r="H8" s="4" t="s">
+      <c r="D8" t="s">
+        <v>407</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8" t="s">
+        <v>400</v>
+      </c>
+      <c r="H8" t="s">
+        <v>227</v>
+      </c>
+      <c r="I8" s="35" t="s">
         <v>252</v>
       </c>
-      <c r="M8" s="4" t="s">
+      <c r="N8" s="35" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" customFormat="1" s="0">
       <c r="A9" s="26" t="s">
         <v>266</v>
       </c>
@@ -2747,23 +3409,29 @@
       <c r="C9" t="s">
         <v>395</v>
       </c>
-      <c r="E9" t="s">
-        <v>368</v>
-      </c>
-      <c r="G9" t="s">
-        <v>227</v>
-      </c>
-      <c r="H9" s="4" t="s">
+      <c r="D9" t="s">
+        <v>408</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>400</v>
+      </c>
+      <c r="H9" t="s">
+        <v>227</v>
+      </c>
+      <c r="I9" s="35" t="s">
         <v>253</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>352</v>
       </c>
-      <c r="M9" s="4" t="s">
+      <c r="N9" s="35" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" customFormat="1" s="0">
       <c r="A10" s="26" t="s">
         <v>266</v>
       </c>
@@ -2773,20 +3441,26 @@
       <c r="C10" t="s">
         <v>397</v>
       </c>
-      <c r="E10" t="s">
-        <v>370</v>
-      </c>
-      <c r="G10" t="s">
-        <v>227</v>
-      </c>
-      <c r="H10" s="4" t="s">
+      <c r="D10" t="s">
+        <v>409</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10" t="s">
+        <v>400</v>
+      </c>
+      <c r="H10" t="s">
+        <v>227</v>
+      </c>
+      <c r="I10" s="35" t="s">
         <v>255</v>
       </c>
-      <c r="M10" s="4" t="s">
+      <c r="N10" s="35" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" customFormat="1" s="0">
       <c r="A11" s="26" t="s">
         <v>266</v>
       </c>
@@ -2796,20 +3470,26 @@
       <c r="C11" t="s">
         <v>397</v>
       </c>
-      <c r="E11" t="s">
-        <v>371</v>
-      </c>
-      <c r="G11" t="s">
-        <v>227</v>
-      </c>
-      <c r="H11" s="4" t="s">
+      <c r="D11" t="s">
+        <v>410</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11" t="s">
+        <v>400</v>
+      </c>
+      <c r="H11" t="s">
+        <v>227</v>
+      </c>
+      <c r="I11" s="35" t="s">
         <v>256</v>
       </c>
-      <c r="M11" s="4" t="s">
+      <c r="N11" s="35" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" customFormat="1" s="0">
       <c r="A12" s="26" t="s">
         <v>266</v>
       </c>
@@ -2819,20 +3499,29 @@
       <c r="C12" t="s">
         <v>398</v>
       </c>
-      <c r="E12" t="s">
-        <v>369</v>
+      <c r="D12" t="s">
+        <v>411</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12" t="s">
+        <v>400</v>
       </c>
       <c r="G12" t="s">
-        <v>227</v>
-      </c>
-      <c r="H12" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="H12" t="s">
+        <v>227</v>
+      </c>
+      <c r="I12" s="35" t="s">
         <v>257</v>
       </c>
-      <c r="M12" s="4" t="s">
+      <c r="N12" s="35" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" customFormat="1" s="0">
       <c r="A13" s="26" t="s">
         <v>266</v>
       </c>
@@ -2842,43 +3531,55 @@
       <c r="C13" t="s">
         <v>395</v>
       </c>
-      <c r="E13" t="s">
-        <v>370</v>
-      </c>
-      <c r="G13" t="s">
-        <v>227</v>
-      </c>
-      <c r="H13" s="4" t="s">
+      <c r="D13" t="s">
+        <v>412</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13" t="s">
+        <v>400</v>
+      </c>
+      <c r="H13" t="s">
+        <v>227</v>
+      </c>
+      <c r="I13" s="35" t="s">
         <v>259</v>
       </c>
-      <c r="M13" s="4" t="s">
+      <c r="N13" s="35" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" customFormat="1" s="0">
       <c r="A14" s="26" t="s">
         <v>266</v>
       </c>
       <c r="B14" t="s">
-        <v>224</v>
+        <v>414</v>
       </c>
       <c r="C14" t="s">
         <v>396</v>
       </c>
-      <c r="E14" t="s">
-        <v>368</v>
-      </c>
-      <c r="G14" t="s">
-        <v>227</v>
-      </c>
-      <c r="H14" s="4" t="s">
+      <c r="D14" t="s">
+        <v>415</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14" t="s">
+        <v>400</v>
+      </c>
+      <c r="H14" t="s">
+        <v>227</v>
+      </c>
+      <c r="I14" s="35" t="s">
         <v>260</v>
       </c>
-      <c r="M14" s="4" t="s">
+      <c r="N14" s="35" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" customFormat="1" s="0">
       <c r="A15" s="26" t="s">
         <v>266</v>
       </c>
@@ -2888,20 +3589,26 @@
       <c r="C15" t="s">
         <v>395</v>
       </c>
-      <c r="E15" t="s">
-        <v>367</v>
-      </c>
-      <c r="G15" t="s">
-        <v>227</v>
+      <c r="D15" t="s">
+        <v>416</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>400</v>
       </c>
       <c r="H15" t="s">
+        <v>227</v>
+      </c>
+      <c r="I15" t="s">
         <v>261</v>
       </c>
-      <c r="M15" s="4" t="s">
+      <c r="N15" s="35" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" customFormat="1" s="0">
       <c r="A16" s="26" t="s">
         <v>266</v>
       </c>
@@ -2911,20 +3618,26 @@
       <c r="C16" t="s">
         <v>397</v>
       </c>
-      <c r="E16" t="s">
-        <v>370</v>
-      </c>
-      <c r="G16" t="s">
-        <v>227</v>
-      </c>
-      <c r="H16" s="4" t="s">
+      <c r="D16" t="s">
+        <v>417</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16" t="s">
+        <v>400</v>
+      </c>
+      <c r="H16" t="s">
+        <v>227</v>
+      </c>
+      <c r="I16" s="35" t="s">
         <v>262</v>
       </c>
-      <c r="M16" s="4" t="s">
+      <c r="N16" s="35" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" customFormat="1" s="0">
       <c r="A17" s="27" t="s">
         <v>271</v>
       </c>
@@ -2934,20 +3647,26 @@
       <c r="C17" t="s">
         <v>395</v>
       </c>
-      <c r="E17" t="s">
-        <v>361</v>
-      </c>
-      <c r="G17" t="s">
-        <v>227</v>
-      </c>
-      <c r="H17" s="4" t="s">
+      <c r="D17" t="s">
+        <v>420</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17" t="s">
+        <v>487</v>
+      </c>
+      <c r="H17" t="s">
+        <v>227</v>
+      </c>
+      <c r="I17" s="35" t="s">
         <v>268</v>
       </c>
-      <c r="M17" s="4" t="s">
+      <c r="N17" s="35" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" customFormat="1" s="0">
       <c r="A18" s="27" t="s">
         <v>271</v>
       </c>
@@ -2957,296 +3676,377 @@
       <c r="C18" t="s">
         <v>397</v>
       </c>
-      <c r="E18" t="s">
-        <v>362</v>
-      </c>
-      <c r="G18" t="s">
-        <v>227</v>
-      </c>
-      <c r="H18" s="4" t="s">
+      <c r="D18" t="s">
+        <v>421</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18" t="s">
+        <v>487</v>
+      </c>
+      <c r="H18" t="s">
+        <v>227</v>
+      </c>
+      <c r="I18" s="35" t="s">
         <v>273</v>
       </c>
-      <c r="M18" s="4" t="s">
+      <c r="N18" s="35" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" customFormat="1" s="0">
       <c r="A19" s="27" t="s">
         <v>271</v>
       </c>
       <c r="B19" t="s">
-        <v>275</v>
+        <v>423</v>
       </c>
       <c r="C19" t="s">
         <v>395</v>
       </c>
-      <c r="E19" t="s">
-        <v>363</v>
-      </c>
-      <c r="G19" t="s">
-        <v>227</v>
-      </c>
-      <c r="H19" s="4" t="s">
+      <c r="D19" t="s">
+        <v>422</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>487</v>
+      </c>
+      <c r="H19" t="s">
+        <v>227</v>
+      </c>
+      <c r="I19" s="35" t="s">
         <v>276</v>
       </c>
-      <c r="M19" s="4" t="s">
+      <c r="N19" s="35" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" customFormat="1" s="0">
       <c r="A20" s="27" t="s">
         <v>271</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="35" t="s">
         <v>315</v>
       </c>
       <c r="C20" t="s">
         <v>398</v>
       </c>
-      <c r="E20" t="s">
-        <v>364</v>
-      </c>
-      <c r="G20" t="s">
-        <v>227</v>
-      </c>
-      <c r="H20" s="4" t="s">
+      <c r="D20" t="s">
+        <v>426</v>
+      </c>
+      <c r="E20">
+        <v>4</v>
+      </c>
+      <c r="F20" t="s">
+        <v>487</v>
+      </c>
+      <c r="H20" t="s">
+        <v>227</v>
+      </c>
+      <c r="I20" s="35" t="s">
         <v>302</v>
       </c>
-      <c r="M20" s="4" t="s">
+      <c r="N20" s="35" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" customFormat="1" s="0">
       <c r="A21" s="27" t="s">
         <v>271</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="35" t="s">
         <v>314</v>
       </c>
       <c r="C21" t="s">
         <v>396</v>
       </c>
-      <c r="E21" t="s">
-        <v>361</v>
-      </c>
-      <c r="G21" t="s">
-        <v>227</v>
-      </c>
-      <c r="H21" s="4" t="s">
+      <c r="D21" t="s">
+        <v>425</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21" t="s">
+        <v>487</v>
+      </c>
+      <c r="H21" t="s">
+        <v>227</v>
+      </c>
+      <c r="I21" s="35" t="s">
         <v>301</v>
       </c>
-      <c r="M21" s="4" t="s">
+      <c r="N21" s="35" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" customFormat="1" s="0">
       <c r="A22" s="27" t="s">
         <v>271</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="35" t="s">
         <v>313</v>
       </c>
       <c r="C22" t="s">
         <v>397</v>
       </c>
-      <c r="E22" t="s">
-        <v>365</v>
+      <c r="D22" t="s">
+        <v>427</v>
+      </c>
+      <c r="E22">
+        <v>4</v>
+      </c>
+      <c r="F22" t="s">
+        <v>487</v>
       </c>
       <c r="G22" t="s">
-        <v>227</v>
-      </c>
-      <c r="H22" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="H22" t="s">
+        <v>227</v>
+      </c>
+      <c r="I22" s="35" t="s">
         <v>300</v>
       </c>
-      <c r="M22" s="4" t="s">
+      <c r="N22" s="35" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" customFormat="1" s="0">
       <c r="A23" s="27" t="s">
         <v>271</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="35" t="s">
         <v>312</v>
       </c>
       <c r="C23" t="s">
         <v>397</v>
       </c>
-      <c r="E23" t="s">
-        <v>364</v>
-      </c>
-      <c r="G23" t="s">
-        <v>227</v>
-      </c>
-      <c r="H23" s="4" t="s">
+      <c r="D23" t="s">
+        <v>428</v>
+      </c>
+      <c r="E23">
+        <v>4</v>
+      </c>
+      <c r="F23" t="s">
+        <v>487</v>
+      </c>
+      <c r="H23" t="s">
+        <v>227</v>
+      </c>
+      <c r="I23" s="35" t="s">
         <v>299</v>
       </c>
-      <c r="M23" s="4" t="s">
+      <c r="N23" s="35" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" customFormat="1" s="0">
       <c r="A24" s="27" t="s">
         <v>271</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="35" t="s">
         <v>311</v>
       </c>
       <c r="C24" t="s">
         <v>398</v>
       </c>
-      <c r="E24" t="s">
-        <v>362</v>
-      </c>
-      <c r="G24" t="s">
-        <v>227</v>
-      </c>
-      <c r="H24" s="4" t="s">
+      <c r="D24" t="s">
+        <v>429</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24" t="s">
+        <v>487</v>
+      </c>
+      <c r="H24" t="s">
+        <v>227</v>
+      </c>
+      <c r="I24" s="35" t="s">
         <v>298</v>
       </c>
-      <c r="M24" s="4" t="s">
+      <c r="N24" s="35" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" customFormat="1" s="0">
       <c r="A25" s="27" t="s">
         <v>271</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="35" t="s">
         <v>310</v>
       </c>
       <c r="C25" t="s">
         <v>395</v>
       </c>
-      <c r="E25" t="s">
-        <v>361</v>
-      </c>
-      <c r="G25" t="s">
-        <v>227</v>
-      </c>
-      <c r="H25" s="4" t="s">
+      <c r="D25" t="s">
+        <v>430</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25" t="s">
+        <v>487</v>
+      </c>
+      <c r="H25" t="s">
+        <v>227</v>
+      </c>
+      <c r="I25" s="35" t="s">
         <v>297</v>
       </c>
-      <c r="M25" s="4" t="s">
+      <c r="N25" s="35" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" customFormat="1" s="0">
       <c r="A26" s="27" t="s">
         <v>271</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="35" t="s">
         <v>309</v>
       </c>
       <c r="C26" t="s">
         <v>396</v>
       </c>
-      <c r="E26" t="s">
-        <v>361</v>
-      </c>
-      <c r="G26" t="s">
-        <v>227</v>
-      </c>
-      <c r="H26" s="4" t="s">
+      <c r="D26" t="s">
+        <v>431</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26" t="s">
+        <v>487</v>
+      </c>
+      <c r="H26" t="s">
+        <v>227</v>
+      </c>
+      <c r="I26" s="35" t="s">
         <v>296</v>
       </c>
-      <c r="M26" s="4" t="s">
+      <c r="N26" s="35" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" customFormat="1" s="0">
       <c r="A27" s="27" t="s">
         <v>271</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="35" t="s">
         <v>308</v>
       </c>
       <c r="C27" t="s">
         <v>395</v>
       </c>
-      <c r="E27" t="s">
-        <v>363</v>
-      </c>
-      <c r="G27" t="s">
-        <v>227</v>
-      </c>
-      <c r="H27" s="4" t="s">
+      <c r="D27" t="s">
+        <v>432</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27" t="s">
+        <v>487</v>
+      </c>
+      <c r="H27" t="s">
+        <v>227</v>
+      </c>
+      <c r="I27" s="35" t="s">
         <v>294</v>
       </c>
-      <c r="M27" s="4" t="s">
+      <c r="N27" s="35" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" customFormat="1" s="0">
       <c r="A28" s="27" t="s">
         <v>271</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="35" t="s">
         <v>307</v>
       </c>
       <c r="C28" t="s">
         <v>398</v>
       </c>
-      <c r="E28" t="s">
-        <v>364</v>
-      </c>
-      <c r="G28" t="s">
-        <v>227</v>
-      </c>
-      <c r="H28" s="4" t="s">
+      <c r="D28" t="s">
+        <v>433</v>
+      </c>
+      <c r="E28">
+        <v>4</v>
+      </c>
+      <c r="F28" t="s">
+        <v>487</v>
+      </c>
+      <c r="H28" t="s">
+        <v>227</v>
+      </c>
+      <c r="I28" s="35" t="s">
         <v>293</v>
       </c>
-      <c r="M28" s="4" t="s">
+      <c r="N28" s="35" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" customFormat="1" s="0">
       <c r="A29" s="27" t="s">
         <v>271</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="35" t="s">
         <v>305</v>
       </c>
       <c r="C29" t="s">
         <v>398</v>
       </c>
-      <c r="E29" t="s">
-        <v>362</v>
-      </c>
-      <c r="G29" t="s">
-        <v>227</v>
-      </c>
-      <c r="H29" s="4" t="s">
+      <c r="D29" t="s">
+        <v>434</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29" t="s">
+        <v>487</v>
+      </c>
+      <c r="H29" t="s">
+        <v>227</v>
+      </c>
+      <c r="I29" s="35" t="s">
         <v>292</v>
       </c>
-      <c r="M29" s="4" t="s">
+      <c r="N29" s="35" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" customFormat="1" s="0">
       <c r="A30" s="27" t="s">
         <v>271</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="35" t="s">
         <v>304</v>
       </c>
       <c r="C30" t="s">
         <v>396</v>
       </c>
-      <c r="E30" t="s">
-        <v>361</v>
-      </c>
-      <c r="G30" t="s">
-        <v>227</v>
-      </c>
-      <c r="H30" s="4" t="s">
+      <c r="D30" t="s">
+        <v>435</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30" t="s">
+        <v>487</v>
+      </c>
+      <c r="H30" t="s">
+        <v>227</v>
+      </c>
+      <c r="I30" s="35" t="s">
         <v>291</v>
       </c>
-      <c r="M30" s="4" t="s">
+      <c r="N30" s="35" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" customFormat="1" s="0">
       <c r="A31" s="27" t="s">
         <v>271</v>
       </c>
@@ -3256,43 +4056,58 @@
       <c r="C31" t="s">
         <v>399</v>
       </c>
-      <c r="E31" t="s">
-        <v>366</v>
+      <c r="D31" t="s">
+        <v>419</v>
+      </c>
+      <c r="E31">
+        <v>4</v>
+      </c>
+      <c r="F31" t="s">
+        <v>487</v>
       </c>
       <c r="G31" t="s">
-        <v>227</v>
-      </c>
-      <c r="H31" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="H31" t="s">
+        <v>227</v>
+      </c>
+      <c r="I31" s="35" t="s">
         <v>290</v>
       </c>
-      <c r="M31" s="4" t="s">
+      <c r="N31" s="35" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" customFormat="1" s="0">
       <c r="A32" s="28" t="s">
         <v>318</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="35" t="s">
         <v>316</v>
       </c>
       <c r="C32" t="s">
         <v>395</v>
       </c>
-      <c r="E32" t="s">
-        <v>336</v>
-      </c>
-      <c r="G32" t="s">
-        <v>227</v>
-      </c>
-      <c r="H32" s="4" t="s">
+      <c r="D32" t="s">
+        <v>437</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32" t="s">
+        <v>488</v>
+      </c>
+      <c r="H32" t="s">
+        <v>227</v>
+      </c>
+      <c r="I32" s="35" t="s">
         <v>334</v>
       </c>
-      <c r="M32" s="4" t="s">
+      <c r="N32" s="35" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" customFormat="1" s="0">
       <c r="A33" s="28" t="s">
         <v>318</v>
       </c>
@@ -3302,20 +4117,26 @@
       <c r="C33" t="s">
         <v>398</v>
       </c>
-      <c r="E33" t="s">
-        <v>337</v>
-      </c>
-      <c r="G33" t="s">
-        <v>227</v>
+      <c r="D33" t="s">
+        <v>439</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33" t="s">
+        <v>488</v>
       </c>
       <c r="H33" t="s">
+        <v>227</v>
+      </c>
+      <c r="I33" t="s">
         <v>335</v>
       </c>
-      <c r="M33" s="4" t="s">
+      <c r="N33" s="35" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" customFormat="1" s="0">
       <c r="A34" s="28" t="s">
         <v>318</v>
       </c>
@@ -3325,23 +4146,29 @@
       <c r="C34" t="s">
         <v>395</v>
       </c>
-      <c r="E34" t="s">
-        <v>338</v>
-      </c>
-      <c r="G34" t="s">
-        <v>227</v>
+      <c r="D34" t="s">
+        <v>440</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34" t="s">
+        <v>488</v>
       </c>
       <c r="H34" t="s">
+        <v>227</v>
+      </c>
+      <c r="I34" t="s">
         <v>347</v>
       </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>348</v>
       </c>
-      <c r="M34" s="4" t="s">
+      <c r="N34" s="35" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" customFormat="1" s="0">
       <c r="A35" s="28" t="s">
         <v>318</v>
       </c>
@@ -3351,20 +4178,26 @@
       <c r="C35" t="s">
         <v>396</v>
       </c>
-      <c r="E35" t="s">
-        <v>336</v>
-      </c>
-      <c r="G35" t="s">
-        <v>227</v>
+      <c r="D35" t="s">
+        <v>441</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35" t="s">
+        <v>488</v>
       </c>
       <c r="H35" t="s">
+        <v>227</v>
+      </c>
+      <c r="I35" t="s">
         <v>349</v>
       </c>
-      <c r="M35" t="s">
+      <c r="N35" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" customFormat="1" s="0">
       <c r="A36" s="28" t="s">
         <v>318</v>
       </c>
@@ -3374,23 +4207,29 @@
       <c r="C36" t="s">
         <v>398</v>
       </c>
-      <c r="E36" t="s">
-        <v>337</v>
-      </c>
-      <c r="G36" t="s">
-        <v>227</v>
+      <c r="D36" t="s">
+        <v>442</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36" t="s">
+        <v>488</v>
       </c>
       <c r="H36" t="s">
+        <v>227</v>
+      </c>
+      <c r="I36" t="s">
         <v>350</v>
       </c>
-      <c r="I36" t="s">
+      <c r="J36" t="s">
         <v>351</v>
       </c>
-      <c r="M36" t="s">
+      <c r="N36" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" customFormat="1" s="0">
       <c r="A37" s="28" t="s">
         <v>318</v>
       </c>
@@ -3400,20 +4239,26 @@
       <c r="C37" t="s">
         <v>395</v>
       </c>
-      <c r="E37" t="s">
-        <v>338</v>
-      </c>
-      <c r="G37" t="s">
-        <v>227</v>
+      <c r="D37" t="s">
+        <v>443</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37" t="s">
+        <v>488</v>
       </c>
       <c r="H37" t="s">
+        <v>227</v>
+      </c>
+      <c r="I37" t="s">
         <v>353</v>
       </c>
-      <c r="M37" s="4" t="s">
+      <c r="N37" s="35" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" customFormat="1" s="0">
       <c r="A38" s="28" t="s">
         <v>318</v>
       </c>
@@ -3423,20 +4268,29 @@
       <c r="C38" t="s">
         <v>398</v>
       </c>
-      <c r="E38" t="s">
-        <v>339</v>
+      <c r="D38" t="s">
+        <v>444</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+      <c r="F38" t="s">
+        <v>488</v>
       </c>
       <c r="G38" t="s">
-        <v>227</v>
+        <v>488</v>
       </c>
       <c r="H38" t="s">
+        <v>227</v>
+      </c>
+      <c r="I38" t="s">
         <v>354</v>
       </c>
-      <c r="M38" t="s">
+      <c r="N38" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" customFormat="1" s="0">
       <c r="A39" s="28" t="s">
         <v>318</v>
       </c>
@@ -3446,20 +4300,26 @@
       <c r="C39" t="s">
         <v>399</v>
       </c>
-      <c r="E39" t="s">
-        <v>340</v>
-      </c>
-      <c r="G39" t="s">
-        <v>227</v>
+      <c r="D39" t="s">
+        <v>445</v>
+      </c>
+      <c r="E39">
+        <v>4</v>
+      </c>
+      <c r="F39" t="s">
+        <v>488</v>
       </c>
       <c r="H39" t="s">
+        <v>227</v>
+      </c>
+      <c r="I39" t="s">
         <v>355</v>
       </c>
-      <c r="M39" s="4" t="s">
+      <c r="N39" s="35" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" customFormat="1" s="0">
       <c r="A40" s="28" t="s">
         <v>318</v>
       </c>
@@ -3469,20 +4329,26 @@
       <c r="C40" t="s">
         <v>398</v>
       </c>
-      <c r="E40" t="s">
-        <v>337</v>
-      </c>
-      <c r="G40" t="s">
-        <v>227</v>
+      <c r="D40" t="s">
+        <v>446</v>
+      </c>
+      <c r="E40">
+        <v>3</v>
+      </c>
+      <c r="F40" t="s">
+        <v>488</v>
       </c>
       <c r="H40" t="s">
+        <v>227</v>
+      </c>
+      <c r="I40" t="s">
         <v>356</v>
       </c>
-      <c r="M40" t="s">
+      <c r="N40" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" customFormat="1" s="0">
       <c r="A41" s="28" t="s">
         <v>318</v>
       </c>
@@ -3492,20 +4358,26 @@
       <c r="C41" t="s">
         <v>396</v>
       </c>
-      <c r="E41" t="s">
-        <v>336</v>
-      </c>
-      <c r="G41" t="s">
-        <v>227</v>
+      <c r="D41" t="s">
+        <v>447</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
+      </c>
+      <c r="F41" t="s">
+        <v>488</v>
       </c>
       <c r="H41" t="s">
+        <v>227</v>
+      </c>
+      <c r="I41" t="s">
         <v>357</v>
       </c>
-      <c r="M41" s="4" t="s">
+      <c r="N41" s="35" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" customFormat="1" s="0">
       <c r="A42" s="28" t="s">
         <v>318</v>
       </c>
@@ -3515,20 +4387,26 @@
       <c r="C42" t="s">
         <v>398</v>
       </c>
-      <c r="E42" t="s">
-        <v>337</v>
-      </c>
-      <c r="G42" t="s">
-        <v>227</v>
+      <c r="D42" t="s">
+        <v>448</v>
+      </c>
+      <c r="E42">
+        <v>3</v>
+      </c>
+      <c r="F42" t="s">
+        <v>488</v>
       </c>
       <c r="H42" t="s">
+        <v>227</v>
+      </c>
+      <c r="I42" t="s">
         <v>358</v>
       </c>
-      <c r="M42" t="s">
+      <c r="N42" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" customFormat="1" s="0">
       <c r="A43" s="28" t="s">
         <v>318</v>
       </c>
@@ -3538,20 +4416,26 @@
       <c r="C43" t="s">
         <v>396</v>
       </c>
-      <c r="E43" t="s">
-        <v>336</v>
-      </c>
-      <c r="G43" t="s">
-        <v>227</v>
+      <c r="D43" t="s">
+        <v>449</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
+      </c>
+      <c r="F43" t="s">
+        <v>488</v>
       </c>
       <c r="H43" t="s">
+        <v>227</v>
+      </c>
+      <c r="I43" t="s">
         <v>359</v>
       </c>
-      <c r="M43" s="4" t="s">
+      <c r="N43" s="35" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" customFormat="1" s="0">
       <c r="A44" s="28" t="s">
         <v>318</v>
       </c>
@@ -3561,20 +4445,26 @@
       <c r="C44" t="s">
         <v>397</v>
       </c>
-      <c r="E44" t="s">
-        <v>337</v>
-      </c>
-      <c r="G44" t="s">
-        <v>227</v>
+      <c r="D44" t="s">
+        <v>450</v>
+      </c>
+      <c r="E44">
+        <v>3</v>
+      </c>
+      <c r="F44" t="s">
+        <v>488</v>
       </c>
       <c r="H44" t="s">
+        <v>227</v>
+      </c>
+      <c r="I44" t="s">
         <v>360</v>
       </c>
-      <c r="M44" s="4" t="s">
+      <c r="N44" s="35" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" customFormat="1" s="0">
       <c r="A45" s="28" t="s">
         <v>318</v>
       </c>
@@ -3584,20 +4474,26 @@
       <c r="C45" t="s">
         <v>395</v>
       </c>
-      <c r="E45" t="s">
-        <v>338</v>
-      </c>
-      <c r="G45" t="s">
-        <v>227</v>
+      <c r="D45" t="s">
+        <v>451</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45" t="s">
+        <v>488</v>
       </c>
       <c r="H45" t="s">
+        <v>227</v>
+      </c>
+      <c r="I45" t="s">
         <v>346</v>
       </c>
-      <c r="M45" s="4" t="s">
+      <c r="N45" s="35" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="46" customHeight="1" ht="15.75">
+    <row r="46" customHeight="1" ht="15.75" customFormat="1" s="0">
       <c r="A46" s="28" t="s">
         <v>318</v>
       </c>
@@ -3607,92 +4503,914 @@
       <c r="C46" t="s">
         <v>399</v>
       </c>
-      <c r="E46" t="s">
-        <v>336</v>
-      </c>
-      <c r="G46" t="s">
-        <v>227</v>
+      <c r="D46" t="s">
+        <v>438</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
+      </c>
+      <c r="F46" t="s">
+        <v>488</v>
       </c>
       <c r="H46" t="s">
+        <v>227</v>
+      </c>
+      <c r="I46" t="s">
         <v>345</v>
       </c>
-      <c r="M46" t="s">
+      <c r="N46" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" customFormat="1" s="0">
       <c r="A47" s="30" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="48">
+      <c r="B47" t="s">
+        <v>452</v>
+      </c>
+      <c r="C47" t="s">
+        <v>395</v>
+      </c>
+      <c r="D47" t="s">
+        <v>469</v>
+      </c>
+      <c r="E47">
+        <v>2</v>
+      </c>
+      <c r="F47" t="s">
+        <v>486</v>
+      </c>
+      <c r="H47" t="s">
+        <v>227</v>
+      </c>
+      <c r="I47" s="35" t="s">
+        <v>489</v>
+      </c>
+      <c r="N47" s="35" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="48" customFormat="1" s="0">
       <c r="A48" s="30" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="49">
+      <c r="B48" t="s">
+        <v>453</v>
+      </c>
+      <c r="C48" t="s">
+        <v>398</v>
+      </c>
+      <c r="D48" t="s">
+        <v>470</v>
+      </c>
+      <c r="E48">
+        <v>3</v>
+      </c>
+      <c r="F48" t="s">
+        <v>486</v>
+      </c>
+      <c r="H48" t="s">
+        <v>227</v>
+      </c>
+      <c r="I48" s="35" t="s">
+        <v>490</v>
+      </c>
+      <c r="N48" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="49" customFormat="1" s="0">
       <c r="A49" s="30" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="50">
+      <c r="B49" t="s">
+        <v>454</v>
+      </c>
+      <c r="C49" t="s">
+        <v>395</v>
+      </c>
+      <c r="D49" t="s">
+        <v>471</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49" t="s">
+        <v>486</v>
+      </c>
+      <c r="H49" t="s">
+        <v>227</v>
+      </c>
+      <c r="I49" s="35" t="s">
+        <v>491</v>
+      </c>
+      <c r="J49" t="s">
+        <v>348</v>
+      </c>
+      <c r="N49" s="35" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="50" customFormat="1" s="0">
       <c r="A50" s="30" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="51">
+      <c r="B50" t="s">
+        <v>455</v>
+      </c>
+      <c r="C50" t="s">
+        <v>396</v>
+      </c>
+      <c r="D50" t="s">
+        <v>485</v>
+      </c>
+      <c r="E50">
+        <v>2</v>
+      </c>
+      <c r="F50" t="s">
+        <v>486</v>
+      </c>
+      <c r="H50" t="s">
+        <v>227</v>
+      </c>
+      <c r="I50" s="35" t="s">
+        <v>492</v>
+      </c>
+      <c r="N50" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="51" customFormat="1" s="0">
       <c r="A51" s="30" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="52">
+      <c r="B51" t="s">
+        <v>456</v>
+      </c>
+      <c r="C51" t="s">
+        <v>395</v>
+      </c>
+      <c r="D51" t="s">
+        <v>473</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51" t="s">
+        <v>486</v>
+      </c>
+      <c r="H51" t="s">
+        <v>227</v>
+      </c>
+      <c r="I51" s="35" t="s">
+        <v>493</v>
+      </c>
+      <c r="N51" s="35" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="52" customFormat="1" s="0">
       <c r="A52" s="30" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="53">
+      <c r="B52" t="s">
+        <v>457</v>
+      </c>
+      <c r="C52" t="s">
+        <v>398</v>
+      </c>
+      <c r="D52" t="s">
+        <v>474</v>
+      </c>
+      <c r="E52">
+        <v>2</v>
+      </c>
+      <c r="F52" t="s">
+        <v>486</v>
+      </c>
+      <c r="G52" t="s">
+        <v>486</v>
+      </c>
+      <c r="H52" t="s">
+        <v>227</v>
+      </c>
+      <c r="I52" s="35" t="s">
+        <v>494</v>
+      </c>
+      <c r="N52" s="35" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="53" customFormat="1" s="0">
       <c r="A53" s="30" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="54">
+      <c r="B53" t="s">
+        <v>458</v>
+      </c>
+      <c r="C53" t="s">
+        <v>398</v>
+      </c>
+      <c r="D53" t="s">
+        <v>475</v>
+      </c>
+      <c r="E53">
+        <v>3</v>
+      </c>
+      <c r="F53" t="s">
+        <v>486</v>
+      </c>
+      <c r="H53" t="s">
+        <v>227</v>
+      </c>
+      <c r="I53" s="35" t="s">
+        <v>496</v>
+      </c>
+      <c r="N53" s="35" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="54" customFormat="1" s="0">
       <c r="A54" s="30" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="55">
+      <c r="B54" t="s">
+        <v>459</v>
+      </c>
+      <c r="C54" t="s">
+        <v>397</v>
+      </c>
+      <c r="D54" t="s">
+        <v>476</v>
+      </c>
+      <c r="E54">
+        <v>4</v>
+      </c>
+      <c r="F54" t="s">
+        <v>486</v>
+      </c>
+      <c r="H54" t="s">
+        <v>227</v>
+      </c>
+      <c r="I54" s="35" t="s">
+        <v>497</v>
+      </c>
+      <c r="N54" s="35" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="55" customFormat="1" s="0">
       <c r="A55" s="30" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="56">
+      <c r="B55" t="s">
+        <v>460</v>
+      </c>
+      <c r="C55" t="s">
+        <v>396</v>
+      </c>
+      <c r="D55" t="s">
+        <v>477</v>
+      </c>
+      <c r="E55">
+        <v>3</v>
+      </c>
+      <c r="F55" t="s">
+        <v>486</v>
+      </c>
+      <c r="H55" t="s">
+        <v>227</v>
+      </c>
+      <c r="I55" s="35" t="s">
+        <v>498</v>
+      </c>
+      <c r="J55" t="s">
+        <v>348</v>
+      </c>
+      <c r="N55" s="35" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="56" customFormat="1" s="0">
       <c r="A56" s="30" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="57">
+      <c r="B56" t="s">
+        <v>461</v>
+      </c>
+      <c r="C56" t="s">
+        <v>396</v>
+      </c>
+      <c r="D56" t="s">
+        <v>484</v>
+      </c>
+      <c r="E56">
+        <v>2</v>
+      </c>
+      <c r="F56" t="s">
+        <v>486</v>
+      </c>
+      <c r="H56" t="s">
+        <v>227</v>
+      </c>
+      <c r="I56" s="35" t="s">
+        <v>499</v>
+      </c>
+      <c r="N56" s="35" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="57" customFormat="1" s="0">
       <c r="A57" s="30" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="58">
+      <c r="B57" t="s">
+        <v>462</v>
+      </c>
+      <c r="C57" t="s">
+        <v>398</v>
+      </c>
+      <c r="D57" t="s">
+        <v>479</v>
+      </c>
+      <c r="E57">
+        <v>3</v>
+      </c>
+      <c r="F57" t="s">
+        <v>486</v>
+      </c>
+      <c r="H57" t="s">
+        <v>227</v>
+      </c>
+      <c r="I57" s="35" t="s">
+        <v>500</v>
+      </c>
+      <c r="N57" s="35" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="58" customFormat="1" s="0">
       <c r="A58" s="30" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="59">
+      <c r="B58" t="s">
+        <v>463</v>
+      </c>
+      <c r="C58" t="s">
+        <v>398</v>
+      </c>
+      <c r="D58" t="s">
+        <v>480</v>
+      </c>
+      <c r="E58">
+        <v>2</v>
+      </c>
+      <c r="F58" t="s">
+        <v>486</v>
+      </c>
+      <c r="H58" t="s">
+        <v>227</v>
+      </c>
+      <c r="I58" s="35" t="s">
+        <v>501</v>
+      </c>
+      <c r="N58" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="59" customFormat="1" s="0">
       <c r="A59" s="30" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="60">
+      <c r="B59" t="s">
+        <v>464</v>
+      </c>
+      <c r="C59" t="s">
+        <v>396</v>
+      </c>
+      <c r="D59" t="s">
+        <v>481</v>
+      </c>
+      <c r="E59">
+        <v>3</v>
+      </c>
+      <c r="F59" t="s">
+        <v>486</v>
+      </c>
+      <c r="H59" t="s">
+        <v>227</v>
+      </c>
+      <c r="I59" s="35" t="s">
+        <v>502</v>
+      </c>
+      <c r="J59" t="s">
+        <v>351</v>
+      </c>
+      <c r="N59" s="35" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="60" customFormat="1" s="0">
       <c r="A60" s="30" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="61">
+      <c r="B60" t="s">
+        <v>465</v>
+      </c>
+      <c r="C60" t="s">
+        <v>395</v>
+      </c>
+      <c r="D60" t="s">
+        <v>482</v>
+      </c>
+      <c r="E60">
+        <v>2</v>
+      </c>
+      <c r="F60" t="s">
+        <v>486</v>
+      </c>
+      <c r="H60" t="s">
+        <v>227</v>
+      </c>
+      <c r="I60" s="35" t="s">
+        <v>249</v>
+      </c>
+      <c r="N60" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="61" customFormat="1" s="0">
       <c r="A61" s="30" t="s">
         <v>388</v>
+      </c>
+      <c r="B61" t="s">
+        <v>466</v>
+      </c>
+      <c r="C61" t="s">
+        <v>399</v>
+      </c>
+      <c r="D61" t="s">
+        <v>483</v>
+      </c>
+      <c r="E61">
+        <v>3</v>
+      </c>
+      <c r="F61" t="s">
+        <v>486</v>
+      </c>
+      <c r="G61" t="s">
+        <v>486</v>
+      </c>
+      <c r="H61" t="s">
+        <v>227</v>
+      </c>
+      <c r="I61" t="s">
+        <v>503</v>
+      </c>
+      <c r="N61" s="35" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="62" customFormat="1" s="0">
+      <c r="A62" s="44" t="s">
+        <v>519</v>
+      </c>
+      <c r="B62" t="s">
+        <v>520</v>
+      </c>
+      <c r="C62" t="s">
+        <v>395</v>
+      </c>
+      <c r="D62" s="35" t="s">
+        <v>536</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62" t="s">
+        <v>551</v>
+      </c>
+      <c r="H62" t="s">
+        <v>227</v>
+      </c>
+      <c r="I62" s="35" t="s">
+        <v>568</v>
+      </c>
+      <c r="N62" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="63" customFormat="1" s="0">
+      <c r="A63" s="44" t="s">
+        <v>519</v>
+      </c>
+      <c r="B63" t="s">
+        <v>521</v>
+      </c>
+      <c r="C63" t="s">
+        <v>396</v>
+      </c>
+      <c r="D63" s="35" t="s">
+        <v>537</v>
+      </c>
+      <c r="E63">
+        <v>2</v>
+      </c>
+      <c r="F63" t="s">
+        <v>551</v>
+      </c>
+      <c r="H63" t="s">
+        <v>227</v>
+      </c>
+      <c r="I63" s="35" t="s">
+        <v>567</v>
+      </c>
+      <c r="N63" s="35" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="64" customFormat="1" s="0">
+      <c r="A64" s="44" t="s">
+        <v>519</v>
+      </c>
+      <c r="B64" t="s">
+        <v>522</v>
+      </c>
+      <c r="C64" t="s">
+        <v>397</v>
+      </c>
+      <c r="D64" s="35" t="s">
+        <v>538</v>
+      </c>
+      <c r="E64">
+        <v>3</v>
+      </c>
+      <c r="F64" t="s">
+        <v>551</v>
+      </c>
+      <c r="H64" t="s">
+        <v>227</v>
+      </c>
+      <c r="I64" t="s">
+        <v>566</v>
+      </c>
+      <c r="N64" s="35" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="65" customFormat="1" s="0">
+      <c r="A65" s="44" t="s">
+        <v>519</v>
+      </c>
+      <c r="B65" t="s">
+        <v>523</v>
+      </c>
+      <c r="C65" t="s">
+        <v>395</v>
+      </c>
+      <c r="D65" s="35" t="s">
+        <v>539</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65" t="s">
+        <v>551</v>
+      </c>
+      <c r="H65" t="s">
+        <v>227</v>
+      </c>
+      <c r="I65" s="35" t="s">
+        <v>565</v>
+      </c>
+      <c r="N65" s="35" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="66" customFormat="1" s="0">
+      <c r="A66" s="44" t="s">
+        <v>519</v>
+      </c>
+      <c r="B66" t="s">
+        <v>524</v>
+      </c>
+      <c r="C66" t="s">
+        <v>398</v>
+      </c>
+      <c r="D66" s="35" t="s">
+        <v>540</v>
+      </c>
+      <c r="E66">
+        <v>2</v>
+      </c>
+      <c r="F66" t="s">
+        <v>551</v>
+      </c>
+      <c r="G66" t="s">
+        <v>551</v>
+      </c>
+      <c r="H66" t="s">
+        <v>227</v>
+      </c>
+      <c r="I66" s="35" t="s">
+        <v>564</v>
+      </c>
+      <c r="N66" s="35" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="67" customFormat="1" s="0">
+      <c r="A67" s="44" t="s">
+        <v>519</v>
+      </c>
+      <c r="B67" t="s">
+        <v>525</v>
+      </c>
+      <c r="C67" t="s">
+        <v>395</v>
+      </c>
+      <c r="D67" s="35" t="s">
+        <v>541</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67" t="s">
+        <v>551</v>
+      </c>
+      <c r="H67" t="s">
+        <v>227</v>
+      </c>
+      <c r="I67" s="35" t="s">
+        <v>563</v>
+      </c>
+      <c r="N67" s="35" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="68" customFormat="1" s="0">
+      <c r="A68" s="44" t="s">
+        <v>519</v>
+      </c>
+      <c r="B68" t="s">
+        <v>526</v>
+      </c>
+      <c r="C68" t="s">
+        <v>396</v>
+      </c>
+      <c r="D68" s="35" t="s">
+        <v>542</v>
+      </c>
+      <c r="E68">
+        <v>2</v>
+      </c>
+      <c r="F68" t="s">
+        <v>551</v>
+      </c>
+      <c r="H68" t="s">
+        <v>227</v>
+      </c>
+      <c r="I68" s="35" t="s">
+        <v>561</v>
+      </c>
+      <c r="N68" s="35" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="69" customFormat="1" s="0">
+      <c r="A69" s="44" t="s">
+        <v>519</v>
+      </c>
+      <c r="B69" t="s">
+        <v>527</v>
+      </c>
+      <c r="C69" t="s">
+        <v>395</v>
+      </c>
+      <c r="D69" s="35" t="s">
+        <v>543</v>
+      </c>
+      <c r="E69">
+        <v>2</v>
+      </c>
+      <c r="F69" t="s">
+        <v>551</v>
+      </c>
+      <c r="H69" t="s">
+        <v>227</v>
+      </c>
+      <c r="I69" s="35" t="s">
+        <v>560</v>
+      </c>
+      <c r="N69" s="35" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="70" customFormat="1" s="0">
+      <c r="A70" s="44" t="s">
+        <v>519</v>
+      </c>
+      <c r="B70" t="s">
+        <v>528</v>
+      </c>
+      <c r="C70" t="s">
+        <v>398</v>
+      </c>
+      <c r="D70" s="35" t="s">
+        <v>544</v>
+      </c>
+      <c r="E70">
+        <v>3</v>
+      </c>
+      <c r="F70" t="s">
+        <v>551</v>
+      </c>
+      <c r="H70" t="s">
+        <v>227</v>
+      </c>
+      <c r="I70" t="s">
+        <v>559</v>
+      </c>
+      <c r="J70" t="s">
+        <v>351</v>
+      </c>
+      <c r="N70" s="35" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="71" customFormat="1" s="0">
+      <c r="A71" s="44" t="s">
+        <v>519</v>
+      </c>
+      <c r="B71" t="s">
+        <v>529</v>
+      </c>
+      <c r="C71" t="s">
+        <v>396</v>
+      </c>
+      <c r="D71" s="35" t="s">
+        <v>545</v>
+      </c>
+      <c r="E71">
+        <v>2</v>
+      </c>
+      <c r="F71" t="s">
+        <v>551</v>
+      </c>
+      <c r="H71" t="s">
+        <v>227</v>
+      </c>
+      <c r="I71" s="35" t="s">
+        <v>558</v>
+      </c>
+      <c r="N71" s="35" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="72" customFormat="1" s="0">
+      <c r="A72" s="44" t="s">
+        <v>519</v>
+      </c>
+      <c r="B72" t="s">
+        <v>530</v>
+      </c>
+      <c r="C72" t="s">
+        <v>396</v>
+      </c>
+      <c r="D72" s="35" t="s">
+        <v>546</v>
+      </c>
+      <c r="E72">
+        <v>3</v>
+      </c>
+      <c r="F72" t="s">
+        <v>551</v>
+      </c>
+      <c r="H72" t="s">
+        <v>227</v>
+      </c>
+      <c r="I72" s="35" t="s">
+        <v>557</v>
+      </c>
+      <c r="N72" s="35" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="73" customFormat="1" s="0">
+      <c r="A73" s="44" t="s">
+        <v>519</v>
+      </c>
+      <c r="B73" t="s">
+        <v>531</v>
+      </c>
+      <c r="C73" t="s">
+        <v>397</v>
+      </c>
+      <c r="D73" s="35" t="s">
+        <v>547</v>
+      </c>
+      <c r="E73">
+        <v>4</v>
+      </c>
+      <c r="F73" t="s">
+        <v>551</v>
+      </c>
+      <c r="H73" t="s">
+        <v>227</v>
+      </c>
+      <c r="I73" s="35" t="s">
+        <v>556</v>
+      </c>
+      <c r="N73" s="35" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="74" customFormat="1" s="0">
+      <c r="A74" s="44" t="s">
+        <v>519</v>
+      </c>
+      <c r="B74" t="s">
+        <v>532</v>
+      </c>
+      <c r="C74" t="s">
+        <v>398</v>
+      </c>
+      <c r="D74" s="35" t="s">
+        <v>548</v>
+      </c>
+      <c r="E74">
+        <v>2</v>
+      </c>
+      <c r="F74" t="s">
+        <v>551</v>
+      </c>
+      <c r="H74" t="s">
+        <v>227</v>
+      </c>
+      <c r="I74" s="35" t="s">
+        <v>555</v>
+      </c>
+      <c r="N74" s="35" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="75" customFormat="1" s="0">
+      <c r="A75" s="44" t="s">
+        <v>519</v>
+      </c>
+      <c r="B75" t="s">
+        <v>533</v>
+      </c>
+      <c r="C75" t="s">
+        <v>398</v>
+      </c>
+      <c r="D75" s="35" t="s">
+        <v>549</v>
+      </c>
+      <c r="E75">
+        <v>3</v>
+      </c>
+      <c r="F75" t="s">
+        <v>551</v>
+      </c>
+      <c r="H75" t="s">
+        <v>227</v>
+      </c>
+      <c r="I75" t="s">
+        <v>553</v>
+      </c>
+      <c r="N75" s="35" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="76" customFormat="1" s="0">
+      <c r="A76" s="44" t="s">
+        <v>519</v>
+      </c>
+      <c r="B76" t="s">
+        <v>534</v>
+      </c>
+      <c r="C76" t="s">
+        <v>399</v>
+      </c>
+      <c r="D76" s="35" t="s">
+        <v>550</v>
+      </c>
+      <c r="E76">
+        <v>4</v>
+      </c>
+      <c r="F76" t="s">
+        <v>551</v>
+      </c>
+      <c r="H76" t="s">
+        <v>227</v>
+      </c>
+      <c r="I76" s="35" t="s">
+        <v>552</v>
+      </c>
+      <c r="N76" s="35" t="s">
+        <v>583</v>
       </c>
     </row>
   </sheetData>

--- a/NetRealmsNanSetup/nanDECK/cards.xlsx
+++ b/NetRealmsNanSetup/nanDECK/cards.xlsx
@@ -1805,12 +1805,237 @@
   <si>
     <t xml:space="preserve">It knows you better than you know yourself. </t>
   </si>
+  <si>
+    <t>Glitch Relic</t>
+  </si>
+  <si>
+    <t>Code Relic</t>
+  </si>
+  <si>
+    <t>Gaming Relic</t>
+  </si>
+  <si>
+    <t>Movie Relic</t>
+  </si>
+  <si>
+    <t>Creep Relic</t>
+  </si>
+  <si>
+    <t>Drama</t>
+  </si>
+  <si>
+    <t>Beast Crown</t>
+  </si>
+  <si>
+    <t>Cancel Cannon</t>
+  </si>
+  <si>
+    <t>Drama Amplifier</t>
+  </si>
+  <si>
+    <t>Meme Forge</t>
+  </si>
+  <si>
+    <t>B3ast Game Trophy</t>
+  </si>
+  <si>
+    <t>Sponsored Controversy</t>
+  </si>
+  <si>
+    <t>Algorithm Manipulator</t>
+  </si>
+  <si>
+    <t>Hashtag Harvester</t>
+  </si>
+  <si>
+    <t>Clapback Gauntlet</t>
+  </si>
+  <si>
+    <t>Flamewar Shield</t>
+  </si>
+  <si>
+    <t>Comment Storm</t>
+  </si>
+  <si>
+    <t>Creator's Mic</t>
+  </si>
+  <si>
+    <t>Collab Contract</t>
+  </si>
+  <si>
+    <t>Engagement Engine</t>
+  </si>
+  <si>
+    <t>Fame Frame</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Drama\Relic\</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Drama\Relic\BeastCrown.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Drama\Relic\CancelCannon.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Drama\Relic\DramaAmplifier.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Drama\Relic\MemeForge.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Drama\Relic\B3astGameTrophy.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Drama\Relic\SponsoredControversy.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Drama\Relic\AlgorithmManipulator.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Drama\Relic\HashtagHarvester.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Drama\Relic\ClapbackGauntlet.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Drama\Relic\FlamewarShield.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Drama\Relic\CommentStorm.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Drama\Relic\CreatorsMic.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Drama\Relic\CollabContract.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Drama\Relic\EngagementEngine.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Drama\Relic\FameFrame.jpeg</t>
+  </si>
+  <si>
+    <t>DR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whenever a Unit you control is targeted, gain 1 Energy. </t>
+  </si>
+  <si>
+    <t>Drama Relic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whenever a player uploads a Unit, you may draw a card. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gain control of target Unit until end of turn. Its controller gains 2 Energy. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gain 1 Energy if you control a Unit. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tap: Gain 1 Energy if you control at least one Unit. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tap: Each opponent mills 3 cards. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equipped Unit has +0/+2. Whenever it blocks, its controller loses 1 Integrity. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tap: Gain 1 Energy for every Unit your opponents control. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tap: Look at the top 3 cards of your archive. Put one into your hand and the rest into your exile. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tap: Gain control of target Unit until end of turn. Its controller gains 2 Energy. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tap: Gain 1 Energy if you control a Unit. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equipped Unit gains +1/+0. Whenever it is targeted, draw a card. </t>
+  </si>
+  <si>
+    <t>1 equip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tap: Create a 1/1 “Trending Meme” token with Shielded. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whenever a Unit is destroyed, gain 1 Integrity. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tap: Exile target Unit. Its controller loses 1 Integrity. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equipped Unit gains +2/+1. If it blocks, gain 1 Energy. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Units you control gain +1/+1 for every Integrity lost by opponents this turn. </t>
+  </si>
+  <si>
+    <t>4 Equip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tap: Generate 2 Drama Energy, but lose 2 Integrity. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Every outrage is worth the ad revenue. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Winning is worth every tear. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Only one can rule the stage, and the audience decides. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">One shot is all it takes to end a reputation. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volume over virtue—it’s the loudest that wins. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A well-forged meme can spark a thousand arguments. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Behind every viral moment is a master of the unseen. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reap what the internet sows. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Every insult is just a chance to prove them wrong. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Victory belongs to those who seize the narrative. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">It protects you, but at what cost? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The storm rages on, eroding all in its path. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A single word can create an empire—or destroy it. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Friend or foe, alliances are built on fragile terms. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drama is the fuel that keeps it running. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The spotlight shines, but the pressure burns. </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1931,8 +2156,13 @@
       <name val="Segoe UI"/>
       <color rgb="FF000000"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="Segoe UI"/>
+      <color rgb="FF000000"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1984,8 +2214,13 @@
         <fgColor rgb="FFC6D9F1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD7E4BC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -2058,11 +2293,94 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
       <alignment wrapText="1"/>
@@ -2127,6 +2445,14 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="10" applyFill="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="10" applyFill="1" borderId="5" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="10" applyFill="1" borderId="5" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="11" applyFill="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="11" applyFill="1" borderId="6" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="11" applyFill="1" borderId="7" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="11" applyFill="1" borderId="8" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="11" applyFill="1" borderId="9" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="11" applyFill="1" borderId="10" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="11" applyFill="1" borderId="11" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="11" applyFill="1" borderId="12" applyBorder="1" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3136,8 +3462,8 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1" zoomScale="80" zoomScaleNormal="80" tabSelected="1">
-      <selection activeCell="I57" activeCellId="0" sqref="I57"/>
+    <sheetView workbookViewId="0" topLeftCell="E69" zoomScale="80" zoomScaleNormal="80" tabSelected="1">
+      <selection activeCell="N91" activeCellId="0" sqref="N91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" customHeight="false"/>
@@ -3145,6 +3471,7 @@
     <col min="2" max="2" width="21.5546875" customWidth="1" bestFit="1" style="0"/>
     <col min="3" max="3" width="64.88671875" customWidth="1" style="0"/>
     <col min="4" max="4" width="82.33203125" customWidth="1" style="0"/>
+    <col min="8" max="8" width="12" customWidth="1" bestFit="1"/>
     <col min="9" max="9" width="86" customWidth="1" style="0"/>
     <col min="14" max="14" width="63.109375" customWidth="1" bestFit="1" style="0"/>
   </cols>
@@ -3213,7 +3540,7 @@
         <v>400</v>
       </c>
       <c r="H2" t="s">
-        <v>227</v>
+        <v>584</v>
       </c>
       <c r="I2" t="s">
         <v>229</v>
@@ -3242,7 +3569,7 @@
         <v>400</v>
       </c>
       <c r="H3" t="s">
-        <v>227</v>
+        <v>584</v>
       </c>
       <c r="I3" t="s">
         <v>230</v>
@@ -3271,7 +3598,7 @@
         <v>400</v>
       </c>
       <c r="H4" t="s">
-        <v>227</v>
+        <v>584</v>
       </c>
       <c r="I4" t="s">
         <v>231</v>
@@ -3303,7 +3630,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="s">
-        <v>227</v>
+        <v>584</v>
       </c>
       <c r="I5" s="35" t="s">
         <v>249</v>
@@ -3332,7 +3659,7 @@
         <v>400</v>
       </c>
       <c r="H6" t="s">
-        <v>227</v>
+        <v>584</v>
       </c>
       <c r="I6" s="35" t="s">
         <v>250</v>
@@ -3361,7 +3688,7 @@
         <v>400</v>
       </c>
       <c r="H7" t="s">
-        <v>227</v>
+        <v>584</v>
       </c>
       <c r="I7" t="s">
         <v>251</v>
@@ -3390,7 +3717,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="s">
-        <v>227</v>
+        <v>584</v>
       </c>
       <c r="I8" s="35" t="s">
         <v>252</v>
@@ -3419,7 +3746,7 @@
         <v>400</v>
       </c>
       <c r="H9" t="s">
-        <v>227</v>
+        <v>584</v>
       </c>
       <c r="I9" s="35" t="s">
         <v>253</v>
@@ -3451,7 +3778,7 @@
         <v>400</v>
       </c>
       <c r="H10" t="s">
-        <v>227</v>
+        <v>584</v>
       </c>
       <c r="I10" s="35" t="s">
         <v>255</v>
@@ -3480,7 +3807,7 @@
         <v>400</v>
       </c>
       <c r="H11" t="s">
-        <v>227</v>
+        <v>584</v>
       </c>
       <c r="I11" s="35" t="s">
         <v>256</v>
@@ -3512,7 +3839,7 @@
         <v>400</v>
       </c>
       <c r="H12" t="s">
-        <v>227</v>
+        <v>584</v>
       </c>
       <c r="I12" s="35" t="s">
         <v>257</v>
@@ -3541,7 +3868,7 @@
         <v>400</v>
       </c>
       <c r="H13" t="s">
-        <v>227</v>
+        <v>584</v>
       </c>
       <c r="I13" s="35" t="s">
         <v>259</v>
@@ -3570,7 +3897,7 @@
         <v>400</v>
       </c>
       <c r="H14" t="s">
-        <v>227</v>
+        <v>584</v>
       </c>
       <c r="I14" s="35" t="s">
         <v>260</v>
@@ -3599,7 +3926,7 @@
         <v>400</v>
       </c>
       <c r="H15" t="s">
-        <v>227</v>
+        <v>584</v>
       </c>
       <c r="I15" t="s">
         <v>261</v>
@@ -3628,7 +3955,7 @@
         <v>400</v>
       </c>
       <c r="H16" t="s">
-        <v>227</v>
+        <v>584</v>
       </c>
       <c r="I16" s="35" t="s">
         <v>262</v>
@@ -3657,7 +3984,7 @@
         <v>487</v>
       </c>
       <c r="H17" t="s">
-        <v>227</v>
+        <v>585</v>
       </c>
       <c r="I17" s="35" t="s">
         <v>268</v>
@@ -3686,7 +4013,7 @@
         <v>487</v>
       </c>
       <c r="H18" t="s">
-        <v>227</v>
+        <v>585</v>
       </c>
       <c r="I18" s="35" t="s">
         <v>273</v>
@@ -3715,7 +4042,7 @@
         <v>487</v>
       </c>
       <c r="H19" t="s">
-        <v>227</v>
+        <v>585</v>
       </c>
       <c r="I19" s="35" t="s">
         <v>276</v>
@@ -3744,7 +4071,7 @@
         <v>487</v>
       </c>
       <c r="H20" t="s">
-        <v>227</v>
+        <v>585</v>
       </c>
       <c r="I20" s="35" t="s">
         <v>302</v>
@@ -3773,7 +4100,7 @@
         <v>487</v>
       </c>
       <c r="H21" t="s">
-        <v>227</v>
+        <v>585</v>
       </c>
       <c r="I21" s="35" t="s">
         <v>301</v>
@@ -3805,7 +4132,7 @@
         <v>487</v>
       </c>
       <c r="H22" t="s">
-        <v>227</v>
+        <v>585</v>
       </c>
       <c r="I22" s="35" t="s">
         <v>300</v>
@@ -3834,7 +4161,7 @@
         <v>487</v>
       </c>
       <c r="H23" t="s">
-        <v>227</v>
+        <v>585</v>
       </c>
       <c r="I23" s="35" t="s">
         <v>299</v>
@@ -3863,7 +4190,7 @@
         <v>487</v>
       </c>
       <c r="H24" t="s">
-        <v>227</v>
+        <v>585</v>
       </c>
       <c r="I24" s="35" t="s">
         <v>298</v>
@@ -3892,7 +4219,7 @@
         <v>487</v>
       </c>
       <c r="H25" t="s">
-        <v>227</v>
+        <v>585</v>
       </c>
       <c r="I25" s="35" t="s">
         <v>297</v>
@@ -3921,7 +4248,7 @@
         <v>487</v>
       </c>
       <c r="H26" t="s">
-        <v>227</v>
+        <v>585</v>
       </c>
       <c r="I26" s="35" t="s">
         <v>296</v>
@@ -3950,7 +4277,7 @@
         <v>487</v>
       </c>
       <c r="H27" t="s">
-        <v>227</v>
+        <v>585</v>
       </c>
       <c r="I27" s="35" t="s">
         <v>294</v>
@@ -3979,7 +4306,7 @@
         <v>487</v>
       </c>
       <c r="H28" t="s">
-        <v>227</v>
+        <v>585</v>
       </c>
       <c r="I28" s="35" t="s">
         <v>293</v>
@@ -4008,7 +4335,7 @@
         <v>487</v>
       </c>
       <c r="H29" t="s">
-        <v>227</v>
+        <v>585</v>
       </c>
       <c r="I29" s="35" t="s">
         <v>292</v>
@@ -4037,7 +4364,7 @@
         <v>487</v>
       </c>
       <c r="H30" t="s">
-        <v>227</v>
+        <v>585</v>
       </c>
       <c r="I30" s="35" t="s">
         <v>291</v>
@@ -4069,7 +4396,7 @@
         <v>487</v>
       </c>
       <c r="H31" t="s">
-        <v>227</v>
+        <v>585</v>
       </c>
       <c r="I31" s="35" t="s">
         <v>290</v>
@@ -4098,7 +4425,7 @@
         <v>488</v>
       </c>
       <c r="H32" t="s">
-        <v>227</v>
+        <v>586</v>
       </c>
       <c r="I32" s="35" t="s">
         <v>334</v>
@@ -4127,7 +4454,7 @@
         <v>488</v>
       </c>
       <c r="H33" t="s">
-        <v>227</v>
+        <v>586</v>
       </c>
       <c r="I33" t="s">
         <v>335</v>
@@ -4156,7 +4483,7 @@
         <v>488</v>
       </c>
       <c r="H34" t="s">
-        <v>227</v>
+        <v>586</v>
       </c>
       <c r="I34" t="s">
         <v>347</v>
@@ -4188,7 +4515,7 @@
         <v>488</v>
       </c>
       <c r="H35" t="s">
-        <v>227</v>
+        <v>586</v>
       </c>
       <c r="I35" t="s">
         <v>349</v>
@@ -4217,7 +4544,7 @@
         <v>488</v>
       </c>
       <c r="H36" t="s">
-        <v>227</v>
+        <v>586</v>
       </c>
       <c r="I36" t="s">
         <v>350</v>
@@ -4249,7 +4576,7 @@
         <v>488</v>
       </c>
       <c r="H37" t="s">
-        <v>227</v>
+        <v>586</v>
       </c>
       <c r="I37" t="s">
         <v>353</v>
@@ -4281,7 +4608,7 @@
         <v>488</v>
       </c>
       <c r="H38" t="s">
-        <v>227</v>
+        <v>586</v>
       </c>
       <c r="I38" t="s">
         <v>354</v>
@@ -4310,7 +4637,7 @@
         <v>488</v>
       </c>
       <c r="H39" t="s">
-        <v>227</v>
+        <v>586</v>
       </c>
       <c r="I39" t="s">
         <v>355</v>
@@ -4339,7 +4666,7 @@
         <v>488</v>
       </c>
       <c r="H40" t="s">
-        <v>227</v>
+        <v>586</v>
       </c>
       <c r="I40" t="s">
         <v>356</v>
@@ -4368,7 +4695,7 @@
         <v>488</v>
       </c>
       <c r="H41" t="s">
-        <v>227</v>
+        <v>586</v>
       </c>
       <c r="I41" t="s">
         <v>357</v>
@@ -4397,7 +4724,7 @@
         <v>488</v>
       </c>
       <c r="H42" t="s">
-        <v>227</v>
+        <v>586</v>
       </c>
       <c r="I42" t="s">
         <v>358</v>
@@ -4426,7 +4753,7 @@
         <v>488</v>
       </c>
       <c r="H43" t="s">
-        <v>227</v>
+        <v>586</v>
       </c>
       <c r="I43" t="s">
         <v>359</v>
@@ -4455,7 +4782,7 @@
         <v>488</v>
       </c>
       <c r="H44" t="s">
-        <v>227</v>
+        <v>586</v>
       </c>
       <c r="I44" t="s">
         <v>360</v>
@@ -4484,7 +4811,7 @@
         <v>488</v>
       </c>
       <c r="H45" t="s">
-        <v>227</v>
+        <v>586</v>
       </c>
       <c r="I45" t="s">
         <v>346</v>
@@ -4513,7 +4840,7 @@
         <v>488</v>
       </c>
       <c r="H46" t="s">
-        <v>227</v>
+        <v>586</v>
       </c>
       <c r="I46" t="s">
         <v>345</v>
@@ -4542,7 +4869,7 @@
         <v>486</v>
       </c>
       <c r="H47" t="s">
-        <v>227</v>
+        <v>587</v>
       </c>
       <c r="I47" s="35" t="s">
         <v>489</v>
@@ -4571,7 +4898,7 @@
         <v>486</v>
       </c>
       <c r="H48" t="s">
-        <v>227</v>
+        <v>587</v>
       </c>
       <c r="I48" s="35" t="s">
         <v>490</v>
@@ -4600,7 +4927,7 @@
         <v>486</v>
       </c>
       <c r="H49" t="s">
-        <v>227</v>
+        <v>587</v>
       </c>
       <c r="I49" s="35" t="s">
         <v>491</v>
@@ -4632,7 +4959,7 @@
         <v>486</v>
       </c>
       <c r="H50" t="s">
-        <v>227</v>
+        <v>587</v>
       </c>
       <c r="I50" s="35" t="s">
         <v>492</v>
@@ -4661,7 +4988,7 @@
         <v>486</v>
       </c>
       <c r="H51" t="s">
-        <v>227</v>
+        <v>587</v>
       </c>
       <c r="I51" s="35" t="s">
         <v>493</v>
@@ -4693,7 +5020,7 @@
         <v>486</v>
       </c>
       <c r="H52" t="s">
-        <v>227</v>
+        <v>587</v>
       </c>
       <c r="I52" s="35" t="s">
         <v>494</v>
@@ -4722,7 +5049,7 @@
         <v>486</v>
       </c>
       <c r="H53" t="s">
-        <v>227</v>
+        <v>587</v>
       </c>
       <c r="I53" s="35" t="s">
         <v>496</v>
@@ -4751,7 +5078,7 @@
         <v>486</v>
       </c>
       <c r="H54" t="s">
-        <v>227</v>
+        <v>587</v>
       </c>
       <c r="I54" s="35" t="s">
         <v>497</v>
@@ -4780,7 +5107,7 @@
         <v>486</v>
       </c>
       <c r="H55" t="s">
-        <v>227</v>
+        <v>587</v>
       </c>
       <c r="I55" s="35" t="s">
         <v>498</v>
@@ -4812,7 +5139,7 @@
         <v>486</v>
       </c>
       <c r="H56" t="s">
-        <v>227</v>
+        <v>587</v>
       </c>
       <c r="I56" s="35" t="s">
         <v>499</v>
@@ -4841,7 +5168,7 @@
         <v>486</v>
       </c>
       <c r="H57" t="s">
-        <v>227</v>
+        <v>587</v>
       </c>
       <c r="I57" s="35" t="s">
         <v>500</v>
@@ -4870,7 +5197,7 @@
         <v>486</v>
       </c>
       <c r="H58" t="s">
-        <v>227</v>
+        <v>587</v>
       </c>
       <c r="I58" s="35" t="s">
         <v>501</v>
@@ -4899,7 +5226,7 @@
         <v>486</v>
       </c>
       <c r="H59" t="s">
-        <v>227</v>
+        <v>587</v>
       </c>
       <c r="I59" s="35" t="s">
         <v>502</v>
@@ -4931,7 +5258,7 @@
         <v>486</v>
       </c>
       <c r="H60" t="s">
-        <v>227</v>
+        <v>587</v>
       </c>
       <c r="I60" s="35" t="s">
         <v>249</v>
@@ -4963,7 +5290,7 @@
         <v>486</v>
       </c>
       <c r="H61" t="s">
-        <v>227</v>
+        <v>587</v>
       </c>
       <c r="I61" t="s">
         <v>503</v>
@@ -4992,7 +5319,7 @@
         <v>551</v>
       </c>
       <c r="H62" t="s">
-        <v>227</v>
+        <v>588</v>
       </c>
       <c r="I62" s="35" t="s">
         <v>568</v>
@@ -5021,7 +5348,7 @@
         <v>551</v>
       </c>
       <c r="H63" t="s">
-        <v>227</v>
+        <v>588</v>
       </c>
       <c r="I63" s="35" t="s">
         <v>567</v>
@@ -5038,7 +5365,7 @@
         <v>522</v>
       </c>
       <c r="C64" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D64" s="35" t="s">
         <v>538</v>
@@ -5050,7 +5377,7 @@
         <v>551</v>
       </c>
       <c r="H64" t="s">
-        <v>227</v>
+        <v>588</v>
       </c>
       <c r="I64" t="s">
         <v>566</v>
@@ -5079,7 +5406,7 @@
         <v>551</v>
       </c>
       <c r="H65" t="s">
-        <v>227</v>
+        <v>588</v>
       </c>
       <c r="I65" s="35" t="s">
         <v>565</v>
@@ -5111,7 +5438,7 @@
         <v>551</v>
       </c>
       <c r="H66" t="s">
-        <v>227</v>
+        <v>588</v>
       </c>
       <c r="I66" s="35" t="s">
         <v>564</v>
@@ -5140,7 +5467,7 @@
         <v>551</v>
       </c>
       <c r="H67" t="s">
-        <v>227</v>
+        <v>588</v>
       </c>
       <c r="I67" s="35" t="s">
         <v>563</v>
@@ -5169,7 +5496,7 @@
         <v>551</v>
       </c>
       <c r="H68" t="s">
-        <v>227</v>
+        <v>588</v>
       </c>
       <c r="I68" s="35" t="s">
         <v>561</v>
@@ -5198,7 +5525,7 @@
         <v>551</v>
       </c>
       <c r="H69" t="s">
-        <v>227</v>
+        <v>588</v>
       </c>
       <c r="I69" s="35" t="s">
         <v>560</v>
@@ -5227,7 +5554,7 @@
         <v>551</v>
       </c>
       <c r="H70" t="s">
-        <v>227</v>
+        <v>588</v>
       </c>
       <c r="I70" t="s">
         <v>559</v>
@@ -5259,7 +5586,7 @@
         <v>551</v>
       </c>
       <c r="H71" t="s">
-        <v>227</v>
+        <v>588</v>
       </c>
       <c r="I71" s="35" t="s">
         <v>558</v>
@@ -5288,7 +5615,7 @@
         <v>551</v>
       </c>
       <c r="H72" t="s">
-        <v>227</v>
+        <v>588</v>
       </c>
       <c r="I72" s="35" t="s">
         <v>557</v>
@@ -5317,7 +5644,7 @@
         <v>551</v>
       </c>
       <c r="H73" t="s">
-        <v>227</v>
+        <v>588</v>
       </c>
       <c r="I73" s="35" t="s">
         <v>556</v>
@@ -5346,7 +5673,7 @@
         <v>551</v>
       </c>
       <c r="H74" t="s">
-        <v>227</v>
+        <v>588</v>
       </c>
       <c r="I74" s="35" t="s">
         <v>555</v>
@@ -5375,7 +5702,7 @@
         <v>551</v>
       </c>
       <c r="H75" t="s">
-        <v>227</v>
+        <v>588</v>
       </c>
       <c r="I75" t="s">
         <v>553</v>
@@ -5404,13 +5731,463 @@
         <v>551</v>
       </c>
       <c r="H76" t="s">
-        <v>227</v>
+        <v>588</v>
       </c>
       <c r="I76" s="35" t="s">
         <v>552</v>
       </c>
       <c r="N76" s="35" t="s">
         <v>583</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="53" t="s">
+        <v>589</v>
+      </c>
+      <c r="B77" t="s">
+        <v>590</v>
+      </c>
+      <c r="C77" t="s">
+        <v>399</v>
+      </c>
+      <c r="D77" t="s">
+        <v>606</v>
+      </c>
+      <c r="E77">
+        <v>2</v>
+      </c>
+      <c r="F77" t="s">
+        <v>621</v>
+      </c>
+      <c r="H77" t="s">
+        <v>623</v>
+      </c>
+      <c r="I77" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="J77" t="s">
+        <v>351</v>
+      </c>
+      <c r="N77" s="4" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="53" t="s">
+        <v>589</v>
+      </c>
+      <c r="B78" t="s">
+        <v>591</v>
+      </c>
+      <c r="C78" t="s">
+        <v>399</v>
+      </c>
+      <c r="D78" t="s">
+        <v>607</v>
+      </c>
+      <c r="E78">
+        <v>3</v>
+      </c>
+      <c r="F78" t="s">
+        <v>621</v>
+      </c>
+      <c r="H78" t="s">
+        <v>623</v>
+      </c>
+      <c r="I78" s="4" t="s">
+        <v>638</v>
+      </c>
+      <c r="N78" s="4" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="53" t="s">
+        <v>589</v>
+      </c>
+      <c r="B79" t="s">
+        <v>592</v>
+      </c>
+      <c r="C79" t="s">
+        <v>396</v>
+      </c>
+      <c r="D79" t="s">
+        <v>608</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79" t="s">
+        <v>621</v>
+      </c>
+      <c r="H79" t="s">
+        <v>623</v>
+      </c>
+      <c r="I79" s="4" t="s">
+        <v>637</v>
+      </c>
+      <c r="N79" s="4" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="53" t="s">
+        <v>589</v>
+      </c>
+      <c r="B80" t="s">
+        <v>593</v>
+      </c>
+      <c r="C80" t="s">
+        <v>398</v>
+      </c>
+      <c r="D80" t="s">
+        <v>609</v>
+      </c>
+      <c r="E80">
+        <v>2</v>
+      </c>
+      <c r="F80" t="s">
+        <v>621</v>
+      </c>
+      <c r="G80" t="s">
+        <v>621</v>
+      </c>
+      <c r="H80" t="s">
+        <v>623</v>
+      </c>
+      <c r="I80" s="4" t="s">
+        <v>636</v>
+      </c>
+      <c r="N80" s="4" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="53" t="s">
+        <v>589</v>
+      </c>
+      <c r="B81" t="s">
+        <v>594</v>
+      </c>
+      <c r="C81" t="s">
+        <v>398</v>
+      </c>
+      <c r="D81" t="s">
+        <v>610</v>
+      </c>
+      <c r="E81">
+        <v>4</v>
+      </c>
+      <c r="F81" t="s">
+        <v>621</v>
+      </c>
+      <c r="H81" t="s">
+        <v>623</v>
+      </c>
+      <c r="I81" s="4" t="s">
+        <v>640</v>
+      </c>
+      <c r="J81" t="s">
+        <v>641</v>
+      </c>
+      <c r="N81" s="4" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="53" t="s">
+        <v>589</v>
+      </c>
+      <c r="B82" t="s">
+        <v>595</v>
+      </c>
+      <c r="C82" t="s">
+        <v>396</v>
+      </c>
+      <c r="D82" t="s">
+        <v>611</v>
+      </c>
+      <c r="E82">
+        <v>2</v>
+      </c>
+      <c r="F82" t="s">
+        <v>621</v>
+      </c>
+      <c r="H82" t="s">
+        <v>623</v>
+      </c>
+      <c r="I82" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="N82" s="4" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="53" t="s">
+        <v>589</v>
+      </c>
+      <c r="B83" t="s">
+        <v>596</v>
+      </c>
+      <c r="C83" t="s">
+        <v>396</v>
+      </c>
+      <c r="D83" t="s">
+        <v>612</v>
+      </c>
+      <c r="E83">
+        <v>2</v>
+      </c>
+      <c r="F83" t="s">
+        <v>621</v>
+      </c>
+      <c r="H83" t="s">
+        <v>623</v>
+      </c>
+      <c r="I83" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="N83" s="4" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="53" t="s">
+        <v>589</v>
+      </c>
+      <c r="B84" t="s">
+        <v>597</v>
+      </c>
+      <c r="C84" t="s">
+        <v>395</v>
+      </c>
+      <c r="D84" t="s">
+        <v>613</v>
+      </c>
+      <c r="E84">
+        <v>2</v>
+      </c>
+      <c r="F84" t="s">
+        <v>621</v>
+      </c>
+      <c r="H84" t="s">
+        <v>623</v>
+      </c>
+      <c r="I84" s="4" t="s">
+        <v>630</v>
+      </c>
+      <c r="N84" s="4" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="53" t="s">
+        <v>589</v>
+      </c>
+      <c r="B85" t="s">
+        <v>598</v>
+      </c>
+      <c r="C85" t="s">
+        <v>396</v>
+      </c>
+      <c r="D85" t="s">
+        <v>614</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="F85" t="s">
+        <v>621</v>
+      </c>
+      <c r="H85" t="s">
+        <v>623</v>
+      </c>
+      <c r="I85" s="4" t="s">
+        <v>634</v>
+      </c>
+      <c r="J85" t="s">
+        <v>635</v>
+      </c>
+      <c r="N85" s="4" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="53" t="s">
+        <v>589</v>
+      </c>
+      <c r="B86" t="s">
+        <v>599</v>
+      </c>
+      <c r="C86" t="s">
+        <v>395</v>
+      </c>
+      <c r="D86" t="s">
+        <v>615</v>
+      </c>
+      <c r="E86">
+        <v>2</v>
+      </c>
+      <c r="F86" t="s">
+        <v>621</v>
+      </c>
+      <c r="H86" t="s">
+        <v>623</v>
+      </c>
+      <c r="I86" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="J86" t="s">
+        <v>348</v>
+      </c>
+      <c r="N86" s="4" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="53" t="s">
+        <v>589</v>
+      </c>
+      <c r="B87" t="s">
+        <v>600</v>
+      </c>
+      <c r="C87" t="s">
+        <v>397</v>
+      </c>
+      <c r="D87" t="s">
+        <v>616</v>
+      </c>
+      <c r="E87">
+        <v>4</v>
+      </c>
+      <c r="F87" t="s">
+        <v>621</v>
+      </c>
+      <c r="H87" t="s">
+        <v>623</v>
+      </c>
+      <c r="I87" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="N87" s="4" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="53" t="s">
+        <v>589</v>
+      </c>
+      <c r="B88" t="s">
+        <v>601</v>
+      </c>
+      <c r="C88" t="s">
+        <v>395</v>
+      </c>
+      <c r="D88" t="s">
+        <v>617</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88" t="s">
+        <v>621</v>
+      </c>
+      <c r="H88" t="s">
+        <v>623</v>
+      </c>
+      <c r="I88" s="4" t="s">
+        <v>633</v>
+      </c>
+      <c r="N88" s="4" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="53" t="s">
+        <v>589</v>
+      </c>
+      <c r="B89" t="s">
+        <v>602</v>
+      </c>
+      <c r="C89" t="s">
+        <v>398</v>
+      </c>
+      <c r="D89" t="s">
+        <v>618</v>
+      </c>
+      <c r="E89">
+        <v>3</v>
+      </c>
+      <c r="F89" t="s">
+        <v>621</v>
+      </c>
+      <c r="H89" t="s">
+        <v>623</v>
+      </c>
+      <c r="I89" s="4" t="s">
+        <v>632</v>
+      </c>
+      <c r="N89" s="4" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="53" t="s">
+        <v>589</v>
+      </c>
+      <c r="B90" t="s">
+        <v>603</v>
+      </c>
+      <c r="C90" t="s">
+        <v>399</v>
+      </c>
+      <c r="D90" t="s">
+        <v>619</v>
+      </c>
+      <c r="E90">
+        <v>4</v>
+      </c>
+      <c r="F90" t="s">
+        <v>621</v>
+      </c>
+      <c r="H90" t="s">
+        <v>623</v>
+      </c>
+      <c r="I90" s="4" t="s">
+        <v>624</v>
+      </c>
+      <c r="N90" s="4" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="53" t="s">
+        <v>589</v>
+      </c>
+      <c r="B91" t="s">
+        <v>604</v>
+      </c>
+      <c r="C91" t="s">
+        <v>398</v>
+      </c>
+      <c r="D91" t="s">
+        <v>620</v>
+      </c>
+      <c r="E91">
+        <v>2</v>
+      </c>
+      <c r="F91" t="s">
+        <v>621</v>
+      </c>
+      <c r="H91" t="s">
+        <v>623</v>
+      </c>
+      <c r="I91" s="4" t="s">
+        <v>622</v>
+      </c>
+      <c r="N91" s="4" t="s">
+        <v>658</v>
       </c>
     </row>
   </sheetData>

--- a/NetRealmsNanSetup/nanDECK/cards.xlsx
+++ b/NetRealmsNanSetup/nanDECK/cards.xlsx
@@ -9,12 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="11820" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="11820" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Lands" sheetId="1" r:id="rId1"/>
     <sheet name="WorldWeavers" sheetId="2" r:id="rId2"/>
     <sheet name="Units" sheetId="3" r:id="rId3"/>
+    <sheet name="Programs" sheetId="5" r:id="rId8"/>
+    <sheet name="Scripts" sheetId="6" r:id="rId9"/>
     <sheet name="Relics" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="171027"/>
@@ -2029,6 +2031,105 @@
   </si>
   <si>
     <t xml:space="preserve">The spotlight shines, but the pressure burns. </t>
+  </si>
+  <si>
+    <t>Project N#M#SIS</t>
+  </si>
+  <si>
+    <t>Project N3M3SIS</t>
+  </si>
+  <si>
+    <t>Project L1CK3R</t>
+  </si>
+  <si>
+    <t>Fragmented Marionette</t>
+  </si>
+  <si>
+    <t>Data Phantom</t>
+  </si>
+  <si>
+    <t>Looped Rogue</t>
+  </si>
+  <si>
+    <t>System Eraser</t>
+  </si>
+  <si>
+    <t>Patchwork Soldier</t>
+  </si>
+  <si>
+    <t>Disruptor Drone</t>
+  </si>
+  <si>
+    <t>Null Stalker</t>
+  </si>
+  <si>
+    <t>Overclocked Harbinger</t>
+  </si>
+  <si>
+    <t>Virus Spawn</t>
+  </si>
+  <si>
+    <t>Recursive Assassin</t>
+  </si>
+  <si>
+    <t>Proxy Saboteur</t>
+  </si>
+  <si>
+    <t>Shard Runner</t>
+  </si>
+  <si>
+    <t>Glitched Colossus</t>
+  </si>
+  <si>
+    <t>Errorbound Wraith</t>
+  </si>
+  <si>
+    <t>Glitchborn Knight</t>
+  </si>
+  <si>
+    <t>Static Weaver</t>
+  </si>
+  <si>
+    <t>Distorted Overseer</t>
+  </si>
+  <si>
+    <t>Anomaly Hunter</t>
+  </si>
+  <si>
+    <t>Codebreaker Sentinel</t>
+  </si>
+  <si>
+    <t>Corrupted Avatar</t>
+  </si>
+  <si>
+    <t>Epic Glitch Unit</t>
+  </si>
+  <si>
+    <t>Overwhelming Presence: When Project N3M3SIS enters the field, all enemy Units lose 2 Attack and Defense until the end of your next turn.</t>
+  </si>
+  <si>
+    <t>Rocket Barrage: Pay 3 Game Energy: Deal 5 damage to all enemy Units. This ability can only be activated once per turn.</t>
+  </si>
+  <si>
+    <t>Indomitable: If this Unit is destroyed, it returns to your hand instead of the discard pile.</t>
+  </si>
+  <si>
+    <t>An unstoppable weapon of annihilation, it exists only to hunt and destroy. Resistance is futile.</t>
+  </si>
+  <si>
+    <t>Born from the glitches of failed experiments, its hunger is endless, and its prey has nowhere to hide."</t>
+  </si>
+  <si>
+    <t>Born from the glitches of failed experiments, its hunger is endless, and its prey has nowhere to hide.</t>
+  </si>
+  <si>
+    <t>Adaptive Strike: When Project L1CK3R attacks a Program or Unit, it gains +2 Attack until the end of the turn.</t>
+  </si>
+  <si>
+    <t>Lingering Corruption: When Project L1CK3R damages an enemy Unit, that Unit cannot regain abilities or defense until your next turn.</t>
+  </si>
+  <si>
+    <t>Glitch Unit</t>
   </si>
 </sst>
 </file>
@@ -2162,7 +2263,7 @@
       <color rgb="FF000000"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2219,8 +2320,13 @@
         <fgColor rgb="FFD7E4BC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -2376,11 +2482,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
       <alignment wrapText="1"/>
@@ -2453,6 +2574,8 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="11" applyFill="1" borderId="10" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="11" applyFill="1" borderId="11" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="11" applyFill="1" borderId="12" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="12" applyFill="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="12" applyFill="1" borderId="13" applyBorder="1" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2769,7 +2892,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A9">
+    <sheetView workbookViewId="0" topLeftCell="A28">
       <selection activeCell="B31" activeCellId="0" sqref="B31"/>
     </sheetView>
   </sheetViews>
@@ -3360,8 +3483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="B1">
-      <selection activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView workbookViewId="0" topLeftCell="D1" tabSelected="1">
+      <selection activeCell="I3" activeCellId="0" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3371,11 +3494,14 @@
     <col min="3" max="3" width="59.88671875" customWidth="1" bestFit="1"/>
     <col min="4" max="4" width="70.44140625" customWidth="1" bestFit="1"/>
     <col min="5" max="5" width="5.5546875" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" width="25.109375" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" width="85.109375" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" width="49.5546875" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" width="84.21875" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" width="72.77734375" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" width="5.5546875" customWidth="1"/>
+    <col min="7" max="7" width="5.5546875" customWidth="1"/>
+    <col min="8" max="8" width="5.5546875" customWidth="1"/>
+    <col min="9" max="9" width="25.109375" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" width="114" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" width="108.88671875" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" width="84.21875" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" width="82.33203125" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3395,63 +3521,276 @@
         <v>48</v>
       </c>
       <c r="F1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" t="s">
         <v>32</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>43</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>44</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>45</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>265</v>
+      <c r="A2" s="55" t="s">
+        <v>266</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>393</v>
+        <v>660</v>
       </c>
       <c r="E2">
         <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>61</v>
+        <v>400</v>
       </c>
       <c r="G2" t="s">
-        <v>131</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="J2">
-        <v>5</v>
-      </c>
-      <c r="K2">
+        <v>400</v>
+      </c>
+      <c r="H2" t="s">
+        <v>400</v>
+      </c>
+      <c r="I2" t="s">
+        <v>682</v>
+      </c>
+      <c r="J2" t="s">
+        <v>683</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>684</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>685</v>
+      </c>
+      <c r="M2">
+        <v>8</v>
+      </c>
+      <c r="N2">
+        <v>6</v>
+      </c>
+      <c r="O2" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="55" t="s">
+        <v>266</v>
+      </c>
+      <c r="B3" t="s">
+        <v>661</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>400</v>
+      </c>
+      <c r="G3" t="s">
+        <v>400</v>
+      </c>
+      <c r="I3" t="s">
+        <v>691</v>
+      </c>
+      <c r="J3" t="s">
+        <v>689</v>
+      </c>
+      <c r="K3" t="s">
+        <v>690</v>
+      </c>
+      <c r="M3">
         <v>4</v>
       </c>
-      <c r="L2" t="s">
-        <v>135</v>
+      <c r="N3">
+        <v>3</v>
+      </c>
+      <c r="O3" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="55" t="s">
+        <v>266</v>
+      </c>
+      <c r="B4" t="s">
+        <v>662</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="55" t="s">
+        <v>266</v>
+      </c>
+      <c r="B5" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="55" t="s">
+        <v>266</v>
+      </c>
+      <c r="B6" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="55" t="s">
+        <v>266</v>
+      </c>
+      <c r="B7" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="55" t="s">
+        <v>266</v>
+      </c>
+      <c r="B8" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="55" t="s">
+        <v>266</v>
+      </c>
+      <c r="B9" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="55" t="s">
+        <v>266</v>
+      </c>
+      <c r="B10" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="55" t="s">
+        <v>266</v>
+      </c>
+      <c r="B11" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="55" t="s">
+        <v>266</v>
+      </c>
+      <c r="B12" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="55" t="s">
+        <v>266</v>
+      </c>
+      <c r="B13" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="55" t="s">
+        <v>266</v>
+      </c>
+      <c r="B14" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="55" t="s">
+        <v>266</v>
+      </c>
+      <c r="B15" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="55" t="s">
+        <v>266</v>
+      </c>
+      <c r="B16" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="55" t="s">
+        <v>266</v>
+      </c>
+      <c r="B17" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="55" t="s">
+        <v>266</v>
+      </c>
+      <c r="B18" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="55" t="s">
+        <v>266</v>
+      </c>
+      <c r="B19" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="55" t="s">
+        <v>266</v>
+      </c>
+      <c r="B20" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="55" t="s">
+        <v>266</v>
+      </c>
+      <c r="B21" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="55" t="s">
+        <v>266</v>
+      </c>
+      <c r="B22" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="55" t="s">
+        <v>266</v>
+      </c>
+      <c r="B23" t="s">
+        <v>681</v>
       </c>
     </row>
   </sheetData>
@@ -3462,7 +3801,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="E69" zoomScale="80" zoomScaleNormal="80" tabSelected="1">
+    <sheetView workbookViewId="0" topLeftCell="A1" zoomScale="110" zoomScaleNormal="110">
       <selection activeCell="N91" activeCellId="0" sqref="N91"/>
     </sheetView>
   </sheetViews>
@@ -6193,4 +6532,30 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J24" activeCellId="0" sqref="J24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/NetRealmsNanSetup/nanDECK/cards.xlsx
+++ b/NetRealmsNanSetup/nanDECK/cards.xlsx
@@ -2130,6 +2130,528 @@
   </si>
   <si>
     <t>Glitch Unit</t>
+  </si>
+  <si>
+    <t>When Fragmented Marionette enters the Grid, mill 2 cards.</t>
+  </si>
+  <si>
+    <t>It dances to a broken rhythm, never finding its strings.</t>
+  </si>
+  <si>
+    <t>Flying. Whenever Data Phantom deals damage to a player, they exile the top card of their archive.</t>
+  </si>
+  <si>
+    <t>It feeds on what you’ll never see again.</t>
+  </si>
+  <si>
+    <t>Whenever Looped Rogue attacks, it phases out until your next turn.</t>
+  </si>
+  <si>
+    <t>When System Eraser enters the Grid, exile up to two target Units.</t>
+  </si>
+  <si>
+    <t>Whenever Patchwork Soldier is damaged, its controller mills 1 card.</t>
+  </si>
+  <si>
+    <t>Tap: Target Unit takes 1 Damage.</t>
+  </si>
+  <si>
+    <t>Null Stalker can’t be blocked by Units with Shielded.</t>
+  </si>
+  <si>
+    <t>Null Stalker can’t be blocked.</t>
+  </si>
+  <si>
+    <t>At the end of your turn, exile Overclocked Harbinger.</t>
+  </si>
+  <si>
+    <t>When Virus Spawn enters the Grid, create a 1/1 “Infected Token.”</t>
+  </si>
+  <si>
+    <t>Whenever Recursive Assassin destroys a Unit, return it to your hand.</t>
+  </si>
+  <si>
+    <t>When Proxy Saboteur enters the Grid, destroy target Relic.</t>
+  </si>
+  <si>
+    <t>Haste. Shard Runner deals 1 damage to its controller at the end of each turn.</t>
+  </si>
+  <si>
+    <t>Trample. When Glitched Colossus attacks, mill 3 cards.</t>
+  </si>
+  <si>
+    <t>Whenever Errorbound Wraith is targeted by a spell, its controller loses 1 Integrity.</t>
+  </si>
+  <si>
+    <t>First strike. Whenever Glitchborn Knight deals combat damage, exile the top card of its controller’s archive.</t>
+  </si>
+  <si>
+    <t>Tap: Target Unit gains +1/+1 and becomes Glitched until end of turn.</t>
+  </si>
+  <si>
+    <t>Other Glitched Units you control gain +1/+1.</t>
+  </si>
+  <si>
+    <t>Whenever Anomaly Hunter enters the Grid, target opponent reveals their hand. You may exile a card from it until Anomaly Hunter leaves the Grid.</t>
+  </si>
+  <si>
+    <t>Whenever Codebreaker Sentinel attacks, you may return a Glitched card from your exile to your archive.</t>
+  </si>
+  <si>
+    <t>Flying, Trample. When Corrupted Avatar enters the Grid, mill 5 cards.</t>
+  </si>
+  <si>
+    <t>An ancient presence, awakened and broken.</t>
+  </si>
+  <si>
+    <t>It unravels the mysteries of lost data.</t>
+  </si>
+  <si>
+    <t>It seeks out inconsistencies and eliminates them.</t>
+  </si>
+  <si>
+    <t>It controls the chaos, bending it to its will.</t>
+  </si>
+  <si>
+    <t>It rewrites the code of reality to its advantage.</t>
+  </si>
+  <si>
+    <t>Its blade cuts through code and reality alike.</t>
+  </si>
+  <si>
+    <t>Touch it, and you’ll share its curse.</t>
+  </si>
+  <si>
+    <t>Its steps rewrite the battlefield.</t>
+  </si>
+  <si>
+    <t>Fast, unstable, and unpredictable.</t>
+  </si>
+  <si>
+    <t>It doesn’t knock—it deletes.</t>
+  </si>
+  <si>
+    <t>You can’t kill what’s already been rewritten.</t>
+  </si>
+  <si>
+    <t>One glitch leads to many.</t>
+  </si>
+  <si>
+    <t>Too much power burns away too quickly.</t>
+  </si>
+  <si>
+    <t>No shield can stop the void</t>
+  </si>
+  <si>
+    <t>Small, silent, and devastating.</t>
+  </si>
+  <si>
+    <t>Built from scraps, it still finds a way to fight.</t>
+  </si>
+  <si>
+    <t>All it leaves behind is the absence of what once was.</t>
+  </si>
+  <si>
+    <t>You’ll never catch it, but it will find you.</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Glitch\Units\ProjectN3M3SIS.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Glitch\Units\</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Glitch\Units\ProjectL1CK3R</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Glitch\Units\FragmentedMarionette</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Glitch\Units\DataPhantom</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Glitch\Units\LoopedRogue</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Glitch\Units\ProjectL1CK3R.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Glitch\Units\FragmentedMarionette.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Glitch\Units\DataPhantom.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Glitch\Units\LoopedRogue.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Glitch\Units\SystemEraser.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Glitch\Units\PatchworkSoldier.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Glitch\Units\DisruptorDrone.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Glitch\Units\NullStalker.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Glitch\Units\OverclockedHarbinger.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Glitch\Units\VirusSpawn.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Glitch\Units\RecursiveAssassin.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Glitch\Units\ProxySaboteur.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Glitch\Units\ShardRunner.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Glitch\Units\GlitchedColossus.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Glitch\Units\ErrorboundWraith.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Glitch\Units\GlitchbornKnight.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Glitch\Units\StaticWeaver.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Glitch\Units\DistortedOverseer.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Glitch\Units\AnomalyHunter.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Glitch\Units\CodebreakerSentinel.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Glitch\Units\CorruptedAvatar.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Creep\Relic\InvisibleHandshake.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Creep\Relic\PhantomPing.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\worldweavers\</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\worldweavers\Xieon.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\worldweavers\Ashke.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\worldweavers\ProtoMyke.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\worldweavers\Vexis.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\worldweavers\Lyra.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\worldweavers\Ashke.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\worldweavers\ProtoMyke.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\worldweavers\Xieon.jpg</t>
+  </si>
+  <si>
+    <t>Cost6</t>
+  </si>
+  <si>
+    <t>Digital Phoenix</t>
+  </si>
+  <si>
+    <t>Overclocked Hacker</t>
+  </si>
+  <si>
+    <t>Logic Sentinel</t>
+  </si>
+  <si>
+    <t>Core Guardian</t>
+  </si>
+  <si>
+    <t>Codebreaker Thief</t>
+  </si>
+  <si>
+    <t>Hexcode Serpent</t>
+  </si>
+  <si>
+    <t>Encrypted Courier</t>
+  </si>
+  <si>
+    <t>Patchwork Analyzer</t>
+  </si>
+  <si>
+    <t>Gridwalker Adept</t>
+  </si>
+  <si>
+    <t>Codebound Sentinel</t>
+  </si>
+  <si>
+    <t>Assembler Bot</t>
+  </si>
+  <si>
+    <t>Recursive Construct</t>
+  </si>
+  <si>
+    <t>Protocol Enforcer</t>
+  </si>
+  <si>
+    <t>Firewall Golem</t>
+  </si>
+  <si>
+    <t>Logic Arbiter</t>
+  </si>
+  <si>
+    <t>Code Harvester</t>
+  </si>
+  <si>
+    <t>Quantum Hacker</t>
+  </si>
+  <si>
+    <t>Debugger Infiltrator</t>
+  </si>
+  <si>
+    <t>Byte Sentinel</t>
+  </si>
+  <si>
+    <t>Syntax Slicer</t>
+  </si>
+  <si>
+    <t>Algorithmic Dragon</t>
+  </si>
+  <si>
+    <t>Cipher Guardian</t>
+  </si>
+  <si>
+    <t>Codeweaver Adept</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Code\Units\</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Code\Units\CodeweaverAdept.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Code\Units\CipherGuardian.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Code\Units\AlgorithmicDragon.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Code\Units\SyntaxSlicer.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Code\Units\ByteSentinel.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Code\Units\DebuggerInfiltrator.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Code\Units\QuantumHacker.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Code\Units\CodeHarvester.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Code\Units\LogicArbiter.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Code\Units\FirewallGolem.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Code\Units\ProtocolEnforcer.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Code\Units\RecursiveConstruct.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Code\Units\AssemblerBot.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Code\Units\CodeboundSentinel.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Code\Units\GridwalkerAdept.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Code\Units\PatchworkAnalyzer.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Code\Units\EncryptedCourier.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Code\Units\HexcodeSerpent.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Code\Units\CodebreakerThief.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Code\Units\CoreGuardian.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Code\Units\LogicSentinel.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Code\Units\OverclockedHacker.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Code\Units\DigitalPhoenix.jpeg</t>
+  </si>
+  <si>
+    <t>Code Unit</t>
+  </si>
+  <si>
+    <t>From the ashes of broken code, it rises anew.</t>
+  </si>
+  <si>
+    <t>Flying. When Digital Phoenix is destroyed, return it to the Grid with a +1/+1 counter.</t>
+  </si>
+  <si>
+    <t>Haste. At the end of your turn, exile Overclocked Hacker.</t>
+  </si>
+  <si>
+    <t>Tap: Add 1C for each Code Unit you control.</t>
+  </si>
+  <si>
+    <t>Tap: Prevent the next 2 damage that would be dealt to any Unit this turn.</t>
+  </si>
+  <si>
+    <t>Tap: Exile the top card of an opponent’s archive. You may play it until the end of your turn.</t>
+  </si>
+  <si>
+    <t>Deathtouch</t>
+  </si>
+  <si>
+    <t>When Encrypted Courier enters the Grid, draw a card.</t>
+  </si>
+  <si>
+    <t>Tap: Look at the top two cards of your archive. You may exile one of them.</t>
+  </si>
+  <si>
+    <t>Whenever Gridwalker Adept deals combat damage, scry 1.</t>
+  </si>
+  <si>
+    <t>Shielded. Whenever Codebound Sentinel is dealt damage, exile the top card of your archive.</t>
+  </si>
+  <si>
+    <t>Tap: Create a 1/1 Code Fragment Unit.</t>
+  </si>
+  <si>
+    <t>Whenever Recursive Construct is destroyed, return it to the Grid at the start of your next turn.</t>
+  </si>
+  <si>
+    <t>Tap: Target Unit loses its abilities until end of turn.</t>
+  </si>
+  <si>
+    <t>When Firewall Golem enters the Grid, target opponent’s next attack is negated.</t>
+  </si>
+  <si>
+    <t>Whenever Logic Arbiter deals combat damage, you may draw a card.</t>
+  </si>
+  <si>
+    <t>Whenever Code Harvester enters the Grid, you gain 1C.</t>
+  </si>
+  <si>
+    <t>Tap: Look at the top three cards of your archive. You may rearrange them in any order.</t>
+  </si>
+  <si>
+    <t>Whenever Debugger Infiltrator attacks, exile the top card of your opponent's archive.</t>
+  </si>
+  <si>
+    <t>Tap: Add 1C to your energy pool.</t>
+  </si>
+  <si>
+    <t>First strike.</t>
+  </si>
+  <si>
+    <t>Flying. Whenever Algorithmic Dragon deals damage to a player, search your archive for a Relic card and add it to your hand.</t>
+  </si>
+  <si>
+    <t>Shielded. (This Unit can’t be targeted by your opponent’s abilities.)</t>
+  </si>
+  <si>
+    <t>Tap: Target Unit gains +1/+1 until end of turn.</t>
+  </si>
+  <si>
+    <t>It burns through the system, leaving nothing but a trail of chaos.</t>
+  </si>
+  <si>
+    <t>Its logic is the foundation of the Grid’s strength.</t>
+  </si>
+  <si>
+    <t>The core must not fall, no matter the cost.</t>
+  </si>
+  <si>
+    <t>The Grid’s secrets are mine for the taking.</t>
+  </si>
+  <si>
+    <t>A single misstep, and it will devour you whole.</t>
+  </si>
+  <si>
+    <t>The message always arrives, no matter the danger.</t>
+  </si>
+  <si>
+    <t>It scans for anomalies and potential threats with surgical precision.</t>
+  </si>
+  <si>
+    <t>The Grid is an endless maze, but they walk it with ease.</t>
+  </si>
+  <si>
+    <t>It guards the Grid, even at the cost of its own integrity.</t>
+  </si>
+  <si>
+    <t>From one comes many.</t>
+  </si>
+  <si>
+    <t>Its loops are eternal.</t>
+  </si>
+  <si>
+    <t>All anomalies will be contained.</t>
+  </si>
+  <si>
+    <t>No intruder can pass through its watchful eye.</t>
+  </si>
+  <si>
+    <t>The logic is undeniable.</t>
+  </si>
+  <si>
+    <t>The Grid rewards those who work within its bounds.</t>
+  </si>
+  <si>
+    <t>Reality is just a sequence waiting to be rewritten.</t>
+  </si>
+  <si>
+    <t>Nothing escapes its scrutiny.</t>
+  </si>
+  <si>
+    <t>Every line of code serves the greater Grid.</t>
+  </si>
+  <si>
+    <t>It carves through logic with precision.</t>
+  </si>
+  <si>
+    <t>In its wings lies the knowledge of a thousand solutions.</t>
+  </si>
+  <si>
+    <t>An unbreakable cipher stands between chaos and order.</t>
+  </si>
+  <si>
+    <t>With each thread woven, the Grid grows stronger.</t>
   </si>
 </sst>
 </file>
@@ -3334,20 +3856,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection activeCell="B9" activeCellId="0" sqref="B9"/>
+    <sheetView workbookViewId="0" topLeftCell="C1">
+      <selection activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="26.109375" customWidth="1"/>
-    <col min="2" max="2" width="61.77734375" customWidth="1"/>
-    <col min="3" max="3" width="59.77734375" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" width="31.77734375" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" width="80.109375" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" width="81.21875" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" width="134.33203125" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" width="48.33203125" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" width="66.7109375" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" width="69.7109375" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" width="31.77734375" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" width="80.109375" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" width="81.21875" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" width="134.33203125" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" width="48.33203125" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3364,24 +3886,36 @@
         <v>48</v>
       </c>
       <c r="E1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" t="s">
         <v>32</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>43</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>44</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>45</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="O1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3395,25 +3929,31 @@
       <c r="C2" t="s">
         <v>195</v>
       </c>
-      <c r="D2" t="s">
-        <v>136</v>
+      <c r="D2">
+        <v>3</v>
       </c>
       <c r="E2" t="s">
+        <v>488</v>
+      </c>
+      <c r="F2" t="s">
+        <v>488</v>
+      </c>
+      <c r="I2" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="J2">
+      <c r="N2">
         <v>5</v>
       </c>
-      <c r="K2" t="s">
+      <c r="O2" t="s">
         <v>47</v>
       </c>
     </row>
@@ -3424,7 +3964,10 @@
       <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
+      <c r="C3" t="s">
+        <v>770</v>
+      </c>
+      <c r="I3" t="s">
         <v>203</v>
       </c>
     </row>
@@ -3435,11 +3978,14 @@
       <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="E4" t="s">
+      <c r="C4" t="s">
+        <v>768</v>
+      </c>
+      <c r="I4" t="s">
         <v>204</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -3448,7 +3994,10 @@
       <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="E5" t="s">
+      <c r="C5" t="s">
+        <v>769</v>
+      </c>
+      <c r="I5" t="s">
         <v>205</v>
       </c>
     </row>
@@ -3459,7 +4008,10 @@
       <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="E6" t="s">
+      <c r="C6" t="s">
+        <v>766</v>
+      </c>
+      <c r="I6" t="s">
         <v>206</v>
       </c>
     </row>
@@ -3470,7 +4022,10 @@
       <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="E7" t="s">
+      <c r="C7" t="s">
+        <v>767</v>
+      </c>
+      <c r="I7" t="s">
         <v>207</v>
       </c>
     </row>
@@ -3483,22 +4038,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="D1" tabSelected="1">
-      <selection activeCell="I3" activeCellId="0" sqref="I3"/>
+    <sheetView workbookViewId="0" topLeftCell="A15" zoomScale="40" zoomScaleNormal="40" tabSelected="1">
+      <selection activeCell="O24" activeCellId="0" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="8.28515625" customWidth="1"/>
-    <col min="2" max="2" width="19.77734375" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" width="59.88671875" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" width="70.44140625" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" width="21.5703125" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" width="64.5703125" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" width="79.7109375" customWidth="1" bestFit="1"/>
     <col min="5" max="5" width="5.5546875" customWidth="1" bestFit="1"/>
     <col min="6" max="6" width="5.5546875" customWidth="1"/>
     <col min="7" max="7" width="5.5546875" customWidth="1"/>
     <col min="8" max="8" width="5.5546875" customWidth="1"/>
     <col min="9" max="9" width="25.109375" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" width="114" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" width="128.28515625" customWidth="1" bestFit="1"/>
     <col min="11" max="11" width="108.88671875" customWidth="1" bestFit="1"/>
     <col min="12" max="12" width="84.21875" customWidth="1" bestFit="1"/>
     <col min="15" max="15" width="82.33203125" customWidth="1" bestFit="1"/>
@@ -3558,6 +4113,12 @@
       <c r="B2" t="s">
         <v>660</v>
       </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>733</v>
+      </c>
       <c r="E2">
         <v>4</v>
       </c>
@@ -3599,6 +4160,12 @@
       <c r="B3" t="s">
         <v>661</v>
       </c>
+      <c r="C3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D3" t="s">
+        <v>739</v>
+      </c>
       <c r="E3">
         <v>2</v>
       </c>
@@ -3634,11 +4201,32 @@
       <c r="B4" t="s">
         <v>662</v>
       </c>
+      <c r="C4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D4" t="s">
+        <v>740</v>
+      </c>
       <c r="E4">
         <v>2</v>
       </c>
       <c r="F4" t="s">
         <v>400</v>
+      </c>
+      <c r="I4" t="s">
+        <v>691</v>
+      </c>
+      <c r="J4" t="s">
+        <v>692</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4">
+        <v>2</v>
+      </c>
+      <c r="O4" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="5">
@@ -3648,6 +4236,33 @@
       <c r="B5" t="s">
         <v>663</v>
       </c>
+      <c r="C5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D5" t="s">
+        <v>741</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>400</v>
+      </c>
+      <c r="I5" t="s">
+        <v>691</v>
+      </c>
+      <c r="J5" t="s">
+        <v>694</v>
+      </c>
+      <c r="M5">
+        <v>3</v>
+      </c>
+      <c r="N5">
+        <v>2</v>
+      </c>
+      <c r="O5" t="s">
+        <v>695</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="55" t="s">
@@ -3656,6 +4271,33 @@
       <c r="B6" t="s">
         <v>664</v>
       </c>
+      <c r="C6" t="s">
+        <v>215</v>
+      </c>
+      <c r="D6" t="s">
+        <v>742</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>400</v>
+      </c>
+      <c r="I6" t="s">
+        <v>691</v>
+      </c>
+      <c r="J6" t="s">
+        <v>696</v>
+      </c>
+      <c r="M6">
+        <v>3</v>
+      </c>
+      <c r="N6">
+        <v>3</v>
+      </c>
+      <c r="O6" t="s">
+        <v>732</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="55" t="s">
@@ -3664,6 +4306,33 @@
       <c r="B7" t="s">
         <v>665</v>
       </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>743</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>400</v>
+      </c>
+      <c r="I7" t="s">
+        <v>691</v>
+      </c>
+      <c r="J7" t="s">
+        <v>697</v>
+      </c>
+      <c r="M7">
+        <v>4</v>
+      </c>
+      <c r="N7">
+        <v>5</v>
+      </c>
+      <c r="O7" t="s">
+        <v>731</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="55" t="s">
@@ -3672,6 +4341,33 @@
       <c r="B8" t="s">
         <v>666</v>
       </c>
+      <c r="C8" t="s">
+        <v>209</v>
+      </c>
+      <c r="D8" t="s">
+        <v>744</v>
+      </c>
+      <c r="F8" t="s">
+        <v>400</v>
+      </c>
+      <c r="G8" t="s">
+        <v>400</v>
+      </c>
+      <c r="I8" t="s">
+        <v>691</v>
+      </c>
+      <c r="J8" t="s">
+        <v>698</v>
+      </c>
+      <c r="M8">
+        <v>3</v>
+      </c>
+      <c r="N8">
+        <v>2</v>
+      </c>
+      <c r="O8" t="s">
+        <v>730</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="55" t="s">
@@ -3680,6 +4376,33 @@
       <c r="B9" t="s">
         <v>667</v>
       </c>
+      <c r="C9" t="s">
+        <v>209</v>
+      </c>
+      <c r="D9" t="s">
+        <v>745</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>400</v>
+      </c>
+      <c r="I9" t="s">
+        <v>691</v>
+      </c>
+      <c r="J9" t="s">
+        <v>699</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9" t="s">
+        <v>729</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="55" t="s">
@@ -3688,6 +4411,33 @@
       <c r="B10" t="s">
         <v>668</v>
       </c>
+      <c r="C10" t="s">
+        <v>211</v>
+      </c>
+      <c r="D10" t="s">
+        <v>746</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10" t="s">
+        <v>400</v>
+      </c>
+      <c r="I10" t="s">
+        <v>691</v>
+      </c>
+      <c r="J10" t="s">
+        <v>701</v>
+      </c>
+      <c r="M10">
+        <v>3</v>
+      </c>
+      <c r="N10">
+        <v>2</v>
+      </c>
+      <c r="O10" t="s">
+        <v>728</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="55" t="s">
@@ -3696,6 +4446,39 @@
       <c r="B11" t="s">
         <v>669</v>
       </c>
+      <c r="C11" t="s">
+        <v>220</v>
+      </c>
+      <c r="D11" t="s">
+        <v>747</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11" t="s">
+        <v>400</v>
+      </c>
+      <c r="G11" t="s">
+        <v>400</v>
+      </c>
+      <c r="H11" t="s">
+        <v>400</v>
+      </c>
+      <c r="I11" t="s">
+        <v>691</v>
+      </c>
+      <c r="J11" t="s">
+        <v>702</v>
+      </c>
+      <c r="M11">
+        <v>6</v>
+      </c>
+      <c r="N11">
+        <v>4</v>
+      </c>
+      <c r="O11" t="s">
+        <v>727</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="55" t="s">
@@ -3704,6 +4487,33 @@
       <c r="B12" t="s">
         <v>670</v>
       </c>
+      <c r="C12" t="s">
+        <v>209</v>
+      </c>
+      <c r="D12" t="s">
+        <v>748</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>400</v>
+      </c>
+      <c r="I12" t="s">
+        <v>691</v>
+      </c>
+      <c r="J12" t="s">
+        <v>703</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12" t="s">
+        <v>726</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="55" t="s">
@@ -3712,6 +4522,33 @@
       <c r="B13" t="s">
         <v>671</v>
       </c>
+      <c r="C13" t="s">
+        <v>215</v>
+      </c>
+      <c r="D13" t="s">
+        <v>749</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13" t="s">
+        <v>400</v>
+      </c>
+      <c r="I13" t="s">
+        <v>691</v>
+      </c>
+      <c r="J13" t="s">
+        <v>704</v>
+      </c>
+      <c r="M13">
+        <v>4</v>
+      </c>
+      <c r="N13">
+        <v>4</v>
+      </c>
+      <c r="O13" t="s">
+        <v>725</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="55" t="s">
@@ -3720,6 +4557,36 @@
       <c r="B14" t="s">
         <v>672</v>
       </c>
+      <c r="C14" t="s">
+        <v>215</v>
+      </c>
+      <c r="D14" t="s">
+        <v>750</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14" t="s">
+        <v>400</v>
+      </c>
+      <c r="G14" t="s">
+        <v>400</v>
+      </c>
+      <c r="I14" t="s">
+        <v>691</v>
+      </c>
+      <c r="J14" t="s">
+        <v>705</v>
+      </c>
+      <c r="M14">
+        <v>3</v>
+      </c>
+      <c r="N14">
+        <v>3</v>
+      </c>
+      <c r="O14" t="s">
+        <v>724</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="55" t="s">
@@ -3728,6 +4595,30 @@
       <c r="B15" t="s">
         <v>673</v>
       </c>
+      <c r="C15" t="s">
+        <v>209</v>
+      </c>
+      <c r="D15" t="s">
+        <v>751</v>
+      </c>
+      <c r="F15" t="s">
+        <v>400</v>
+      </c>
+      <c r="I15" t="s">
+        <v>691</v>
+      </c>
+      <c r="J15" t="s">
+        <v>706</v>
+      </c>
+      <c r="M15">
+        <v>3</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15" t="s">
+        <v>723</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="55" t="s">
@@ -3736,6 +4627,39 @@
       <c r="B16" t="s">
         <v>674</v>
       </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" t="s">
+        <v>752</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16" t="s">
+        <v>400</v>
+      </c>
+      <c r="G16" t="s">
+        <v>400</v>
+      </c>
+      <c r="H16" t="s">
+        <v>400</v>
+      </c>
+      <c r="I16" t="s">
+        <v>691</v>
+      </c>
+      <c r="J16" t="s">
+        <v>707</v>
+      </c>
+      <c r="M16">
+        <v>8</v>
+      </c>
+      <c r="N16">
+        <v>6</v>
+      </c>
+      <c r="O16" t="s">
+        <v>722</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="55" t="s">
@@ -3744,6 +4668,33 @@
       <c r="B17" t="s">
         <v>675</v>
       </c>
+      <c r="C17" t="s">
+        <v>211</v>
+      </c>
+      <c r="D17" t="s">
+        <v>753</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>400</v>
+      </c>
+      <c r="I17" t="s">
+        <v>691</v>
+      </c>
+      <c r="J17" t="s">
+        <v>708</v>
+      </c>
+      <c r="M17">
+        <v>2</v>
+      </c>
+      <c r="N17">
+        <v>4</v>
+      </c>
+      <c r="O17" t="s">
+        <v>721</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="55" t="s">
@@ -3752,6 +4703,33 @@
       <c r="B18" t="s">
         <v>676</v>
       </c>
+      <c r="C18" t="s">
+        <v>215</v>
+      </c>
+      <c r="D18" t="s">
+        <v>754</v>
+      </c>
+      <c r="E18">
+        <v>4</v>
+      </c>
+      <c r="F18" t="s">
+        <v>400</v>
+      </c>
+      <c r="I18" t="s">
+        <v>691</v>
+      </c>
+      <c r="J18" t="s">
+        <v>709</v>
+      </c>
+      <c r="M18">
+        <v>4</v>
+      </c>
+      <c r="N18">
+        <v>3</v>
+      </c>
+      <c r="O18" t="s">
+        <v>720</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="55" t="s">
@@ -3760,6 +4738,36 @@
       <c r="B19" t="s">
         <v>677</v>
       </c>
+      <c r="C19" t="s">
+        <v>211</v>
+      </c>
+      <c r="D19" t="s">
+        <v>755</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19" t="s">
+        <v>400</v>
+      </c>
+      <c r="G19" t="s">
+        <v>400</v>
+      </c>
+      <c r="I19" t="s">
+        <v>691</v>
+      </c>
+      <c r="J19" t="s">
+        <v>710</v>
+      </c>
+      <c r="M19">
+        <v>2</v>
+      </c>
+      <c r="N19">
+        <v>5</v>
+      </c>
+      <c r="O19" t="s">
+        <v>719</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="55" t="s">
@@ -3768,6 +4776,36 @@
       <c r="B20" t="s">
         <v>678</v>
       </c>
+      <c r="C20" t="s">
+        <v>220</v>
+      </c>
+      <c r="D20" t="s">
+        <v>756</v>
+      </c>
+      <c r="E20">
+        <v>4</v>
+      </c>
+      <c r="F20" t="s">
+        <v>400</v>
+      </c>
+      <c r="G20" t="s">
+        <v>400</v>
+      </c>
+      <c r="I20" t="s">
+        <v>691</v>
+      </c>
+      <c r="J20" t="s">
+        <v>711</v>
+      </c>
+      <c r="M20">
+        <v>5</v>
+      </c>
+      <c r="N20">
+        <v>6</v>
+      </c>
+      <c r="O20" t="s">
+        <v>718</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="55" t="s">
@@ -3776,6 +4814,33 @@
       <c r="B21" t="s">
         <v>679</v>
       </c>
+      <c r="C21" t="s">
+        <v>215</v>
+      </c>
+      <c r="D21" t="s">
+        <v>757</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21" t="s">
+        <v>400</v>
+      </c>
+      <c r="I21" t="s">
+        <v>691</v>
+      </c>
+      <c r="J21" t="s">
+        <v>712</v>
+      </c>
+      <c r="M21">
+        <v>3</v>
+      </c>
+      <c r="N21">
+        <v>4</v>
+      </c>
+      <c r="O21" t="s">
+        <v>717</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="55" t="s">
@@ -3784,6 +4849,36 @@
       <c r="B22" t="s">
         <v>680</v>
       </c>
+      <c r="C22" t="s">
+        <v>215</v>
+      </c>
+      <c r="D22" t="s">
+        <v>758</v>
+      </c>
+      <c r="E22">
+        <v>4</v>
+      </c>
+      <c r="F22" t="s">
+        <v>400</v>
+      </c>
+      <c r="G22" t="s">
+        <v>400</v>
+      </c>
+      <c r="I22" t="s">
+        <v>691</v>
+      </c>
+      <c r="J22" t="s">
+        <v>713</v>
+      </c>
+      <c r="M22">
+        <v>5</v>
+      </c>
+      <c r="N22">
+        <v>5</v>
+      </c>
+      <c r="O22" t="s">
+        <v>716</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="55" t="s">
@@ -3791,6 +4886,874 @@
       </c>
       <c r="B23" t="s">
         <v>681</v>
+      </c>
+      <c r="C23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" t="s">
+        <v>759</v>
+      </c>
+      <c r="E23">
+        <v>4</v>
+      </c>
+      <c r="F23" t="s">
+        <v>400</v>
+      </c>
+      <c r="G23" t="s">
+        <v>400</v>
+      </c>
+      <c r="H23" t="s">
+        <v>400</v>
+      </c>
+      <c r="I23" t="s">
+        <v>691</v>
+      </c>
+      <c r="J23" t="s">
+        <v>714</v>
+      </c>
+      <c r="M23">
+        <v>7</v>
+      </c>
+      <c r="N23">
+        <v>7</v>
+      </c>
+      <c r="O23" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="B24" t="s">
+        <v>794</v>
+      </c>
+      <c r="C24" t="s">
+        <v>209</v>
+      </c>
+      <c r="D24" t="s">
+        <v>796</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24" t="s">
+        <v>487</v>
+      </c>
+      <c r="I24" t="s">
+        <v>819</v>
+      </c>
+      <c r="J24" t="s">
+        <v>843</v>
+      </c>
+      <c r="M24">
+        <v>2</v>
+      </c>
+      <c r="N24">
+        <v>2</v>
+      </c>
+      <c r="O24" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="B25" t="s">
+        <v>793</v>
+      </c>
+      <c r="C25" t="s">
+        <v>211</v>
+      </c>
+      <c r="D25" t="s">
+        <v>797</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25" t="s">
+        <v>487</v>
+      </c>
+      <c r="I25" t="s">
+        <v>819</v>
+      </c>
+      <c r="J25" t="s">
+        <v>842</v>
+      </c>
+      <c r="M25">
+        <v>3</v>
+      </c>
+      <c r="N25">
+        <v>4</v>
+      </c>
+      <c r="O25" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="B26" t="s">
+        <v>792</v>
+      </c>
+      <c r="C26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" t="s">
+        <v>798</v>
+      </c>
+      <c r="E26">
+        <v>4</v>
+      </c>
+      <c r="F26" t="s">
+        <v>487</v>
+      </c>
+      <c r="G26" t="s">
+        <v>487</v>
+      </c>
+      <c r="H26" t="s">
+        <v>487</v>
+      </c>
+      <c r="I26" t="s">
+        <v>819</v>
+      </c>
+      <c r="J26" t="s">
+        <v>841</v>
+      </c>
+      <c r="M26">
+        <v>6</v>
+      </c>
+      <c r="N26">
+        <v>6</v>
+      </c>
+      <c r="O26" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="B27" t="s">
+        <v>791</v>
+      </c>
+      <c r="C27" t="s">
+        <v>209</v>
+      </c>
+      <c r="D27" t="s">
+        <v>799</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27" t="s">
+        <v>487</v>
+      </c>
+      <c r="I27" t="s">
+        <v>819</v>
+      </c>
+      <c r="J27" t="s">
+        <v>840</v>
+      </c>
+      <c r="M27">
+        <v>3</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="B28" t="s">
+        <v>790</v>
+      </c>
+      <c r="C28" t="s">
+        <v>209</v>
+      </c>
+      <c r="D28" t="s">
+        <v>800</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28" t="s">
+        <v>487</v>
+      </c>
+      <c r="I28" t="s">
+        <v>819</v>
+      </c>
+      <c r="J28" t="s">
+        <v>839</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <v>3</v>
+      </c>
+      <c r="O28" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="B29" t="s">
+        <v>789</v>
+      </c>
+      <c r="C29" t="s">
+        <v>220</v>
+      </c>
+      <c r="D29" t="s">
+        <v>801</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29" t="s">
+        <v>487</v>
+      </c>
+      <c r="G29" t="s">
+        <v>487</v>
+      </c>
+      <c r="I29" t="s">
+        <v>819</v>
+      </c>
+      <c r="J29" t="s">
+        <v>838</v>
+      </c>
+      <c r="M29">
+        <v>4</v>
+      </c>
+      <c r="N29">
+        <v>3</v>
+      </c>
+      <c r="O29" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="B30" t="s">
+        <v>788</v>
+      </c>
+      <c r="C30" t="s">
+        <v>211</v>
+      </c>
+      <c r="D30" t="s">
+        <v>802</v>
+      </c>
+      <c r="E30">
+        <v>4</v>
+      </c>
+      <c r="F30" t="s">
+        <v>487</v>
+      </c>
+      <c r="I30" t="s">
+        <v>819</v>
+      </c>
+      <c r="J30" t="s">
+        <v>837</v>
+      </c>
+      <c r="M30">
+        <v>3</v>
+      </c>
+      <c r="N30">
+        <v>5</v>
+      </c>
+      <c r="O30" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="B31" t="s">
+        <v>787</v>
+      </c>
+      <c r="C31" t="s">
+        <v>209</v>
+      </c>
+      <c r="D31" t="s">
+        <v>803</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31" t="s">
+        <v>487</v>
+      </c>
+      <c r="I31" t="s">
+        <v>819</v>
+      </c>
+      <c r="J31" t="s">
+        <v>836</v>
+      </c>
+      <c r="M31">
+        <v>2</v>
+      </c>
+      <c r="N31">
+        <v>2</v>
+      </c>
+      <c r="O31" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="B32" t="s">
+        <v>786</v>
+      </c>
+      <c r="C32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D32" t="s">
+        <v>804</v>
+      </c>
+      <c r="E32">
+        <v>4</v>
+      </c>
+      <c r="F32" t="s">
+        <v>487</v>
+      </c>
+      <c r="G32" t="s">
+        <v>487</v>
+      </c>
+      <c r="I32" t="s">
+        <v>819</v>
+      </c>
+      <c r="J32" t="s">
+        <v>835</v>
+      </c>
+      <c r="M32">
+        <v>5</v>
+      </c>
+      <c r="N32">
+        <v>4</v>
+      </c>
+      <c r="O32" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="B33" t="s">
+        <v>785</v>
+      </c>
+      <c r="C33" t="s">
+        <v>211</v>
+      </c>
+      <c r="D33" t="s">
+        <v>805</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33" t="s">
+        <v>487</v>
+      </c>
+      <c r="I33" t="s">
+        <v>819</v>
+      </c>
+      <c r="J33" t="s">
+        <v>834</v>
+      </c>
+      <c r="M33">
+        <v>3</v>
+      </c>
+      <c r="N33">
+        <v>3</v>
+      </c>
+      <c r="O33" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="B34" t="s">
+        <v>784</v>
+      </c>
+      <c r="C34" t="s">
+        <v>220</v>
+      </c>
+      <c r="D34" t="s">
+        <v>806</v>
+      </c>
+      <c r="E34">
+        <v>4</v>
+      </c>
+      <c r="F34" t="s">
+        <v>487</v>
+      </c>
+      <c r="I34" t="s">
+        <v>819</v>
+      </c>
+      <c r="J34" t="s">
+        <v>833</v>
+      </c>
+      <c r="M34">
+        <v>3</v>
+      </c>
+      <c r="N34">
+        <v>6</v>
+      </c>
+      <c r="O34" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="B35" t="s">
+        <v>783</v>
+      </c>
+      <c r="C35" t="s">
+        <v>215</v>
+      </c>
+      <c r="D35" t="s">
+        <v>807</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35" t="s">
+        <v>487</v>
+      </c>
+      <c r="G35" t="s">
+        <v>487</v>
+      </c>
+      <c r="I35" t="s">
+        <v>819</v>
+      </c>
+      <c r="J35" t="s">
+        <v>832</v>
+      </c>
+      <c r="M35">
+        <v>4</v>
+      </c>
+      <c r="N35">
+        <v>4</v>
+      </c>
+      <c r="O35" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="B36" t="s">
+        <v>782</v>
+      </c>
+      <c r="C36" t="s">
+        <v>209</v>
+      </c>
+      <c r="D36" t="s">
+        <v>808</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36" t="s">
+        <v>487</v>
+      </c>
+      <c r="I36" t="s">
+        <v>819</v>
+      </c>
+      <c r="J36" t="s">
+        <v>831</v>
+      </c>
+      <c r="M36">
+        <v>2</v>
+      </c>
+      <c r="N36">
+        <v>2</v>
+      </c>
+      <c r="O36" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="B37" t="s">
+        <v>781</v>
+      </c>
+      <c r="C37" t="s">
+        <v>215</v>
+      </c>
+      <c r="D37" t="s">
+        <v>809</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37" t="s">
+        <v>487</v>
+      </c>
+      <c r="I37" t="s">
+        <v>819</v>
+      </c>
+      <c r="J37" t="s">
+        <v>830</v>
+      </c>
+      <c r="M37">
+        <v>6</v>
+      </c>
+      <c r="N37">
+        <v>5</v>
+      </c>
+      <c r="O37" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="B38" t="s">
+        <v>780</v>
+      </c>
+      <c r="C38" t="s">
+        <v>209</v>
+      </c>
+      <c r="D38" t="s">
+        <v>810</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+      <c r="F38" t="s">
+        <v>487</v>
+      </c>
+      <c r="I38" t="s">
+        <v>819</v>
+      </c>
+      <c r="J38" t="s">
+        <v>829</v>
+      </c>
+      <c r="M38">
+        <v>2</v>
+      </c>
+      <c r="N38">
+        <v>3</v>
+      </c>
+      <c r="O38" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="B39" t="s">
+        <v>779</v>
+      </c>
+      <c r="C39" t="s">
+        <v>211</v>
+      </c>
+      <c r="D39" t="s">
+        <v>811</v>
+      </c>
+      <c r="E39">
+        <v>4</v>
+      </c>
+      <c r="F39" t="s">
+        <v>487</v>
+      </c>
+      <c r="I39" t="s">
+        <v>819</v>
+      </c>
+      <c r="J39" t="s">
+        <v>828</v>
+      </c>
+      <c r="M39">
+        <v>3</v>
+      </c>
+      <c r="N39">
+        <v>4</v>
+      </c>
+      <c r="O39" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="B40" t="s">
+        <v>778</v>
+      </c>
+      <c r="C40" t="s">
+        <v>211</v>
+      </c>
+      <c r="D40" t="s">
+        <v>812</v>
+      </c>
+      <c r="E40">
+        <v>3</v>
+      </c>
+      <c r="F40" t="s">
+        <v>487</v>
+      </c>
+      <c r="I40" t="s">
+        <v>819</v>
+      </c>
+      <c r="J40" t="s">
+        <v>827</v>
+      </c>
+      <c r="M40">
+        <v>2</v>
+      </c>
+      <c r="N40">
+        <v>2</v>
+      </c>
+      <c r="O40" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="B41" t="s">
+        <v>777</v>
+      </c>
+      <c r="C41" t="s">
+        <v>220</v>
+      </c>
+      <c r="D41" t="s">
+        <v>813</v>
+      </c>
+      <c r="E41">
+        <v>4</v>
+      </c>
+      <c r="F41" t="s">
+        <v>487</v>
+      </c>
+      <c r="G41" t="s">
+        <v>487</v>
+      </c>
+      <c r="I41" t="s">
+        <v>819</v>
+      </c>
+      <c r="J41" t="s">
+        <v>826</v>
+      </c>
+      <c r="M41">
+        <v>5</v>
+      </c>
+      <c r="N41">
+        <v>3</v>
+      </c>
+      <c r="O41" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="B42" t="s">
+        <v>776</v>
+      </c>
+      <c r="C42" t="s">
+        <v>209</v>
+      </c>
+      <c r="D42" t="s">
+        <v>814</v>
+      </c>
+      <c r="E42">
+        <v>2</v>
+      </c>
+      <c r="F42" t="s">
+        <v>487</v>
+      </c>
+      <c r="I42" t="s">
+        <v>819</v>
+      </c>
+      <c r="J42" t="s">
+        <v>825</v>
+      </c>
+      <c r="M42">
+        <v>1</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="B43" t="s">
+        <v>775</v>
+      </c>
+      <c r="C43" t="s">
+        <v>215</v>
+      </c>
+      <c r="D43" t="s">
+        <v>815</v>
+      </c>
+      <c r="E43">
+        <v>3</v>
+      </c>
+      <c r="F43" t="s">
+        <v>487</v>
+      </c>
+      <c r="G43" t="s">
+        <v>487</v>
+      </c>
+      <c r="I43" t="s">
+        <v>819</v>
+      </c>
+      <c r="J43" t="s">
+        <v>824</v>
+      </c>
+      <c r="M43">
+        <v>4</v>
+      </c>
+      <c r="N43">
+        <v>6</v>
+      </c>
+      <c r="O43" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="B44" t="s">
+        <v>774</v>
+      </c>
+      <c r="C44" t="s">
+        <v>211</v>
+      </c>
+      <c r="D44" t="s">
+        <v>816</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44" t="s">
+        <v>487</v>
+      </c>
+      <c r="G44" t="s">
+        <v>487</v>
+      </c>
+      <c r="I44" t="s">
+        <v>819</v>
+      </c>
+      <c r="J44" t="s">
+        <v>823</v>
+      </c>
+      <c r="M44">
+        <v>3</v>
+      </c>
+      <c r="N44">
+        <v>4</v>
+      </c>
+      <c r="O44" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="B45" t="s">
+        <v>773</v>
+      </c>
+      <c r="C45" t="s">
+        <v>211</v>
+      </c>
+      <c r="D45" t="s">
+        <v>817</v>
+      </c>
+      <c r="E45">
+        <v>3</v>
+      </c>
+      <c r="F45" t="s">
+        <v>487</v>
+      </c>
+      <c r="I45" t="s">
+        <v>819</v>
+      </c>
+      <c r="J45" t="s">
+        <v>822</v>
+      </c>
+      <c r="M45">
+        <v>4</v>
+      </c>
+      <c r="N45">
+        <v>2</v>
+      </c>
+      <c r="O45" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="B46" t="s">
+        <v>772</v>
+      </c>
+      <c r="C46" t="s">
+        <v>23</v>
+      </c>
+      <c r="D46" t="s">
+        <v>818</v>
+      </c>
+      <c r="E46">
+        <v>4</v>
+      </c>
+      <c r="F46" t="s">
+        <v>487</v>
+      </c>
+      <c r="G46" t="s">
+        <v>487</v>
+      </c>
+      <c r="H46" t="s">
+        <v>487</v>
+      </c>
+      <c r="I46" t="s">
+        <v>819</v>
+      </c>
+      <c r="J46" t="s">
+        <v>821</v>
+      </c>
+      <c r="M46">
+        <v>5</v>
+      </c>
+      <c r="N46">
+        <v>5</v>
+      </c>
+      <c r="O46" t="s">
+        <v>820</v>
       </c>
     </row>
   </sheetData>
@@ -3801,8 +5764,8 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1" zoomScale="110" zoomScaleNormal="110">
-      <selection activeCell="N91" activeCellId="0" sqref="N91"/>
+    <sheetView workbookViewId="0" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80">
+      <selection activeCell="A17" activeCellId="0" sqref="A17:A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" customHeight="false"/>
@@ -5736,7 +7699,7 @@
         <v>395</v>
       </c>
       <c r="D65" s="35" t="s">
-        <v>539</v>
+        <v>760</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -5797,7 +7760,7 @@
         <v>395</v>
       </c>
       <c r="D67" s="35" t="s">
-        <v>541</v>
+        <v>761</v>
       </c>
       <c r="E67">
         <v>1</v>

--- a/NetRealmsNanSetup/nanDECK/cards.xlsx
+++ b/NetRealmsNanSetup/nanDECK/cards.xlsx
@@ -2652,6 +2652,33 @@
   </si>
   <si>
     <t>With each thread woven, the Grid grows stronger.</t>
+  </si>
+  <si>
+    <t>Card Icon</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\symbols\code.png</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\symbols\glitch.png</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\symbols\4.png</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\symbols\symbol_glitch.png</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\symbols\2.png</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\symbols\3.png</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\symbols\1.png</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\symbols\symbol_code.png</t>
   </si>
 </sst>
 </file>
@@ -4038,8 +4065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A15" zoomScale="40" zoomScaleNormal="40" tabSelected="1">
-      <selection activeCell="O24" activeCellId="0" sqref="O24"/>
+    <sheetView workbookViewId="0" topLeftCell="E16" zoomScale="70" zoomScaleNormal="70" tabSelected="1">
+      <selection activeCell="H46" activeCellId="0" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4048,15 +4075,16 @@
     <col min="2" max="2" width="21.5703125" customWidth="1" bestFit="1"/>
     <col min="3" max="3" width="64.5703125" customWidth="1" bestFit="1"/>
     <col min="4" max="4" width="79.7109375" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" width="5.5546875" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" width="5.5546875" customWidth="1"/>
-    <col min="7" max="7" width="5.5546875" customWidth="1"/>
-    <col min="8" max="8" width="5.5546875" customWidth="1"/>
+    <col min="5" max="5" width="51.140625" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" width="62.140625" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" width="62.140625" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" width="54.7109375" customWidth="1" bestFit="1"/>
     <col min="9" max="9" width="25.109375" customWidth="1" bestFit="1"/>
     <col min="10" max="10" width="128.28515625" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" width="108.88671875" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" width="62" customWidth="1"/>
     <col min="12" max="12" width="84.21875" customWidth="1" bestFit="1"/>
     <col min="15" max="15" width="82.33203125" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" width="64" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4105,6 +4133,9 @@
       <c r="O1" t="s">
         <v>9</v>
       </c>
+      <c r="P1" t="s">
+        <v>866</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="55" t="s">
@@ -4119,17 +4150,17 @@
       <c r="D2" t="s">
         <v>733</v>
       </c>
-      <c r="E2">
-        <v>4</v>
+      <c r="E2" t="s">
+        <v>869</v>
       </c>
       <c r="F2" t="s">
-        <v>400</v>
+        <v>870</v>
       </c>
       <c r="G2" t="s">
-        <v>400</v>
+        <v>870</v>
       </c>
       <c r="H2" t="s">
-        <v>400</v>
+        <v>870</v>
       </c>
       <c r="I2" t="s">
         <v>682</v>
@@ -4151,6 +4182,9 @@
       </c>
       <c r="O2" t="s">
         <v>686</v>
+      </c>
+      <c r="P2" t="s">
+        <v>868</v>
       </c>
     </row>
     <row r="3">
@@ -4166,14 +4200,14 @@
       <c r="D3" t="s">
         <v>739</v>
       </c>
-      <c r="E3">
-        <v>2</v>
+      <c r="E3" t="s">
+        <v>871</v>
       </c>
       <c r="F3" t="s">
-        <v>400</v>
+        <v>870</v>
       </c>
       <c r="G3" t="s">
-        <v>400</v>
+        <v>870</v>
       </c>
       <c r="I3" t="s">
         <v>691</v>
@@ -4192,6 +4226,9 @@
       </c>
       <c r="O3" t="s">
         <v>688</v>
+      </c>
+      <c r="P3" t="s">
+        <v>868</v>
       </c>
     </row>
     <row r="4">
@@ -4207,11 +4244,11 @@
       <c r="D4" t="s">
         <v>740</v>
       </c>
-      <c r="E4">
-        <v>2</v>
+      <c r="E4" t="s">
+        <v>871</v>
       </c>
       <c r="F4" t="s">
-        <v>400</v>
+        <v>870</v>
       </c>
       <c r="I4" t="s">
         <v>691</v>
@@ -4227,6 +4264,9 @@
       </c>
       <c r="O4" t="s">
         <v>693</v>
+      </c>
+      <c r="P4" t="s">
+        <v>868</v>
       </c>
     </row>
     <row r="5">
@@ -4242,11 +4282,11 @@
       <c r="D5" t="s">
         <v>741</v>
       </c>
-      <c r="E5">
-        <v>3</v>
+      <c r="E5" t="s">
+        <v>872</v>
       </c>
       <c r="F5" t="s">
-        <v>400</v>
+        <v>870</v>
       </c>
       <c r="I5" t="s">
         <v>691</v>
@@ -4262,6 +4302,9 @@
       </c>
       <c r="O5" t="s">
         <v>695</v>
+      </c>
+      <c r="P5" t="s">
+        <v>868</v>
       </c>
     </row>
     <row r="6">
@@ -4277,11 +4320,11 @@
       <c r="D6" t="s">
         <v>742</v>
       </c>
-      <c r="E6">
-        <v>1</v>
+      <c r="E6" t="s">
+        <v>873</v>
       </c>
       <c r="F6" t="s">
-        <v>400</v>
+        <v>870</v>
       </c>
       <c r="I6" t="s">
         <v>691</v>
@@ -4297,6 +4340,9 @@
       </c>
       <c r="O6" t="s">
         <v>732</v>
+      </c>
+      <c r="P6" t="s">
+        <v>868</v>
       </c>
     </row>
     <row r="7">
@@ -4312,11 +4358,11 @@
       <c r="D7" t="s">
         <v>743</v>
       </c>
-      <c r="E7">
-        <v>4</v>
+      <c r="E7" t="s">
+        <v>869</v>
       </c>
       <c r="F7" t="s">
-        <v>400</v>
+        <v>870</v>
       </c>
       <c r="I7" t="s">
         <v>691</v>
@@ -4332,6 +4378,9 @@
       </c>
       <c r="O7" t="s">
         <v>731</v>
+      </c>
+      <c r="P7" t="s">
+        <v>868</v>
       </c>
     </row>
     <row r="8">
@@ -4348,10 +4397,10 @@
         <v>744</v>
       </c>
       <c r="F8" t="s">
-        <v>400</v>
+        <v>870</v>
       </c>
       <c r="G8" t="s">
-        <v>400</v>
+        <v>870</v>
       </c>
       <c r="I8" t="s">
         <v>691</v>
@@ -4367,6 +4416,9 @@
       </c>
       <c r="O8" t="s">
         <v>730</v>
+      </c>
+      <c r="P8" t="s">
+        <v>868</v>
       </c>
     </row>
     <row r="9">
@@ -4382,11 +4434,11 @@
       <c r="D9" t="s">
         <v>745</v>
       </c>
-      <c r="E9">
-        <v>1</v>
+      <c r="E9" t="s">
+        <v>873</v>
       </c>
       <c r="F9" t="s">
-        <v>400</v>
+        <v>870</v>
       </c>
       <c r="I9" t="s">
         <v>691</v>
@@ -4402,6 +4454,9 @@
       </c>
       <c r="O9" t="s">
         <v>729</v>
+      </c>
+      <c r="P9" t="s">
+        <v>868</v>
       </c>
     </row>
     <row r="10">
@@ -4417,11 +4472,11 @@
       <c r="D10" t="s">
         <v>746</v>
       </c>
-      <c r="E10">
-        <v>2</v>
+      <c r="E10" t="s">
+        <v>871</v>
       </c>
       <c r="F10" t="s">
-        <v>400</v>
+        <v>870</v>
       </c>
       <c r="I10" t="s">
         <v>691</v>
@@ -4437,6 +4492,9 @@
       </c>
       <c r="O10" t="s">
         <v>728</v>
+      </c>
+      <c r="P10" t="s">
+        <v>868</v>
       </c>
     </row>
     <row r="11">
@@ -4452,17 +4510,17 @@
       <c r="D11" t="s">
         <v>747</v>
       </c>
-      <c r="E11">
-        <v>2</v>
+      <c r="E11" t="s">
+        <v>871</v>
       </c>
       <c r="F11" t="s">
-        <v>400</v>
+        <v>870</v>
       </c>
       <c r="G11" t="s">
-        <v>400</v>
+        <v>870</v>
       </c>
       <c r="H11" t="s">
-        <v>400</v>
+        <v>870</v>
       </c>
       <c r="I11" t="s">
         <v>691</v>
@@ -4478,6 +4536,9 @@
       </c>
       <c r="O11" t="s">
         <v>727</v>
+      </c>
+      <c r="P11" t="s">
+        <v>868</v>
       </c>
     </row>
     <row r="12">
@@ -4493,11 +4554,11 @@
       <c r="D12" t="s">
         <v>748</v>
       </c>
-      <c r="E12">
-        <v>1</v>
+      <c r="E12" t="s">
+        <v>873</v>
       </c>
       <c r="F12" t="s">
-        <v>400</v>
+        <v>870</v>
       </c>
       <c r="I12" t="s">
         <v>691</v>
@@ -4513,6 +4574,9 @@
       </c>
       <c r="O12" t="s">
         <v>726</v>
+      </c>
+      <c r="P12" t="s">
+        <v>868</v>
       </c>
     </row>
     <row r="13">
@@ -4528,11 +4592,11 @@
       <c r="D13" t="s">
         <v>749</v>
       </c>
-      <c r="E13">
-        <v>4</v>
+      <c r="E13" t="s">
+        <v>869</v>
       </c>
       <c r="F13" t="s">
-        <v>400</v>
+        <v>870</v>
       </c>
       <c r="I13" t="s">
         <v>691</v>
@@ -4548,6 +4612,9 @@
       </c>
       <c r="O13" t="s">
         <v>725</v>
+      </c>
+      <c r="P13" t="s">
+        <v>868</v>
       </c>
     </row>
     <row r="14">
@@ -4563,14 +4630,14 @@
       <c r="D14" t="s">
         <v>750</v>
       </c>
-      <c r="E14">
-        <v>2</v>
+      <c r="E14" t="s">
+        <v>871</v>
       </c>
       <c r="F14" t="s">
-        <v>400</v>
+        <v>870</v>
       </c>
       <c r="G14" t="s">
-        <v>400</v>
+        <v>870</v>
       </c>
       <c r="I14" t="s">
         <v>691</v>
@@ -4586,6 +4653,9 @@
       </c>
       <c r="O14" t="s">
         <v>724</v>
+      </c>
+      <c r="P14" t="s">
+        <v>868</v>
       </c>
     </row>
     <row r="15">
@@ -4602,7 +4672,7 @@
         <v>751</v>
       </c>
       <c r="F15" t="s">
-        <v>400</v>
+        <v>870</v>
       </c>
       <c r="I15" t="s">
         <v>691</v>
@@ -4618,6 +4688,9 @@
       </c>
       <c r="O15" t="s">
         <v>723</v>
+      </c>
+      <c r="P15" t="s">
+        <v>868</v>
       </c>
     </row>
     <row r="16">
@@ -4633,17 +4706,17 @@
       <c r="D16" t="s">
         <v>752</v>
       </c>
-      <c r="E16">
-        <v>3</v>
+      <c r="E16" t="s">
+        <v>872</v>
       </c>
       <c r="F16" t="s">
-        <v>400</v>
+        <v>870</v>
       </c>
       <c r="G16" t="s">
-        <v>400</v>
+        <v>870</v>
       </c>
       <c r="H16" t="s">
-        <v>400</v>
+        <v>870</v>
       </c>
       <c r="I16" t="s">
         <v>691</v>
@@ -4659,6 +4732,9 @@
       </c>
       <c r="O16" t="s">
         <v>722</v>
+      </c>
+      <c r="P16" t="s">
+        <v>868</v>
       </c>
     </row>
     <row r="17">
@@ -4674,11 +4750,11 @@
       <c r="D17" t="s">
         <v>753</v>
       </c>
-      <c r="E17">
-        <v>1</v>
+      <c r="E17" t="s">
+        <v>873</v>
       </c>
       <c r="F17" t="s">
-        <v>400</v>
+        <v>870</v>
       </c>
       <c r="I17" t="s">
         <v>691</v>
@@ -4694,6 +4770,9 @@
       </c>
       <c r="O17" t="s">
         <v>721</v>
+      </c>
+      <c r="P17" t="s">
+        <v>868</v>
       </c>
     </row>
     <row r="18">
@@ -4709,11 +4788,11 @@
       <c r="D18" t="s">
         <v>754</v>
       </c>
-      <c r="E18">
-        <v>4</v>
+      <c r="E18" t="s">
+        <v>869</v>
       </c>
       <c r="F18" t="s">
-        <v>400</v>
+        <v>870</v>
       </c>
       <c r="I18" t="s">
         <v>691</v>
@@ -4729,6 +4808,9 @@
       </c>
       <c r="O18" t="s">
         <v>720</v>
+      </c>
+      <c r="P18" t="s">
+        <v>868</v>
       </c>
     </row>
     <row r="19">
@@ -4744,14 +4826,14 @@
       <c r="D19" t="s">
         <v>755</v>
       </c>
-      <c r="E19">
-        <v>2</v>
+      <c r="E19" t="s">
+        <v>871</v>
       </c>
       <c r="F19" t="s">
-        <v>400</v>
+        <v>870</v>
       </c>
       <c r="G19" t="s">
-        <v>400</v>
+        <v>870</v>
       </c>
       <c r="I19" t="s">
         <v>691</v>
@@ -4767,6 +4849,9 @@
       </c>
       <c r="O19" t="s">
         <v>719</v>
+      </c>
+      <c r="P19" t="s">
+        <v>868</v>
       </c>
     </row>
     <row r="20">
@@ -4782,14 +4867,14 @@
       <c r="D20" t="s">
         <v>756</v>
       </c>
-      <c r="E20">
-        <v>4</v>
+      <c r="E20" t="s">
+        <v>869</v>
       </c>
       <c r="F20" t="s">
-        <v>400</v>
+        <v>870</v>
       </c>
       <c r="G20" t="s">
-        <v>400</v>
+        <v>870</v>
       </c>
       <c r="I20" t="s">
         <v>691</v>
@@ -4805,6 +4890,9 @@
       </c>
       <c r="O20" t="s">
         <v>718</v>
+      </c>
+      <c r="P20" t="s">
+        <v>868</v>
       </c>
     </row>
     <row r="21">
@@ -4820,11 +4908,11 @@
       <c r="D21" t="s">
         <v>757</v>
       </c>
-      <c r="E21">
-        <v>3</v>
+      <c r="E21" t="s">
+        <v>872</v>
       </c>
       <c r="F21" t="s">
-        <v>400</v>
+        <v>870</v>
       </c>
       <c r="I21" t="s">
         <v>691</v>
@@ -4840,6 +4928,9 @@
       </c>
       <c r="O21" t="s">
         <v>717</v>
+      </c>
+      <c r="P21" t="s">
+        <v>868</v>
       </c>
     </row>
     <row r="22">
@@ -4855,14 +4946,14 @@
       <c r="D22" t="s">
         <v>758</v>
       </c>
-      <c r="E22">
-        <v>4</v>
+      <c r="E22" t="s">
+        <v>869</v>
       </c>
       <c r="F22" t="s">
-        <v>400</v>
+        <v>870</v>
       </c>
       <c r="G22" t="s">
-        <v>400</v>
+        <v>870</v>
       </c>
       <c r="I22" t="s">
         <v>691</v>
@@ -4878,6 +4969,9 @@
       </c>
       <c r="O22" t="s">
         <v>716</v>
+      </c>
+      <c r="P22" t="s">
+        <v>868</v>
       </c>
     </row>
     <row r="23">
@@ -4893,17 +4987,17 @@
       <c r="D23" t="s">
         <v>759</v>
       </c>
-      <c r="E23">
-        <v>4</v>
+      <c r="E23" t="s">
+        <v>869</v>
       </c>
       <c r="F23" t="s">
-        <v>400</v>
+        <v>870</v>
       </c>
       <c r="G23" t="s">
-        <v>400</v>
+        <v>870</v>
       </c>
       <c r="H23" t="s">
-        <v>400</v>
+        <v>870</v>
       </c>
       <c r="I23" t="s">
         <v>691</v>
@@ -4919,6 +5013,9 @@
       </c>
       <c r="O23" t="s">
         <v>715</v>
+      </c>
+      <c r="P23" t="s">
+        <v>868</v>
       </c>
     </row>
     <row r="24">
@@ -4934,11 +5031,11 @@
       <c r="D24" t="s">
         <v>796</v>
       </c>
-      <c r="E24">
-        <v>2</v>
+      <c r="E24" t="s">
+        <v>871</v>
       </c>
       <c r="F24" t="s">
-        <v>487</v>
+        <v>874</v>
       </c>
       <c r="I24" t="s">
         <v>819</v>
@@ -4954,6 +5051,9 @@
       </c>
       <c r="O24" t="s">
         <v>865</v>
+      </c>
+      <c r="P24" t="s">
+        <v>867</v>
       </c>
     </row>
     <row r="25">
@@ -4969,11 +5069,11 @@
       <c r="D25" t="s">
         <v>797</v>
       </c>
-      <c r="E25">
-        <v>3</v>
+      <c r="E25" t="s">
+        <v>872</v>
       </c>
       <c r="F25" t="s">
-        <v>487</v>
+        <v>874</v>
       </c>
       <c r="I25" t="s">
         <v>819</v>
@@ -4989,6 +5089,9 @@
       </c>
       <c r="O25" t="s">
         <v>864</v>
+      </c>
+      <c r="P25" t="s">
+        <v>867</v>
       </c>
     </row>
     <row r="26">
@@ -5004,17 +5107,17 @@
       <c r="D26" t="s">
         <v>798</v>
       </c>
-      <c r="E26">
-        <v>4</v>
+      <c r="E26" t="s">
+        <v>869</v>
       </c>
       <c r="F26" t="s">
-        <v>487</v>
+        <v>874</v>
       </c>
       <c r="G26" t="s">
-        <v>487</v>
+        <v>874</v>
       </c>
       <c r="H26" t="s">
-        <v>487</v>
+        <v>874</v>
       </c>
       <c r="I26" t="s">
         <v>819</v>
@@ -5030,6 +5133,9 @@
       </c>
       <c r="O26" t="s">
         <v>863</v>
+      </c>
+      <c r="P26" t="s">
+        <v>867</v>
       </c>
     </row>
     <row r="27">
@@ -5045,11 +5151,11 @@
       <c r="D27" t="s">
         <v>799</v>
       </c>
-      <c r="E27">
-        <v>2</v>
+      <c r="E27" t="s">
+        <v>871</v>
       </c>
       <c r="F27" t="s">
-        <v>487</v>
+        <v>874</v>
       </c>
       <c r="I27" t="s">
         <v>819</v>
@@ -5065,6 +5171,9 @@
       </c>
       <c r="O27" t="s">
         <v>862</v>
+      </c>
+      <c r="P27" t="s">
+        <v>867</v>
       </c>
     </row>
     <row r="28">
@@ -5080,11 +5189,11 @@
       <c r="D28" t="s">
         <v>800</v>
       </c>
-      <c r="E28">
-        <v>1</v>
+      <c r="E28" t="s">
+        <v>873</v>
       </c>
       <c r="F28" t="s">
-        <v>487</v>
+        <v>874</v>
       </c>
       <c r="I28" t="s">
         <v>819</v>
@@ -5100,6 +5209,9 @@
       </c>
       <c r="O28" t="s">
         <v>861</v>
+      </c>
+      <c r="P28" t="s">
+        <v>867</v>
       </c>
     </row>
     <row r="29">
@@ -5115,14 +5227,14 @@
       <c r="D29" t="s">
         <v>801</v>
       </c>
-      <c r="E29">
-        <v>3</v>
+      <c r="E29" t="s">
+        <v>872</v>
       </c>
       <c r="F29" t="s">
-        <v>487</v>
+        <v>874</v>
       </c>
       <c r="G29" t="s">
-        <v>487</v>
+        <v>874</v>
       </c>
       <c r="I29" t="s">
         <v>819</v>
@@ -5138,6 +5250,9 @@
       </c>
       <c r="O29" t="s">
         <v>860</v>
+      </c>
+      <c r="P29" t="s">
+        <v>867</v>
       </c>
     </row>
     <row r="30">
@@ -5153,11 +5268,11 @@
       <c r="D30" t="s">
         <v>802</v>
       </c>
-      <c r="E30">
-        <v>4</v>
+      <c r="E30" t="s">
+        <v>869</v>
       </c>
       <c r="F30" t="s">
-        <v>487</v>
+        <v>874</v>
       </c>
       <c r="I30" t="s">
         <v>819</v>
@@ -5173,6 +5288,9 @@
       </c>
       <c r="O30" t="s">
         <v>859</v>
+      </c>
+      <c r="P30" t="s">
+        <v>867</v>
       </c>
     </row>
     <row r="31">
@@ -5188,11 +5306,11 @@
       <c r="D31" t="s">
         <v>803</v>
       </c>
-      <c r="E31">
-        <v>2</v>
+      <c r="E31" t="s">
+        <v>871</v>
       </c>
       <c r="F31" t="s">
-        <v>487</v>
+        <v>874</v>
       </c>
       <c r="I31" t="s">
         <v>819</v>
@@ -5208,6 +5326,9 @@
       </c>
       <c r="O31" t="s">
         <v>858</v>
+      </c>
+      <c r="P31" t="s">
+        <v>867</v>
       </c>
     </row>
     <row r="32">
@@ -5223,14 +5344,14 @@
       <c r="D32" t="s">
         <v>804</v>
       </c>
-      <c r="E32">
-        <v>4</v>
+      <c r="E32" t="s">
+        <v>869</v>
       </c>
       <c r="F32" t="s">
-        <v>487</v>
+        <v>874</v>
       </c>
       <c r="G32" t="s">
-        <v>487</v>
+        <v>874</v>
       </c>
       <c r="I32" t="s">
         <v>819</v>
@@ -5246,6 +5367,9 @@
       </c>
       <c r="O32" t="s">
         <v>857</v>
+      </c>
+      <c r="P32" t="s">
+        <v>867</v>
       </c>
     </row>
     <row r="33">
@@ -5261,11 +5385,11 @@
       <c r="D33" t="s">
         <v>805</v>
       </c>
-      <c r="E33">
-        <v>3</v>
+      <c r="E33" t="s">
+        <v>872</v>
       </c>
       <c r="F33" t="s">
-        <v>487</v>
+        <v>874</v>
       </c>
       <c r="I33" t="s">
         <v>819</v>
@@ -5281,6 +5405,9 @@
       </c>
       <c r="O33" t="s">
         <v>856</v>
+      </c>
+      <c r="P33" t="s">
+        <v>867</v>
       </c>
     </row>
     <row r="34">
@@ -5296,11 +5423,11 @@
       <c r="D34" t="s">
         <v>806</v>
       </c>
-      <c r="E34">
-        <v>4</v>
+      <c r="E34" t="s">
+        <v>869</v>
       </c>
       <c r="F34" t="s">
-        <v>487</v>
+        <v>874</v>
       </c>
       <c r="I34" t="s">
         <v>819</v>
@@ -5316,6 +5443,9 @@
       </c>
       <c r="O34" t="s">
         <v>855</v>
+      </c>
+      <c r="P34" t="s">
+        <v>867</v>
       </c>
     </row>
     <row r="35">
@@ -5331,14 +5461,14 @@
       <c r="D35" t="s">
         <v>807</v>
       </c>
-      <c r="E35">
-        <v>3</v>
+      <c r="E35" t="s">
+        <v>872</v>
       </c>
       <c r="F35" t="s">
-        <v>487</v>
+        <v>874</v>
       </c>
       <c r="G35" t="s">
-        <v>487</v>
+        <v>874</v>
       </c>
       <c r="I35" t="s">
         <v>819</v>
@@ -5354,6 +5484,9 @@
       </c>
       <c r="O35" t="s">
         <v>854</v>
+      </c>
+      <c r="P35" t="s">
+        <v>867</v>
       </c>
     </row>
     <row r="36">
@@ -5369,11 +5502,11 @@
       <c r="D36" t="s">
         <v>808</v>
       </c>
-      <c r="E36">
-        <v>1</v>
+      <c r="E36" t="s">
+        <v>873</v>
       </c>
       <c r="F36" t="s">
-        <v>487</v>
+        <v>874</v>
       </c>
       <c r="I36" t="s">
         <v>819</v>
@@ -5389,6 +5522,9 @@
       </c>
       <c r="O36" t="s">
         <v>853</v>
+      </c>
+      <c r="P36" t="s">
+        <v>867</v>
       </c>
     </row>
     <row r="37">
@@ -5404,11 +5540,11 @@
       <c r="D37" t="s">
         <v>809</v>
       </c>
-      <c r="E37">
-        <v>3</v>
+      <c r="E37" t="s">
+        <v>872</v>
       </c>
       <c r="F37" t="s">
-        <v>487</v>
+        <v>874</v>
       </c>
       <c r="I37" t="s">
         <v>819</v>
@@ -5424,6 +5560,9 @@
       </c>
       <c r="O37" t="s">
         <v>852</v>
+      </c>
+      <c r="P37" t="s">
+        <v>867</v>
       </c>
     </row>
     <row r="38">
@@ -5439,11 +5578,11 @@
       <c r="D38" t="s">
         <v>810</v>
       </c>
-      <c r="E38">
-        <v>2</v>
+      <c r="E38" t="s">
+        <v>871</v>
       </c>
       <c r="F38" t="s">
-        <v>487</v>
+        <v>874</v>
       </c>
       <c r="I38" t="s">
         <v>819</v>
@@ -5459,6 +5598,9 @@
       </c>
       <c r="O38" t="s">
         <v>851</v>
+      </c>
+      <c r="P38" t="s">
+        <v>867</v>
       </c>
     </row>
     <row r="39">
@@ -5474,11 +5616,11 @@
       <c r="D39" t="s">
         <v>811</v>
       </c>
-      <c r="E39">
-        <v>4</v>
+      <c r="E39" t="s">
+        <v>869</v>
       </c>
       <c r="F39" t="s">
-        <v>487</v>
+        <v>874</v>
       </c>
       <c r="I39" t="s">
         <v>819</v>
@@ -5494,6 +5636,9 @@
       </c>
       <c r="O39" t="s">
         <v>850</v>
+      </c>
+      <c r="P39" t="s">
+        <v>867</v>
       </c>
     </row>
     <row r="40">
@@ -5509,11 +5654,11 @@
       <c r="D40" t="s">
         <v>812</v>
       </c>
-      <c r="E40">
-        <v>3</v>
+      <c r="E40" t="s">
+        <v>872</v>
       </c>
       <c r="F40" t="s">
-        <v>487</v>
+        <v>874</v>
       </c>
       <c r="I40" t="s">
         <v>819</v>
@@ -5529,6 +5674,9 @@
       </c>
       <c r="O40" t="s">
         <v>849</v>
+      </c>
+      <c r="P40" t="s">
+        <v>867</v>
       </c>
     </row>
     <row r="41">
@@ -5544,14 +5692,14 @@
       <c r="D41" t="s">
         <v>813</v>
       </c>
-      <c r="E41">
-        <v>4</v>
+      <c r="E41" t="s">
+        <v>869</v>
       </c>
       <c r="F41" t="s">
-        <v>487</v>
+        <v>874</v>
       </c>
       <c r="G41" t="s">
-        <v>487</v>
+        <v>874</v>
       </c>
       <c r="I41" t="s">
         <v>819</v>
@@ -5567,6 +5715,9 @@
       </c>
       <c r="O41" t="s">
         <v>848</v>
+      </c>
+      <c r="P41" t="s">
+        <v>867</v>
       </c>
     </row>
     <row r="42">
@@ -5582,11 +5733,11 @@
       <c r="D42" t="s">
         <v>814</v>
       </c>
-      <c r="E42">
-        <v>2</v>
+      <c r="E42" t="s">
+        <v>871</v>
       </c>
       <c r="F42" t="s">
-        <v>487</v>
+        <v>874</v>
       </c>
       <c r="I42" t="s">
         <v>819</v>
@@ -5602,6 +5753,9 @@
       </c>
       <c r="O42" t="s">
         <v>847</v>
+      </c>
+      <c r="P42" t="s">
+        <v>867</v>
       </c>
     </row>
     <row r="43">
@@ -5617,14 +5771,14 @@
       <c r="D43" t="s">
         <v>815</v>
       </c>
-      <c r="E43">
-        <v>3</v>
+      <c r="E43" t="s">
+        <v>872</v>
       </c>
       <c r="F43" t="s">
-        <v>487</v>
+        <v>874</v>
       </c>
       <c r="G43" t="s">
-        <v>487</v>
+        <v>874</v>
       </c>
       <c r="I43" t="s">
         <v>819</v>
@@ -5640,6 +5794,9 @@
       </c>
       <c r="O43" t="s">
         <v>846</v>
+      </c>
+      <c r="P43" t="s">
+        <v>867</v>
       </c>
     </row>
     <row r="44">
@@ -5655,14 +5812,14 @@
       <c r="D44" t="s">
         <v>816</v>
       </c>
-      <c r="E44">
-        <v>1</v>
+      <c r="E44" t="s">
+        <v>873</v>
       </c>
       <c r="F44" t="s">
-        <v>487</v>
+        <v>874</v>
       </c>
       <c r="G44" t="s">
-        <v>487</v>
+        <v>874</v>
       </c>
       <c r="I44" t="s">
         <v>819</v>
@@ -5678,6 +5835,9 @@
       </c>
       <c r="O44" t="s">
         <v>845</v>
+      </c>
+      <c r="P44" t="s">
+        <v>867</v>
       </c>
     </row>
     <row r="45">
@@ -5693,11 +5853,11 @@
       <c r="D45" t="s">
         <v>817</v>
       </c>
-      <c r="E45">
-        <v>3</v>
+      <c r="E45" t="s">
+        <v>872</v>
       </c>
       <c r="F45" t="s">
-        <v>487</v>
+        <v>874</v>
       </c>
       <c r="I45" t="s">
         <v>819</v>
@@ -5713,6 +5873,9 @@
       </c>
       <c r="O45" t="s">
         <v>844</v>
+      </c>
+      <c r="P45" t="s">
+        <v>867</v>
       </c>
     </row>
     <row r="46">
@@ -5728,17 +5891,17 @@
       <c r="D46" t="s">
         <v>818</v>
       </c>
-      <c r="E46">
-        <v>4</v>
+      <c r="E46" t="s">
+        <v>869</v>
       </c>
       <c r="F46" t="s">
-        <v>487</v>
+        <v>874</v>
       </c>
       <c r="G46" t="s">
-        <v>487</v>
+        <v>874</v>
       </c>
       <c r="H46" t="s">
-        <v>487</v>
+        <v>874</v>
       </c>
       <c r="I46" t="s">
         <v>819</v>
@@ -5754,6 +5917,9 @@
       </c>
       <c r="O46" t="s">
         <v>820</v>
+      </c>
+      <c r="P46" t="s">
+        <v>867</v>
       </c>
     </row>
   </sheetData>

--- a/NetRealmsNanSetup/nanDECK/cards.xlsx
+++ b/NetRealmsNanSetup/nanDECK/cards.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="11820" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="11820" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Lands" sheetId="1" r:id="rId1"/>
@@ -2679,6 +2679,33 @@
   </si>
   <si>
     <t>C:\Users\TK\Desktop\nanDECK\netrealms\symbols\symbol_code.png</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\symbols\symbol_gaming.png</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\symbols\symbol_movie.png</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\symbols\symbol_creep.png</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\symbols\symbol_drama.png</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\symbols\gaming.png</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\symbols\movie.png</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\symbols\creep.png</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\symbols\drama.png</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\symbols\symbol_game.png</t>
   </si>
 </sst>
 </file>
@@ -4065,8 +4092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="E16" zoomScale="70" zoomScaleNormal="70" tabSelected="1">
-      <selection activeCell="H46" activeCellId="0" sqref="H46"/>
+    <sheetView workbookViewId="0" topLeftCell="L1" zoomScale="70" zoomScaleNormal="70">
+      <selection activeCell="P1" activeCellId="0" sqref="P:P"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5930,8 +5957,8 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80">
-      <selection activeCell="A17" activeCellId="0" sqref="A17:A31"/>
+    <sheetView workbookViewId="0" topLeftCell="D26" zoomScale="80" zoomScaleNormal="80" tabSelected="1">
+      <selection activeCell="F46" activeCellId="0" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" customHeight="false"/>
@@ -5939,9 +5966,13 @@
     <col min="2" max="2" width="21.5546875" customWidth="1" bestFit="1" style="0"/>
     <col min="3" max="3" width="64.88671875" customWidth="1" style="0"/>
     <col min="4" max="4" width="82.33203125" customWidth="1" style="0"/>
+    <col min="5" max="5" width="51.140625" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" width="62.140625" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" width="62.140625" customWidth="1" bestFit="1"/>
     <col min="8" max="8" width="12" customWidth="1" bestFit="1"/>
     <col min="9" max="9" width="86" customWidth="1" style="0"/>
     <col min="14" max="14" width="63.109375" customWidth="1" bestFit="1" style="0"/>
+    <col min="15" max="15" width="64" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="0">
@@ -5987,6 +6018,9 @@
       <c r="N1" t="s">
         <v>9</v>
       </c>
+      <c r="O1" t="s">
+        <v>866</v>
+      </c>
     </row>
     <row r="2" customFormat="1" s="0">
       <c r="A2" s="26" t="s">
@@ -6001,11 +6035,11 @@
       <c r="D2" s="35" t="s">
         <v>394</v>
       </c>
-      <c r="E2">
-        <v>1</v>
+      <c r="E2" t="s">
+        <v>873</v>
       </c>
       <c r="F2" t="s">
-        <v>400</v>
+        <v>870</v>
       </c>
       <c r="H2" t="s">
         <v>584</v>
@@ -6015,6 +6049,9 @@
       </c>
       <c r="N2" s="35" t="s">
         <v>232</v>
+      </c>
+      <c r="O2" t="s">
+        <v>868</v>
       </c>
     </row>
     <row r="3" customFormat="1" s="0">
@@ -6030,11 +6067,11 @@
       <c r="D3" t="s">
         <v>392</v>
       </c>
-      <c r="E3">
-        <v>2</v>
+      <c r="E3" t="s">
+        <v>871</v>
       </c>
       <c r="F3" t="s">
-        <v>400</v>
+        <v>870</v>
       </c>
       <c r="H3" t="s">
         <v>584</v>
@@ -6044,6 +6081,9 @@
       </c>
       <c r="N3" s="35" t="s">
         <v>233</v>
+      </c>
+      <c r="O3" t="s">
+        <v>868</v>
       </c>
     </row>
     <row r="4" customFormat="1" s="0">
@@ -6059,11 +6099,11 @@
       <c r="D4" t="s">
         <v>401</v>
       </c>
-      <c r="E4">
-        <v>1</v>
+      <c r="E4" t="s">
+        <v>873</v>
       </c>
       <c r="F4" t="s">
-        <v>400</v>
+        <v>870</v>
       </c>
       <c r="H4" t="s">
         <v>584</v>
@@ -6073,6 +6113,9 @@
       </c>
       <c r="N4" s="35" t="s">
         <v>234</v>
+      </c>
+      <c r="O4" t="s">
+        <v>868</v>
       </c>
     </row>
     <row r="5" customFormat="1" s="0">
@@ -6088,14 +6131,14 @@
       <c r="D5" t="s">
         <v>404</v>
       </c>
-      <c r="E5">
-        <v>2</v>
+      <c r="E5" t="s">
+        <v>871</v>
       </c>
       <c r="F5" t="s">
-        <v>400</v>
+        <v>870</v>
       </c>
       <c r="G5" t="s">
-        <v>400</v>
+        <v>870</v>
       </c>
       <c r="H5" t="s">
         <v>584</v>
@@ -6105,6 +6148,9 @@
       </c>
       <c r="N5" s="35" t="s">
         <v>235</v>
+      </c>
+      <c r="O5" t="s">
+        <v>868</v>
       </c>
     </row>
     <row r="6" customFormat="1" s="0">
@@ -6120,11 +6166,11 @@
       <c r="D6" t="s">
         <v>405</v>
       </c>
-      <c r="E6">
-        <v>3</v>
+      <c r="E6" t="s">
+        <v>872</v>
       </c>
       <c r="F6" t="s">
-        <v>400</v>
+        <v>870</v>
       </c>
       <c r="H6" t="s">
         <v>584</v>
@@ -6134,6 +6180,9 @@
       </c>
       <c r="N6" s="35" t="s">
         <v>237</v>
+      </c>
+      <c r="O6" t="s">
+        <v>868</v>
       </c>
     </row>
     <row r="7" customFormat="1" s="0">
@@ -6149,11 +6198,11 @@
       <c r="D7" t="s">
         <v>406</v>
       </c>
-      <c r="E7">
-        <v>2</v>
+      <c r="E7" t="s">
+        <v>871</v>
       </c>
       <c r="F7" t="s">
-        <v>400</v>
+        <v>870</v>
       </c>
       <c r="H7" t="s">
         <v>584</v>
@@ -6163,6 +6212,9 @@
       </c>
       <c r="N7" s="35" t="s">
         <v>238</v>
+      </c>
+      <c r="O7" t="s">
+        <v>868</v>
       </c>
     </row>
     <row r="8" customFormat="1" s="0">
@@ -6178,11 +6230,11 @@
       <c r="D8" t="s">
         <v>407</v>
       </c>
-      <c r="E8">
-        <v>3</v>
+      <c r="E8" t="s">
+        <v>872</v>
       </c>
       <c r="F8" t="s">
-        <v>400</v>
+        <v>870</v>
       </c>
       <c r="H8" t="s">
         <v>584</v>
@@ -6192,6 +6244,9 @@
       </c>
       <c r="N8" s="35" t="s">
         <v>239</v>
+      </c>
+      <c r="O8" t="s">
+        <v>868</v>
       </c>
     </row>
     <row r="9" customFormat="1" s="0">
@@ -6207,11 +6262,11 @@
       <c r="D9" t="s">
         <v>408</v>
       </c>
-      <c r="E9">
-        <v>2</v>
+      <c r="E9" t="s">
+        <v>871</v>
       </c>
       <c r="F9" t="s">
-        <v>400</v>
+        <v>870</v>
       </c>
       <c r="H9" t="s">
         <v>584</v>
@@ -6224,6 +6279,9 @@
       </c>
       <c r="N9" s="35" t="s">
         <v>240</v>
+      </c>
+      <c r="O9" t="s">
+        <v>868</v>
       </c>
     </row>
     <row r="10" customFormat="1" s="0">
@@ -6239,11 +6297,11 @@
       <c r="D10" t="s">
         <v>409</v>
       </c>
-      <c r="E10">
-        <v>3</v>
+      <c r="E10" t="s">
+        <v>872</v>
       </c>
       <c r="F10" t="s">
-        <v>400</v>
+        <v>870</v>
       </c>
       <c r="H10" t="s">
         <v>584</v>
@@ -6253,6 +6311,9 @@
       </c>
       <c r="N10" s="35" t="s">
         <v>241</v>
+      </c>
+      <c r="O10" t="s">
+        <v>868</v>
       </c>
     </row>
     <row r="11" customFormat="1" s="0">
@@ -6268,11 +6329,11 @@
       <c r="D11" t="s">
         <v>410</v>
       </c>
-      <c r="E11">
-        <v>4</v>
+      <c r="E11" t="s">
+        <v>869</v>
       </c>
       <c r="F11" t="s">
-        <v>400</v>
+        <v>870</v>
       </c>
       <c r="H11" t="s">
         <v>584</v>
@@ -6282,6 +6343,9 @@
       </c>
       <c r="N11" s="35" t="s">
         <v>243</v>
+      </c>
+      <c r="O11" t="s">
+        <v>868</v>
       </c>
     </row>
     <row r="12" customFormat="1" s="0">
@@ -6297,14 +6361,14 @@
       <c r="D12" t="s">
         <v>411</v>
       </c>
-      <c r="E12">
-        <v>2</v>
+      <c r="E12" t="s">
+        <v>871</v>
       </c>
       <c r="F12" t="s">
-        <v>400</v>
+        <v>870</v>
       </c>
       <c r="G12" t="s">
-        <v>400</v>
+        <v>870</v>
       </c>
       <c r="H12" t="s">
         <v>584</v>
@@ -6314,6 +6378,9 @@
       </c>
       <c r="N12" s="35" t="s">
         <v>244</v>
+      </c>
+      <c r="O12" t="s">
+        <v>868</v>
       </c>
     </row>
     <row r="13" customFormat="1" s="0">
@@ -6329,11 +6396,11 @@
       <c r="D13" t="s">
         <v>412</v>
       </c>
-      <c r="E13">
-        <v>3</v>
+      <c r="E13" t="s">
+        <v>872</v>
       </c>
       <c r="F13" t="s">
-        <v>400</v>
+        <v>870</v>
       </c>
       <c r="H13" t="s">
         <v>584</v>
@@ -6343,6 +6410,9 @@
       </c>
       <c r="N13" s="35" t="s">
         <v>245</v>
+      </c>
+      <c r="O13" t="s">
+        <v>868</v>
       </c>
     </row>
     <row r="14" customFormat="1" s="0">
@@ -6358,11 +6428,11 @@
       <c r="D14" t="s">
         <v>415</v>
       </c>
-      <c r="E14">
-        <v>2</v>
+      <c r="E14" t="s">
+        <v>871</v>
       </c>
       <c r="F14" t="s">
-        <v>400</v>
+        <v>870</v>
       </c>
       <c r="H14" t="s">
         <v>584</v>
@@ -6372,6 +6442,9 @@
       </c>
       <c r="N14" s="35" t="s">
         <v>246</v>
+      </c>
+      <c r="O14" t="s">
+        <v>868</v>
       </c>
     </row>
     <row r="15" customFormat="1" s="0">
@@ -6387,11 +6460,11 @@
       <c r="D15" t="s">
         <v>416</v>
       </c>
-      <c r="E15">
-        <v>1</v>
+      <c r="E15" t="s">
+        <v>873</v>
       </c>
       <c r="F15" t="s">
-        <v>400</v>
+        <v>870</v>
       </c>
       <c r="H15" t="s">
         <v>584</v>
@@ -6401,6 +6474,9 @@
       </c>
       <c r="N15" s="35" t="s">
         <v>247</v>
+      </c>
+      <c r="O15" t="s">
+        <v>868</v>
       </c>
     </row>
     <row r="16" customFormat="1" s="0">
@@ -6416,11 +6492,11 @@
       <c r="D16" t="s">
         <v>417</v>
       </c>
-      <c r="E16">
-        <v>3</v>
+      <c r="E16" t="s">
+        <v>872</v>
       </c>
       <c r="F16" t="s">
-        <v>400</v>
+        <v>870</v>
       </c>
       <c r="H16" t="s">
         <v>584</v>
@@ -6430,6 +6506,9 @@
       </c>
       <c r="N16" s="35" t="s">
         <v>248</v>
+      </c>
+      <c r="O16" t="s">
+        <v>867</v>
       </c>
     </row>
     <row r="17" customFormat="1" s="0">
@@ -6445,11 +6524,11 @@
       <c r="D17" t="s">
         <v>420</v>
       </c>
-      <c r="E17">
-        <v>2</v>
+      <c r="E17" t="s">
+        <v>871</v>
       </c>
       <c r="F17" t="s">
-        <v>487</v>
+        <v>874</v>
       </c>
       <c r="H17" t="s">
         <v>585</v>
@@ -6459,6 +6538,9 @@
       </c>
       <c r="N17" s="35" t="s">
         <v>270</v>
+      </c>
+      <c r="O17" t="s">
+        <v>867</v>
       </c>
     </row>
     <row r="18" customFormat="1" s="0">
@@ -6474,11 +6556,11 @@
       <c r="D18" t="s">
         <v>421</v>
       </c>
-      <c r="E18">
-        <v>3</v>
+      <c r="E18" t="s">
+        <v>872</v>
       </c>
       <c r="F18" t="s">
-        <v>487</v>
+        <v>874</v>
       </c>
       <c r="H18" t="s">
         <v>585</v>
@@ -6488,6 +6570,9 @@
       </c>
       <c r="N18" s="35" t="s">
         <v>274</v>
+      </c>
+      <c r="O18" t="s">
+        <v>867</v>
       </c>
     </row>
     <row r="19" customFormat="1" s="0">
@@ -6503,11 +6588,11 @@
       <c r="D19" t="s">
         <v>422</v>
       </c>
-      <c r="E19">
-        <v>1</v>
+      <c r="E19" t="s">
+        <v>873</v>
       </c>
       <c r="F19" t="s">
-        <v>487</v>
+        <v>874</v>
       </c>
       <c r="H19" t="s">
         <v>585</v>
@@ -6517,6 +6602,9 @@
       </c>
       <c r="N19" s="35" t="s">
         <v>277</v>
+      </c>
+      <c r="O19" t="s">
+        <v>867</v>
       </c>
     </row>
     <row r="20" customFormat="1" s="0">
@@ -6532,11 +6620,11 @@
       <c r="D20" t="s">
         <v>426</v>
       </c>
-      <c r="E20">
-        <v>4</v>
+      <c r="E20" t="s">
+        <v>869</v>
       </c>
       <c r="F20" t="s">
-        <v>487</v>
+        <v>874</v>
       </c>
       <c r="H20" t="s">
         <v>585</v>
@@ -6546,6 +6634,9 @@
       </c>
       <c r="N20" s="35" t="s">
         <v>278</v>
+      </c>
+      <c r="O20" t="s">
+        <v>867</v>
       </c>
     </row>
     <row r="21" customFormat="1" s="0">
@@ -6561,11 +6652,11 @@
       <c r="D21" t="s">
         <v>425</v>
       </c>
-      <c r="E21">
-        <v>2</v>
+      <c r="E21" t="s">
+        <v>871</v>
       </c>
       <c r="F21" t="s">
-        <v>487</v>
+        <v>874</v>
       </c>
       <c r="H21" t="s">
         <v>585</v>
@@ -6575,6 +6666,9 @@
       </c>
       <c r="N21" s="35" t="s">
         <v>279</v>
+      </c>
+      <c r="O21" t="s">
+        <v>867</v>
       </c>
     </row>
     <row r="22" customFormat="1" s="0">
@@ -6590,14 +6684,14 @@
       <c r="D22" t="s">
         <v>427</v>
       </c>
-      <c r="E22">
-        <v>4</v>
+      <c r="E22" t="s">
+        <v>869</v>
       </c>
       <c r="F22" t="s">
-        <v>487</v>
+        <v>874</v>
       </c>
       <c r="G22" t="s">
-        <v>487</v>
+        <v>874</v>
       </c>
       <c r="H22" t="s">
         <v>585</v>
@@ -6607,6 +6701,9 @@
       </c>
       <c r="N22" s="35" t="s">
         <v>280</v>
+      </c>
+      <c r="O22" t="s">
+        <v>867</v>
       </c>
     </row>
     <row r="23" customFormat="1" s="0">
@@ -6622,11 +6719,11 @@
       <c r="D23" t="s">
         <v>428</v>
       </c>
-      <c r="E23">
-        <v>4</v>
+      <c r="E23" t="s">
+        <v>869</v>
       </c>
       <c r="F23" t="s">
-        <v>487</v>
+        <v>874</v>
       </c>
       <c r="H23" t="s">
         <v>585</v>
@@ -6636,6 +6733,9 @@
       </c>
       <c r="N23" s="35" t="s">
         <v>281</v>
+      </c>
+      <c r="O23" t="s">
+        <v>867</v>
       </c>
     </row>
     <row r="24" customFormat="1" s="0">
@@ -6651,11 +6751,11 @@
       <c r="D24" t="s">
         <v>429</v>
       </c>
-      <c r="E24">
-        <v>3</v>
+      <c r="E24" t="s">
+        <v>873</v>
       </c>
       <c r="F24" t="s">
-        <v>487</v>
+        <v>874</v>
       </c>
       <c r="H24" t="s">
         <v>585</v>
@@ -6665,6 +6765,9 @@
       </c>
       <c r="N24" s="35" t="s">
         <v>282</v>
+      </c>
+      <c r="O24" t="s">
+        <v>867</v>
       </c>
     </row>
     <row r="25" customFormat="1" s="0">
@@ -6680,11 +6783,11 @@
       <c r="D25" t="s">
         <v>430</v>
       </c>
-      <c r="E25">
-        <v>2</v>
+      <c r="E25" t="s">
+        <v>871</v>
       </c>
       <c r="F25" t="s">
-        <v>487</v>
+        <v>874</v>
       </c>
       <c r="H25" t="s">
         <v>585</v>
@@ -6694,6 +6797,9 @@
       </c>
       <c r="N25" s="35" t="s">
         <v>283</v>
+      </c>
+      <c r="O25" t="s">
+        <v>867</v>
       </c>
     </row>
     <row r="26" customFormat="1" s="0">
@@ -6709,11 +6815,11 @@
       <c r="D26" t="s">
         <v>431</v>
       </c>
-      <c r="E26">
-        <v>2</v>
+      <c r="E26" t="s">
+        <v>871</v>
       </c>
       <c r="F26" t="s">
-        <v>487</v>
+        <v>874</v>
       </c>
       <c r="H26" t="s">
         <v>585</v>
@@ -6723,6 +6829,9 @@
       </c>
       <c r="N26" s="35" t="s">
         <v>284</v>
+      </c>
+      <c r="O26" t="s">
+        <v>867</v>
       </c>
     </row>
     <row r="27" customFormat="1" s="0">
@@ -6738,11 +6847,11 @@
       <c r="D27" t="s">
         <v>432</v>
       </c>
-      <c r="E27">
-        <v>1</v>
+      <c r="E27" t="s">
+        <v>873</v>
       </c>
       <c r="F27" t="s">
-        <v>487</v>
+        <v>874</v>
       </c>
       <c r="H27" t="s">
         <v>585</v>
@@ -6752,6 +6861,9 @@
       </c>
       <c r="N27" s="35" t="s">
         <v>285</v>
+      </c>
+      <c r="O27" t="s">
+        <v>867</v>
       </c>
     </row>
     <row r="28" customFormat="1" s="0">
@@ -6767,11 +6879,11 @@
       <c r="D28" t="s">
         <v>433</v>
       </c>
-      <c r="E28">
-        <v>4</v>
+      <c r="E28" t="s">
+        <v>869</v>
       </c>
       <c r="F28" t="s">
-        <v>487</v>
+        <v>874</v>
       </c>
       <c r="H28" t="s">
         <v>585</v>
@@ -6781,6 +6893,9 @@
       </c>
       <c r="N28" s="35" t="s">
         <v>286</v>
+      </c>
+      <c r="O28" t="s">
+        <v>867</v>
       </c>
     </row>
     <row r="29" customFormat="1" s="0">
@@ -6796,11 +6911,11 @@
       <c r="D29" t="s">
         <v>434</v>
       </c>
-      <c r="E29">
-        <v>3</v>
+      <c r="E29" t="s">
+        <v>872</v>
       </c>
       <c r="F29" t="s">
-        <v>487</v>
+        <v>874</v>
       </c>
       <c r="H29" t="s">
         <v>585</v>
@@ -6810,6 +6925,9 @@
       </c>
       <c r="N29" s="35" t="s">
         <v>287</v>
+      </c>
+      <c r="O29" t="s">
+        <v>867</v>
       </c>
     </row>
     <row r="30" customFormat="1" s="0">
@@ -6825,11 +6943,11 @@
       <c r="D30" t="s">
         <v>435</v>
       </c>
-      <c r="E30">
-        <v>2</v>
+      <c r="E30" t="s">
+        <v>871</v>
       </c>
       <c r="F30" t="s">
-        <v>487</v>
+        <v>874</v>
       </c>
       <c r="H30" t="s">
         <v>585</v>
@@ -6839,6 +6957,9 @@
       </c>
       <c r="N30" s="35" t="s">
         <v>288</v>
+      </c>
+      <c r="O30" t="s">
+        <v>867</v>
       </c>
     </row>
     <row r="31" customFormat="1" s="0">
@@ -6854,14 +6975,14 @@
       <c r="D31" t="s">
         <v>419</v>
       </c>
-      <c r="E31">
-        <v>4</v>
+      <c r="E31" t="s">
+        <v>869</v>
       </c>
       <c r="F31" t="s">
-        <v>487</v>
+        <v>874</v>
       </c>
       <c r="G31" t="s">
-        <v>487</v>
+        <v>874</v>
       </c>
       <c r="H31" t="s">
         <v>585</v>
@@ -6871,6 +6992,9 @@
       </c>
       <c r="N31" s="35" t="s">
         <v>289</v>
+      </c>
+      <c r="O31" t="s">
+        <v>867</v>
       </c>
     </row>
     <row r="32" customFormat="1" s="0">
@@ -6886,11 +7010,11 @@
       <c r="D32" t="s">
         <v>437</v>
       </c>
-      <c r="E32">
-        <v>2</v>
+      <c r="E32" t="s">
+        <v>871</v>
       </c>
       <c r="F32" t="s">
-        <v>488</v>
+        <v>883</v>
       </c>
       <c r="H32" t="s">
         <v>586</v>
@@ -6900,6 +7024,9 @@
       </c>
       <c r="N32" s="35" t="s">
         <v>372</v>
+      </c>
+      <c r="O32" t="s">
+        <v>879</v>
       </c>
     </row>
     <row r="33" customFormat="1" s="0">
@@ -6915,11 +7042,11 @@
       <c r="D33" t="s">
         <v>439</v>
       </c>
-      <c r="E33">
-        <v>3</v>
+      <c r="E33" t="s">
+        <v>872</v>
       </c>
       <c r="F33" t="s">
-        <v>488</v>
+        <v>883</v>
       </c>
       <c r="H33" t="s">
         <v>586</v>
@@ -6929,6 +7056,9 @@
       </c>
       <c r="N33" s="35" t="s">
         <v>374</v>
+      </c>
+      <c r="O33" t="s">
+        <v>879</v>
       </c>
     </row>
     <row r="34" customFormat="1" s="0">
@@ -6944,11 +7074,11 @@
       <c r="D34" t="s">
         <v>440</v>
       </c>
-      <c r="E34">
-        <v>1</v>
+      <c r="E34" t="s">
+        <v>873</v>
       </c>
       <c r="F34" t="s">
-        <v>488</v>
+        <v>883</v>
       </c>
       <c r="H34" t="s">
         <v>586</v>
@@ -6961,6 +7091,9 @@
       </c>
       <c r="N34" s="35" t="s">
         <v>375</v>
+      </c>
+      <c r="O34" t="s">
+        <v>879</v>
       </c>
     </row>
     <row r="35" customFormat="1" s="0">
@@ -6976,11 +7109,11 @@
       <c r="D35" t="s">
         <v>441</v>
       </c>
-      <c r="E35">
-        <v>2</v>
+      <c r="E35" t="s">
+        <v>871</v>
       </c>
       <c r="F35" t="s">
-        <v>488</v>
+        <v>883</v>
       </c>
       <c r="H35" t="s">
         <v>586</v>
@@ -6990,6 +7123,9 @@
       </c>
       <c r="N35" t="s">
         <v>376</v>
+      </c>
+      <c r="O35" t="s">
+        <v>879</v>
       </c>
     </row>
     <row r="36" customFormat="1" s="0">
@@ -7005,11 +7141,11 @@
       <c r="D36" t="s">
         <v>442</v>
       </c>
-      <c r="E36">
-        <v>3</v>
+      <c r="E36" t="s">
+        <v>872</v>
       </c>
       <c r="F36" t="s">
-        <v>488</v>
+        <v>883</v>
       </c>
       <c r="H36" t="s">
         <v>586</v>
@@ -7022,6 +7158,9 @@
       </c>
       <c r="N36" t="s">
         <v>377</v>
+      </c>
+      <c r="O36" t="s">
+        <v>879</v>
       </c>
     </row>
     <row r="37" customFormat="1" s="0">
@@ -7037,11 +7176,11 @@
       <c r="D37" t="s">
         <v>443</v>
       </c>
-      <c r="E37">
-        <v>1</v>
+      <c r="E37" t="s">
+        <v>873</v>
       </c>
       <c r="F37" t="s">
-        <v>488</v>
+        <v>883</v>
       </c>
       <c r="H37" t="s">
         <v>586</v>
@@ -7051,6 +7190,9 @@
       </c>
       <c r="N37" s="35" t="s">
         <v>378</v>
+      </c>
+      <c r="O37" t="s">
+        <v>879</v>
       </c>
     </row>
     <row r="38" customFormat="1" s="0">
@@ -7066,14 +7208,14 @@
       <c r="D38" t="s">
         <v>444</v>
       </c>
-      <c r="E38">
-        <v>2</v>
+      <c r="E38" t="s">
+        <v>871</v>
       </c>
       <c r="F38" t="s">
-        <v>488</v>
+        <v>883</v>
       </c>
       <c r="G38" t="s">
-        <v>488</v>
+        <v>883</v>
       </c>
       <c r="H38" t="s">
         <v>586</v>
@@ -7083,6 +7225,9 @@
       </c>
       <c r="N38" t="s">
         <v>379</v>
+      </c>
+      <c r="O38" t="s">
+        <v>879</v>
       </c>
     </row>
     <row r="39" customFormat="1" s="0">
@@ -7098,11 +7243,11 @@
       <c r="D39" t="s">
         <v>445</v>
       </c>
-      <c r="E39">
-        <v>4</v>
+      <c r="E39" t="s">
+        <v>869</v>
       </c>
       <c r="F39" t="s">
-        <v>488</v>
+        <v>883</v>
       </c>
       <c r="H39" t="s">
         <v>586</v>
@@ -7112,6 +7257,9 @@
       </c>
       <c r="N39" s="35" t="s">
         <v>380</v>
+      </c>
+      <c r="O39" t="s">
+        <v>879</v>
       </c>
     </row>
     <row r="40" customFormat="1" s="0">
@@ -7127,11 +7275,11 @@
       <c r="D40" t="s">
         <v>446</v>
       </c>
-      <c r="E40">
-        <v>3</v>
+      <c r="E40" t="s">
+        <v>872</v>
       </c>
       <c r="F40" t="s">
-        <v>488</v>
+        <v>883</v>
       </c>
       <c r="H40" t="s">
         <v>586</v>
@@ -7141,6 +7289,9 @@
       </c>
       <c r="N40" t="s">
         <v>381</v>
+      </c>
+      <c r="O40" t="s">
+        <v>879</v>
       </c>
     </row>
     <row r="41" customFormat="1" s="0">
@@ -7156,11 +7307,11 @@
       <c r="D41" t="s">
         <v>447</v>
       </c>
-      <c r="E41">
-        <v>2</v>
+      <c r="E41" t="s">
+        <v>871</v>
       </c>
       <c r="F41" t="s">
-        <v>488</v>
+        <v>883</v>
       </c>
       <c r="H41" t="s">
         <v>586</v>
@@ -7170,6 +7321,9 @@
       </c>
       <c r="N41" s="35" t="s">
         <v>382</v>
+      </c>
+      <c r="O41" t="s">
+        <v>879</v>
       </c>
     </row>
     <row r="42" customFormat="1" s="0">
@@ -7185,11 +7339,11 @@
       <c r="D42" t="s">
         <v>448</v>
       </c>
-      <c r="E42">
-        <v>3</v>
+      <c r="E42" t="s">
+        <v>872</v>
       </c>
       <c r="F42" t="s">
-        <v>488</v>
+        <v>883</v>
       </c>
       <c r="H42" t="s">
         <v>586</v>
@@ -7199,6 +7353,9 @@
       </c>
       <c r="N42" t="s">
         <v>383</v>
+      </c>
+      <c r="O42" t="s">
+        <v>879</v>
       </c>
     </row>
     <row r="43" customFormat="1" s="0">
@@ -7214,11 +7371,11 @@
       <c r="D43" t="s">
         <v>449</v>
       </c>
-      <c r="E43">
-        <v>2</v>
+      <c r="E43" t="s">
+        <v>871</v>
       </c>
       <c r="F43" t="s">
-        <v>488</v>
+        <v>883</v>
       </c>
       <c r="H43" t="s">
         <v>586</v>
@@ -7228,6 +7385,9 @@
       </c>
       <c r="N43" s="35" t="s">
         <v>384</v>
+      </c>
+      <c r="O43" t="s">
+        <v>879</v>
       </c>
     </row>
     <row r="44" customFormat="1" s="0">
@@ -7243,11 +7403,11 @@
       <c r="D44" t="s">
         <v>450</v>
       </c>
-      <c r="E44">
-        <v>3</v>
+      <c r="E44" t="s">
+        <v>872</v>
       </c>
       <c r="F44" t="s">
-        <v>488</v>
+        <v>883</v>
       </c>
       <c r="H44" t="s">
         <v>586</v>
@@ -7257,6 +7417,9 @@
       </c>
       <c r="N44" s="35" t="s">
         <v>385</v>
+      </c>
+      <c r="O44" t="s">
+        <v>879</v>
       </c>
     </row>
     <row r="45" customFormat="1" s="0">
@@ -7272,11 +7435,11 @@
       <c r="D45" t="s">
         <v>451</v>
       </c>
-      <c r="E45">
-        <v>1</v>
+      <c r="E45" t="s">
+        <v>873</v>
       </c>
       <c r="F45" t="s">
-        <v>488</v>
+        <v>883</v>
       </c>
       <c r="H45" t="s">
         <v>586</v>
@@ -7286,6 +7449,9 @@
       </c>
       <c r="N45" s="35" t="s">
         <v>386</v>
+      </c>
+      <c r="O45" t="s">
+        <v>879</v>
       </c>
     </row>
     <row r="46" customHeight="1" ht="15.75" customFormat="1" s="0">
@@ -7301,11 +7467,11 @@
       <c r="D46" t="s">
         <v>438</v>
       </c>
-      <c r="E46">
-        <v>2</v>
+      <c r="E46" t="s">
+        <v>871</v>
       </c>
       <c r="F46" t="s">
-        <v>488</v>
+        <v>883</v>
       </c>
       <c r="H46" t="s">
         <v>586</v>
@@ -7315,6 +7481,9 @@
       </c>
       <c r="N46" t="s">
         <v>387</v>
+      </c>
+      <c r="O46" t="s">
+        <v>879</v>
       </c>
     </row>
     <row r="47" customFormat="1" s="0">
@@ -7330,11 +7499,11 @@
       <c r="D47" t="s">
         <v>469</v>
       </c>
-      <c r="E47">
-        <v>2</v>
+      <c r="E47" t="s">
+        <v>871</v>
       </c>
       <c r="F47" t="s">
-        <v>486</v>
+        <v>876</v>
       </c>
       <c r="H47" t="s">
         <v>587</v>
@@ -7344,6 +7513,9 @@
       </c>
       <c r="N47" s="35" t="s">
         <v>518</v>
+      </c>
+      <c r="O47" t="s">
+        <v>880</v>
       </c>
     </row>
     <row r="48" customFormat="1" s="0">
@@ -7359,11 +7531,11 @@
       <c r="D48" t="s">
         <v>470</v>
       </c>
-      <c r="E48">
-        <v>3</v>
+      <c r="E48" t="s">
+        <v>872</v>
       </c>
       <c r="F48" t="s">
-        <v>486</v>
+        <v>876</v>
       </c>
       <c r="H48" t="s">
         <v>587</v>
@@ -7373,6 +7545,9 @@
       </c>
       <c r="N48" t="s">
         <v>517</v>
+      </c>
+      <c r="O48" t="s">
+        <v>880</v>
       </c>
     </row>
     <row r="49" customFormat="1" s="0">
@@ -7388,11 +7563,11 @@
       <c r="D49" t="s">
         <v>471</v>
       </c>
-      <c r="E49">
-        <v>1</v>
+      <c r="E49" t="s">
+        <v>873</v>
       </c>
       <c r="F49" t="s">
-        <v>486</v>
+        <v>876</v>
       </c>
       <c r="H49" t="s">
         <v>587</v>
@@ -7405,6 +7580,9 @@
       </c>
       <c r="N49" s="35" t="s">
         <v>516</v>
+      </c>
+      <c r="O49" t="s">
+        <v>880</v>
       </c>
     </row>
     <row r="50" customFormat="1" s="0">
@@ -7420,11 +7598,11 @@
       <c r="D50" t="s">
         <v>485</v>
       </c>
-      <c r="E50">
-        <v>2</v>
+      <c r="E50" t="s">
+        <v>871</v>
       </c>
       <c r="F50" t="s">
-        <v>486</v>
+        <v>876</v>
       </c>
       <c r="H50" t="s">
         <v>587</v>
@@ -7434,6 +7612,9 @@
       </c>
       <c r="N50" t="s">
         <v>515</v>
+      </c>
+      <c r="O50" t="s">
+        <v>880</v>
       </c>
     </row>
     <row r="51" customFormat="1" s="0">
@@ -7449,11 +7630,11 @@
       <c r="D51" t="s">
         <v>473</v>
       </c>
-      <c r="E51">
-        <v>1</v>
+      <c r="E51" t="s">
+        <v>873</v>
       </c>
       <c r="F51" t="s">
-        <v>486</v>
+        <v>876</v>
       </c>
       <c r="H51" t="s">
         <v>587</v>
@@ -7463,6 +7644,9 @@
       </c>
       <c r="N51" s="35" t="s">
         <v>514</v>
+      </c>
+      <c r="O51" t="s">
+        <v>880</v>
       </c>
     </row>
     <row r="52" customFormat="1" s="0">
@@ -7478,14 +7662,14 @@
       <c r="D52" t="s">
         <v>474</v>
       </c>
-      <c r="E52">
-        <v>2</v>
+      <c r="E52" t="s">
+        <v>871</v>
       </c>
       <c r="F52" t="s">
-        <v>486</v>
+        <v>876</v>
       </c>
       <c r="G52" t="s">
-        <v>486</v>
+        <v>876</v>
       </c>
       <c r="H52" t="s">
         <v>587</v>
@@ -7495,6 +7679,9 @@
       </c>
       <c r="N52" s="35" t="s">
         <v>513</v>
+      </c>
+      <c r="O52" t="s">
+        <v>880</v>
       </c>
     </row>
     <row r="53" customFormat="1" s="0">
@@ -7510,11 +7697,11 @@
       <c r="D53" t="s">
         <v>475</v>
       </c>
-      <c r="E53">
-        <v>3</v>
+      <c r="E53" t="s">
+        <v>872</v>
       </c>
       <c r="F53" t="s">
-        <v>486</v>
+        <v>876</v>
       </c>
       <c r="H53" t="s">
         <v>587</v>
@@ -7524,6 +7711,9 @@
       </c>
       <c r="N53" s="35" t="s">
         <v>512</v>
+      </c>
+      <c r="O53" t="s">
+        <v>880</v>
       </c>
     </row>
     <row r="54" customFormat="1" s="0">
@@ -7539,11 +7729,11 @@
       <c r="D54" t="s">
         <v>476</v>
       </c>
-      <c r="E54">
-        <v>4</v>
+      <c r="E54" t="s">
+        <v>869</v>
       </c>
       <c r="F54" t="s">
-        <v>486</v>
+        <v>876</v>
       </c>
       <c r="H54" t="s">
         <v>587</v>
@@ -7553,6 +7743,9 @@
       </c>
       <c r="N54" s="35" t="s">
         <v>511</v>
+      </c>
+      <c r="O54" t="s">
+        <v>880</v>
       </c>
     </row>
     <row r="55" customFormat="1" s="0">
@@ -7568,11 +7761,11 @@
       <c r="D55" t="s">
         <v>477</v>
       </c>
-      <c r="E55">
-        <v>3</v>
+      <c r="E55" t="s">
+        <v>872</v>
       </c>
       <c r="F55" t="s">
-        <v>486</v>
+        <v>876</v>
       </c>
       <c r="H55" t="s">
         <v>587</v>
@@ -7585,6 +7778,9 @@
       </c>
       <c r="N55" s="35" t="s">
         <v>510</v>
+      </c>
+      <c r="O55" t="s">
+        <v>880</v>
       </c>
     </row>
     <row r="56" customFormat="1" s="0">
@@ -7600,11 +7796,11 @@
       <c r="D56" t="s">
         <v>484</v>
       </c>
-      <c r="E56">
-        <v>2</v>
+      <c r="E56" t="s">
+        <v>871</v>
       </c>
       <c r="F56" t="s">
-        <v>486</v>
+        <v>876</v>
       </c>
       <c r="H56" t="s">
         <v>587</v>
@@ -7614,6 +7810,9 @@
       </c>
       <c r="N56" s="35" t="s">
         <v>509</v>
+      </c>
+      <c r="O56" t="s">
+        <v>880</v>
       </c>
     </row>
     <row r="57" customFormat="1" s="0">
@@ -7629,11 +7828,11 @@
       <c r="D57" t="s">
         <v>479</v>
       </c>
-      <c r="E57">
-        <v>3</v>
+      <c r="E57" t="s">
+        <v>872</v>
       </c>
       <c r="F57" t="s">
-        <v>486</v>
+        <v>876</v>
       </c>
       <c r="H57" t="s">
         <v>587</v>
@@ -7643,6 +7842,9 @@
       </c>
       <c r="N57" s="35" t="s">
         <v>508</v>
+      </c>
+      <c r="O57" t="s">
+        <v>880</v>
       </c>
     </row>
     <row r="58" customFormat="1" s="0">
@@ -7658,11 +7860,11 @@
       <c r="D58" t="s">
         <v>480</v>
       </c>
-      <c r="E58">
-        <v>2</v>
+      <c r="E58" t="s">
+        <v>871</v>
       </c>
       <c r="F58" t="s">
-        <v>486</v>
+        <v>876</v>
       </c>
       <c r="H58" t="s">
         <v>587</v>
@@ -7672,6 +7874,9 @@
       </c>
       <c r="N58" t="s">
         <v>507</v>
+      </c>
+      <c r="O58" t="s">
+        <v>880</v>
       </c>
     </row>
     <row r="59" customFormat="1" s="0">
@@ -7687,11 +7892,11 @@
       <c r="D59" t="s">
         <v>481</v>
       </c>
-      <c r="E59">
-        <v>3</v>
+      <c r="E59" t="s">
+        <v>872</v>
       </c>
       <c r="F59" t="s">
-        <v>486</v>
+        <v>876</v>
       </c>
       <c r="H59" t="s">
         <v>587</v>
@@ -7704,6 +7909,9 @@
       </c>
       <c r="N59" s="35" t="s">
         <v>506</v>
+      </c>
+      <c r="O59" t="s">
+        <v>880</v>
       </c>
     </row>
     <row r="60" customFormat="1" s="0">
@@ -7719,11 +7927,11 @@
       <c r="D60" t="s">
         <v>482</v>
       </c>
-      <c r="E60">
-        <v>2</v>
+      <c r="E60" t="s">
+        <v>871</v>
       </c>
       <c r="F60" t="s">
-        <v>486</v>
+        <v>876</v>
       </c>
       <c r="H60" t="s">
         <v>587</v>
@@ -7733,6 +7941,9 @@
       </c>
       <c r="N60" t="s">
         <v>505</v>
+      </c>
+      <c r="O60" t="s">
+        <v>880</v>
       </c>
     </row>
     <row r="61" customFormat="1" s="0">
@@ -7748,14 +7959,14 @@
       <c r="D61" t="s">
         <v>483</v>
       </c>
-      <c r="E61">
-        <v>3</v>
+      <c r="E61" t="s">
+        <v>872</v>
       </c>
       <c r="F61" t="s">
-        <v>486</v>
+        <v>876</v>
       </c>
       <c r="G61" t="s">
-        <v>486</v>
+        <v>876</v>
       </c>
       <c r="H61" t="s">
         <v>587</v>
@@ -7765,6 +7976,9 @@
       </c>
       <c r="N61" s="35" t="s">
         <v>504</v>
+      </c>
+      <c r="O61" t="s">
+        <v>880</v>
       </c>
     </row>
     <row r="62" customFormat="1" s="0">
@@ -7780,11 +7994,11 @@
       <c r="D62" s="35" t="s">
         <v>536</v>
       </c>
-      <c r="E62">
-        <v>1</v>
+      <c r="E62" t="s">
+        <v>873</v>
       </c>
       <c r="F62" t="s">
-        <v>551</v>
+        <v>877</v>
       </c>
       <c r="H62" t="s">
         <v>588</v>
@@ -7794,6 +8008,9 @@
       </c>
       <c r="N62" t="s">
         <v>569</v>
+      </c>
+      <c r="O62" t="s">
+        <v>881</v>
       </c>
     </row>
     <row r="63" customFormat="1" s="0">
@@ -7809,11 +8026,11 @@
       <c r="D63" s="35" t="s">
         <v>537</v>
       </c>
-      <c r="E63">
-        <v>2</v>
+      <c r="E63" t="s">
+        <v>871</v>
       </c>
       <c r="F63" t="s">
-        <v>551</v>
+        <v>877</v>
       </c>
       <c r="H63" t="s">
         <v>588</v>
@@ -7823,6 +8040,9 @@
       </c>
       <c r="N63" s="35" t="s">
         <v>570</v>
+      </c>
+      <c r="O63" t="s">
+        <v>881</v>
       </c>
     </row>
     <row r="64" customFormat="1" s="0">
@@ -7838,11 +8058,11 @@
       <c r="D64" s="35" t="s">
         <v>538</v>
       </c>
-      <c r="E64">
-        <v>3</v>
+      <c r="E64" t="s">
+        <v>872</v>
       </c>
       <c r="F64" t="s">
-        <v>551</v>
+        <v>877</v>
       </c>
       <c r="H64" t="s">
         <v>588</v>
@@ -7852,6 +8072,9 @@
       </c>
       <c r="N64" s="35" t="s">
         <v>571</v>
+      </c>
+      <c r="O64" t="s">
+        <v>881</v>
       </c>
     </row>
     <row r="65" customFormat="1" s="0">
@@ -7867,11 +8090,11 @@
       <c r="D65" s="35" t="s">
         <v>760</v>
       </c>
-      <c r="E65">
-        <v>1</v>
+      <c r="E65" t="s">
+        <v>873</v>
       </c>
       <c r="F65" t="s">
-        <v>551</v>
+        <v>877</v>
       </c>
       <c r="H65" t="s">
         <v>588</v>
@@ -7881,6 +8104,9 @@
       </c>
       <c r="N65" s="35" t="s">
         <v>572</v>
+      </c>
+      <c r="O65" t="s">
+        <v>881</v>
       </c>
     </row>
     <row r="66" customFormat="1" s="0">
@@ -7896,14 +8122,14 @@
       <c r="D66" s="35" t="s">
         <v>540</v>
       </c>
-      <c r="E66">
-        <v>2</v>
+      <c r="E66" t="s">
+        <v>871</v>
       </c>
       <c r="F66" t="s">
-        <v>551</v>
+        <v>877</v>
       </c>
       <c r="G66" t="s">
-        <v>551</v>
+        <v>877</v>
       </c>
       <c r="H66" t="s">
         <v>588</v>
@@ -7913,6 +8139,9 @@
       </c>
       <c r="N66" s="35" t="s">
         <v>573</v>
+      </c>
+      <c r="O66" t="s">
+        <v>881</v>
       </c>
     </row>
     <row r="67" customFormat="1" s="0">
@@ -7928,11 +8157,11 @@
       <c r="D67" s="35" t="s">
         <v>761</v>
       </c>
-      <c r="E67">
-        <v>1</v>
+      <c r="E67" t="s">
+        <v>873</v>
       </c>
       <c r="F67" t="s">
-        <v>551</v>
+        <v>877</v>
       </c>
       <c r="H67" t="s">
         <v>588</v>
@@ -7942,6 +8171,9 @@
       </c>
       <c r="N67" s="35" t="s">
         <v>574</v>
+      </c>
+      <c r="O67" t="s">
+        <v>881</v>
       </c>
     </row>
     <row r="68" customFormat="1" s="0">
@@ -7957,11 +8189,11 @@
       <c r="D68" s="35" t="s">
         <v>542</v>
       </c>
-      <c r="E68">
-        <v>2</v>
+      <c r="E68" t="s">
+        <v>871</v>
       </c>
       <c r="F68" t="s">
-        <v>551</v>
+        <v>877</v>
       </c>
       <c r="H68" t="s">
         <v>588</v>
@@ -7971,6 +8203,9 @@
       </c>
       <c r="N68" s="35" t="s">
         <v>575</v>
+      </c>
+      <c r="O68" t="s">
+        <v>881</v>
       </c>
     </row>
     <row r="69" customFormat="1" s="0">
@@ -7986,11 +8221,11 @@
       <c r="D69" s="35" t="s">
         <v>543</v>
       </c>
-      <c r="E69">
-        <v>2</v>
+      <c r="E69" t="s">
+        <v>871</v>
       </c>
       <c r="F69" t="s">
-        <v>551</v>
+        <v>877</v>
       </c>
       <c r="H69" t="s">
         <v>588</v>
@@ -8000,6 +8235,9 @@
       </c>
       <c r="N69" s="35" t="s">
         <v>576</v>
+      </c>
+      <c r="O69" t="s">
+        <v>881</v>
       </c>
     </row>
     <row r="70" customFormat="1" s="0">
@@ -8015,11 +8253,11 @@
       <c r="D70" s="35" t="s">
         <v>544</v>
       </c>
-      <c r="E70">
-        <v>3</v>
+      <c r="E70" t="s">
+        <v>872</v>
       </c>
       <c r="F70" t="s">
-        <v>551</v>
+        <v>877</v>
       </c>
       <c r="H70" t="s">
         <v>588</v>
@@ -8032,6 +8270,9 @@
       </c>
       <c r="N70" s="35" t="s">
         <v>577</v>
+      </c>
+      <c r="O70" t="s">
+        <v>881</v>
       </c>
     </row>
     <row r="71" customFormat="1" s="0">
@@ -8047,11 +8288,11 @@
       <c r="D71" s="35" t="s">
         <v>545</v>
       </c>
-      <c r="E71">
-        <v>2</v>
+      <c r="E71" t="s">
+        <v>871</v>
       </c>
       <c r="F71" t="s">
-        <v>551</v>
+        <v>877</v>
       </c>
       <c r="H71" t="s">
         <v>588</v>
@@ -8061,6 +8302,9 @@
       </c>
       <c r="N71" s="35" t="s">
         <v>578</v>
+      </c>
+      <c r="O71" t="s">
+        <v>881</v>
       </c>
     </row>
     <row r="72" customFormat="1" s="0">
@@ -8076,11 +8320,11 @@
       <c r="D72" s="35" t="s">
         <v>546</v>
       </c>
-      <c r="E72">
-        <v>3</v>
+      <c r="E72" t="s">
+        <v>872</v>
       </c>
       <c r="F72" t="s">
-        <v>551</v>
+        <v>877</v>
       </c>
       <c r="H72" t="s">
         <v>588</v>
@@ -8090,6 +8334,9 @@
       </c>
       <c r="N72" s="35" t="s">
         <v>579</v>
+      </c>
+      <c r="O72" t="s">
+        <v>881</v>
       </c>
     </row>
     <row r="73" customFormat="1" s="0">
@@ -8105,11 +8352,11 @@
       <c r="D73" s="35" t="s">
         <v>547</v>
       </c>
-      <c r="E73">
-        <v>4</v>
+      <c r="E73" t="s">
+        <v>869</v>
       </c>
       <c r="F73" t="s">
-        <v>551</v>
+        <v>877</v>
       </c>
       <c r="H73" t="s">
         <v>588</v>
@@ -8119,6 +8366,9 @@
       </c>
       <c r="N73" s="35" t="s">
         <v>580</v>
+      </c>
+      <c r="O73" t="s">
+        <v>881</v>
       </c>
     </row>
     <row r="74" customFormat="1" s="0">
@@ -8134,11 +8384,11 @@
       <c r="D74" s="35" t="s">
         <v>548</v>
       </c>
-      <c r="E74">
-        <v>2</v>
+      <c r="E74" t="s">
+        <v>871</v>
       </c>
       <c r="F74" t="s">
-        <v>551</v>
+        <v>877</v>
       </c>
       <c r="H74" t="s">
         <v>588</v>
@@ -8148,6 +8398,9 @@
       </c>
       <c r="N74" s="35" t="s">
         <v>581</v>
+      </c>
+      <c r="O74" t="s">
+        <v>881</v>
       </c>
     </row>
     <row r="75" customFormat="1" s="0">
@@ -8163,11 +8416,11 @@
       <c r="D75" s="35" t="s">
         <v>549</v>
       </c>
-      <c r="E75">
-        <v>3</v>
+      <c r="E75" t="s">
+        <v>872</v>
       </c>
       <c r="F75" t="s">
-        <v>551</v>
+        <v>877</v>
       </c>
       <c r="H75" t="s">
         <v>588</v>
@@ -8177,6 +8430,9 @@
       </c>
       <c r="N75" s="35" t="s">
         <v>582</v>
+      </c>
+      <c r="O75" t="s">
+        <v>881</v>
       </c>
     </row>
     <row r="76" customFormat="1" s="0">
@@ -8192,11 +8448,11 @@
       <c r="D76" s="35" t="s">
         <v>550</v>
       </c>
-      <c r="E76">
-        <v>4</v>
+      <c r="E76" t="s">
+        <v>869</v>
       </c>
       <c r="F76" t="s">
-        <v>551</v>
+        <v>877</v>
       </c>
       <c r="H76" t="s">
         <v>588</v>
@@ -8206,6 +8462,9 @@
       </c>
       <c r="N76" s="35" t="s">
         <v>583</v>
+      </c>
+      <c r="O76" t="s">
+        <v>881</v>
       </c>
     </row>
     <row r="77">
@@ -8221,11 +8480,11 @@
       <c r="D77" t="s">
         <v>606</v>
       </c>
-      <c r="E77">
-        <v>2</v>
+      <c r="E77" t="s">
+        <v>871</v>
       </c>
       <c r="F77" t="s">
-        <v>621</v>
+        <v>878</v>
       </c>
       <c r="H77" t="s">
         <v>623</v>
@@ -8238,6 +8497,9 @@
       </c>
       <c r="N77" s="4" t="s">
         <v>645</v>
+      </c>
+      <c r="O77" t="s">
+        <v>882</v>
       </c>
     </row>
     <row r="78">
@@ -8253,11 +8515,11 @@
       <c r="D78" t="s">
         <v>607</v>
       </c>
-      <c r="E78">
-        <v>3</v>
+      <c r="E78" t="s">
+        <v>872</v>
       </c>
       <c r="F78" t="s">
-        <v>621</v>
+        <v>878</v>
       </c>
       <c r="H78" t="s">
         <v>623</v>
@@ -8267,6 +8529,9 @@
       </c>
       <c r="N78" s="4" t="s">
         <v>646</v>
+      </c>
+      <c r="O78" t="s">
+        <v>882</v>
       </c>
     </row>
     <row r="79">
@@ -8282,11 +8547,11 @@
       <c r="D79" t="s">
         <v>608</v>
       </c>
-      <c r="E79">
-        <v>1</v>
+      <c r="E79" t="s">
+        <v>873</v>
       </c>
       <c r="F79" t="s">
-        <v>621</v>
+        <v>878</v>
       </c>
       <c r="H79" t="s">
         <v>623</v>
@@ -8296,6 +8561,9 @@
       </c>
       <c r="N79" s="4" t="s">
         <v>647</v>
+      </c>
+      <c r="O79" t="s">
+        <v>882</v>
       </c>
     </row>
     <row r="80">
@@ -8311,14 +8579,14 @@
       <c r="D80" t="s">
         <v>609</v>
       </c>
-      <c r="E80">
-        <v>2</v>
+      <c r="E80" t="s">
+        <v>871</v>
       </c>
       <c r="F80" t="s">
-        <v>621</v>
+        <v>878</v>
       </c>
       <c r="G80" t="s">
-        <v>621</v>
+        <v>878</v>
       </c>
       <c r="H80" t="s">
         <v>623</v>
@@ -8328,6 +8596,9 @@
       </c>
       <c r="N80" s="4" t="s">
         <v>648</v>
+      </c>
+      <c r="O80" t="s">
+        <v>882</v>
       </c>
     </row>
     <row r="81">
@@ -8343,11 +8614,11 @@
       <c r="D81" t="s">
         <v>610</v>
       </c>
-      <c r="E81">
-        <v>4</v>
+      <c r="E81" t="s">
+        <v>869</v>
       </c>
       <c r="F81" t="s">
-        <v>621</v>
+        <v>878</v>
       </c>
       <c r="H81" t="s">
         <v>623</v>
@@ -8360,6 +8631,9 @@
       </c>
       <c r="N81" s="4" t="s">
         <v>644</v>
+      </c>
+      <c r="O81" t="s">
+        <v>882</v>
       </c>
     </row>
     <row r="82">
@@ -8375,11 +8649,11 @@
       <c r="D82" t="s">
         <v>611</v>
       </c>
-      <c r="E82">
-        <v>2</v>
+      <c r="E82" t="s">
+        <v>871</v>
       </c>
       <c r="F82" t="s">
-        <v>621</v>
+        <v>878</v>
       </c>
       <c r="H82" t="s">
         <v>623</v>
@@ -8389,6 +8663,9 @@
       </c>
       <c r="N82" s="4" t="s">
         <v>643</v>
+      </c>
+      <c r="O82" t="s">
+        <v>882</v>
       </c>
     </row>
     <row r="83">
@@ -8404,11 +8681,11 @@
       <c r="D83" t="s">
         <v>612</v>
       </c>
-      <c r="E83">
-        <v>2</v>
+      <c r="E83" t="s">
+        <v>871</v>
       </c>
       <c r="F83" t="s">
-        <v>621</v>
+        <v>878</v>
       </c>
       <c r="H83" t="s">
         <v>623</v>
@@ -8418,6 +8695,9 @@
       </c>
       <c r="N83" s="4" t="s">
         <v>649</v>
+      </c>
+      <c r="O83" t="s">
+        <v>882</v>
       </c>
     </row>
     <row r="84">
@@ -8433,11 +8713,11 @@
       <c r="D84" t="s">
         <v>613</v>
       </c>
-      <c r="E84">
-        <v>2</v>
+      <c r="E84" t="s">
+        <v>871</v>
       </c>
       <c r="F84" t="s">
-        <v>621</v>
+        <v>878</v>
       </c>
       <c r="H84" t="s">
         <v>623</v>
@@ -8447,6 +8727,9 @@
       </c>
       <c r="N84" s="4" t="s">
         <v>650</v>
+      </c>
+      <c r="O84" t="s">
+        <v>882</v>
       </c>
     </row>
     <row r="85">
@@ -8462,11 +8745,11 @@
       <c r="D85" t="s">
         <v>614</v>
       </c>
-      <c r="E85">
-        <v>1</v>
+      <c r="E85" t="s">
+        <v>873</v>
       </c>
       <c r="F85" t="s">
-        <v>621</v>
+        <v>878</v>
       </c>
       <c r="H85" t="s">
         <v>623</v>
@@ -8479,6 +8762,9 @@
       </c>
       <c r="N85" s="4" t="s">
         <v>651</v>
+      </c>
+      <c r="O85" t="s">
+        <v>882</v>
       </c>
     </row>
     <row r="86">
@@ -8494,11 +8780,11 @@
       <c r="D86" t="s">
         <v>615</v>
       </c>
-      <c r="E86">
-        <v>2</v>
+      <c r="E86" t="s">
+        <v>871</v>
       </c>
       <c r="F86" t="s">
-        <v>621</v>
+        <v>878</v>
       </c>
       <c r="H86" t="s">
         <v>623</v>
@@ -8511,6 +8797,9 @@
       </c>
       <c r="N86" s="4" t="s">
         <v>653</v>
+      </c>
+      <c r="O86" t="s">
+        <v>882</v>
       </c>
     </row>
     <row r="87">
@@ -8526,11 +8815,11 @@
       <c r="D87" t="s">
         <v>616</v>
       </c>
-      <c r="E87">
-        <v>4</v>
+      <c r="E87" t="s">
+        <v>869</v>
       </c>
       <c r="F87" t="s">
-        <v>621</v>
+        <v>878</v>
       </c>
       <c r="H87" t="s">
         <v>623</v>
@@ -8540,6 +8829,9 @@
       </c>
       <c r="N87" s="4" t="s">
         <v>654</v>
+      </c>
+      <c r="O87" t="s">
+        <v>882</v>
       </c>
     </row>
     <row r="88">
@@ -8555,11 +8847,11 @@
       <c r="D88" t="s">
         <v>617</v>
       </c>
-      <c r="E88">
-        <v>1</v>
+      <c r="E88" t="s">
+        <v>873</v>
       </c>
       <c r="F88" t="s">
-        <v>621</v>
+        <v>878</v>
       </c>
       <c r="H88" t="s">
         <v>623</v>
@@ -8569,6 +8861,9 @@
       </c>
       <c r="N88" s="4" t="s">
         <v>655</v>
+      </c>
+      <c r="O88" t="s">
+        <v>882</v>
       </c>
     </row>
     <row r="89">
@@ -8584,11 +8879,11 @@
       <c r="D89" t="s">
         <v>618</v>
       </c>
-      <c r="E89">
-        <v>3</v>
+      <c r="E89" t="s">
+        <v>872</v>
       </c>
       <c r="F89" t="s">
-        <v>621</v>
+        <v>878</v>
       </c>
       <c r="H89" t="s">
         <v>623</v>
@@ -8598,6 +8893,9 @@
       </c>
       <c r="N89" s="4" t="s">
         <v>656</v>
+      </c>
+      <c r="O89" t="s">
+        <v>882</v>
       </c>
     </row>
     <row r="90">
@@ -8613,11 +8911,11 @@
       <c r="D90" t="s">
         <v>619</v>
       </c>
-      <c r="E90">
-        <v>4</v>
+      <c r="E90" t="s">
+        <v>869</v>
       </c>
       <c r="F90" t="s">
-        <v>621</v>
+        <v>878</v>
       </c>
       <c r="H90" t="s">
         <v>623</v>
@@ -8627,6 +8925,9 @@
       </c>
       <c r="N90" s="4" t="s">
         <v>657</v>
+      </c>
+      <c r="O90" t="s">
+        <v>882</v>
       </c>
     </row>
     <row r="91">
@@ -8642,11 +8943,11 @@
       <c r="D91" t="s">
         <v>620</v>
       </c>
-      <c r="E91">
-        <v>2</v>
+      <c r="E91" t="s">
+        <v>871</v>
       </c>
       <c r="F91" t="s">
-        <v>621</v>
+        <v>878</v>
       </c>
       <c r="H91" t="s">
         <v>623</v>
@@ -8656,6 +8957,9 @@
       </c>
       <c r="N91" s="4" t="s">
         <v>658</v>
+      </c>
+      <c r="O91" t="s">
+        <v>882</v>
       </c>
     </row>
   </sheetData>

--- a/NetRealmsNanSetup/nanDECK/cards.xlsx
+++ b/NetRealmsNanSetup/nanDECK/cards.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="11820" activeTab="5"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="11820" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Lands" sheetId="1" r:id="rId1"/>
@@ -2706,6 +2706,84 @@
   </si>
   <si>
     <t>C:\Users\TK\Desktop\nanDECK\netrealms\symbols\symbol_game.png</t>
+  </si>
+  <si>
+    <t>[+1] Stir the Pot: Each player draws a card, then discards a card. For each card discarded this way, you gain 1 Integrity.</t>
+  </si>
+  <si>
+    <t>Stir the Pot: +1 Each player draws a card, then discards a card. For each card discarded this way, you gain 1 Integrity.</t>
+  </si>
+  <si>
+    <t>[-3] Frenzied Allegiance: Gain control of target Unit until end of turn. It gains Haste and “When this Unit deals damage, exile it.”</t>
+  </si>
+  <si>
+    <t>[-8] Viral Scandal: Destroy all Units target player controls. For each Unit destroyed this way, create a 1/1 “Drama Fiend” token.</t>
+  </si>
+  <si>
+    <t>[-8] Complete Reset: You gain an emblem with, “At the start of your upload, exile any number of constructs. Return them to the Grid under your control next turn.”</t>
+  </si>
+  <si>
+    <t>[-2] System Crash: Each player sacrifices a construct. For each sacrificed construct, its controller loses 1 Integrity.</t>
+  </si>
+  <si>
+    <t>[+1] Nullify Access: Exile target non-Node construct. Its owner creates a 1/1 "Nothingness" Unit with Shielded.</t>
+  </si>
+  <si>
+    <t>I don’t create chaos. I just hold the strings.</t>
+  </si>
+  <si>
+    <t>Corruption isn’t a flaw; it’s the key to perfection.</t>
+  </si>
+  <si>
+    <t>[-9] System Reset: Return all Glitch cards from your exile to the Grid under your control. They gain Haste until end of turn.</t>
+  </si>
+  <si>
+    <t>[-3] Virus Uplink: Exile up to two target Units. Their owners mill cards equal to their combined energy cost</t>
+  </si>
+  <si>
+    <t>The darkest corners hold the brightest secrets.</t>
+  </si>
+  <si>
+    <t>[-10] All-Encompassing Net: Exile all Units in opponents’ archives. Create X 1/1 “Creep Spawn” tokens, where X is the number of cards exiled thi</t>
+  </si>
+  <si>
+    <t>[-10] All-Encompassing Net: Exile all Units in opponents’ archives. Create X 1/1 “Creep Spawn” tokens, where X is the number of cards exiled this way.</t>
+  </si>
+  <si>
+    <t>[-3] Digital Stalker: Create a 2/2 “Shadow Spy” token with “When this token deals combat damage, mill 3 cards.</t>
+  </si>
+  <si>
+    <t>[+1] Web of Whispers: Target player reveals their hand. Choose one card from it; they must discard it.</t>
+  </si>
+  <si>
+    <t>[+2] Data Rewrite: Mill three cards, then return one Glitch card from your archive to your hand.</t>
+  </si>
+  <si>
+    <t>[-3] Virus Uplink: Exile up to two target Units. Their owners mill cards equal to their combined energy costs.</t>
+  </si>
+  <si>
+    <t>[+1] Blueprint Analysis: Reveal the top card of your archive. If it’s a Code Relic, put it into your hand. Otherwise, mill it.</t>
+  </si>
+  <si>
+    <t>[-2] Compiler’s Edge: Create a 3/3 “Program Construct” Unit token with “This token gains +1/+1 for each Code Relic you control.”</t>
+  </si>
+  <si>
+    <t>[-6] Endless Execution: Choose a Code card from your archive or exile. You may cast it without paying its energy cost.</t>
+  </si>
+  <si>
+    <t>Every line of code is a thread in the fabric of reality.</t>
+  </si>
+  <si>
+    <t>[+1] Blockbuster Insight: Reveal the top two cards of your archive. You may exile one Movie Relic or Unit revealed this way. Add 1M for each card exiled.</t>
+  </si>
+  <si>
+    <t>[-2] Epic Montage: Create a 3/3 “Heroic Protagonist” Unit token with “Whenever this token attacks, draw a card.”</t>
+  </si>
+  <si>
+    <t>[-7] Grand Finale: Exile up to five target non-Movie Units. For each Unit exiled this way, create a 4/4 “Cinematic Specter” Unit token with Flying.</t>
+  </si>
+  <si>
+    <t>Every frame tells a story, but the endings are mine to choose.</t>
   </si>
 </sst>
 </file>
@@ -3910,8 +3988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="C1">
-      <selection activeCell="E3" activeCellId="0" sqref="E3"/>
+    <sheetView workbookViewId="0" topLeftCell="L1" tabSelected="1">
+      <selection activeCell="O4" activeCellId="0" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3919,11 +3997,17 @@
     <col min="1" max="1" width="26.109375" customWidth="1"/>
     <col min="2" max="2" width="66.7109375" customWidth="1" bestFit="1"/>
     <col min="3" max="3" width="69.7109375" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" width="51.140625" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" width="62.140625" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" width="63" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" width="63" customWidth="1" bestFit="1"/>
     <col min="9" max="9" width="31.77734375" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" width="80.109375" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" width="81.21875" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" width="133.28515625" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" width="111.42578125" customWidth="1" bestFit="1"/>
     <col min="12" max="12" width="134.33203125" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" width="48.33203125" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" width="7.85546875" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" width="51.42578125" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" width="64" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3972,6 +4056,9 @@
       <c r="O1" t="s">
         <v>9</v>
       </c>
+      <c r="P1" t="s">
+        <v>866</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -3983,32 +4070,35 @@
       <c r="C2" t="s">
         <v>195</v>
       </c>
-      <c r="D2">
-        <v>3</v>
+      <c r="D2" t="s">
+        <v>872</v>
       </c>
       <c r="E2" t="s">
-        <v>488</v>
+        <v>883</v>
       </c>
       <c r="F2" t="s">
-        <v>488</v>
+        <v>883</v>
       </c>
       <c r="I2" t="s">
         <v>34</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>41</v>
+        <v>890</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>42</v>
+        <v>889</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>46</v>
+        <v>888</v>
       </c>
       <c r="N2">
         <v>5</v>
       </c>
       <c r="O2" t="s">
         <v>47</v>
+      </c>
+      <c r="P2" t="s">
+        <v>879</v>
       </c>
     </row>
     <row r="3">
@@ -4021,8 +4111,35 @@
       <c r="C3" t="s">
         <v>770</v>
       </c>
+      <c r="D3" t="s">
+        <v>871</v>
+      </c>
+      <c r="E3" t="s">
+        <v>874</v>
+      </c>
+      <c r="F3" t="s">
+        <v>874</v>
+      </c>
       <c r="I3" t="s">
         <v>203</v>
+      </c>
+      <c r="J3" t="s">
+        <v>902</v>
+      </c>
+      <c r="K3" t="s">
+        <v>903</v>
+      </c>
+      <c r="L3" t="s">
+        <v>904</v>
+      </c>
+      <c r="N3">
+        <v>3</v>
+      </c>
+      <c r="O3" t="s">
+        <v>905</v>
+      </c>
+      <c r="P3" t="s">
+        <v>867</v>
       </c>
     </row>
     <row r="4">
@@ -4035,11 +4152,36 @@
       <c r="C4" t="s">
         <v>768</v>
       </c>
+      <c r="D4" t="s">
+        <v>871</v>
+      </c>
+      <c r="E4" t="s">
+        <v>876</v>
+      </c>
+      <c r="F4" t="s">
+        <v>876</v>
+      </c>
       <c r="I4" t="s">
         <v>204</v>
       </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
+      <c r="J4" t="s">
+        <v>906</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>907</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>908</v>
+      </c>
+      <c r="N4">
+        <v>4</v>
+      </c>
+      <c r="O4" t="s">
+        <v>909</v>
+      </c>
+      <c r="P4" t="s">
+        <v>880</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -4051,8 +4193,35 @@
       <c r="C5" t="s">
         <v>769</v>
       </c>
+      <c r="D5" t="s">
+        <v>869</v>
+      </c>
+      <c r="E5" t="s">
+        <v>870</v>
+      </c>
+      <c r="F5" t="s">
+        <v>870</v>
+      </c>
       <c r="I5" t="s">
         <v>205</v>
+      </c>
+      <c r="J5" t="s">
+        <v>900</v>
+      </c>
+      <c r="K5" t="s">
+        <v>901</v>
+      </c>
+      <c r="L5" t="s">
+        <v>893</v>
+      </c>
+      <c r="N5">
+        <v>6</v>
+      </c>
+      <c r="O5" t="s">
+        <v>892</v>
+      </c>
+      <c r="P5" t="s">
+        <v>868</v>
       </c>
     </row>
     <row r="6">
@@ -4065,8 +4234,35 @@
       <c r="C6" t="s">
         <v>766</v>
       </c>
+      <c r="D6" t="s">
+        <v>869</v>
+      </c>
+      <c r="E6" t="s">
+        <v>877</v>
+      </c>
+      <c r="F6" t="s">
+        <v>877</v>
+      </c>
       <c r="I6" t="s">
         <v>206</v>
+      </c>
+      <c r="J6" t="s">
+        <v>899</v>
+      </c>
+      <c r="K6" t="s">
+        <v>898</v>
+      </c>
+      <c r="L6" t="s">
+        <v>897</v>
+      </c>
+      <c r="N6">
+        <v>5</v>
+      </c>
+      <c r="O6" t="s">
+        <v>895</v>
+      </c>
+      <c r="P6" t="s">
+        <v>881</v>
       </c>
     </row>
     <row r="7">
@@ -4079,8 +4275,38 @@
       <c r="C7" t="s">
         <v>767</v>
       </c>
+      <c r="D7" t="s">
+        <v>872</v>
+      </c>
+      <c r="E7" t="s">
+        <v>878</v>
+      </c>
+      <c r="F7" t="s">
+        <v>878</v>
+      </c>
+      <c r="G7" t="s">
+        <v>878</v>
+      </c>
       <c r="I7" t="s">
         <v>207</v>
+      </c>
+      <c r="J7" t="s">
+        <v>884</v>
+      </c>
+      <c r="K7" t="s">
+        <v>886</v>
+      </c>
+      <c r="L7" t="s">
+        <v>887</v>
+      </c>
+      <c r="N7">
+        <v>5</v>
+      </c>
+      <c r="O7" t="s">
+        <v>891</v>
+      </c>
+      <c r="P7" t="s">
+        <v>882</v>
       </c>
     </row>
   </sheetData>
@@ -4092,8 +4318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="L1" zoomScale="70" zoomScaleNormal="70">
-      <selection activeCell="P1" activeCellId="0" sqref="P:P"/>
+    <sheetView workbookViewId="0" topLeftCell="E28" zoomScale="70" zoomScaleNormal="70">
+      <selection activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5957,8 +6183,8 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="D26" zoomScale="80" zoomScaleNormal="80" tabSelected="1">
-      <selection activeCell="F46" activeCellId="0" sqref="F46"/>
+    <sheetView workbookViewId="0" topLeftCell="E22" zoomScale="80" zoomScaleNormal="80">
+      <selection activeCell="F33" activeCellId="0" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" customHeight="false"/>

--- a/NetRealmsNanSetup/nanDECK/cards.xlsx
+++ b/NetRealmsNanSetup/nanDECK/cards.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="11820" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="11820" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Lands" sheetId="1" r:id="rId1"/>
@@ -2784,6 +2784,651 @@
   </si>
   <si>
     <t>Every frame tells a story, but the endings are mine to choose.</t>
+  </si>
+  <si>
+    <t>Anonymous Leaker</t>
+  </si>
+  <si>
+    <t>Clickbait Lurker</t>
+  </si>
+  <si>
+    <t>Doxxing Phantom</t>
+  </si>
+  <si>
+    <t>Drama Stirrer</t>
+  </si>
+  <si>
+    <t>Catfish Predatrix</t>
+  </si>
+  <si>
+    <t>Sock Puppet Army</t>
+  </si>
+  <si>
+    <t>Cancel Construct</t>
+  </si>
+  <si>
+    <t>Spam Bot Swarm</t>
+  </si>
+  <si>
+    <t>Parasocial Devotee</t>
+  </si>
+  <si>
+    <t>Keyboard Warrior</t>
+  </si>
+  <si>
+    <t>Darkweb Broker</t>
+  </si>
+  <si>
+    <t>Influencer Hunter</t>
+  </si>
+  <si>
+    <t>Creep Dragon</t>
+  </si>
+  <si>
+    <t>Malware Infector</t>
+  </si>
+  <si>
+    <t>Phishing Fiend</t>
+  </si>
+  <si>
+    <t>Forum Flamewalker</t>
+  </si>
+  <si>
+    <t>Data Breach Specter</t>
+  </si>
+  <si>
+    <t>Pop-Up Poltergeist</t>
+  </si>
+  <si>
+    <t>Black Hat Hacker</t>
+  </si>
+  <si>
+    <t>Rumor Swarm</t>
+  </si>
+  <si>
+    <t>Exposé Revenant</t>
+  </si>
+  <si>
+    <t>Crimson Scammer</t>
+  </si>
+  <si>
+    <t>Underworld Forum Lord</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>reep Unit</t>
+  </si>
+  <si>
+    <t>Creep Unit</t>
+  </si>
+  <si>
+    <t>At the beginning of your end step, exile the top card of each opponent's archive. For each card exiled this way, create a 2/2 “Corrupt Moderator” token.</t>
+  </si>
+  <si>
+    <t>When Crimson Scammer enters the Grid, each opponent mills 1 card.</t>
+  </si>
+  <si>
+    <t>Whenever Exposé Revenant attacks, target opponent reveals their hand. You may choose a card from it and exile it.</t>
+  </si>
+  <si>
+    <t>Whenever a card is exiled from an opponent's archive, create a 1/1 “Rumor Token.”</t>
+  </si>
+  <si>
+    <t>Tap: Exile a card from an opponent’s archive. Create a 1/1 “Glitched File” token.</t>
+  </si>
+  <si>
+    <t>Each opponent loses 1 Integrity unless they discard a card.</t>
+  </si>
+  <si>
+    <t>Flying. When Data Breach Specter enters the Grid, exile the top three cards of each opponent's archive.</t>
+  </si>
+  <si>
+    <t>Whenever a Unit becomes damaged, its controller mills a card.</t>
+  </si>
+  <si>
+    <t>When Phishing Fiend deals damage to a player, you may draw a card and discard a card.</t>
+  </si>
+  <si>
+    <t>When Malware Infector enters the Grid, target opponent's Unit becomes Glitched until the end of your next turn.</t>
+  </si>
+  <si>
+    <t>Flying. When Creep Dragon attacks, target opponent exiles the top three cards of their archive.</t>
+  </si>
+  <si>
+    <t>Whenever Influencer Hunter deals damage to a player, exile target Unit they control.</t>
+  </si>
+  <si>
+    <t>Tap: Exile a card from your archive. Create a 2/2 “Black Market Dealer” token.</t>
+  </si>
+  <si>
+    <t>Tap: Target opponent mills 1 card for each card you drew this turn.</t>
+  </si>
+  <si>
+    <t>When Parasocial Devotee attacks, you may pay 1C. If you do, draw a card.</t>
+  </si>
+  <si>
+    <t>Tap: Create a 1/1 “Spam Token” with “This Unit cannot block.”</t>
+  </si>
+  <si>
+    <t>When Cancel Construct enters the Grid, exile target Unit. If it was Shielded, exile it permanently.</t>
+  </si>
+  <si>
+    <t>When Sock Puppet Army enters the Grid, create two 1/1 “Puppet” tokens.</t>
+  </si>
+  <si>
+    <t>When Catfish Predatrix enters the Grid, you may exchange control of it with target opponent's Unit until the end of your next turn.</t>
+  </si>
+  <si>
+    <t>Whenever a Unit enters the Grid, each opponent loses 1 Integrity.</t>
+  </si>
+  <si>
+    <t>When Doxxing Phantom enters the Grid, target opponent reveals their hand. Choose a card from it. That player discards that card.</t>
+  </si>
+  <si>
+    <t>Whenever Clickbait Lurker blocks, target opponent mills 2 cards.</t>
+  </si>
+  <si>
+    <t>Tap: Exile the top card of target opponent's archive. You may look at and play that card until the end of your next turn.</t>
+  </si>
+  <si>
+    <t>Every thread leads back to them, pulling the strings in the dark.</t>
+  </si>
+  <si>
+    <t>It promises riches but delivers ruin.</t>
+  </si>
+  <si>
+    <t>Some secrets refuse to stay buried.</t>
+  </si>
+  <si>
+    <t>Whispers grow louder, until they drown out the truth.</t>
+  </si>
+  <si>
+    <t>They work in the shadows, dismantling the Grid piece by piece.</t>
+  </si>
+  <si>
+    <t>It haunts your screen, no matter how many times you close it.</t>
+  </si>
+  <si>
+    <t>It takes what you thought was secure and makes it public.</t>
+  </si>
+  <si>
+    <t>They throw matches into every fire they see.</t>
+  </si>
+  <si>
+    <t>It promises riches, but you’ll only lose everything.</t>
+  </si>
+  <si>
+    <t>One click, and the infection spreads.</t>
+  </si>
+  <si>
+    <t>It watches from the shadows, a predator of secrets.</t>
+  </si>
+  <si>
+    <t>No follower count can protect you.</t>
+  </si>
+  <si>
+    <t>Secrets have a price.</t>
+  </si>
+  <si>
+    <t>Fighting battles one post at a time.</t>
+  </si>
+  <si>
+    <t>Their loyalty knows no limits—even when it should.</t>
+  </si>
+  <si>
+    <t>They’re endless and unavoidable.</t>
+  </si>
+  <si>
+    <t>Once it starts, there’s no escape.</t>
+  </si>
+  <si>
+    <t>A single voice, multiplied and magnified.</t>
+  </si>
+  <si>
+    <t>What you see isn’t always what you get.</t>
+  </si>
+  <si>
+    <t>A single whisper can create an avalanche.</t>
+  </si>
+  <si>
+    <t>It feeds on your vulnerabilities, leaving you exposed.</t>
+  </si>
+  <si>
+    <t>It knows how to draw you in, whether you like it or not.</t>
+  </si>
+  <si>
+    <t>The truth will come out, even if it’s buried deep.</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Creep\Units\AnonymousLeaker.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Creep\Units\ClickbaitLurker.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Creep\Units\DoxxingPhantom.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Creep\Units\DramaStirrer.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Creep\Units\CatfishPredatrix.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Creep\Units\SockPuppetArmy.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Creep\Units\Cancel Construct.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Creep\Units\Spam Bot Swarm.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Creep\Units\Parasocial Devotee.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Creep\Units\Keyboard Warrior.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Creep\Units\Darkweb Broker.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Creep\Units\Influencer Hunter.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Creep\Units\Creep Dragon.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Creep\Units\Malware Infector.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Creep\Units\Phishing Fiend.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Creep\Units\Forum Flamewalker.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Creep\Units\Data Breach Specter.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Creep\Units\PopUp Poltergeist.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Creep\Units\Black Hat Hacker.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Creep\Units\Rumor Swarm.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Creep\Units\Expose Revenant.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Creep\Units\Crimson Scammer.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Creep\Units\Underworld Forum Lord.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Creep\Units\UnderworldForumLord.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Creep\Units\CancelConstruct.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Creep\Units\SpamBotSwarm.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Creep\Units\ParasocialDevotee.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Creep\Units\KeyboardWarrior.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Creep\Units\DarkwebBroker.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Creep\Units\InfluencerHunter.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Creep\Units\CreepDragon.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Creep\Units\MalwareInfector.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Creep\Units\PhishingFiend.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Creep\Units\ForumFlamewalker.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Creep\Units\DataBreachSpecter.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Creep\Units\PopUpPoltergeist.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Creep\Units\BlackHatHacker.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Creep\Units\RumorSwarm.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Creep\Units\ExposeRevenant.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Creep\Units\CrimsonScammer.jpeg</t>
+  </si>
+  <si>
+    <t>Queen of Cancelation</t>
+  </si>
+  <si>
+    <t>Tea Spiller</t>
+  </si>
+  <si>
+    <t>Subtweet Assassin</t>
+  </si>
+  <si>
+    <t>Clout Chaser</t>
+  </si>
+  <si>
+    <t>Flame War General</t>
+  </si>
+  <si>
+    <t>Apology Video Star</t>
+  </si>
+  <si>
+    <t>Drama Channel Gossipmonger</t>
+  </si>
+  <si>
+    <t>Receipts Collector</t>
+  </si>
+  <si>
+    <t>The Gaslighter</t>
+  </si>
+  <si>
+    <t>Petty Argument Goblin</t>
+  </si>
+  <si>
+    <t>Viral Callout Champion</t>
+  </si>
+  <si>
+    <t>Keyboard Crusader</t>
+  </si>
+  <si>
+    <t>Drama Magnet</t>
+  </si>
+  <si>
+    <t>Gatekeeping Sentinel</t>
+  </si>
+  <si>
+    <t>Anonymous Whisperer</t>
+  </si>
+  <si>
+    <t>Dramageddon Witness</t>
+  </si>
+  <si>
+    <t>Toxic Threadmaster</t>
+  </si>
+  <si>
+    <t>The Scandalous Shadow</t>
+  </si>
+  <si>
+    <t>The Clapback King</t>
+  </si>
+  <si>
+    <t>The Exposer</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Drama\Units\DigitalPhoenix.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Drama\Units\The Exposer.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Drama\Units\The Clapback King.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Drama\Units\The Scandalous Shadow.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Drama\Units\Toxic Threadmaster.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Drama\Units\Dramageddon Witness.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Drama\Units\Anonymous Whisperer.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Drama\Units\Gatekeeping Sentinel.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Drama\Units\Drama Magnet.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Drama\Units\Keyboard Crusader.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Drama\Units\Viral Callout Champion.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Drama\Units\Petty Argument Goblin.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Drama\Units\The Gaslighter.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Drama\Units\Receipts Collector.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Drama\Units\Drama Channel Gossipmonger.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Drama\Units\Apology Video Star.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Drama\Units\Flame War General.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Drama\Units\Clout Chaser.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Drama\Units\Subtweet Assassin.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Drama\Units\Tea Spiller.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Drama\Units\Queen of Cancelation.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Drama\Units\QueenofCancelation.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Drama\Units\TeaSpiller.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Drama\Units\SubtweetAssassin.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Drama\Units\CloutChaser.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Drama\Units\FlameWarGeneral.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Drama\Units\ApologyVideoStar.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Drama\Units\DramaChannelGossipmonger.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Drama\Units\ReceiptsCollector.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Drama\Units\TheGaslighter.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Drama\Units\PettyArgumentGoblin.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Drama\Units\ViralCalloutChampion.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Drama\Units\KeyboardCrusader.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Drama\Units\DramaMagnet.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Drama\Units\GatekeepingSentinel.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Drama\Units\AnonymousWhisperer.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Drama\Units\DramageddonWitness.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Drama\Units\ToxicThreadmaster.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Drama\Units\TheScandalousShadow.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Drama\Units\TheClapbackKing.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Drama\Units\TheExposer.jpeg</t>
+  </si>
+  <si>
+    <t>Drama Unit</t>
+  </si>
+  <si>
+    <t>When The Exposer enters the Grid, all opponent-controlled Units lose all abilities until the end of your next turn.</t>
+  </si>
+  <si>
+    <t>When The Clapback King enters the Grid, deal 2 damage to a Unit or Player.</t>
+  </si>
+  <si>
+    <t>When The Scandalous Shadow attacks, target opponent loses 1 Integrity.</t>
+  </si>
+  <si>
+    <t>Choose a Unit. It cannot attack or block until your next turn.</t>
+  </si>
+  <si>
+    <t>When Dramageddon Witness enters the Grid, draw a card.</t>
+  </si>
+  <si>
+    <t>Tap: Target Unit gains -1/-1 until the end of turn.</t>
+  </si>
+  <si>
+    <t>Tap: Target Unit cannot attack or block this turn unless its controller pays 1 Energy.</t>
+  </si>
+  <si>
+    <t>Whenever a Unit enters the Grid, Drama Magnet gains +1/+0 until the end of turn.</t>
+  </si>
+  <si>
+    <t>Whenever an opponent activates an ability, Keyboard Crusader gains +1/+1 until end of turn.</t>
+  </si>
+  <si>
+    <t>When Viral Callout Champion enters the Grid, target Unit gains -3/-3 until your next turn.</t>
+  </si>
+  <si>
+    <t>Tap: Target opponent loses 1 Integrity.</t>
+  </si>
+  <si>
+    <t>Target Unit an opponent controls loses all abilities until your next turn.</t>
+  </si>
+  <si>
+    <t>Whenever an opponent activates an ability, you may pay 1. If you do, draw a card.</t>
+  </si>
+  <si>
+    <t>Tap: Draw a card if an opponent controls a Unit with Drama Energy.</t>
+  </si>
+  <si>
+    <t>Tap: Regain 2 Integrity.</t>
+  </si>
+  <si>
+    <t>Units you control gain +2/+0 during your turn.</t>
+  </si>
+  <si>
+    <t>When Queen of Cancelation enters the Grid, choose a Unit. Until the end of the game, that Unit cannot attack, block, or activate abilities.</t>
+  </si>
+  <si>
+    <t>When Tea Spiller enters the Grid, draw a card.</t>
+  </si>
+  <si>
+    <t>Tap: Deal 2 damage to a Unit that has already attacked this turn.</t>
+  </si>
+  <si>
+    <t>Whenever Clout Chaser attacks, gain 1 Integrity.</t>
+  </si>
+  <si>
+    <t>Tap: Choose a Unit. It cannot attack or block until your next turn.</t>
+  </si>
+  <si>
+    <t>One tweet, one downfall.</t>
+  </si>
+  <si>
+    <t>It’s piping hot, and everyone’s watching.</t>
+  </si>
+  <si>
+    <t>Sharp words hit harder when they’re vague.</t>
+  </si>
+  <si>
+    <t>Fame is fleeting, but the chase never ends.</t>
+  </si>
+  <si>
+    <t>Fueled by chaos, armed with outrage.</t>
+  </si>
+  <si>
+    <t>I’m here to take accountability... mostly.</t>
+  </si>
+  <si>
+    <t>Always in the know, never in the clear.</t>
+  </si>
+  <si>
+    <t>Screenshots never lie—unless they’re cropped.</t>
+  </si>
+  <si>
+    <t>Are you sure that’s what happened?</t>
+  </si>
+  <si>
+    <t>Why stop when I’m winning?</t>
+  </si>
+  <si>
+    <t>They said it, and the internet saw.</t>
+  </si>
+  <si>
+    <t>One argument at a time, the internet will be saved.</t>
+  </si>
+  <si>
+    <t>All is attracted to me, even drama.</t>
+  </si>
+  <si>
+    <t>True fans only.</t>
+  </si>
+  <si>
+    <t>Behind every rumor, there’s a whisper in the dark.</t>
+  </si>
+  <si>
+    <t>They didn’t start the fire, but they’re here to watch it burn.</t>
+  </si>
+  <si>
+    <t>Once you’re tangled, there’s no escape.</t>
+  </si>
+  <si>
+    <t>In the darkness, secrets come to light.</t>
+  </si>
+  <si>
+    <t>They always have the last word.</t>
+  </si>
+  <si>
+    <t>Nothing stays hidden forever.</t>
   </si>
 </sst>
 </file>
@@ -3988,7 +4633,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="L1" tabSelected="1">
+    <sheetView workbookViewId="0" topLeftCell="A1">
       <selection activeCell="O4" activeCellId="0" sqref="O4"/>
     </sheetView>
   </sheetViews>
@@ -4318,14 +4963,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="E28" zoomScale="70" zoomScaleNormal="70">
-      <selection activeCell="E5" activeCellId="0" sqref="E5"/>
+    <sheetView workbookViewId="0" topLeftCell="A67" zoomScale="70" zoomScaleNormal="70" tabSelected="1">
+      <selection activeCell="P66" activeCellId="0" sqref="P66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="8.28515625" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1" bestFit="1"/>
     <col min="3" max="3" width="64.5703125" customWidth="1" bestFit="1"/>
     <col min="4" max="4" width="79.7109375" customWidth="1" bestFit="1"/>
     <col min="5" max="5" width="51.140625" customWidth="1" bestFit="1"/>
@@ -4334,7 +4979,7 @@
     <col min="8" max="8" width="54.7109375" customWidth="1" bestFit="1"/>
     <col min="9" max="9" width="25.109375" customWidth="1" bestFit="1"/>
     <col min="10" max="10" width="128.28515625" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" width="62" customWidth="1"/>
+    <col min="11" max="11" width="108.88671875" customWidth="1" bestFit="1"/>
     <col min="12" max="12" width="84.21875" customWidth="1" bestFit="1"/>
     <col min="15" max="15" width="82.33203125" customWidth="1" bestFit="1"/>
     <col min="16" max="16" width="64" customWidth="1"/>
@@ -6175,6 +6820,1685 @@
         <v>867</v>
       </c>
     </row>
+    <row r="47">
+      <c r="A47" s="53" t="s">
+        <v>589</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C47" t="s">
+        <v>220</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E47" t="s">
+        <v>869</v>
+      </c>
+      <c r="F47" t="s">
+        <v>878</v>
+      </c>
+      <c r="I47" t="s">
+        <v>1083</v>
+      </c>
+      <c r="J47" t="s">
+        <v>1100</v>
+      </c>
+      <c r="M47">
+        <v>5</v>
+      </c>
+      <c r="N47">
+        <v>4</v>
+      </c>
+      <c r="O47" t="s">
+        <v>1105</v>
+      </c>
+      <c r="P47" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="53" t="s">
+        <v>589</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C48" t="s">
+        <v>209</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E48" t="s">
+        <v>871</v>
+      </c>
+      <c r="F48" t="s">
+        <v>878</v>
+      </c>
+      <c r="I48" t="s">
+        <v>1083</v>
+      </c>
+      <c r="J48" t="s">
+        <v>1101</v>
+      </c>
+      <c r="M48">
+        <v>2</v>
+      </c>
+      <c r="N48">
+        <v>2</v>
+      </c>
+      <c r="O48" t="s">
+        <v>1106</v>
+      </c>
+      <c r="P48" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="53" t="s">
+        <v>589</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C49" t="s">
+        <v>211</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E49" t="s">
+        <v>872</v>
+      </c>
+      <c r="F49" t="s">
+        <v>878</v>
+      </c>
+      <c r="I49" t="s">
+        <v>1083</v>
+      </c>
+      <c r="J49" t="s">
+        <v>1102</v>
+      </c>
+      <c r="M49">
+        <v>2</v>
+      </c>
+      <c r="N49">
+        <v>2</v>
+      </c>
+      <c r="O49" t="s">
+        <v>1107</v>
+      </c>
+      <c r="P49" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="53" t="s">
+        <v>589</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C50" t="s">
+        <v>209</v>
+      </c>
+      <c r="D50" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E50" t="s">
+        <v>871</v>
+      </c>
+      <c r="F50" t="s">
+        <v>878</v>
+      </c>
+      <c r="I50" t="s">
+        <v>1083</v>
+      </c>
+      <c r="J50" t="s">
+        <v>1103</v>
+      </c>
+      <c r="M50">
+        <v>3</v>
+      </c>
+      <c r="N50">
+        <v>2</v>
+      </c>
+      <c r="O50" t="s">
+        <v>1108</v>
+      </c>
+      <c r="P50" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="53" t="s">
+        <v>589</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C51" t="s">
+        <v>215</v>
+      </c>
+      <c r="D51" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E51" t="s">
+        <v>869</v>
+      </c>
+      <c r="F51" t="s">
+        <v>878</v>
+      </c>
+      <c r="G51" t="s">
+        <v>878</v>
+      </c>
+      <c r="I51" t="s">
+        <v>1083</v>
+      </c>
+      <c r="J51" t="s">
+        <v>1099</v>
+      </c>
+      <c r="M51">
+        <v>2</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="O51" t="s">
+        <v>1109</v>
+      </c>
+      <c r="P51" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="53" t="s">
+        <v>589</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C52" t="s">
+        <v>215</v>
+      </c>
+      <c r="D52" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E52" t="s">
+        <v>872</v>
+      </c>
+      <c r="F52" t="s">
+        <v>878</v>
+      </c>
+      <c r="I52" t="s">
+        <v>1083</v>
+      </c>
+      <c r="J52" t="s">
+        <v>1098</v>
+      </c>
+      <c r="M52">
+        <v>6</v>
+      </c>
+      <c r="N52">
+        <v>4</v>
+      </c>
+      <c r="O52" t="s">
+        <v>1110</v>
+      </c>
+      <c r="P52" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="53" t="s">
+        <v>589</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C53" t="s">
+        <v>209</v>
+      </c>
+      <c r="D53" t="s">
+        <v>1069</v>
+      </c>
+      <c r="E53" t="s">
+        <v>871</v>
+      </c>
+      <c r="F53" t="s">
+        <v>878</v>
+      </c>
+      <c r="I53" t="s">
+        <v>1083</v>
+      </c>
+      <c r="J53" t="s">
+        <v>1097</v>
+      </c>
+      <c r="M53">
+        <v>2</v>
+      </c>
+      <c r="N53">
+        <v>3</v>
+      </c>
+      <c r="O53" t="s">
+        <v>1111</v>
+      </c>
+      <c r="P53" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="53" t="s">
+        <v>589</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C54" t="s">
+        <v>211</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1070</v>
+      </c>
+      <c r="E54" t="s">
+        <v>872</v>
+      </c>
+      <c r="F54" t="s">
+        <v>878</v>
+      </c>
+      <c r="I54" t="s">
+        <v>1083</v>
+      </c>
+      <c r="J54" t="s">
+        <v>1096</v>
+      </c>
+      <c r="M54">
+        <v>2</v>
+      </c>
+      <c r="N54">
+        <v>2</v>
+      </c>
+      <c r="O54" t="s">
+        <v>1112</v>
+      </c>
+      <c r="P54" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="53" t="s">
+        <v>589</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C55" t="s">
+        <v>215</v>
+      </c>
+      <c r="D55" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E55" t="s">
+        <v>873</v>
+      </c>
+      <c r="F55" t="s">
+        <v>878</v>
+      </c>
+      <c r="I55" t="s">
+        <v>1083</v>
+      </c>
+      <c r="J55" t="s">
+        <v>1095</v>
+      </c>
+      <c r="M55">
+        <v>3</v>
+      </c>
+      <c r="N55">
+        <v>3</v>
+      </c>
+      <c r="O55" t="s">
+        <v>1113</v>
+      </c>
+      <c r="P55" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="53" t="s">
+        <v>589</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C56" t="s">
+        <v>209</v>
+      </c>
+      <c r="D56" t="s">
+        <v>1072</v>
+      </c>
+      <c r="E56" t="s">
+        <v>869</v>
+      </c>
+      <c r="F56" t="s">
+        <v>878</v>
+      </c>
+      <c r="I56" t="s">
+        <v>1083</v>
+      </c>
+      <c r="J56" t="s">
+        <v>1094</v>
+      </c>
+      <c r="M56">
+        <v>1</v>
+      </c>
+      <c r="N56">
+        <v>1</v>
+      </c>
+      <c r="O56" t="s">
+        <v>1114</v>
+      </c>
+      <c r="P56" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="53" t="s">
+        <v>589</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C57" t="s">
+        <v>215</v>
+      </c>
+      <c r="D57" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E57" t="s">
+        <v>871</v>
+      </c>
+      <c r="F57" t="s">
+        <v>878</v>
+      </c>
+      <c r="G57" t="s">
+        <v>878</v>
+      </c>
+      <c r="I57" t="s">
+        <v>1083</v>
+      </c>
+      <c r="J57" t="s">
+        <v>1093</v>
+      </c>
+      <c r="M57">
+        <v>4</v>
+      </c>
+      <c r="N57">
+        <v>3</v>
+      </c>
+      <c r="O57" t="s">
+        <v>1115</v>
+      </c>
+      <c r="P57" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="53" t="s">
+        <v>589</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C58" t="s">
+        <v>209</v>
+      </c>
+      <c r="D58" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E58" t="s">
+        <v>872</v>
+      </c>
+      <c r="F58" t="s">
+        <v>878</v>
+      </c>
+      <c r="I58" t="s">
+        <v>1083</v>
+      </c>
+      <c r="J58" t="s">
+        <v>1092</v>
+      </c>
+      <c r="M58">
+        <v>2</v>
+      </c>
+      <c r="N58">
+        <v>2</v>
+      </c>
+      <c r="O58" t="s">
+        <v>1116</v>
+      </c>
+      <c r="P58" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="53" t="s">
+        <v>589</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C59" t="s">
+        <v>211</v>
+      </c>
+      <c r="D59" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E59" t="s">
+        <v>871</v>
+      </c>
+      <c r="F59" t="s">
+        <v>878</v>
+      </c>
+      <c r="I59" t="s">
+        <v>1083</v>
+      </c>
+      <c r="J59" t="s">
+        <v>1091</v>
+      </c>
+      <c r="M59">
+        <v>3</v>
+      </c>
+      <c r="N59">
+        <v>3</v>
+      </c>
+      <c r="O59" t="s">
+        <v>1117</v>
+      </c>
+      <c r="P59" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="53" t="s">
+        <v>589</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C60" t="s">
+        <v>209</v>
+      </c>
+      <c r="D60" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E60" t="s">
+        <v>873</v>
+      </c>
+      <c r="F60" t="s">
+        <v>878</v>
+      </c>
+      <c r="I60" t="s">
+        <v>1083</v>
+      </c>
+      <c r="J60" t="s">
+        <v>1090</v>
+      </c>
+      <c r="M60">
+        <v>2</v>
+      </c>
+      <c r="N60">
+        <v>2</v>
+      </c>
+      <c r="O60" t="s">
+        <v>1118</v>
+      </c>
+      <c r="P60" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="53" t="s">
+        <v>589</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C61" t="s">
+        <v>209</v>
+      </c>
+      <c r="D61" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E61" t="s">
+        <v>872</v>
+      </c>
+      <c r="F61" t="s">
+        <v>878</v>
+      </c>
+      <c r="I61" t="s">
+        <v>1083</v>
+      </c>
+      <c r="J61" t="s">
+        <v>1089</v>
+      </c>
+      <c r="M61">
+        <v>1</v>
+      </c>
+      <c r="N61">
+        <v>2</v>
+      </c>
+      <c r="O61" t="s">
+        <v>1119</v>
+      </c>
+      <c r="P61" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="53" t="s">
+        <v>589</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C62" t="s">
+        <v>211</v>
+      </c>
+      <c r="D62" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E62" t="s">
+        <v>869</v>
+      </c>
+      <c r="F62" t="s">
+        <v>878</v>
+      </c>
+      <c r="I62" t="s">
+        <v>1083</v>
+      </c>
+      <c r="J62" t="s">
+        <v>1088</v>
+      </c>
+      <c r="M62">
+        <v>2</v>
+      </c>
+      <c r="N62">
+        <v>4</v>
+      </c>
+      <c r="O62" t="s">
+        <v>1120</v>
+      </c>
+      <c r="P62" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="53" t="s">
+        <v>589</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C63" t="s">
+        <v>215</v>
+      </c>
+      <c r="D63" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E63" t="s">
+        <v>871</v>
+      </c>
+      <c r="F63" t="s">
+        <v>878</v>
+      </c>
+      <c r="I63" t="s">
+        <v>1083</v>
+      </c>
+      <c r="J63" t="s">
+        <v>1104</v>
+      </c>
+      <c r="M63">
+        <v>3</v>
+      </c>
+      <c r="N63">
+        <v>5</v>
+      </c>
+      <c r="O63" t="s">
+        <v>1121</v>
+      </c>
+      <c r="P63" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="53" t="s">
+        <v>589</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C64" t="s">
+        <v>209</v>
+      </c>
+      <c r="D64" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E64" t="s">
+        <v>871</v>
+      </c>
+      <c r="F64" t="s">
+        <v>878</v>
+      </c>
+      <c r="I64" t="s">
+        <v>1083</v>
+      </c>
+      <c r="J64" t="s">
+        <v>1086</v>
+      </c>
+      <c r="M64">
+        <v>2</v>
+      </c>
+      <c r="N64">
+        <v>1</v>
+      </c>
+      <c r="O64" t="s">
+        <v>1122</v>
+      </c>
+      <c r="P64" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="53" t="s">
+        <v>589</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C65" t="s">
+        <v>215</v>
+      </c>
+      <c r="D65" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E65" t="s">
+        <v>871</v>
+      </c>
+      <c r="F65" t="s">
+        <v>878</v>
+      </c>
+      <c r="G65" t="s">
+        <v>878</v>
+      </c>
+      <c r="I65" t="s">
+        <v>1083</v>
+      </c>
+      <c r="J65" t="s">
+        <v>1085</v>
+      </c>
+      <c r="M65">
+        <v>4</v>
+      </c>
+      <c r="N65">
+        <v>2</v>
+      </c>
+      <c r="O65" t="s">
+        <v>1123</v>
+      </c>
+      <c r="P65" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="53" t="s">
+        <v>589</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C66" t="s">
+        <v>23</v>
+      </c>
+      <c r="D66" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E66" t="s">
+        <v>869</v>
+      </c>
+      <c r="F66" t="s">
+        <v>878</v>
+      </c>
+      <c r="G66" t="s">
+        <v>878</v>
+      </c>
+      <c r="I66" t="s">
+        <v>1083</v>
+      </c>
+      <c r="J66" t="s">
+        <v>1084</v>
+      </c>
+      <c r="M66">
+        <v>5</v>
+      </c>
+      <c r="N66">
+        <v>5</v>
+      </c>
+      <c r="O66" t="s">
+        <v>1124</v>
+      </c>
+      <c r="P66" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="44" t="s">
+        <v>519</v>
+      </c>
+      <c r="B67" t="s">
+        <v>910</v>
+      </c>
+      <c r="C67" t="s">
+        <v>209</v>
+      </c>
+      <c r="D67" t="s">
+        <v>982</v>
+      </c>
+      <c r="E67" t="s">
+        <v>871</v>
+      </c>
+      <c r="F67" t="s">
+        <v>877</v>
+      </c>
+      <c r="I67" t="s">
+        <v>935</v>
+      </c>
+      <c r="J67" t="s">
+        <v>958</v>
+      </c>
+      <c r="M67">
+        <v>2</v>
+      </c>
+      <c r="N67">
+        <v>2</v>
+      </c>
+      <c r="O67" t="s">
+        <v>981</v>
+      </c>
+      <c r="P67" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="44" t="s">
+        <v>519</v>
+      </c>
+      <c r="B68" t="s">
+        <v>911</v>
+      </c>
+      <c r="C68" t="s">
+        <v>209</v>
+      </c>
+      <c r="D68" t="s">
+        <v>983</v>
+      </c>
+      <c r="E68" t="s">
+        <v>873</v>
+      </c>
+      <c r="F68" t="s">
+        <v>877</v>
+      </c>
+      <c r="I68" t="s">
+        <v>935</v>
+      </c>
+      <c r="J68" t="s">
+        <v>957</v>
+      </c>
+      <c r="M68">
+        <v>1</v>
+      </c>
+      <c r="N68">
+        <v>3</v>
+      </c>
+      <c r="O68" t="s">
+        <v>980</v>
+      </c>
+      <c r="P68" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="44" t="s">
+        <v>519</v>
+      </c>
+      <c r="B69" t="s">
+        <v>912</v>
+      </c>
+      <c r="C69" t="s">
+        <v>211</v>
+      </c>
+      <c r="D69" t="s">
+        <v>984</v>
+      </c>
+      <c r="E69" t="s">
+        <v>872</v>
+      </c>
+      <c r="F69" t="s">
+        <v>877</v>
+      </c>
+      <c r="I69" t="s">
+        <v>935</v>
+      </c>
+      <c r="J69" t="s">
+        <v>956</v>
+      </c>
+      <c r="M69">
+        <v>2</v>
+      </c>
+      <c r="N69">
+        <v>4</v>
+      </c>
+      <c r="O69" t="s">
+        <v>979</v>
+      </c>
+      <c r="P69" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="44" t="s">
+        <v>519</v>
+      </c>
+      <c r="B70" t="s">
+        <v>913</v>
+      </c>
+      <c r="C70" t="s">
+        <v>211</v>
+      </c>
+      <c r="D70" t="s">
+        <v>985</v>
+      </c>
+      <c r="E70" t="s">
+        <v>871</v>
+      </c>
+      <c r="F70" t="s">
+        <v>877</v>
+      </c>
+      <c r="G70" t="s">
+        <v>877</v>
+      </c>
+      <c r="I70" t="s">
+        <v>935</v>
+      </c>
+      <c r="J70" t="s">
+        <v>955</v>
+      </c>
+      <c r="M70">
+        <v>3</v>
+      </c>
+      <c r="N70">
+        <v>2</v>
+      </c>
+      <c r="O70" t="s">
+        <v>978</v>
+      </c>
+      <c r="P70" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="44" t="s">
+        <v>519</v>
+      </c>
+      <c r="B71" t="s">
+        <v>914</v>
+      </c>
+      <c r="C71" t="s">
+        <v>215</v>
+      </c>
+      <c r="D71" t="s">
+        <v>986</v>
+      </c>
+      <c r="E71" t="s">
+        <v>869</v>
+      </c>
+      <c r="F71" t="s">
+        <v>877</v>
+      </c>
+      <c r="I71" t="s">
+        <v>935</v>
+      </c>
+      <c r="J71" t="s">
+        <v>954</v>
+      </c>
+      <c r="M71">
+        <v>4</v>
+      </c>
+      <c r="N71">
+        <v>4</v>
+      </c>
+      <c r="O71" t="s">
+        <v>977</v>
+      </c>
+      <c r="P71" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="44" t="s">
+        <v>519</v>
+      </c>
+      <c r="B72" t="s">
+        <v>915</v>
+      </c>
+      <c r="C72" t="s">
+        <v>209</v>
+      </c>
+      <c r="D72" t="s">
+        <v>987</v>
+      </c>
+      <c r="E72" t="s">
+        <v>871</v>
+      </c>
+      <c r="F72" t="s">
+        <v>877</v>
+      </c>
+      <c r="I72" t="s">
+        <v>935</v>
+      </c>
+      <c r="J72" t="s">
+        <v>953</v>
+      </c>
+      <c r="M72">
+        <v>1</v>
+      </c>
+      <c r="N72">
+        <v>1</v>
+      </c>
+      <c r="O72" t="s">
+        <v>976</v>
+      </c>
+      <c r="P72" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="44" t="s">
+        <v>519</v>
+      </c>
+      <c r="B73" t="s">
+        <v>916</v>
+      </c>
+      <c r="C73" t="s">
+        <v>211</v>
+      </c>
+      <c r="D73" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E73" t="s">
+        <v>869</v>
+      </c>
+      <c r="F73" t="s">
+        <v>877</v>
+      </c>
+      <c r="G73" t="s">
+        <v>877</v>
+      </c>
+      <c r="I73" t="s">
+        <v>935</v>
+      </c>
+      <c r="J73" t="s">
+        <v>952</v>
+      </c>
+      <c r="M73">
+        <v>4</v>
+      </c>
+      <c r="N73">
+        <v>5</v>
+      </c>
+      <c r="O73" t="s">
+        <v>975</v>
+      </c>
+      <c r="P73" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="44" t="s">
+        <v>519</v>
+      </c>
+      <c r="B74" t="s">
+        <v>917</v>
+      </c>
+      <c r="C74" t="s">
+        <v>209</v>
+      </c>
+      <c r="D74" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E74" t="s">
+        <v>873</v>
+      </c>
+      <c r="F74" t="s">
+        <v>877</v>
+      </c>
+      <c r="I74" t="s">
+        <v>935</v>
+      </c>
+      <c r="J74" t="s">
+        <v>951</v>
+      </c>
+      <c r="M74">
+        <v>1</v>
+      </c>
+      <c r="N74">
+        <v>1</v>
+      </c>
+      <c r="O74" t="s">
+        <v>974</v>
+      </c>
+      <c r="P74" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="44" t="s">
+        <v>519</v>
+      </c>
+      <c r="B75" t="s">
+        <v>918</v>
+      </c>
+      <c r="C75" t="s">
+        <v>211</v>
+      </c>
+      <c r="D75" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E75" t="s">
+        <v>872</v>
+      </c>
+      <c r="F75" t="s">
+        <v>877</v>
+      </c>
+      <c r="I75" t="s">
+        <v>935</v>
+      </c>
+      <c r="J75" t="s">
+        <v>950</v>
+      </c>
+      <c r="M75">
+        <v>3</v>
+      </c>
+      <c r="N75">
+        <v>2</v>
+      </c>
+      <c r="O75" t="s">
+        <v>973</v>
+      </c>
+      <c r="P75" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="44" t="s">
+        <v>519</v>
+      </c>
+      <c r="B76" t="s">
+        <v>919</v>
+      </c>
+      <c r="C76" t="s">
+        <v>209</v>
+      </c>
+      <c r="D76" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E76" t="s">
+        <v>871</v>
+      </c>
+      <c r="F76" t="s">
+        <v>877</v>
+      </c>
+      <c r="I76" t="s">
+        <v>935</v>
+      </c>
+      <c r="J76" t="s">
+        <v>949</v>
+      </c>
+      <c r="M76">
+        <v>2</v>
+      </c>
+      <c r="N76">
+        <v>3</v>
+      </c>
+      <c r="O76" t="s">
+        <v>972</v>
+      </c>
+      <c r="P76" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="44" t="s">
+        <v>519</v>
+      </c>
+      <c r="B77" t="s">
+        <v>920</v>
+      </c>
+      <c r="C77" t="s">
+        <v>215</v>
+      </c>
+      <c r="D77" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E77" t="s">
+        <v>872</v>
+      </c>
+      <c r="F77" t="s">
+        <v>877</v>
+      </c>
+      <c r="G77" t="s">
+        <v>877</v>
+      </c>
+      <c r="I77" t="s">
+        <v>935</v>
+      </c>
+      <c r="J77" t="s">
+        <v>948</v>
+      </c>
+      <c r="M77">
+        <v>3</v>
+      </c>
+      <c r="N77">
+        <v>3</v>
+      </c>
+      <c r="O77" t="s">
+        <v>971</v>
+      </c>
+      <c r="P77" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="44" t="s">
+        <v>519</v>
+      </c>
+      <c r="B78" t="s">
+        <v>921</v>
+      </c>
+      <c r="C78" t="s">
+        <v>215</v>
+      </c>
+      <c r="D78" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E78" t="s">
+        <v>869</v>
+      </c>
+      <c r="F78" t="s">
+        <v>877</v>
+      </c>
+      <c r="I78" t="s">
+        <v>935</v>
+      </c>
+      <c r="J78" t="s">
+        <v>947</v>
+      </c>
+      <c r="M78">
+        <v>5</v>
+      </c>
+      <c r="N78">
+        <v>3</v>
+      </c>
+      <c r="O78" t="s">
+        <v>970</v>
+      </c>
+      <c r="P78" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="44" t="s">
+        <v>519</v>
+      </c>
+      <c r="B79" t="s">
+        <v>922</v>
+      </c>
+      <c r="C79" t="s">
+        <v>220</v>
+      </c>
+      <c r="D79" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E79" t="s">
+        <v>869</v>
+      </c>
+      <c r="F79" t="s">
+        <v>877</v>
+      </c>
+      <c r="G79" t="s">
+        <v>877</v>
+      </c>
+      <c r="H79" t="s">
+        <v>877</v>
+      </c>
+      <c r="I79" t="s">
+        <v>935</v>
+      </c>
+      <c r="J79" t="s">
+        <v>946</v>
+      </c>
+      <c r="M79">
+        <v>7</v>
+      </c>
+      <c r="N79">
+        <v>7</v>
+      </c>
+      <c r="O79" t="s">
+        <v>969</v>
+      </c>
+      <c r="P79" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="44" t="s">
+        <v>519</v>
+      </c>
+      <c r="B80" t="s">
+        <v>923</v>
+      </c>
+      <c r="C80" t="s">
+        <v>209</v>
+      </c>
+      <c r="D80" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E80" t="s">
+        <v>871</v>
+      </c>
+      <c r="F80" t="s">
+        <v>877</v>
+      </c>
+      <c r="I80" t="s">
+        <v>935</v>
+      </c>
+      <c r="J80" t="s">
+        <v>945</v>
+      </c>
+      <c r="M80">
+        <v>3</v>
+      </c>
+      <c r="N80">
+        <v>1</v>
+      </c>
+      <c r="O80" t="s">
+        <v>968</v>
+      </c>
+      <c r="P80" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="44" t="s">
+        <v>519</v>
+      </c>
+      <c r="B81" t="s">
+        <v>924</v>
+      </c>
+      <c r="C81" t="s">
+        <v>211</v>
+      </c>
+      <c r="D81" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E81" t="s">
+        <v>872</v>
+      </c>
+      <c r="F81" t="s">
+        <v>877</v>
+      </c>
+      <c r="I81" t="s">
+        <v>935</v>
+      </c>
+      <c r="J81" t="s">
+        <v>944</v>
+      </c>
+      <c r="M81">
+        <v>2</v>
+      </c>
+      <c r="N81">
+        <v>3</v>
+      </c>
+      <c r="O81" t="s">
+        <v>967</v>
+      </c>
+      <c r="P81" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="44" t="s">
+        <v>519</v>
+      </c>
+      <c r="B82" t="s">
+        <v>925</v>
+      </c>
+      <c r="C82" t="s">
+        <v>215</v>
+      </c>
+      <c r="D82" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E82" t="s">
+        <v>869</v>
+      </c>
+      <c r="F82" t="s">
+        <v>877</v>
+      </c>
+      <c r="I82" t="s">
+        <v>935</v>
+      </c>
+      <c r="J82" t="s">
+        <v>943</v>
+      </c>
+      <c r="M82">
+        <v>4</v>
+      </c>
+      <c r="N82">
+        <v>3</v>
+      </c>
+      <c r="O82" t="s">
+        <v>966</v>
+      </c>
+      <c r="P82" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="44" t="s">
+        <v>519</v>
+      </c>
+      <c r="B83" t="s">
+        <v>926</v>
+      </c>
+      <c r="C83" t="s">
+        <v>215</v>
+      </c>
+      <c r="D83" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E83" t="s">
+        <v>869</v>
+      </c>
+      <c r="F83" t="s">
+        <v>877</v>
+      </c>
+      <c r="G83" t="s">
+        <v>877</v>
+      </c>
+      <c r="I83" t="s">
+        <v>935</v>
+      </c>
+      <c r="J83" t="s">
+        <v>942</v>
+      </c>
+      <c r="M83">
+        <v>3</v>
+      </c>
+      <c r="N83">
+        <v>5</v>
+      </c>
+      <c r="O83" t="s">
+        <v>965</v>
+      </c>
+      <c r="P83" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="44" t="s">
+        <v>519</v>
+      </c>
+      <c r="B84" t="s">
+        <v>927</v>
+      </c>
+      <c r="C84" t="s">
+        <v>211</v>
+      </c>
+      <c r="D84" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E84" t="s">
+        <v>871</v>
+      </c>
+      <c r="F84" t="s">
+        <v>877</v>
+      </c>
+      <c r="I84" t="s">
+        <v>935</v>
+      </c>
+      <c r="J84" t="s">
+        <v>941</v>
+      </c>
+      <c r="M84">
+        <v>1</v>
+      </c>
+      <c r="N84">
+        <v>4</v>
+      </c>
+      <c r="O84" t="s">
+        <v>964</v>
+      </c>
+      <c r="P84" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="44" t="s">
+        <v>519</v>
+      </c>
+      <c r="B85" t="s">
+        <v>928</v>
+      </c>
+      <c r="C85" t="s">
+        <v>215</v>
+      </c>
+      <c r="D85" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E85" t="s">
+        <v>872</v>
+      </c>
+      <c r="F85" t="s">
+        <v>877</v>
+      </c>
+      <c r="I85" t="s">
+        <v>935</v>
+      </c>
+      <c r="J85" t="s">
+        <v>940</v>
+      </c>
+      <c r="M85">
+        <v>2</v>
+      </c>
+      <c r="N85">
+        <v>3</v>
+      </c>
+      <c r="O85" t="s">
+        <v>963</v>
+      </c>
+      <c r="P85" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="44" t="s">
+        <v>519</v>
+      </c>
+      <c r="B86" t="s">
+        <v>929</v>
+      </c>
+      <c r="C86" t="s">
+        <v>215</v>
+      </c>
+      <c r="D86" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E86" t="s">
+        <v>872</v>
+      </c>
+      <c r="F86" t="s">
+        <v>877</v>
+      </c>
+      <c r="G86" t="s">
+        <v>877</v>
+      </c>
+      <c r="I86" t="s">
+        <v>935</v>
+      </c>
+      <c r="J86" t="s">
+        <v>939</v>
+      </c>
+      <c r="M86">
+        <v>3</v>
+      </c>
+      <c r="N86">
+        <v>3</v>
+      </c>
+      <c r="O86" t="s">
+        <v>962</v>
+      </c>
+      <c r="P86" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="44" t="s">
+        <v>519</v>
+      </c>
+      <c r="B87" t="s">
+        <v>930</v>
+      </c>
+      <c r="C87" t="s">
+        <v>220</v>
+      </c>
+      <c r="D87" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E87" t="s">
+        <v>871</v>
+      </c>
+      <c r="F87" t="s">
+        <v>877</v>
+      </c>
+      <c r="G87" t="s">
+        <v>877</v>
+      </c>
+      <c r="H87" t="s">
+        <v>877</v>
+      </c>
+      <c r="I87" t="s">
+        <v>935</v>
+      </c>
+      <c r="J87" t="s">
+        <v>938</v>
+      </c>
+      <c r="M87">
+        <v>6</v>
+      </c>
+      <c r="N87">
+        <v>4</v>
+      </c>
+      <c r="O87" t="s">
+        <v>961</v>
+      </c>
+      <c r="P87" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="44" t="s">
+        <v>519</v>
+      </c>
+      <c r="B88" t="s">
+        <v>931</v>
+      </c>
+      <c r="C88" t="s">
+        <v>209</v>
+      </c>
+      <c r="D88" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E88" t="s">
+        <v>871</v>
+      </c>
+      <c r="F88" t="s">
+        <v>877</v>
+      </c>
+      <c r="I88" t="s">
+        <v>935</v>
+      </c>
+      <c r="J88" t="s">
+        <v>937</v>
+      </c>
+      <c r="M88">
+        <v>3</v>
+      </c>
+      <c r="N88">
+        <v>1</v>
+      </c>
+      <c r="O88" t="s">
+        <v>960</v>
+      </c>
+      <c r="P88" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="44" t="s">
+        <v>519</v>
+      </c>
+      <c r="B89" t="s">
+        <v>932</v>
+      </c>
+      <c r="C89" t="s">
+        <v>23</v>
+      </c>
+      <c r="D89" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E89" t="s">
+        <v>869</v>
+      </c>
+      <c r="F89" t="s">
+        <v>877</v>
+      </c>
+      <c r="G89" t="s">
+        <v>877</v>
+      </c>
+      <c r="H89" t="s">
+        <v>877</v>
+      </c>
+      <c r="I89" t="s">
+        <v>935</v>
+      </c>
+      <c r="J89" t="s">
+        <v>936</v>
+      </c>
+      <c r="M89">
+        <v>5</v>
+      </c>
+      <c r="N89">
+        <v>5</v>
+      </c>
+      <c r="O89" t="s">
+        <v>959</v>
+      </c>
+      <c r="P89" t="s">
+        <v>881</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6183,8 +8507,8 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="E22" zoomScale="80" zoomScaleNormal="80">
-      <selection activeCell="F33" activeCellId="0" sqref="F33"/>
+    <sheetView workbookViewId="0" topLeftCell="A60" zoomScale="80" zoomScaleNormal="80">
+      <selection activeCell="A77" activeCellId="0" sqref="A77:A91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" customHeight="false"/>

--- a/NetRealmsNanSetup/nanDECK/cards.xlsx
+++ b/NetRealmsNanSetup/nanDECK/cards.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="11820" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="11820" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Lands" sheetId="1" r:id="rId1"/>
@@ -2784,6 +2784,366 @@
   </si>
   <si>
     <t>Every frame tells a story, but the endings are mine to choose.</t>
+  </si>
+  <si>
+    <t>Pixel Knight</t>
+  </si>
+  <si>
+    <t>Respawn Scout</t>
+  </si>
+  <si>
+    <t>Critical Striker</t>
+  </si>
+  <si>
+    <t>Glitch Dragon</t>
+  </si>
+  <si>
+    <t>Avatar Hero</t>
+  </si>
+  <si>
+    <t>Dungeon Crawler</t>
+  </si>
+  <si>
+    <t>AFK Ranger</t>
+  </si>
+  <si>
+    <t>Speedrun Assassin</t>
+  </si>
+  <si>
+    <t>Beta Tester</t>
+  </si>
+  <si>
+    <t>Rage Quitter</t>
+  </si>
+  <si>
+    <t>Boss Monster</t>
+  </si>
+  <si>
+    <t>Level-Up Warrior</t>
+  </si>
+  <si>
+    <t>Patch Notes Guru</t>
+  </si>
+  <si>
+    <t>Stream Sniper</t>
+  </si>
+  <si>
+    <t>RNG Manipulator</t>
+  </si>
+  <si>
+    <t>Lag Beast</t>
+  </si>
+  <si>
+    <t>Arcade Brawler</t>
+  </si>
+  <si>
+    <t>Memory Corruptor</t>
+  </si>
+  <si>
+    <t>Savepoint Guardian</t>
+  </si>
+  <si>
+    <t>Final Boss Avatar</t>
+  </si>
+  <si>
+    <t>Gaming Unit</t>
+  </si>
+  <si>
+    <t>Flying, Trample. When Final Boss Avatar enters the Grid, destroy all other Units.</t>
+  </si>
+  <si>
+    <t>Shielded. Tap: Target Unit gains Indestructible until end of turn.</t>
+  </si>
+  <si>
+    <t>When Memory Corruptor enters the Grid, target player mills cards equal to the number of Units they control.</t>
+  </si>
+  <si>
+    <t>Whenever Arcade Brawler blocks or is blocked, you may pay 1 Energy to give it +2/+0 until end of turn.</t>
+  </si>
+  <si>
+    <t>Units your opponent controls enter the Grid tapped</t>
+  </si>
+  <si>
+    <t>When RNG Manipulator enters the Grid, roll a six-sided die. Draw cards equal to the result.</t>
+  </si>
+  <si>
+    <t>When Stream Sniper enters the Grid, look at the top card of your opponent's archive.</t>
+  </si>
+  <si>
+    <t>When Patch Notes Guru enters the Grid, choose one: buff all Units by +1/+1, or nerf all Units by -1/-1 until end of turn.</t>
+  </si>
+  <si>
+    <t>At the beginning of your upkeep, put a +1/+1 counter on Level-Up Warrior.</t>
+  </si>
+  <si>
+    <t>When Boss Monster enters the Grid, all other Units get -1/-1 until end of turn.</t>
+  </si>
+  <si>
+    <t>Trample. Rage Quitter can't block.</t>
+  </si>
+  <si>
+    <t>Tap: Target Unit gains Debugged until end of turn.</t>
+  </si>
+  <si>
+    <t>When Speedrun Assassin deals combat damage to a player, untap it.</t>
+  </si>
+  <si>
+    <t>AFK Ranger can't attack or block but has "Tap: Gain 1 Integrity."</t>
+  </si>
+  <si>
+    <t>Whenever Dungeon Crawler deals combat damage to a player, you may search your archive for an Equipment card and put it into your hand.</t>
+  </si>
+  <si>
+    <t>When Avatar Hero enters the Grid, choose a player. That player creates a 1/1 "Sidekick" token with Shielded.</t>
+  </si>
+  <si>
+    <t>Flying, Trample. Whenever Glitch Dragon deals combat damage to a player, draw a card.</t>
+  </si>
+  <si>
+    <t>Whenever Critical Striker attacks, it gains +2/+0 until end of turn.</t>
+  </si>
+  <si>
+    <t>When Respawn Scout dies, return it to your hand.</t>
+  </si>
+  <si>
+    <t>The final stage awaits—are you ready?</t>
+  </si>
+  <si>
+    <t>A beacon of safety in an unforgiving world.</t>
+  </si>
+  <si>
+    <t>It rewrites your past, leaving you defenseless.</t>
+  </si>
+  <si>
+    <t>↑ ↑ ↓ ↓ ← → ← → B A</t>
+  </si>
+  <si>
+    <t>It thrives on delay and frustration.</t>
+  </si>
+  <si>
+    <t>Luck isn’t random when you know the code.</t>
+  </si>
+  <si>
+    <t>Always watching, always waiting.</t>
+  </si>
+  <si>
+    <t>The digital balance keeper.</t>
+  </si>
+  <si>
+    <t>Grinding through battles, gaining strength with every fight.</t>
+  </si>
+  <si>
+    <t>The fight’s just getting started.</t>
+  </si>
+  <si>
+    <t>Anger is a strategy—just not a good one.</t>
+  </si>
+  <si>
+    <t>They see the flaws no one else notices.</t>
+  </si>
+  <si>
+    <t>Beating records, one strike at a time.</t>
+  </si>
+  <si>
+    <t>They may be away, but they're still contributing.</t>
+  </si>
+  <si>
+    <t>Treasure always lies just behind the next corner.</t>
+  </si>
+  <si>
+    <t>Every hero needs a loyal sidekick.</t>
+  </si>
+  <si>
+    <t>Even dragons adapt to the endless levels of the gaming grid.</t>
+  </si>
+  <si>
+    <t>Victory favors the bold—and the lucky.</t>
+  </si>
+  <si>
+    <t>Failure is just a checkpoint.</t>
+  </si>
+  <si>
+    <t>Defending the digital realms, one pixel at a time.</t>
+  </si>
+  <si>
+    <t>PixelKnight</t>
+  </si>
+  <si>
+    <t>RespawnScout</t>
+  </si>
+  <si>
+    <t>CriticalStriker</t>
+  </si>
+  <si>
+    <t>GlitchDragon</t>
+  </si>
+  <si>
+    <t>AvatarHero</t>
+  </si>
+  <si>
+    <t>DungeonCrawler</t>
+  </si>
+  <si>
+    <t>AFKRanger</t>
+  </si>
+  <si>
+    <t>SpeedrunAssassin</t>
+  </si>
+  <si>
+    <t>BetaTester</t>
+  </si>
+  <si>
+    <t>RageQuitter</t>
+  </si>
+  <si>
+    <t>BossMonster</t>
+  </si>
+  <si>
+    <t>Level-UpWarrior</t>
+  </si>
+  <si>
+    <t>PatchNotesGuru</t>
+  </si>
+  <si>
+    <t>StreamSniper</t>
+  </si>
+  <si>
+    <t>RNGManipulator</t>
+  </si>
+  <si>
+    <t>LagBeast</t>
+  </si>
+  <si>
+    <t>ArcadeBrawler</t>
+  </si>
+  <si>
+    <t>MemoryCorruptor</t>
+  </si>
+  <si>
+    <t>SavepointGuardian</t>
+  </si>
+  <si>
+    <t>FinalBossAvatar</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Gaming\Units\PixelKnight.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Gaming\Units\RespawnScout</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Gaming\Units\CriticalStriker</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Gaming\Units\GlitchDragon</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Gaming\Units\AvatarHero</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Gaming\Units\DungeonCrawler</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Gaming\Units\AFKRanger</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Gaming\Units\SpeedrunAssassin</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Gaming\Units\BetaTester</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Gaming\Units\RageQuitter</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Gaming\Units\BossMonster</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Gaming\Units\Level-UpWarrior</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Gaming\Units\PatchNotesGuru</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Gaming\Units\StreamSniper</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Gaming\Units\RNGManipulator</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Gaming\Units\LagBeast</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Gaming\Units\ArcadeBrawler</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Gaming\Units\MemoryCorruptor</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Gaming\Units\SavepointGuardian</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Gaming\Units\FinalBossAvatar.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Gaming\Units\SavepointGuardian.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Gaming\Units\MemoryCorruptor.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Gaming\Units\ArcadeBrawler.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Gaming\Units\LagBeast.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Gaming\Units\RNGManipulator.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Gaming\Units\StreamSniper.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Gaming\Units\PatchNotesGuru.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Gaming\Units\Level-UpWarrior.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Gaming\Units\BossMonster.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Gaming\Units\RageQuitter.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Gaming\Units\BetaTester.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Gaming\Units\SpeedrunAssassin.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Gaming\Units\AFKRanger.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Gaming\Units\DungeonCrawler.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Gaming\Units\AvatarHero.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Gaming\Units\GlitchDragon.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Gaming\Units\CriticalStriker.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Gaming\Units\RespawnScout.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Gaming\Units\Level-UpWarrior.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Gaming\Units\LevelUpWarrior.jpeg</t>
   </si>
 </sst>
 </file>
@@ -3988,7 +4348,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="L1" tabSelected="1">
+    <sheetView workbookViewId="0" topLeftCell="L1">
       <selection activeCell="O4" activeCellId="0" sqref="O4"/>
     </sheetView>
   </sheetViews>
@@ -4318,8 +4678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="E28" zoomScale="70" zoomScaleNormal="70">
-      <selection activeCell="E5" activeCellId="0" sqref="E5"/>
+    <sheetView workbookViewId="0" topLeftCell="C37" zoomScale="70" zoomScaleNormal="70" tabSelected="1">
+      <selection activeCell="D58" activeCellId="0" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4331,7 +4691,7 @@
     <col min="5" max="5" width="51.140625" customWidth="1" bestFit="1"/>
     <col min="6" max="6" width="62.140625" customWidth="1" bestFit="1"/>
     <col min="7" max="7" width="62.140625" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" width="54.7109375" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" width="62.140625" customWidth="1" bestFit="1"/>
     <col min="9" max="9" width="25.109375" customWidth="1" bestFit="1"/>
     <col min="10" max="10" width="128.28515625" customWidth="1" bestFit="1"/>
     <col min="11" max="11" width="62" customWidth="1"/>
@@ -6175,6 +6535,790 @@
         <v>867</v>
       </c>
     </row>
+    <row r="47">
+      <c r="A47" s="28" t="s">
+        <v>318</v>
+      </c>
+      <c r="B47" t="s">
+        <v>910</v>
+      </c>
+      <c r="C47" t="s">
+        <v>209</v>
+      </c>
+      <c r="D47" t="s">
+        <v>990</v>
+      </c>
+      <c r="E47" t="s">
+        <v>871</v>
+      </c>
+      <c r="F47" t="s">
+        <v>883</v>
+      </c>
+      <c r="I47" t="s">
+        <v>930</v>
+      </c>
+      <c r="J47" t="s">
+        <v>840</v>
+      </c>
+      <c r="M47">
+        <v>3</v>
+      </c>
+      <c r="N47">
+        <v>2</v>
+      </c>
+      <c r="O47" t="s">
+        <v>969</v>
+      </c>
+      <c r="P47" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="28" t="s">
+        <v>318</v>
+      </c>
+      <c r="B48" t="s">
+        <v>911</v>
+      </c>
+      <c r="C48" t="s">
+        <v>209</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E48" t="s">
+        <v>873</v>
+      </c>
+      <c r="F48" t="s">
+        <v>883</v>
+      </c>
+      <c r="I48" t="s">
+        <v>930</v>
+      </c>
+      <c r="J48" t="s">
+        <v>949</v>
+      </c>
+      <c r="M48">
+        <v>1</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48" t="s">
+        <v>968</v>
+      </c>
+      <c r="P48" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="28" t="s">
+        <v>318</v>
+      </c>
+      <c r="B49" t="s">
+        <v>912</v>
+      </c>
+      <c r="C49" t="s">
+        <v>211</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E49" t="s">
+        <v>872</v>
+      </c>
+      <c r="F49" t="s">
+        <v>883</v>
+      </c>
+      <c r="I49" t="s">
+        <v>930</v>
+      </c>
+      <c r="J49" t="s">
+        <v>948</v>
+      </c>
+      <c r="M49">
+        <v>4</v>
+      </c>
+      <c r="N49">
+        <v>2</v>
+      </c>
+      <c r="O49" t="s">
+        <v>967</v>
+      </c>
+      <c r="P49" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="28" t="s">
+        <v>318</v>
+      </c>
+      <c r="B50" t="s">
+        <v>913</v>
+      </c>
+      <c r="C50" t="s">
+        <v>23</v>
+      </c>
+      <c r="D50" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E50" t="s">
+        <v>869</v>
+      </c>
+      <c r="F50" t="s">
+        <v>883</v>
+      </c>
+      <c r="G50" t="s">
+        <v>883</v>
+      </c>
+      <c r="H50" t="s">
+        <v>883</v>
+      </c>
+      <c r="I50" t="s">
+        <v>930</v>
+      </c>
+      <c r="J50" t="s">
+        <v>947</v>
+      </c>
+      <c r="M50">
+        <v>7</v>
+      </c>
+      <c r="N50">
+        <v>7</v>
+      </c>
+      <c r="O50" t="s">
+        <v>966</v>
+      </c>
+      <c r="P50" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="28" t="s">
+        <v>318</v>
+      </c>
+      <c r="B51" t="s">
+        <v>914</v>
+      </c>
+      <c r="C51" t="s">
+        <v>215</v>
+      </c>
+      <c r="D51" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E51" t="s">
+        <v>869</v>
+      </c>
+      <c r="F51" t="s">
+        <v>883</v>
+      </c>
+      <c r="I51" t="s">
+        <v>930</v>
+      </c>
+      <c r="J51" t="s">
+        <v>946</v>
+      </c>
+      <c r="M51">
+        <v>5</v>
+      </c>
+      <c r="N51">
+        <v>5</v>
+      </c>
+      <c r="O51" t="s">
+        <v>965</v>
+      </c>
+      <c r="P51" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="28" t="s">
+        <v>318</v>
+      </c>
+      <c r="B52" t="s">
+        <v>915</v>
+      </c>
+      <c r="C52" t="s">
+        <v>211</v>
+      </c>
+      <c r="D52" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E52" t="s">
+        <v>872</v>
+      </c>
+      <c r="F52" t="s">
+        <v>883</v>
+      </c>
+      <c r="I52" t="s">
+        <v>930</v>
+      </c>
+      <c r="J52" t="s">
+        <v>945</v>
+      </c>
+      <c r="M52">
+        <v>2</v>
+      </c>
+      <c r="N52">
+        <v>3</v>
+      </c>
+      <c r="O52" t="s">
+        <v>964</v>
+      </c>
+      <c r="P52" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="28" t="s">
+        <v>318</v>
+      </c>
+      <c r="B53" t="s">
+        <v>916</v>
+      </c>
+      <c r="C53" t="s">
+        <v>209</v>
+      </c>
+      <c r="D53" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E53" t="s">
+        <v>873</v>
+      </c>
+      <c r="F53" t="s">
+        <v>883</v>
+      </c>
+      <c r="I53" t="s">
+        <v>930</v>
+      </c>
+      <c r="J53" t="s">
+        <v>944</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>4</v>
+      </c>
+      <c r="O53" t="s">
+        <v>963</v>
+      </c>
+      <c r="P53" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="28" t="s">
+        <v>318</v>
+      </c>
+      <c r="B54" t="s">
+        <v>917</v>
+      </c>
+      <c r="C54" t="s">
+        <v>220</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E54" t="s">
+        <v>871</v>
+      </c>
+      <c r="F54" t="s">
+        <v>883</v>
+      </c>
+      <c r="G54" t="s">
+        <v>883</v>
+      </c>
+      <c r="I54" t="s">
+        <v>930</v>
+      </c>
+      <c r="J54" t="s">
+        <v>943</v>
+      </c>
+      <c r="M54">
+        <v>4</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="O54" t="s">
+        <v>962</v>
+      </c>
+      <c r="P54" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="28" t="s">
+        <v>318</v>
+      </c>
+      <c r="B55" t="s">
+        <v>918</v>
+      </c>
+      <c r="C55" t="s">
+        <v>209</v>
+      </c>
+      <c r="D55" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E55" t="s">
+        <v>871</v>
+      </c>
+      <c r="F55" t="s">
+        <v>883</v>
+      </c>
+      <c r="I55" t="s">
+        <v>930</v>
+      </c>
+      <c r="J55" t="s">
+        <v>942</v>
+      </c>
+      <c r="M55">
+        <v>2</v>
+      </c>
+      <c r="N55">
+        <v>3</v>
+      </c>
+      <c r="O55" t="s">
+        <v>961</v>
+      </c>
+      <c r="P55" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="28" t="s">
+        <v>318</v>
+      </c>
+      <c r="B56" t="s">
+        <v>919</v>
+      </c>
+      <c r="C56" t="s">
+        <v>211</v>
+      </c>
+      <c r="D56" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E56" t="s">
+        <v>872</v>
+      </c>
+      <c r="F56" t="s">
+        <v>883</v>
+      </c>
+      <c r="I56" t="s">
+        <v>930</v>
+      </c>
+      <c r="J56" t="s">
+        <v>941</v>
+      </c>
+      <c r="M56">
+        <v>5</v>
+      </c>
+      <c r="N56">
+        <v>1</v>
+      </c>
+      <c r="O56" t="s">
+        <v>960</v>
+      </c>
+      <c r="P56" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="28" t="s">
+        <v>318</v>
+      </c>
+      <c r="B57" t="s">
+        <v>920</v>
+      </c>
+      <c r="C57" t="s">
+        <v>215</v>
+      </c>
+      <c r="D57" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E57" t="s">
+        <v>872</v>
+      </c>
+      <c r="F57" t="s">
+        <v>883</v>
+      </c>
+      <c r="G57" t="s">
+        <v>883</v>
+      </c>
+      <c r="I57" t="s">
+        <v>930</v>
+      </c>
+      <c r="J57" t="s">
+        <v>940</v>
+      </c>
+      <c r="M57">
+        <v>6</v>
+      </c>
+      <c r="N57">
+        <v>6</v>
+      </c>
+      <c r="O57" t="s">
+        <v>959</v>
+      </c>
+      <c r="P57" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="28" t="s">
+        <v>318</v>
+      </c>
+      <c r="B58" t="s">
+        <v>921</v>
+      </c>
+      <c r="C58" t="s">
+        <v>209</v>
+      </c>
+      <c r="D58" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E58" t="s">
+        <v>871</v>
+      </c>
+      <c r="F58" t="s">
+        <v>883</v>
+      </c>
+      <c r="I58" t="s">
+        <v>930</v>
+      </c>
+      <c r="J58" t="s">
+        <v>939</v>
+      </c>
+      <c r="M58">
+        <v>2</v>
+      </c>
+      <c r="N58">
+        <v>2</v>
+      </c>
+      <c r="O58" t="s">
+        <v>958</v>
+      </c>
+      <c r="P58" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="28" t="s">
+        <v>318</v>
+      </c>
+      <c r="B59" t="s">
+        <v>922</v>
+      </c>
+      <c r="C59" t="s">
+        <v>215</v>
+      </c>
+      <c r="D59" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E59" t="s">
+        <v>872</v>
+      </c>
+      <c r="F59" t="s">
+        <v>883</v>
+      </c>
+      <c r="I59" t="s">
+        <v>930</v>
+      </c>
+      <c r="J59" t="s">
+        <v>938</v>
+      </c>
+      <c r="M59">
+        <v>2</v>
+      </c>
+      <c r="N59">
+        <v>5</v>
+      </c>
+      <c r="O59" t="s">
+        <v>957</v>
+      </c>
+      <c r="P59" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="28" t="s">
+        <v>318</v>
+      </c>
+      <c r="B60" t="s">
+        <v>923</v>
+      </c>
+      <c r="C60" t="s">
+        <v>209</v>
+      </c>
+      <c r="D60" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E60" t="s">
+        <v>873</v>
+      </c>
+      <c r="F60" t="s">
+        <v>883</v>
+      </c>
+      <c r="I60" t="s">
+        <v>930</v>
+      </c>
+      <c r="J60" t="s">
+        <v>937</v>
+      </c>
+      <c r="M60">
+        <v>1</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
+      <c r="O60" t="s">
+        <v>956</v>
+      </c>
+      <c r="P60" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="28" t="s">
+        <v>318</v>
+      </c>
+      <c r="B61" t="s">
+        <v>924</v>
+      </c>
+      <c r="C61" t="s">
+        <v>215</v>
+      </c>
+      <c r="D61" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E61" t="s">
+        <v>869</v>
+      </c>
+      <c r="F61" t="s">
+        <v>883</v>
+      </c>
+      <c r="G61" t="s">
+        <v>883</v>
+      </c>
+      <c r="I61" t="s">
+        <v>930</v>
+      </c>
+      <c r="J61" t="s">
+        <v>936</v>
+      </c>
+      <c r="M61">
+        <v>3</v>
+      </c>
+      <c r="N61">
+        <v>3</v>
+      </c>
+      <c r="O61" t="s">
+        <v>955</v>
+      </c>
+      <c r="P61" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="28" t="s">
+        <v>318</v>
+      </c>
+      <c r="B62" t="s">
+        <v>925</v>
+      </c>
+      <c r="C62" t="s">
+        <v>211</v>
+      </c>
+      <c r="D62" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E62" t="s">
+        <v>872</v>
+      </c>
+      <c r="F62" t="s">
+        <v>883</v>
+      </c>
+      <c r="I62" t="s">
+        <v>930</v>
+      </c>
+      <c r="J62" t="s">
+        <v>935</v>
+      </c>
+      <c r="M62">
+        <v>3</v>
+      </c>
+      <c r="N62">
+        <v>5</v>
+      </c>
+      <c r="O62" t="s">
+        <v>954</v>
+      </c>
+      <c r="P62" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="28" t="s">
+        <v>318</v>
+      </c>
+      <c r="B63" t="s">
+        <v>926</v>
+      </c>
+      <c r="C63" t="s">
+        <v>209</v>
+      </c>
+      <c r="D63" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E63" t="s">
+        <v>871</v>
+      </c>
+      <c r="F63" t="s">
+        <v>883</v>
+      </c>
+      <c r="I63" t="s">
+        <v>930</v>
+      </c>
+      <c r="J63" t="s">
+        <v>934</v>
+      </c>
+      <c r="M63">
+        <v>4</v>
+      </c>
+      <c r="N63">
+        <v>3</v>
+      </c>
+      <c r="O63" t="s">
+        <v>953</v>
+      </c>
+      <c r="P63" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="28" t="s">
+        <v>318</v>
+      </c>
+      <c r="B64" t="s">
+        <v>927</v>
+      </c>
+      <c r="C64" t="s">
+        <v>215</v>
+      </c>
+      <c r="D64" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E64" t="s">
+        <v>869</v>
+      </c>
+      <c r="F64" t="s">
+        <v>883</v>
+      </c>
+      <c r="G64" t="s">
+        <v>883</v>
+      </c>
+      <c r="I64" t="s">
+        <v>930</v>
+      </c>
+      <c r="J64" t="s">
+        <v>933</v>
+      </c>
+      <c r="M64">
+        <v>2</v>
+      </c>
+      <c r="N64">
+        <v>4</v>
+      </c>
+      <c r="O64" t="s">
+        <v>952</v>
+      </c>
+      <c r="P64" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="28" t="s">
+        <v>318</v>
+      </c>
+      <c r="B65" t="s">
+        <v>928</v>
+      </c>
+      <c r="C65" t="s">
+        <v>211</v>
+      </c>
+      <c r="D65" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E65" t="s">
+        <v>872</v>
+      </c>
+      <c r="F65" t="s">
+        <v>883</v>
+      </c>
+      <c r="I65" t="s">
+        <v>930</v>
+      </c>
+      <c r="J65" t="s">
+        <v>932</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>6</v>
+      </c>
+      <c r="O65" t="s">
+        <v>951</v>
+      </c>
+      <c r="P65" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="28" t="s">
+        <v>318</v>
+      </c>
+      <c r="B66" t="s">
+        <v>929</v>
+      </c>
+      <c r="C66" t="s">
+        <v>23</v>
+      </c>
+      <c r="D66" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E66" t="s">
+        <v>869</v>
+      </c>
+      <c r="F66" t="s">
+        <v>883</v>
+      </c>
+      <c r="G66" t="s">
+        <v>883</v>
+      </c>
+      <c r="H66" t="s">
+        <v>883</v>
+      </c>
+      <c r="I66" t="s">
+        <v>930</v>
+      </c>
+      <c r="J66" t="s">
+        <v>931</v>
+      </c>
+      <c r="M66">
+        <v>8</v>
+      </c>
+      <c r="N66">
+        <v>8</v>
+      </c>
+      <c r="O66" t="s">
+        <v>950</v>
+      </c>
+      <c r="P66" t="s">
+        <v>879</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6183,8 +7327,8 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="E22" zoomScale="80" zoomScaleNormal="80">
-      <selection activeCell="F33" activeCellId="0" sqref="F33"/>
+    <sheetView workbookViewId="0" topLeftCell="A22" zoomScale="80" zoomScaleNormal="80">
+      <selection activeCell="A32" activeCellId="0" sqref="A32:A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" customHeight="false"/>

--- a/NetRealmsNanSetup/nanDECK/cards.xlsx
+++ b/NetRealmsNanSetup/nanDECK/cards.xlsx
@@ -9,15 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="11820" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="11820" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Lands" sheetId="1" r:id="rId1"/>
     <sheet name="WorldWeavers" sheetId="2" r:id="rId2"/>
     <sheet name="Units" sheetId="3" r:id="rId3"/>
+    <sheet name="Relics" sheetId="4" r:id="rId7"/>
     <sheet name="Programs" sheetId="5" r:id="rId8"/>
     <sheet name="Scripts" sheetId="6" r:id="rId9"/>
-    <sheet name="Relics" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
@@ -3672,6 +3672,1144 @@
   </si>
   <si>
     <t>The final stage awaits—are you ready?</t>
+  </si>
+  <si>
+    <t>Keyboard Warrior’s Shield</t>
+  </si>
+  <si>
+    <t>Doomscrolling Device</t>
+  </si>
+  <si>
+    <t>Cheeseburger of Wisdom</t>
+  </si>
+  <si>
+    <t>Unstoppable Trend Engine</t>
+  </si>
+  <si>
+    <t>Cursed Reply Button</t>
+  </si>
+  <si>
+    <t>Pepegrail of Eternity</t>
+  </si>
+  <si>
+    <t>Infinite Scroll</t>
+  </si>
+  <si>
+    <t>Bottom Text Generator</t>
+  </si>
+  <si>
+    <t>Distracted Duelist</t>
+  </si>
+  <si>
+    <t>Dank Archives</t>
+  </si>
+  <si>
+    <t>Mega Oof Button</t>
+  </si>
+  <si>
+    <t>Salty Streamer’s Headset</t>
+  </si>
+  <si>
+    <t>Power of the Wojak</t>
+  </si>
+  <si>
+    <t>Shiba Shrine</t>
+  </si>
+  <si>
+    <t>Internet Historian’s Tome</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Meme\Relic\Keyboard Warriors Shield.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Meme\Relic\Doomscrolling Device.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Meme\Relic\Cheeseburger of Wisdom.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Meme\Relic\Unstoppable Trend Engine.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Meme\Relic\Cursed Reply Button.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Meme\Relic\Pepegrail of Eternity.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Meme\Relic\Infinite Scroll.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Meme\Relic\Bottom Text Generator.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Meme\Relic\Distracted Duelist.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Meme\Relic\Dank Archives.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Meme\Relic\Mega Oof Button.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Meme\Relic\Salty Streamers Headset.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Meme\Relic\Power of the Wojak.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Meme\Relic\Shiba Shrine.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Meme\Relic\Internet Historians Tome.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Meme\Relic\KeyboardWarriorsShield.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Meme\Relic\DoomscrollingDevice.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Meme\Relic\CheeseburgerofWisdom.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Meme\Relic\UnstoppableTrendEngine.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Meme\Relic\CursedReplyButton.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Meme\Relic\PepegrailofEternity.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Meme\Relic\InfiniteScroll.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Meme\Relic\BottomTextGenerator.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Meme\Relic\DistractedDuelist.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Meme\Relic\DankArchives.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Meme\Relic\MegaOofButton.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Meme\Relic\SaltyStreamersHeadset.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Meme\Relic\PoweroftheWojak.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Meme\Relic\ShibaShrine.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Meme\Relic\InternetHistoriansTome.jpeg</t>
+  </si>
+  <si>
+    <t>mr</t>
+  </si>
+  <si>
+    <t>me</t>
+  </si>
+  <si>
+    <t>ne</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\symbols\symbol_meme.png</t>
+  </si>
+  <si>
+    <t>Meme Relic</t>
+  </si>
+  <si>
+    <t>Equipped Unit gains +1/+1 and “Whenever this Unit is blocked, draw a card.”</t>
+  </si>
+  <si>
+    <t>Whenever a player draws a card, they lose 1 Integrity.</t>
+  </si>
+  <si>
+    <t>Add 1M. If this energy is used for a Meme Unit, draw a card.</t>
+  </si>
+  <si>
+    <t>At the beginning of your upkeep, create a 1/1 “Viral Meme” token.</t>
+  </si>
+  <si>
+    <t>Whenever an opponent activates an ability, they lose 1 Integrity.</t>
+  </si>
+  <si>
+    <t>All Meme Units you control get +1/+1.</t>
+  </si>
+  <si>
+    <t>At the beginning of your turn, draw a card. If this is the third card you’ve drawn this turn, lose 1 Integrity.</t>
+  </si>
+  <si>
+    <t>Tap: Target Unit gains +1/+0 until end of turn.</t>
+  </si>
+  <si>
+    <t>Equipped Unit gets +2/+0 and must attack each turn if able.</t>
+  </si>
+  <si>
+    <t>Tap: Look at the top three cards of your archive. Put one into your hand and the rest into exile.</t>
+  </si>
+  <si>
+    <t>Tap: Target player loses 2 Integrity.</t>
+  </si>
+  <si>
+    <t>Equipped Unit gains +2/+1. If it deals damage, draw a card.</t>
+  </si>
+  <si>
+    <t>Meme Units you control gain +2/+0.</t>
+  </si>
+  <si>
+    <t>Add 2M. This mana can only be used for Meme Units or Relics.</t>
+  </si>
+  <si>
+    <t>Search your archive for a Meme Unit or Relic, then shuffle your archive.</t>
+  </si>
+  <si>
+    <t>To understand memes, you must first know their history.</t>
+  </si>
+  <si>
+    <t>Wow. Much shrine. Very holy.</t>
+  </si>
+  <si>
+    <t>One Wojak leads to another.</t>
+  </si>
+  <si>
+    <t>Let the rage fuel you.</t>
+  </si>
+  <si>
+    <t>Press it, and feel the regret.</t>
+  </si>
+  <si>
+    <t>Where the rarest memes are kept alive.</t>
+  </si>
+  <si>
+    <t>Always chasing the next big thing.</t>
+  </si>
+  <si>
+    <t>Bottom text.</t>
+  </si>
+  <si>
+    <t>You’ll never reach the end.</t>
+  </si>
+  <si>
+    <t>The one grail to rule them all, now in meme form.</t>
+  </si>
+  <si>
+    <t>Never press it, but you always do.</t>
+  </si>
+  <si>
+    <t>You can’t stop what’s already been shared.</t>
+  </si>
+  <si>
+    <t>All the answers you seek are between the buns.</t>
+  </si>
+  <si>
+    <t>One more scroll couldn’t hurt... right?</t>
+  </si>
+  <si>
+    <t>The strongest defense is a snarky comment.</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\symbols\meme.png</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Meme\Relics\KeyboardWarriorsShield.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Meme\Relics\DoomscrollingDevice.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Meme\Relics\CheeseburgerofWisdom.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Meme\Relics\UnstoppableTrendEngine.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Meme\Relics\CursedReplyButton.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Meme\Relics\PepegrailofEternity.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Meme\Relics\InfiniteScroll.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Meme\Relics\BottomTextGenerator.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Meme\Relics\DistractedDuelist.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Meme\Relics\DankArchives.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Meme\Relics\MegaOofButton.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Meme\Relics\SaltyStreamersHeadset.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Meme\Relics\PoweroftheWojak.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Meme\Relics\ShibaShrine.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Meme\Relics\InternetHistoriansTome.jpeg</t>
+  </si>
+  <si>
+    <t>Dark Nexus</t>
+  </si>
+  <si>
+    <t>Fractured Repository</t>
+  </si>
+  <si>
+    <t>Cinema Archive Nexus</t>
+  </si>
+  <si>
+    <t>Haunted Cineplex</t>
+  </si>
+  <si>
+    <t>Streaming Arena</t>
+  </si>
+  <si>
+    <t>Fractured Arcade</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\frames\frame_landdual.png</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\lands\FracturedArcade.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\lands\StreamingArena.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\lands\HauntedCineplex.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\lands\CinemaArchiveNexus.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\lands\FracturedRepository.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\lands\DarkNexus.jpeg</t>
+  </si>
+  <si>
+    <t>Land – Dual (Creep/Code Energy)</t>
+  </si>
+  <si>
+    <t>Land – Dual (Glitch/Code Energy)</t>
+  </si>
+  <si>
+    <t>Land – Dual (Movie/Code Energy)</t>
+  </si>
+  <si>
+    <t>Land – Dual (Creep/Movie Energy)</t>
+  </si>
+  <si>
+    <t>Land – Dual (Gaming/Drama Energy)</t>
+  </si>
+  <si>
+    <t>Land – Dual (Gaming/Glitch Energy)</t>
+  </si>
+  <si>
+    <t>Darknet Nexus enters the Grid tapped unless you pay 1 Integrity.</t>
+  </si>
+  <si>
+    <t>Fractured Repository enters the Grid tapped unless you exile the top card of your archive.</t>
+  </si>
+  <si>
+    <t>Cinema Archive Nexus enters the Grid tapped unless you reveal a Movie or Code Unit from your hand.</t>
+  </si>
+  <si>
+    <t>Haunted Cineplex enters the Grid tapped unless you reveal a Creep or Movie Unit from your hand.</t>
+  </si>
+  <si>
+    <t>Streaming Arena enters the Grid tapped unless you control a Gaming or Drama Unit.</t>
+  </si>
+  <si>
+    <t>Fractured Arcade enters the Grid tapped unless you’ve milled a card this turn.</t>
+  </si>
+  <si>
+    <t>Add 1GM (1 Gaming Energy) or 1GL (1 Glitch Energy).</t>
+  </si>
+  <si>
+    <t>Add 1GM (1 Gaming Energy) or 1DR (1 Drama Energy).</t>
+  </si>
+  <si>
+    <t>Add 1CR (1 Creep Energy) or 1MO (1 Movie Energy).</t>
+  </si>
+  <si>
+    <t>Add 1MO (1 Movie Energy) or 1CO (1 Code Energy).</t>
+  </si>
+  <si>
+    <t>Add 1G (1 Glitch Energy) or 1CO (1 Code Energy).</t>
+  </si>
+  <si>
+    <t>Add 1C (1 Creep Energy) or 1CO (1 Code Energy).</t>
+  </si>
+  <si>
+    <t>At the crossroads of shadows and firewalls lies the true core of the hidden web.</t>
+  </si>
+  <si>
+    <t>The key to innovation lies in the fractures of perfection.</t>
+  </si>
+  <si>
+    <t>Where the magic of storytelling meets the precision of code, legends are immortalized in endless loops.</t>
+  </si>
+  <si>
+    <t>In the shadows between the reels, the stories become too real to escape.</t>
+  </si>
+  <si>
+    <t>Where victory and betrayal are broadcast to millions, every move is a spectacle.</t>
+  </si>
+  <si>
+    <t>Where high scores are haunted by broken pixels and echoes of corrupted code.</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\lands\Code\Code1.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\lands\Code\Code2.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\lands\Code\Code3.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\lands\Code\Code4.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\lands\Creep\Creep1.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\lands\Creep\Creep2.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\lands\Creep\Creep3.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\lands\Creep\Creep4.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\lands\Drama\Drama1.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\lands\Drama\Drama2.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\lands\Drama\Drama3.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\lands\Drama\Drama4.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\lands\Gaming\Game1.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\lands\Gaming\Game2.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\lands\Gaming\Game3.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\lands\Gaming\Game4.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\lands\Glitch\Glitch1.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\lands\Glitch\Glitch2.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\lands\Glitch\Glitch3.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\lands\Glitch\Glitch4.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\lands\Meme\Meme1.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\lands\Meme\Meme2.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\lands\Meme\Meme3.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\lands\Meme\Meme4.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\lands\Movie\Movie1.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\lands\Movie\Movie2.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\lands\Movie\Movie3.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\lands\Movie\Movie4.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\lands\DualLands\DarkNexus.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\lands\DualLands\FracturedRepository.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\lands\DualLands\CinemaArchiveNexus.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\lands\DualLands\HauntedCineplex.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\lands\DualLands\StreamingArena.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\lands\DualLands\FracturedArcade.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\lands\DualLands\DarknetNexus.jpeg</t>
+  </si>
+  <si>
+    <t>Distracted Swordsman</t>
+  </si>
+  <si>
+    <t>Grumpy Cat Familiar</t>
+  </si>
+  <si>
+    <t>Deal With It Ghost</t>
+  </si>
+  <si>
+    <t>Shiba Champion</t>
+  </si>
+  <si>
+    <t>Yelling Gamer Kid</t>
+  </si>
+  <si>
+    <t>Vibing Astronaut</t>
+  </si>
+  <si>
+    <t>Keyboard Slayer</t>
+  </si>
+  <si>
+    <t>Sad Boi Phoenix</t>
+  </si>
+  <si>
+    <t>Cheems Protector</t>
+  </si>
+  <si>
+    <t>Overly Attached Guardian</t>
+  </si>
+  <si>
+    <t>Doge Almighty</t>
+  </si>
+  <si>
+    <t>Giga Chad Enforcer</t>
+  </si>
+  <si>
+    <t>Big Brain Strategist</t>
+  </si>
+  <si>
+    <t>Kermit of Chaos</t>
+  </si>
+  <si>
+    <t>404 Not Found Wraith</t>
+  </si>
+  <si>
+    <t>Evil Spider Dancer</t>
+  </si>
+  <si>
+    <t>Rickroller Supreme</t>
+  </si>
+  <si>
+    <t>Mocking Parrot</t>
+  </si>
+  <si>
+    <t>Chaotic Cat Lord</t>
+  </si>
+  <si>
+    <t>Breadstick Enthusiast</t>
+  </si>
+  <si>
+    <t>Roll-Safe Rogue</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Meme\Units\CorruptedAvatar.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Meme\Units\RollSafe Rogue.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Glitch\Units\Distracted Swordsman.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Meme\Units\Grumpy Cat Familiar
+.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Meme\Units\Deal With It Ghost.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Meme\Units\Shiba Champion.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Meme\Units\Yelling Gamer Kid.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Meme\Units\Vibing Astronaut.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Meme\Units\Keyboard Slayer.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Meme\Units\Sad Boi Phoenix.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Meme\Units\Cheems Protector.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Meme\Units\Overly Attached Guardian.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Meme\Units\Giga Chad Enforcer.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Meme\Units\Big Brain Strategist.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Meme\Units\Kermit of Chaos.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Meme\Units\404 Not Found Wraith.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Meme\Units\Evil Spider Dancer.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Meme\Units\Rickroller Supreme.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Meme\Units\Mocking Parrot.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Meme\Units\CodebreakerSentinel.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Meme\Units\Distracted Swordsman.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Meme\Units\Grumpy Cat Familiar.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Meme\Units\Doge Almighty.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Meme\Units\Chaotic Cat Lord.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Meme\Units\Breadstick Enthusiast.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Meme\Units\DistractedSwordsman.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Meme\Units\GrumpyCatFamiliar.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Meme\Units\DealWithItGhost.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Meme\Units\ShibaChampion.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Meme\Units\YellingGamerKid.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Meme\Units\VibingAstronaut.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Meme\Units\KeyboardSlayer.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Meme\Units\SadBoiPhoenix.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Meme\Units\CheemsProtector.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Meme\Units\OverlyAttachedGuardian.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Meme\Units\DogeAlmighty.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Meme\Units\GigaChadEnforcer.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Meme\Units\BigBrainStrategist.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Meme\Units\KermitofChaos.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Meme\Units\404NotFoundWraith.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Meme\Units\EvilSpiderDancer.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Meme\Units\MockingParrot.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Meme\Units\RickrollerSupreme.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Meme\Units\ChaoticCatLord.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Meme\Units\BreadstickEnthusiast.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Meme\Units\RollSafeRogue.jpeg</t>
+  </si>
+  <si>
+    <t>Meme Unit</t>
+  </si>
+  <si>
+    <t>Whenever Distracted Swordsman attacks, target opponent draws a card.</t>
+  </si>
+  <si>
+    <t>At the beginning of your turn, draw a card if you control no other Units.</t>
+  </si>
+  <si>
+    <t>When Deal With It Ghost dies, put a "Deal With It" Relic token into play with "Equipped Unit gains +2/+0 and loses Flying."</t>
+  </si>
+  <si>
+    <t>When Shiba Champion enters the Grid, choose a keyword ability. Units you control gain that ability until end of turn.</t>
+  </si>
+  <si>
+    <t>Whenever Yelling Gamer Kid attacks, Units your opponents control lose -1/-0 until end of turn.</t>
+  </si>
+  <si>
+    <t>When Vibing Astronaut enters the Grid, create a “Space Beat” token (a Relic with “At the start of your turn, gain 1 Integrity.”)</t>
+  </si>
+  <si>
+    <t>Tap: Deal 1 damage to target Unit.</t>
+  </si>
+  <si>
+    <t>Flying. When Sad Boi Phoenix dies, exile it. You may cast it from exile by discarding a card.</t>
+  </si>
+  <si>
+    <t>Whenever Cheems Protector blocks, prevent all damage dealt to it this turn.</t>
+  </si>
+  <si>
+    <t>Whenever Overly Attached Guardian is dealt damage, create a 1/1</t>
+  </si>
+  <si>
+    <t>Flying, Vigilance. Other Units you control gain +1/+1 and Flying.</t>
+  </si>
+  <si>
+    <t>Whenever Giga Chad Enforcer attacks, Units you control gain +1/+1 until end of turn.</t>
+  </si>
+  <si>
+    <t>At the start of your turn, Scry 2.</t>
+  </si>
+  <si>
+    <t>Tap: Deal 1 damage to any target.</t>
+  </si>
+  <si>
+    <t>Whenever this Unit attacks, target Unit gains -3/-0 until end of turn.</t>
+  </si>
+  <si>
+    <t>Tap: Add one Meme Energy to your pool.</t>
+  </si>
+  <si>
+    <t>When Rickroller Supreme enters the Grid, shuffle target Unit an opponent controls into their deck.</t>
+  </si>
+  <si>
+    <t>Tap: Copy target activated ability.</t>
+  </si>
+  <si>
+    <t>Whenever another Unit enters the Grid under your control, create a 1/1 “Meme Cat” token.</t>
+  </si>
+  <si>
+    <t>When Breadstick Enthusiast dies, gain 2 Integrity.</t>
+  </si>
+  <si>
+    <t>You can’t lose Integrity as long as Roll-Safe Rogue is untapped.</t>
+  </si>
+  <si>
+    <t>Even in battle, his attention is elsewhere.</t>
+  </si>
+  <si>
+    <t>It’s not just unimpressed—it’s planning your demise.</t>
+  </si>
+  <si>
+    <t>It’s not haunting. It’s flexing.</t>
+  </si>
+  <si>
+    <t>Much wow. Such power. Very unstoppable.</t>
+  </si>
+  <si>
+    <t>You can’t mute this level of rage.</t>
+  </si>
+  <si>
+    <t>Moonwalking through the cosmos, one groove at a time.</t>
+  </si>
+  <si>
+    <t>Armed with infinite opinions and zero remorse.</t>
+  </si>
+  <si>
+    <t>It rises from its ashes… but reluctantly.</t>
+  </si>
+  <si>
+    <t>He protec, he attac, but most importantly, he snac.</t>
+  </si>
+  <si>
+    <t>Mine, mine, mine</t>
+  </si>
+  <si>
+    <t>To the moon and beyond, much ascend.</t>
+  </si>
+  <si>
+    <t>No need for words when the jawline says it all.</t>
+  </si>
+  <si>
+    <t>When you outplay them with a galaxy-sized IQ.</t>
+  </si>
+  <si>
+    <t>It’s none of my business... until it is.</t>
+  </si>
+  <si>
+    <t>Lost in the void, searching for relevance.</t>
+  </si>
+  <si>
+    <t>Spinning webs of confusion since 2018.</t>
+  </si>
+  <si>
+    <t>You didn’t see it coming.</t>
+  </si>
+  <si>
+    <t>Master of destruction, chaos, and viral videos.</t>
+  </si>
+  <si>
+    <t>Repeat after me… or don’t. I don’t care.</t>
+  </si>
+  <si>
+    <t>Unlimited breadsticks, unlimited memes.</t>
+  </si>
+  <si>
+    <t>If you don’t play the game, you can’t lose.</t>
+  </si>
+  <si>
+    <t>Dark Carnival</t>
+  </si>
+  <si>
+    <t>Horror Movie Antagonist</t>
+  </si>
+  <si>
+    <t>Cinephile Collector</t>
+  </si>
+  <si>
+    <t>Action Blockbuster Dragon</t>
+  </si>
+  <si>
+    <t>Cult Classic Ghoul</t>
+  </si>
+  <si>
+    <t>Cinematic Archivist</t>
+  </si>
+  <si>
+    <t>Monster Movie Colossus</t>
+  </si>
+  <si>
+    <t>Silent Film Specter</t>
+  </si>
+  <si>
+    <t>Romantic Hero</t>
+  </si>
+  <si>
+    <t>Sci-Fi Explorer</t>
+  </si>
+  <si>
+    <t>Animated Ally</t>
+  </si>
+  <si>
+    <t>Villainous Tycoon</t>
+  </si>
+  <si>
+    <t>The Blockbuster Trio</t>
+  </si>
+  <si>
+    <t>Horror Reel Haunter</t>
+  </si>
+  <si>
+    <t>Blockbuster Titan</t>
+  </si>
+  <si>
+    <t>Indie Auteur</t>
+  </si>
+  <si>
+    <t>Director's Visionary</t>
+  </si>
+  <si>
+    <t>Popcorn Beast</t>
+  </si>
+  <si>
+    <t>Cinematic Wyvern</t>
+  </si>
+  <si>
+    <t>Action Star Vanguard</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Movies\Units\RollSafeRogue.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Movies\Units\Dark Carnival.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Movies\Units\Horror Movie Antagonist.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Movies\Units\Cinephile Collector.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Movies\Units\Action Blockbuster Dragon.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Movies\Units\Cult Classic Ghoul.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Movies\Units\Cinematic Archivist.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Movies\Units\Monster Movie Colossus.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Movies\Units\Silent Film Specter.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Movies\Units\Romantic Hero.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Movies\Units\SciFi Explorer.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Movies\Units\Animated Ally.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Movies\Units\Villainous Tycoon.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Movies\Units\The Blockbuster Trio.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Movies\Units\Horror Reel Haunter.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Movies\Units\Blockbuster Titan.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Movies\Units\Indie Auteur.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Movies\Units\Directors Visionary.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Movies\Units\Popcorn Beast.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Movies\Units\Cinematic Wyvern.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Movies\Units\Action Star Vanguard.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Movies\Units\DarkCarnival.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Movies\Units\HorrorMovieAntagonist.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Movies\Units\CinephileCollector.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Movies\Units\ActionBlockbusterDragon.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Movies\Units\CultClassicGhoul.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Movies\Units\CinematicArchivist.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Movies\Units\MonsterMovieColossus.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Movies\Units\SilentFilmSpecter.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Movies\Units\RomanticHero.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Movies\Units\SciFiExplorer.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Movies\Units\AnimatedAlly.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Movies\Units\VillainousTycoon.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Movies\Units\TheBlockbusterTrio.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Movies\Units\HorrorReelHaunter.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Movies\Units\BlockbusterTitan.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Movies\Units\IndieAuteur.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Movies\Units\DirectorsVisionary.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Movies\Units\PopcornBeast.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Movies\Units\CinematicWyvern.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Movies\Units\ActionStarVanguard.jpeg</t>
+  </si>
+  <si>
+    <t>Movie Unit</t>
+  </si>
+  <si>
+    <t>When Dark Carnival enters the Grid, create two 1/1 “Carnival Clown” tokens. Whenever a Clown token dies, deal 2 damage to any target.</t>
+  </si>
+  <si>
+    <t>Whenever Horror Movie Antagonist destroys a Unit, its controller loses 1 Integrity.</t>
+  </si>
+  <si>
+    <t>Tap: Look at the top card of your archive. If it’s a Unit with Movie Energy, you may add it to your hand.</t>
+  </si>
+  <si>
+    <t>Flying, Haste. When Action Blockbuster Dragon attacks, destroy target Unit and deal 3 damage to its controller.</t>
+  </si>
+  <si>
+    <t>Cult Classic Ghoul gets +1/+1 for each Unit in your discard pile.</t>
+  </si>
+  <si>
+    <t>Tap: Draw a card, then discard a card.</t>
+  </si>
+  <si>
+    <t>Trample. Whenever Monster Movie Colossus attacks, destroy target Relic.</t>
+  </si>
+  <si>
+    <t>Silent Film Specter can’t be blocked if you control another Unit with Movie Energy.</t>
+  </si>
+  <si>
+    <t>When Romantic Hero enters the Grid, choose a Unit. You and the chosen Unit’s controller gain 3 Integrity.</t>
+  </si>
+  <si>
+    <t>Whenever Sci-Fi Explorer attacks, you may look at the top two cards of your archive. Put one into your hand and the other into your discard pile.</t>
+  </si>
+  <si>
+    <t>Animated Ally gains +1/+1 if you control another Unit with Movie Energy.</t>
+  </si>
+  <si>
+    <t>At the beginning of your upkeep, create a 1/1 “Minion” token.</t>
+  </si>
+  <si>
+    <t>When The Blockbuster Trio enters the Grid, you may have it deal damage equal to its power to target Unit.</t>
+  </si>
+  <si>
+    <t>At the beginning of your end step, if Horror Reel Haunter dealt damage this turn, create a 1/1 “Specter” token with Flying.</t>
+  </si>
+  <si>
+    <t>Trample. When Blockbuster Titan enters the Grid, destroy all other Units with power 4 or less.</t>
+  </si>
+  <si>
+    <t>Whenever Indie Auteur is sacrificed, you may draw a card.</t>
+  </si>
+  <si>
+    <t>Tap: Add 1M. Spend this mana only to cast Units.</t>
+  </si>
+  <si>
+    <t>Whenever Popcorn Beast is blocked, its controller gains 1 Energy.</t>
+  </si>
+  <si>
+    <t>Flying, Trample. When Cinematic Wyvern enters the Grid, draw a card for each Movie energy spent to cast it.</t>
+  </si>
+  <si>
+    <t>Whenever Action Star Vanguard attacks, you may sacrifice another Unit. If you do, Action Star Vanguard gains Indestructible until end of turn.</t>
+  </si>
+  <si>
+    <t>Laughter echoes through the night, and it’s anything but joyful.</t>
+  </si>
+  <si>
+    <t>The monster you never see coming.</t>
+  </si>
+  <si>
+    <t>A spectacle of fire, fury, and adrenaline.</t>
+  </si>
+  <si>
+    <t>So many movies, so little space.</t>
+  </si>
+  <si>
+    <t>It thrives on forgotten tales and late-night reruns.</t>
+  </si>
+  <si>
+    <t>Every frame holds a story waiting to be rediscovered.</t>
+  </si>
+  <si>
+    <t>Nothing survives the wrath of the beast.</t>
+  </si>
+  <si>
+    <t>Love conquers all—even on the battlefield.</t>
+  </si>
+  <si>
+    <t>Boundless creativity brings it to life.</t>
+  </si>
+  <si>
+    <t>Every villain needs an empire.</t>
+  </si>
+  <si>
+    <t>Heroes from different worlds, united for the final act.</t>
+  </si>
+  <si>
+    <t>The fear spreads, frame by frame.</t>
+  </si>
+  <si>
+    <t>When it arrives, the small stories end.</t>
+  </si>
+  <si>
+    <t>Sometimes, a small story leaves the biggest impact.</t>
+  </si>
+  <si>
+    <t>Boldly venturing into the uncharted realms of imagination.</t>
+  </si>
+  <si>
+    <t>The vision comes first; the rest follows.</t>
+  </si>
+  <si>
+    <t>Always satisfying, even in battle.</t>
+  </si>
+  <si>
+    <t>Its wings are the curtain, and its roar is the climax.</t>
+  </si>
+  <si>
+    <t>A true hero always survives the final act.</t>
   </si>
 </sst>
 </file>
@@ -4456,23 +5594,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A28">
-      <selection activeCell="B31" activeCellId="0" sqref="B31"/>
+    <sheetView workbookViewId="0" topLeftCell="A19">
+      <selection activeCell="C31" activeCellId="0" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="28.33203125" customWidth="1"/>
     <col min="2" max="2" width="63.44140625" customWidth="1"/>
-    <col min="3" max="3" width="64.28515625" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" customWidth="1"/>
-    <col min="5" max="5" width="31.5546875" customWidth="1"/>
-    <col min="6" max="6" width="85.109375" customWidth="1" style="6" bestFit="1"/>
-    <col min="7" max="7" width="81.21875" customWidth="1" style="6" bestFit="1"/>
-    <col min="8" max="8" width="137.6640625" customWidth="1" style="6"/>
-    <col min="9" max="9" width="6.77734375" customWidth="1"/>
-    <col min="10" max="10" width="5.5546875" customWidth="1"/>
-    <col min="11" max="11" width="72.88671875" customWidth="1"/>
+    <col min="3" max="3" width="76.28515625" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" width="51.140625" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" customWidth="1"/>
+    <col min="8" max="8" width="32.42578125" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" width="89.5703125" customWidth="1" style="6" bestFit="1"/>
+    <col min="10" max="10" width="81.21875" customWidth="1" style="6" bestFit="1"/>
+    <col min="11" max="11" width="137.6640625" customWidth="1" style="6"/>
+    <col min="12" max="12" width="6.77734375" customWidth="1"/>
+    <col min="13" max="13" width="5.5546875" customWidth="1"/>
+    <col min="14" max="14" width="72.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4489,25 +5630,37 @@
         <v>48</v>
       </c>
       <c r="E1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>9</v>
+      </c>
+      <c r="O1" t="s">
+        <v>866</v>
       </c>
     </row>
     <row r="2">
@@ -4518,7 +5671,7 @@
         <v>66</v>
       </c>
       <c r="C2" t="s">
-        <v>137</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="3">
@@ -4529,7 +5682,7 @@
         <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>167</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="4">
@@ -4540,7 +5693,7 @@
         <v>66</v>
       </c>
       <c r="C4" t="s">
-        <v>168</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="5">
@@ -4551,7 +5704,7 @@
         <v>66</v>
       </c>
       <c r="C5" t="s">
-        <v>169</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="6">
@@ -4562,7 +5715,7 @@
         <v>66</v>
       </c>
       <c r="C6" t="s">
-        <v>170</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="7">
@@ -4573,7 +5726,7 @@
         <v>66</v>
       </c>
       <c r="C7" t="s">
-        <v>171</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="8">
@@ -4584,7 +5737,7 @@
         <v>66</v>
       </c>
       <c r="C8" t="s">
-        <v>172</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="9">
@@ -4595,7 +5748,7 @@
         <v>66</v>
       </c>
       <c r="C9" t="s">
-        <v>173</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="10">
@@ -4606,7 +5759,7 @@
         <v>66</v>
       </c>
       <c r="C10" t="s">
-        <v>174</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="11">
@@ -4617,7 +5770,7 @@
         <v>66</v>
       </c>
       <c r="C11" t="s">
-        <v>175</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="12">
@@ -4628,7 +5781,7 @@
         <v>66</v>
       </c>
       <c r="C12" t="s">
-        <v>176</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="13">
@@ -4639,7 +5792,7 @@
         <v>66</v>
       </c>
       <c r="C13" t="s">
-        <v>177</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="14">
@@ -4650,7 +5803,7 @@
         <v>66</v>
       </c>
       <c r="C14" t="s">
-        <v>178</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="15">
@@ -4661,7 +5814,7 @@
         <v>66</v>
       </c>
       <c r="C15" t="s">
-        <v>179</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="16">
@@ -4672,7 +5825,7 @@
         <v>66</v>
       </c>
       <c r="C16" t="s">
-        <v>180</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="17">
@@ -4683,7 +5836,7 @@
         <v>66</v>
       </c>
       <c r="C17" t="s">
-        <v>181</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="18">
@@ -4694,7 +5847,7 @@
         <v>66</v>
       </c>
       <c r="C18" t="s">
-        <v>182</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="19">
@@ -4705,7 +5858,7 @@
         <v>66</v>
       </c>
       <c r="C19" t="s">
-        <v>183</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="20">
@@ -4716,7 +5869,7 @@
         <v>66</v>
       </c>
       <c r="C20" t="s">
-        <v>184</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="21">
@@ -4727,7 +5880,7 @@
         <v>66</v>
       </c>
       <c r="C21" t="s">
-        <v>185</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="22">
@@ -4738,7 +5891,7 @@
         <v>66</v>
       </c>
       <c r="C22" t="s">
-        <v>186</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="23">
@@ -4749,7 +5902,7 @@
         <v>66</v>
       </c>
       <c r="C23" t="s">
-        <v>187</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="24">
@@ -4760,7 +5913,7 @@
         <v>66</v>
       </c>
       <c r="C24" t="s">
-        <v>188</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="25">
@@ -4771,7 +5924,7 @@
         <v>66</v>
       </c>
       <c r="C25" t="s">
-        <v>189</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="26">
@@ -4782,7 +5935,7 @@
         <v>66</v>
       </c>
       <c r="C26" t="s">
-        <v>190</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="27">
@@ -4793,7 +5946,7 @@
         <v>66</v>
       </c>
       <c r="C27" t="s">
-        <v>191</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="28">
@@ -4804,7 +5957,7 @@
         <v>66</v>
       </c>
       <c r="C28" t="s">
-        <v>192</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="29">
@@ -4815,79 +5968,228 @@
         <v>66</v>
       </c>
       <c r="C29" t="s">
-        <v>193</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="30" customFormat="1" s="0"/>
     <row r="31">
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="2"/>
+      <c r="A31" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1373</v>
+      </c>
+      <c r="D31" t="s">
+        <v>871</v>
+      </c>
+      <c r="H31" t="s">
+        <v>1315</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>1321</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>1332</v>
+      </c>
+      <c r="K31" s="2"/>
+      <c r="N31" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1368</v>
+      </c>
+      <c r="D32" t="s">
+        <v>872</v>
+      </c>
+      <c r="H32" t="s">
+        <v>1316</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>1322</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>1331</v>
+      </c>
+      <c r="N32" t="s">
+        <v>1334</v>
+      </c>
     </row>
     <row r="33">
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
+      <c r="A33" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1369</v>
+      </c>
+      <c r="D33" t="s">
+        <v>872</v>
+      </c>
+      <c r="H33" t="s">
+        <v>1317</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>1323</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>1330</v>
+      </c>
+      <c r="K33" s="2"/>
+      <c r="N33" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1370</v>
+      </c>
+      <c r="D34" t="s">
+        <v>871</v>
+      </c>
+      <c r="H34" t="s">
+        <v>1318</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>1329</v>
+      </c>
+      <c r="N34" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1371</v>
+      </c>
+      <c r="D35" t="s">
+        <v>872</v>
+      </c>
+      <c r="H35" t="s">
+        <v>1319</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>1325</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>1328</v>
+      </c>
+      <c r="N35" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1372</v>
+      </c>
+      <c r="D36" t="s">
+        <v>872</v>
+      </c>
+      <c r="H36" t="s">
+        <v>1320</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>1326</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>1327</v>
+      </c>
+      <c r="N36" t="s">
+        <v>1338</v>
+      </c>
     </row>
     <row r="37" customFormat="1" s="0"/>
     <row r="38">
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
     </row>
     <row r="40" customFormat="1" s="0"/>
     <row r="41">
-      <c r="K41" s="4"/>
+      <c r="N41" s="4"/>
     </row>
     <row r="42">
-      <c r="K42" s="4"/>
+      <c r="N42" s="4"/>
     </row>
     <row r="43">
-      <c r="K43" s="4"/>
+      <c r="N43" s="4"/>
     </row>
     <row r="44">
-      <c r="F44" s="4"/>
-      <c r="K44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="N44" s="4"/>
     </row>
     <row r="45">
-      <c r="F45" s="4"/>
-      <c r="K45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="N45" s="4"/>
     </row>
     <row r="46">
-      <c r="K46" s="4"/>
+      <c r="N46" s="4"/>
     </row>
     <row r="47">
-      <c r="F47" s="4"/>
-      <c r="K47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="N47" s="4"/>
     </row>
     <row r="48">
-      <c r="F48" s="4"/>
-      <c r="K48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="N48" s="4"/>
     </row>
     <row r="49">
-      <c r="F49" s="4"/>
-      <c r="K49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="N49" s="4"/>
     </row>
     <row r="50">
-      <c r="F50" s="4"/>
-      <c r="K50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="N50" s="4"/>
     </row>
     <row r="51">
-      <c r="F51" s="4"/>
-      <c r="K51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="N51" s="4"/>
     </row>
     <row r="52">
-      <c r="F52" s="4"/>
-      <c r="K52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="N52" s="4"/>
     </row>
     <row r="53">
-      <c r="F53" s="4"/>
-      <c r="K53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="N53" s="4"/>
     </row>
     <row r="54">
-      <c r="K54" s="4"/>
+      <c r="N54" s="4"/>
     </row>
     <row r="55">
-      <c r="F55" s="4"/>
-      <c r="K55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="N55" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4898,8 +6200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection activeCell="O4" activeCellId="0" sqref="O4"/>
+    <sheetView workbookViewId="0" topLeftCell="P1">
+      <selection activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5228,8 +6530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A67" zoomScale="70" zoomScaleNormal="70" tabSelected="1">
-      <selection activeCell="A88" activeCellId="0" sqref="88:88"/>
+    <sheetView workbookViewId="0" topLeftCell="A1" zoomScale="70" zoomScaleNormal="70">
+      <selection activeCell="A1" activeCellId="0" sqref="A:A"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5238,10 +6540,10 @@
     <col min="2" max="2" width="25.6640625" customWidth="1" bestFit="1"/>
     <col min="3" max="3" width="64.5703125" customWidth="1" bestFit="1"/>
     <col min="4" max="4" width="79.7109375" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" width="51.140625" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" width="62.85546875" customWidth="1" bestFit="1"/>
     <col min="6" max="6" width="62.140625" customWidth="1" bestFit="1"/>
     <col min="7" max="7" width="62.140625" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" width="54.7109375" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" width="62.85546875" customWidth="1" bestFit="1"/>
     <col min="9" max="9" width="25.109375" customWidth="1" bestFit="1"/>
     <col min="10" max="10" width="128.28515625" customWidth="1" bestFit="1"/>
     <col min="11" max="11" width="108.88671875" customWidth="1" bestFit="1"/>
@@ -9552,210 +10854,1597 @@
       <c r="A110" s="57" t="s">
         <v>1125</v>
       </c>
+      <c r="B110" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C110" t="s">
+        <v>209</v>
+      </c>
+      <c r="D110" t="s">
+        <v>1420</v>
+      </c>
+      <c r="E110" t="s">
+        <v>871</v>
+      </c>
+      <c r="F110" t="s">
+        <v>1254</v>
+      </c>
+      <c r="I110" t="s">
+        <v>1441</v>
+      </c>
+      <c r="J110" t="s">
+        <v>1442</v>
+      </c>
+      <c r="M110">
+        <v>2</v>
+      </c>
+      <c r="N110">
+        <v>2</v>
+      </c>
+      <c r="O110" t="s">
+        <v>1463</v>
+      </c>
+      <c r="P110" t="s">
+        <v>1286</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="57" t="s">
         <v>1125</v>
       </c>
+      <c r="B111" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C111" t="s">
+        <v>211</v>
+      </c>
+      <c r="D111" t="s">
+        <v>1421</v>
+      </c>
+      <c r="E111" t="s">
+        <v>873</v>
+      </c>
+      <c r="F111" t="s">
+        <v>1254</v>
+      </c>
+      <c r="I111" t="s">
+        <v>1441</v>
+      </c>
+      <c r="J111" t="s">
+        <v>1443</v>
+      </c>
+      <c r="M111">
+        <v>1</v>
+      </c>
+      <c r="N111">
+        <v>3</v>
+      </c>
+      <c r="O111" t="s">
+        <v>1464</v>
+      </c>
+      <c r="P111" t="s">
+        <v>1286</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="57" t="s">
         <v>1125</v>
       </c>
+      <c r="B112" t="s">
+        <v>1376</v>
+      </c>
+      <c r="C112" t="s">
+        <v>209</v>
+      </c>
+      <c r="D112" t="s">
+        <v>1422</v>
+      </c>
+      <c r="E112" t="s">
+        <v>873</v>
+      </c>
+      <c r="F112" t="s">
+        <v>1254</v>
+      </c>
+      <c r="I112" t="s">
+        <v>1441</v>
+      </c>
+      <c r="J112" t="s">
+        <v>1444</v>
+      </c>
+      <c r="M112">
+        <v>3</v>
+      </c>
+      <c r="N112">
+        <v>1</v>
+      </c>
+      <c r="O112" t="s">
+        <v>1465</v>
+      </c>
+      <c r="P112" t="s">
+        <v>1286</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="57" t="s">
         <v>1125</v>
       </c>
+      <c r="B113" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C113" t="s">
+        <v>215</v>
+      </c>
+      <c r="D113" t="s">
+        <v>1423</v>
+      </c>
+      <c r="E113" t="s">
+        <v>871</v>
+      </c>
+      <c r="F113" t="s">
+        <v>1254</v>
+      </c>
+      <c r="I113" t="s">
+        <v>1441</v>
+      </c>
+      <c r="J113" t="s">
+        <v>1445</v>
+      </c>
+      <c r="M113">
+        <v>4</v>
+      </c>
+      <c r="N113">
+        <v>2</v>
+      </c>
+      <c r="O113" t="s">
+        <v>1466</v>
+      </c>
+      <c r="P113" t="s">
+        <v>1286</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="57" t="s">
         <v>1125</v>
       </c>
+      <c r="B114" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C114" t="s">
+        <v>209</v>
+      </c>
+      <c r="D114" t="s">
+        <v>1424</v>
+      </c>
+      <c r="E114" t="s">
+        <v>873</v>
+      </c>
+      <c r="F114" t="s">
+        <v>1254</v>
+      </c>
+      <c r="I114" t="s">
+        <v>1441</v>
+      </c>
+      <c r="J114" t="s">
+        <v>1446</v>
+      </c>
+      <c r="M114">
+        <v>1</v>
+      </c>
+      <c r="N114">
+        <v>2</v>
+      </c>
+      <c r="O114" t="s">
+        <v>1467</v>
+      </c>
+      <c r="P114" t="s">
+        <v>1286</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="57" t="s">
         <v>1125</v>
       </c>
+      <c r="B115" t="s">
+        <v>1379</v>
+      </c>
+      <c r="C115" t="s">
+        <v>215</v>
+      </c>
+      <c r="D115" t="s">
+        <v>1425</v>
+      </c>
+      <c r="E115" t="s">
+        <v>872</v>
+      </c>
+      <c r="F115" t="s">
+        <v>1254</v>
+      </c>
+      <c r="I115" t="s">
+        <v>1441</v>
+      </c>
+      <c r="J115" t="s">
+        <v>1447</v>
+      </c>
+      <c r="M115">
+        <v>3</v>
+      </c>
+      <c r="N115">
+        <v>3</v>
+      </c>
+      <c r="O115" t="s">
+        <v>1468</v>
+      </c>
+      <c r="P115" t="s">
+        <v>1286</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="57" t="s">
         <v>1125</v>
       </c>
+      <c r="B116" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C116" t="s">
+        <v>211</v>
+      </c>
+      <c r="D116" t="s">
+        <v>1426</v>
+      </c>
+      <c r="E116" t="s">
+        <v>871</v>
+      </c>
+      <c r="F116" t="s">
+        <v>1254</v>
+      </c>
+      <c r="I116" t="s">
+        <v>1441</v>
+      </c>
+      <c r="J116" t="s">
+        <v>1448</v>
+      </c>
+      <c r="M116">
+        <v>2</v>
+      </c>
+      <c r="N116">
+        <v>2</v>
+      </c>
+      <c r="O116" t="s">
+        <v>1469</v>
+      </c>
+      <c r="P116" t="s">
+        <v>1286</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="57" t="s">
         <v>1125</v>
       </c>
+      <c r="B117" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C117" t="s">
+        <v>23</v>
+      </c>
+      <c r="D117" t="s">
+        <v>1427</v>
+      </c>
+      <c r="E117" t="s">
+        <v>872</v>
+      </c>
+      <c r="F117" t="s">
+        <v>1254</v>
+      </c>
+      <c r="G117" t="s">
+        <v>1254</v>
+      </c>
+      <c r="H117" t="s">
+        <v>1254</v>
+      </c>
+      <c r="I117" t="s">
+        <v>1441</v>
+      </c>
+      <c r="J117" t="s">
+        <v>1449</v>
+      </c>
+      <c r="M117">
+        <v>5</v>
+      </c>
+      <c r="N117">
+        <v>5</v>
+      </c>
+      <c r="O117" t="s">
+        <v>1470</v>
+      </c>
+      <c r="P117" t="s">
+        <v>1286</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="57" t="s">
         <v>1125</v>
       </c>
+      <c r="B118" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C118" t="s">
+        <v>209</v>
+      </c>
+      <c r="D118" t="s">
+        <v>1428</v>
+      </c>
+      <c r="E118" t="s">
+        <v>1254</v>
+      </c>
+      <c r="I118" t="s">
+        <v>1441</v>
+      </c>
+      <c r="J118" t="s">
+        <v>1450</v>
+      </c>
+      <c r="M118">
+        <v>2</v>
+      </c>
+      <c r="N118">
+        <v>2</v>
+      </c>
+      <c r="O118" t="s">
+        <v>1471</v>
+      </c>
+      <c r="P118" t="s">
+        <v>1286</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="57" t="s">
         <v>1125</v>
       </c>
+      <c r="B119" t="s">
+        <v>1383</v>
+      </c>
+      <c r="C119" t="s">
+        <v>215</v>
+      </c>
+      <c r="D119" t="s">
+        <v>1429</v>
+      </c>
+      <c r="E119" t="s">
+        <v>871</v>
+      </c>
+      <c r="F119" t="s">
+        <v>1254</v>
+      </c>
+      <c r="I119" t="s">
+        <v>1441</v>
+      </c>
+      <c r="J119" t="s">
+        <v>1451</v>
+      </c>
+      <c r="M119">
+        <v>3</v>
+      </c>
+      <c r="N119">
+        <v>3</v>
+      </c>
+      <c r="O119" t="s">
+        <v>1472</v>
+      </c>
+      <c r="P119" t="s">
+        <v>1286</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="57" t="s">
         <v>1125</v>
       </c>
+      <c r="B120" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C120" t="s">
+        <v>220</v>
+      </c>
+      <c r="D120" t="s">
+        <v>1430</v>
+      </c>
+      <c r="E120" t="s">
+        <v>869</v>
+      </c>
+      <c r="F120" t="s">
+        <v>1254</v>
+      </c>
+      <c r="G120" t="s">
+        <v>1254</v>
+      </c>
+      <c r="I120" t="s">
+        <v>1441</v>
+      </c>
+      <c r="J120" t="s">
+        <v>1452</v>
+      </c>
+      <c r="M120">
+        <v>6</v>
+      </c>
+      <c r="N120">
+        <v>6</v>
+      </c>
+      <c r="O120" t="s">
+        <v>1473</v>
+      </c>
+      <c r="P120" t="s">
+        <v>1286</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="57" t="s">
         <v>1125</v>
       </c>
+      <c r="B121" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C121" t="s">
+        <v>215</v>
+      </c>
+      <c r="D121" t="s">
+        <v>1431</v>
+      </c>
+      <c r="E121" t="s">
+        <v>869</v>
+      </c>
+      <c r="F121" t="s">
+        <v>1254</v>
+      </c>
+      <c r="I121" t="s">
+        <v>1441</v>
+      </c>
+      <c r="J121" t="s">
+        <v>1453</v>
+      </c>
+      <c r="M121">
+        <v>5</v>
+      </c>
+      <c r="N121">
+        <v>4</v>
+      </c>
+      <c r="O121" t="s">
+        <v>1474</v>
+      </c>
+      <c r="P121" t="s">
+        <v>1286</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="57" t="s">
         <v>1125</v>
       </c>
+      <c r="B122" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C122" t="s">
+        <v>211</v>
+      </c>
+      <c r="D122" t="s">
+        <v>1432</v>
+      </c>
+      <c r="E122" t="s">
+        <v>871</v>
+      </c>
+      <c r="F122" t="s">
+        <v>1254</v>
+      </c>
+      <c r="G122" t="s">
+        <v>1254</v>
+      </c>
+      <c r="I122" t="s">
+        <v>1441</v>
+      </c>
+      <c r="J122" t="s">
+        <v>1454</v>
+      </c>
+      <c r="M122">
+        <v>2</v>
+      </c>
+      <c r="N122">
+        <v>4</v>
+      </c>
+      <c r="O122" t="s">
+        <v>1475</v>
+      </c>
+      <c r="P122" t="s">
+        <v>1286</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="57" t="s">
         <v>1125</v>
       </c>
+      <c r="B123" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C123" t="s">
+        <v>209</v>
+      </c>
+      <c r="D123" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E123" t="s">
+        <v>871</v>
+      </c>
+      <c r="F123" t="s">
+        <v>1254</v>
+      </c>
+      <c r="I123" t="s">
+        <v>1441</v>
+      </c>
+      <c r="J123" t="s">
+        <v>1455</v>
+      </c>
+      <c r="M123">
+        <v>2</v>
+      </c>
+      <c r="N123">
+        <v>2</v>
+      </c>
+      <c r="O123" t="s">
+        <v>1476</v>
+      </c>
+      <c r="P123" t="s">
+        <v>1286</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="57" t="s">
         <v>1125</v>
       </c>
+      <c r="B124" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C124" t="s">
+        <v>215</v>
+      </c>
+      <c r="D124" t="s">
+        <v>1434</v>
+      </c>
+      <c r="E124" t="s">
+        <v>872</v>
+      </c>
+      <c r="F124" t="s">
+        <v>1254</v>
+      </c>
+      <c r="I124" t="s">
+        <v>1441</v>
+      </c>
+      <c r="J124" t="s">
+        <v>1456</v>
+      </c>
+      <c r="M124">
+        <v>3</v>
+      </c>
+      <c r="N124">
+        <v>3</v>
+      </c>
+      <c r="O124" t="s">
+        <v>1477</v>
+      </c>
+      <c r="P124" t="s">
+        <v>1286</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="57" t="s">
         <v>1125</v>
       </c>
+      <c r="B125" t="s">
+        <v>1389</v>
+      </c>
+      <c r="C125" t="s">
+        <v>209</v>
+      </c>
+      <c r="D125" t="s">
+        <v>1435</v>
+      </c>
+      <c r="E125" t="s">
+        <v>873</v>
+      </c>
+      <c r="F125" t="s">
+        <v>1254</v>
+      </c>
+      <c r="I125" t="s">
+        <v>1441</v>
+      </c>
+      <c r="J125" t="s">
+        <v>1457</v>
+      </c>
+      <c r="M125">
+        <v>1</v>
+      </c>
+      <c r="N125">
+        <v>3</v>
+      </c>
+      <c r="O125" t="s">
+        <v>1478</v>
+      </c>
+      <c r="P125" t="s">
+        <v>1286</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="57" t="s">
         <v>1125</v>
       </c>
+      <c r="B126" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C126" t="s">
+        <v>220</v>
+      </c>
+      <c r="D126" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E126" t="s">
+        <v>872</v>
+      </c>
+      <c r="F126" t="s">
+        <v>1254</v>
+      </c>
+      <c r="G126" t="s">
+        <v>1254</v>
+      </c>
+      <c r="H126" t="s">
+        <v>1254</v>
+      </c>
+      <c r="I126" t="s">
+        <v>1441</v>
+      </c>
+      <c r="J126" t="s">
+        <v>1458</v>
+      </c>
+      <c r="M126">
+        <v>6</v>
+      </c>
+      <c r="N126">
+        <v>6</v>
+      </c>
+      <c r="O126" t="s">
+        <v>1479</v>
+      </c>
+      <c r="P126" t="s">
+        <v>1286</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="57" t="s">
         <v>1125</v>
       </c>
+      <c r="B127" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C127" t="s">
+        <v>209</v>
+      </c>
+      <c r="D127" t="s">
+        <v>1437</v>
+      </c>
+      <c r="E127" t="s">
+        <v>873</v>
+      </c>
+      <c r="F127" t="s">
+        <v>1254</v>
+      </c>
+      <c r="I127" t="s">
+        <v>1441</v>
+      </c>
+      <c r="J127" t="s">
+        <v>1459</v>
+      </c>
+      <c r="M127">
+        <v>1</v>
+      </c>
+      <c r="N127">
+        <v>1</v>
+      </c>
+      <c r="O127" t="s">
+        <v>1481</v>
+      </c>
+      <c r="P127" t="s">
+        <v>1286</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="57" t="s">
         <v>1125</v>
       </c>
+      <c r="B128" t="s">
+        <v>1392</v>
+      </c>
+      <c r="C128" t="s">
+        <v>215</v>
+      </c>
+      <c r="D128" t="s">
+        <v>1438</v>
+      </c>
+      <c r="E128" t="s">
+        <v>872</v>
+      </c>
+      <c r="F128" t="s">
+        <v>1254</v>
+      </c>
+      <c r="G128" t="s">
+        <v>1254</v>
+      </c>
+      <c r="I128" t="s">
+        <v>1441</v>
+      </c>
+      <c r="J128" t="s">
+        <v>1460</v>
+      </c>
+      <c r="M128">
+        <v>4</v>
+      </c>
+      <c r="N128">
+        <v>4</v>
+      </c>
+      <c r="O128" t="s">
+        <v>1480</v>
+      </c>
+      <c r="P128" t="s">
+        <v>1286</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="57" t="s">
         <v>1125</v>
       </c>
+      <c r="B129" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C129" t="s">
+        <v>209</v>
+      </c>
+      <c r="D129" t="s">
+        <v>1439</v>
+      </c>
+      <c r="E129" t="s">
+        <v>871</v>
+      </c>
+      <c r="F129" t="s">
+        <v>1254</v>
+      </c>
+      <c r="I129" t="s">
+        <v>1441</v>
+      </c>
+      <c r="J129" t="s">
+        <v>1461</v>
+      </c>
+      <c r="M129">
+        <v>3</v>
+      </c>
+      <c r="N129">
+        <v>1</v>
+      </c>
+      <c r="O129" t="s">
+        <v>1482</v>
+      </c>
+      <c r="P129" t="s">
+        <v>1286</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="57" t="s">
         <v>1125</v>
       </c>
+      <c r="B130" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C130" t="s">
+        <v>211</v>
+      </c>
+      <c r="D130" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E130" t="s">
+        <v>872</v>
+      </c>
+      <c r="F130" t="s">
+        <v>1254</v>
+      </c>
+      <c r="I130" t="s">
+        <v>1441</v>
+      </c>
+      <c r="J130" t="s">
+        <v>1462</v>
+      </c>
+      <c r="M130">
+        <v>2</v>
+      </c>
+      <c r="N130">
+        <v>3</v>
+      </c>
+      <c r="O130" t="s">
+        <v>1483</v>
+      </c>
+      <c r="P130" t="s">
+        <v>1286</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="30" t="s">
         <v>388</v>
       </c>
+      <c r="B131" t="s">
+        <v>1484</v>
+      </c>
+      <c r="C131" t="s">
+        <v>220</v>
+      </c>
+      <c r="D131" t="s">
+        <v>1525</v>
+      </c>
+      <c r="E131" t="s">
+        <v>872</v>
+      </c>
+      <c r="F131" t="s">
+        <v>876</v>
+      </c>
+      <c r="G131" t="s">
+        <v>876</v>
+      </c>
+      <c r="H131" t="s">
+        <v>876</v>
+      </c>
+      <c r="I131" t="s">
+        <v>1545</v>
+      </c>
+      <c r="J131" t="s">
+        <v>1546</v>
+      </c>
+      <c r="M131">
+        <v>5</v>
+      </c>
+      <c r="N131">
+        <v>5</v>
+      </c>
+      <c r="O131" t="s">
+        <v>1566</v>
+      </c>
+      <c r="P131" t="s">
+        <v>880</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="30" t="s">
         <v>388</v>
       </c>
+      <c r="B132" t="s">
+        <v>1485</v>
+      </c>
+      <c r="C132" t="s">
+        <v>215</v>
+      </c>
+      <c r="D132" t="s">
+        <v>1526</v>
+      </c>
+      <c r="E132" t="s">
+        <v>869</v>
+      </c>
+      <c r="F132" t="s">
+        <v>876</v>
+      </c>
+      <c r="I132" t="s">
+        <v>1545</v>
+      </c>
+      <c r="J132" t="s">
+        <v>1547</v>
+      </c>
+      <c r="M132">
+        <v>4</v>
+      </c>
+      <c r="N132">
+        <v>4</v>
+      </c>
+      <c r="O132" t="s">
+        <v>1567</v>
+      </c>
+      <c r="P132" t="s">
+        <v>880</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="30" t="s">
         <v>388</v>
       </c>
+      <c r="B133" t="s">
+        <v>1486</v>
+      </c>
+      <c r="C133" t="s">
+        <v>211</v>
+      </c>
+      <c r="D133" t="s">
+        <v>1527</v>
+      </c>
+      <c r="E133" t="s">
+        <v>871</v>
+      </c>
+      <c r="F133" t="s">
+        <v>876</v>
+      </c>
+      <c r="I133" t="s">
+        <v>1545</v>
+      </c>
+      <c r="J133" t="s">
+        <v>1548</v>
+      </c>
+      <c r="M133">
+        <v>2</v>
+      </c>
+      <c r="N133">
+        <v>3</v>
+      </c>
+      <c r="O133" t="s">
+        <v>1569</v>
+      </c>
+      <c r="P133" t="s">
+        <v>880</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="30" t="s">
         <v>388</v>
       </c>
+      <c r="B134" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C134" t="s">
+        <v>23</v>
+      </c>
+      <c r="D134" t="s">
+        <v>1528</v>
+      </c>
+      <c r="E134" t="s">
+        <v>869</v>
+      </c>
+      <c r="F134" t="s">
+        <v>876</v>
+      </c>
+      <c r="G134" t="s">
+        <v>876</v>
+      </c>
+      <c r="H134" t="s">
+        <v>876</v>
+      </c>
+      <c r="I134" t="s">
+        <v>1545</v>
+      </c>
+      <c r="J134" t="s">
+        <v>1549</v>
+      </c>
+      <c r="M134">
+        <v>8</v>
+      </c>
+      <c r="N134">
+        <v>7</v>
+      </c>
+      <c r="O134" t="s">
+        <v>1568</v>
+      </c>
+      <c r="P134" t="s">
+        <v>880</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="30" t="s">
         <v>388</v>
       </c>
+      <c r="B135" t="s">
+        <v>1488</v>
+      </c>
+      <c r="C135" t="s">
+        <v>211</v>
+      </c>
+      <c r="D135" t="s">
+        <v>1529</v>
+      </c>
+      <c r="E135" t="s">
+        <v>872</v>
+      </c>
+      <c r="F135" t="s">
+        <v>876</v>
+      </c>
+      <c r="I135" t="s">
+        <v>1545</v>
+      </c>
+      <c r="J135" t="s">
+        <v>1550</v>
+      </c>
+      <c r="M135">
+        <v>3</v>
+      </c>
+      <c r="N135">
+        <v>2</v>
+      </c>
+      <c r="O135" t="s">
+        <v>1570</v>
+      </c>
+      <c r="P135" t="s">
+        <v>880</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="30" t="s">
         <v>388</v>
       </c>
+      <c r="B136" t="s">
+        <v>1489</v>
+      </c>
+      <c r="C136" t="s">
+        <v>209</v>
+      </c>
+      <c r="D136" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E136" t="s">
+        <v>871</v>
+      </c>
+      <c r="F136" t="s">
+        <v>876</v>
+      </c>
+      <c r="I136" t="s">
+        <v>1545</v>
+      </c>
+      <c r="J136" t="s">
+        <v>1551</v>
+      </c>
+      <c r="M136">
+        <v>1</v>
+      </c>
+      <c r="N136">
+        <v>3</v>
+      </c>
+      <c r="O136" t="s">
+        <v>1571</v>
+      </c>
+      <c r="P136" t="s">
+        <v>880</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="30" t="s">
         <v>388</v>
       </c>
+      <c r="B137" t="s">
+        <v>1490</v>
+      </c>
+      <c r="C137" t="s">
+        <v>220</v>
+      </c>
+      <c r="D137" t="s">
+        <v>1531</v>
+      </c>
+      <c r="E137" t="s">
+        <v>869</v>
+      </c>
+      <c r="F137" t="s">
+        <v>876</v>
+      </c>
+      <c r="G137" t="s">
+        <v>876</v>
+      </c>
+      <c r="I137" t="s">
+        <v>1545</v>
+      </c>
+      <c r="J137" t="s">
+        <v>1552</v>
+      </c>
+      <c r="M137">
+        <v>8</v>
+      </c>
+      <c r="N137">
+        <v>6</v>
+      </c>
+      <c r="O137" t="s">
+        <v>1572</v>
+      </c>
+      <c r="P137" t="s">
+        <v>880</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="30" t="s">
         <v>388</v>
       </c>
+      <c r="B138" t="s">
+        <v>1491</v>
+      </c>
+      <c r="C138" t="s">
+        <v>209</v>
+      </c>
+      <c r="D138" t="s">
+        <v>1532</v>
+      </c>
+      <c r="E138" t="s">
+        <v>873</v>
+      </c>
+      <c r="F138" t="s">
+        <v>876</v>
+      </c>
+      <c r="I138" t="s">
+        <v>1545</v>
+      </c>
+      <c r="J138" t="s">
+        <v>1553</v>
+      </c>
+      <c r="M138">
+        <v>1</v>
+      </c>
+      <c r="N138">
+        <v>2</v>
+      </c>
+      <c r="P138" t="s">
+        <v>880</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="30" t="s">
         <v>388</v>
       </c>
+      <c r="B139" t="s">
+        <v>1492</v>
+      </c>
+      <c r="C139" t="s">
+        <v>215</v>
+      </c>
+      <c r="D139" t="s">
+        <v>1533</v>
+      </c>
+      <c r="E139" t="s">
+        <v>872</v>
+      </c>
+      <c r="F139" t="s">
+        <v>876</v>
+      </c>
+      <c r="G139" t="s">
+        <v>876</v>
+      </c>
+      <c r="I139" t="s">
+        <v>1545</v>
+      </c>
+      <c r="J139" t="s">
+        <v>1554</v>
+      </c>
+      <c r="M139">
+        <v>3</v>
+      </c>
+      <c r="N139">
+        <v>3</v>
+      </c>
+      <c r="O139" t="s">
+        <v>1573</v>
+      </c>
+      <c r="P139" t="s">
+        <v>880</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="30" t="s">
         <v>388</v>
       </c>
+      <c r="B140" t="s">
+        <v>1493</v>
+      </c>
+      <c r="C140" t="s">
+        <v>211</v>
+      </c>
+      <c r="D140" t="s">
+        <v>1534</v>
+      </c>
+      <c r="E140" t="s">
+        <v>872</v>
+      </c>
+      <c r="F140" t="s">
+        <v>876</v>
+      </c>
+      <c r="I140" t="s">
+        <v>1545</v>
+      </c>
+      <c r="J140" t="s">
+        <v>1555</v>
+      </c>
+      <c r="M140">
+        <v>3</v>
+      </c>
+      <c r="N140">
+        <v>2</v>
+      </c>
+      <c r="O140" t="s">
+        <v>1580</v>
+      </c>
+      <c r="P140" t="s">
+        <v>880</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="30" t="s">
         <v>388</v>
       </c>
+      <c r="B141" t="s">
+        <v>1494</v>
+      </c>
+      <c r="C141" t="s">
+        <v>209</v>
+      </c>
+      <c r="D141" t="s">
+        <v>1535</v>
+      </c>
+      <c r="E141" t="s">
+        <v>871</v>
+      </c>
+      <c r="F141" t="s">
+        <v>876</v>
+      </c>
+      <c r="I141" t="s">
+        <v>1545</v>
+      </c>
+      <c r="J141" t="s">
+        <v>1556</v>
+      </c>
+      <c r="M141">
+        <v>2</v>
+      </c>
+      <c r="N141">
+        <v>2</v>
+      </c>
+      <c r="O141" t="s">
+        <v>1574</v>
+      </c>
+      <c r="P141" t="s">
+        <v>880</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="30" t="s">
         <v>388</v>
       </c>
+      <c r="B142" t="s">
+        <v>1495</v>
+      </c>
+      <c r="C142" t="s">
+        <v>215</v>
+      </c>
+      <c r="D142" t="s">
+        <v>1536</v>
+      </c>
+      <c r="E142" t="s">
+        <v>872</v>
+      </c>
+      <c r="F142" t="s">
+        <v>876</v>
+      </c>
+      <c r="G142" t="s">
+        <v>876</v>
+      </c>
+      <c r="I142" t="s">
+        <v>1545</v>
+      </c>
+      <c r="J142" t="s">
+        <v>1557</v>
+      </c>
+      <c r="M142">
+        <v>3</v>
+      </c>
+      <c r="N142">
+        <v>5</v>
+      </c>
+      <c r="O142" t="s">
+        <v>1575</v>
+      </c>
+      <c r="P142" t="s">
+        <v>880</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="30" t="s">
         <v>388</v>
       </c>
+      <c r="B143" t="s">
+        <v>1496</v>
+      </c>
+      <c r="C143" t="s">
+        <v>215</v>
+      </c>
+      <c r="D143" t="s">
+        <v>1537</v>
+      </c>
+      <c r="E143" t="s">
+        <v>872</v>
+      </c>
+      <c r="F143" t="s">
+        <v>876</v>
+      </c>
+      <c r="I143" t="s">
+        <v>1545</v>
+      </c>
+      <c r="J143" t="s">
+        <v>1558</v>
+      </c>
+      <c r="M143">
+        <v>4</v>
+      </c>
+      <c r="N143">
+        <v>4</v>
+      </c>
+      <c r="O143" t="s">
+        <v>1576</v>
+      </c>
+      <c r="P143" t="s">
+        <v>880</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="30" t="s">
         <v>388</v>
       </c>
+      <c r="B144" t="s">
+        <v>1497</v>
+      </c>
+      <c r="C144" t="s">
+        <v>215</v>
+      </c>
+      <c r="D144" t="s">
+        <v>1538</v>
+      </c>
+      <c r="E144" t="s">
+        <v>869</v>
+      </c>
+      <c r="F144" t="s">
+        <v>876</v>
+      </c>
+      <c r="I144" t="s">
+        <v>1545</v>
+      </c>
+      <c r="J144" t="s">
+        <v>1559</v>
+      </c>
+      <c r="M144">
+        <v>3</v>
+      </c>
+      <c r="N144">
+        <v>4</v>
+      </c>
+      <c r="O144" t="s">
+        <v>1577</v>
+      </c>
+      <c r="P144" t="s">
+        <v>880</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="30" t="s">
         <v>388</v>
       </c>
+      <c r="B145" t="s">
+        <v>1498</v>
+      </c>
+      <c r="C145" t="s">
+        <v>211</v>
+      </c>
+      <c r="D145" t="s">
+        <v>1539</v>
+      </c>
+      <c r="E145" t="s">
+        <v>869</v>
+      </c>
+      <c r="F145" t="s">
+        <v>876</v>
+      </c>
+      <c r="I145" t="s">
+        <v>1545</v>
+      </c>
+      <c r="J145" t="s">
+        <v>1560</v>
+      </c>
+      <c r="M145">
+        <v>7</v>
+      </c>
+      <c r="N145">
+        <v>7</v>
+      </c>
+      <c r="O145" t="s">
+        <v>1578</v>
+      </c>
+      <c r="P145" t="s">
+        <v>880</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="30" t="s">
         <v>388</v>
       </c>
+      <c r="B146" t="s">
+        <v>1499</v>
+      </c>
+      <c r="C146" t="s">
+        <v>209</v>
+      </c>
+      <c r="D146" t="s">
+        <v>1540</v>
+      </c>
+      <c r="E146" t="s">
+        <v>873</v>
+      </c>
+      <c r="F146" t="s">
+        <v>876</v>
+      </c>
+      <c r="I146" t="s">
+        <v>1545</v>
+      </c>
+      <c r="J146" t="s">
+        <v>1561</v>
+      </c>
+      <c r="M146">
+        <v>1</v>
+      </c>
+      <c r="N146">
+        <v>1</v>
+      </c>
+      <c r="O146" t="s">
+        <v>1579</v>
+      </c>
+      <c r="P146" t="s">
+        <v>880</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="30" t="s">
         <v>388</v>
       </c>
+      <c r="B147" t="s">
+        <v>1500</v>
+      </c>
+      <c r="C147" t="s">
+        <v>220</v>
+      </c>
+      <c r="D147" t="s">
+        <v>1541</v>
+      </c>
+      <c r="E147" t="s">
+        <v>869</v>
+      </c>
+      <c r="F147" t="s">
+        <v>876</v>
+      </c>
+      <c r="G147" t="s">
+        <v>876</v>
+      </c>
+      <c r="I147" t="s">
+        <v>1545</v>
+      </c>
+      <c r="J147" t="s">
+        <v>1562</v>
+      </c>
+      <c r="M147">
+        <v>4</v>
+      </c>
+      <c r="N147">
+        <v>4</v>
+      </c>
+      <c r="O147" t="s">
+        <v>1581</v>
+      </c>
+      <c r="P147" t="s">
+        <v>880</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="30" t="s">
         <v>388</v>
       </c>
+      <c r="B148" t="s">
+        <v>1501</v>
+      </c>
+      <c r="C148" t="s">
+        <v>209</v>
+      </c>
+      <c r="D148" t="s">
+        <v>1542</v>
+      </c>
+      <c r="E148" t="s">
+        <v>872</v>
+      </c>
+      <c r="F148" t="s">
+        <v>876</v>
+      </c>
+      <c r="I148" t="s">
+        <v>1545</v>
+      </c>
+      <c r="J148" t="s">
+        <v>1563</v>
+      </c>
+      <c r="M148">
+        <v>2</v>
+      </c>
+      <c r="N148">
+        <v>2</v>
+      </c>
+      <c r="O148" t="s">
+        <v>1582</v>
+      </c>
+      <c r="P148" t="s">
+        <v>880</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="30" t="s">
         <v>388</v>
       </c>
+      <c r="B149" t="s">
+        <v>1502</v>
+      </c>
+      <c r="C149" t="s">
+        <v>215</v>
+      </c>
+      <c r="D149" t="s">
+        <v>1543</v>
+      </c>
+      <c r="E149" t="s">
+        <v>869</v>
+      </c>
+      <c r="F149" t="s">
+        <v>876</v>
+      </c>
+      <c r="I149" t="s">
+        <v>1545</v>
+      </c>
+      <c r="J149" t="s">
+        <v>1564</v>
+      </c>
+      <c r="M149">
+        <v>6</v>
+      </c>
+      <c r="N149">
+        <v>6</v>
+      </c>
+      <c r="O149" t="s">
+        <v>1583</v>
+      </c>
+      <c r="P149" t="s">
+        <v>880</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="30" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="30" t="s">
-        <v>388</v>
+      <c r="B150" t="s">
+        <v>1503</v>
+      </c>
+      <c r="C150" t="s">
+        <v>215</v>
+      </c>
+      <c r="D150" t="s">
+        <v>1544</v>
+      </c>
+      <c r="E150" t="s">
+        <v>872</v>
+      </c>
+      <c r="F150" t="s">
+        <v>876</v>
+      </c>
+      <c r="I150" t="s">
+        <v>1545</v>
+      </c>
+      <c r="J150" t="s">
+        <v>1565</v>
+      </c>
+      <c r="M150">
+        <v>4</v>
+      </c>
+      <c r="N150">
+        <v>3</v>
+      </c>
+      <c r="O150" t="s">
+        <v>1584</v>
+      </c>
+      <c r="P150" t="s">
+        <v>880</v>
       </c>
     </row>
   </sheetData>
@@ -9766,22 +12455,23 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A53" zoomScale="80" zoomScaleNormal="80">
-      <selection activeCell="A77" activeCellId="0" sqref="A77:A91"/>
+    <sheetView workbookViewId="0" topLeftCell="A72" zoomScale="70" zoomScaleNormal="70">
+      <selection activeCell="D77" activeCellId="0" sqref="D77:D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" customHeight="false"/>
   <cols>
-    <col min="2" max="2" width="21.5546875" customWidth="1" bestFit="1" style="0"/>
+    <col min="2" max="2" width="23.42578125" customWidth="1" bestFit="1" style="0"/>
     <col min="3" max="3" width="64.88671875" customWidth="1" style="0"/>
     <col min="4" max="4" width="82.33203125" customWidth="1" style="0"/>
     <col min="5" max="5" width="51.140625" customWidth="1" bestFit="1"/>
     <col min="6" max="6" width="62.140625" customWidth="1" bestFit="1"/>
     <col min="7" max="7" width="62.140625" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" width="12" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" width="86" customWidth="1" style="0"/>
-    <col min="14" max="14" width="63.109375" customWidth="1" bestFit="1" style="0"/>
-    <col min="15" max="15" width="64" customWidth="1"/>
+    <col min="8" max="8" width="62.140625" customWidth="1"/>
+    <col min="9" max="9" width="12" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" width="86" customWidth="1" style="0"/>
+    <col min="15" max="15" width="63.109375" customWidth="1" bestFit="1" style="0"/>
+    <col min="16" max="16" width="64" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="0">
@@ -9807,27 +12497,30 @@
         <v>50</v>
       </c>
       <c r="H1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" t="s">
         <v>32</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>43</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>44</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>45</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>7</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>8</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>9</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>866</v>
       </c>
     </row>
@@ -9850,16 +12543,16 @@
       <c r="F2" t="s">
         <v>874</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>585</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>268</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>270</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>867</v>
       </c>
     </row>
@@ -9882,16 +12575,16 @@
       <c r="F3" t="s">
         <v>874</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>585</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>273</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>274</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>867</v>
       </c>
     </row>
@@ -9914,16 +12607,16 @@
       <c r="F4" t="s">
         <v>874</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>585</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>276</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>277</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>867</v>
       </c>
     </row>
@@ -9946,16 +12639,16 @@
       <c r="F5" t="s">
         <v>874</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>585</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>302</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>278</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>867</v>
       </c>
     </row>
@@ -9978,16 +12671,16 @@
       <c r="F6" t="s">
         <v>874</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>585</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>301</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>279</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>867</v>
       </c>
     </row>
@@ -10013,16 +12706,16 @@
       <c r="G7" t="s">
         <v>874</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>585</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>300</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>280</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>867</v>
       </c>
     </row>
@@ -10045,16 +12738,16 @@
       <c r="F8" t="s">
         <v>874</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>585</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>299</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>281</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>867</v>
       </c>
     </row>
@@ -10077,16 +12770,16 @@
       <c r="F9" t="s">
         <v>874</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>585</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>298</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>282</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>867</v>
       </c>
     </row>
@@ -10109,16 +12802,16 @@
       <c r="F10" t="s">
         <v>874</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>585</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>297</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>283</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>867</v>
       </c>
     </row>
@@ -10141,16 +12834,16 @@
       <c r="F11" t="s">
         <v>874</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>585</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>296</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>284</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>867</v>
       </c>
     </row>
@@ -10173,16 +12866,16 @@
       <c r="F12" t="s">
         <v>874</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>585</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>294</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>285</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>867</v>
       </c>
     </row>
@@ -10205,16 +12898,16 @@
       <c r="F13" t="s">
         <v>874</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>585</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>293</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>286</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>867</v>
       </c>
     </row>
@@ -10237,16 +12930,16 @@
       <c r="F14" t="s">
         <v>874</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>585</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>292</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>287</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>867</v>
       </c>
     </row>
@@ -10269,16 +12962,16 @@
       <c r="F15" t="s">
         <v>874</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>585</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>291</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>288</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>867</v>
       </c>
     </row>
@@ -10304,16 +12997,16 @@
       <c r="G16" t="s">
         <v>874</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>585</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>290</v>
       </c>
-      <c r="N16" t="s">
+      <c r="O16" t="s">
         <v>289</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>867</v>
       </c>
     </row>
@@ -10336,16 +13029,16 @@
       <c r="F17" t="s">
         <v>877</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>588</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>568</v>
       </c>
-      <c r="N17" t="s">
+      <c r="O17" t="s">
         <v>569</v>
       </c>
-      <c r="O17" t="s">
+      <c r="P17" t="s">
         <v>881</v>
       </c>
     </row>
@@ -10368,16 +13061,16 @@
       <c r="F18" t="s">
         <v>877</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>588</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>567</v>
       </c>
-      <c r="N18" t="s">
+      <c r="O18" t="s">
         <v>570</v>
       </c>
-      <c r="O18" t="s">
+      <c r="P18" t="s">
         <v>881</v>
       </c>
     </row>
@@ -10400,16 +13093,16 @@
       <c r="F19" t="s">
         <v>877</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>588</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>566</v>
       </c>
-      <c r="N19" t="s">
+      <c r="O19" t="s">
         <v>571</v>
       </c>
-      <c r="O19" t="s">
+      <c r="P19" t="s">
         <v>881</v>
       </c>
     </row>
@@ -10432,16 +13125,16 @@
       <c r="F20" t="s">
         <v>877</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>588</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>565</v>
       </c>
-      <c r="N20" t="s">
+      <c r="O20" t="s">
         <v>572</v>
       </c>
-      <c r="O20" t="s">
+      <c r="P20" t="s">
         <v>881</v>
       </c>
     </row>
@@ -10467,16 +13160,16 @@
       <c r="G21" t="s">
         <v>877</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>588</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>564</v>
       </c>
-      <c r="N21" t="s">
+      <c r="O21" t="s">
         <v>573</v>
       </c>
-      <c r="O21" t="s">
+      <c r="P21" t="s">
         <v>881</v>
       </c>
     </row>
@@ -10499,16 +13192,16 @@
       <c r="F22" t="s">
         <v>877</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>588</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>563</v>
       </c>
-      <c r="N22" t="s">
+      <c r="O22" t="s">
         <v>574</v>
       </c>
-      <c r="O22" t="s">
+      <c r="P22" t="s">
         <v>881</v>
       </c>
     </row>
@@ -10531,16 +13224,16 @@
       <c r="F23" t="s">
         <v>877</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>588</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>561</v>
       </c>
-      <c r="N23" t="s">
+      <c r="O23" t="s">
         <v>575</v>
       </c>
-      <c r="O23" t="s">
+      <c r="P23" t="s">
         <v>881</v>
       </c>
     </row>
@@ -10563,16 +13256,16 @@
       <c r="F24" t="s">
         <v>877</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>588</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>560</v>
       </c>
-      <c r="N24" t="s">
+      <c r="O24" t="s">
         <v>576</v>
       </c>
-      <c r="O24" t="s">
+      <c r="P24" t="s">
         <v>881</v>
       </c>
     </row>
@@ -10595,19 +13288,19 @@
       <c r="F25" t="s">
         <v>877</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>588</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>559</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>351</v>
       </c>
-      <c r="N25" t="s">
+      <c r="O25" t="s">
         <v>577</v>
       </c>
-      <c r="O25" t="s">
+      <c r="P25" t="s">
         <v>881</v>
       </c>
     </row>
@@ -10630,16 +13323,16 @@
       <c r="F26" t="s">
         <v>877</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>588</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>558</v>
       </c>
-      <c r="N26" t="s">
+      <c r="O26" t="s">
         <v>578</v>
       </c>
-      <c r="O26" t="s">
+      <c r="P26" t="s">
         <v>881</v>
       </c>
     </row>
@@ -10662,16 +13355,16 @@
       <c r="F27" t="s">
         <v>877</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>588</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>557</v>
       </c>
-      <c r="N27" t="s">
+      <c r="O27" t="s">
         <v>579</v>
       </c>
-      <c r="O27" t="s">
+      <c r="P27" t="s">
         <v>881</v>
       </c>
     </row>
@@ -10694,16 +13387,16 @@
       <c r="F28" t="s">
         <v>877</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>588</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>556</v>
       </c>
-      <c r="N28" t="s">
+      <c r="O28" t="s">
         <v>580</v>
       </c>
-      <c r="O28" t="s">
+      <c r="P28" t="s">
         <v>881</v>
       </c>
     </row>
@@ -10726,16 +13419,16 @@
       <c r="F29" t="s">
         <v>877</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>588</v>
       </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
         <v>555</v>
       </c>
-      <c r="N29" t="s">
+      <c r="O29" t="s">
         <v>581</v>
       </c>
-      <c r="O29" t="s">
+      <c r="P29" t="s">
         <v>881</v>
       </c>
     </row>
@@ -10758,16 +13451,16 @@
       <c r="F30" t="s">
         <v>877</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>588</v>
       </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>553</v>
       </c>
-      <c r="N30" t="s">
+      <c r="O30" t="s">
         <v>582</v>
       </c>
-      <c r="O30" t="s">
+      <c r="P30" t="s">
         <v>881</v>
       </c>
     </row>
@@ -10790,16 +13483,16 @@
       <c r="F31" t="s">
         <v>877</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>588</v>
       </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>552</v>
       </c>
-      <c r="N31" t="s">
+      <c r="O31" t="s">
         <v>583</v>
       </c>
-      <c r="O31" t="s">
+      <c r="P31" t="s">
         <v>881</v>
       </c>
     </row>
@@ -10822,19 +13515,19 @@
       <c r="F32" t="s">
         <v>878</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>623</v>
       </c>
-      <c r="I32" s="4" t="s">
+      <c r="J32" s="4" t="s">
         <v>639</v>
       </c>
-      <c r="J32" t="s">
+      <c r="K32" t="s">
         <v>351</v>
       </c>
-      <c r="N32" s="4" t="s">
+      <c r="O32" s="4" t="s">
         <v>645</v>
       </c>
-      <c r="O32" t="s">
+      <c r="P32" t="s">
         <v>882</v>
       </c>
     </row>
@@ -10857,16 +13550,16 @@
       <c r="F33" t="s">
         <v>878</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>623</v>
       </c>
-      <c r="I33" s="4" t="s">
+      <c r="J33" s="4" t="s">
         <v>638</v>
       </c>
-      <c r="N33" s="4" t="s">
+      <c r="O33" s="4" t="s">
         <v>646</v>
       </c>
-      <c r="O33" t="s">
+      <c r="P33" t="s">
         <v>882</v>
       </c>
     </row>
@@ -10889,16 +13582,16 @@
       <c r="F34" t="s">
         <v>878</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>623</v>
       </c>
-      <c r="I34" s="4" t="s">
+      <c r="J34" s="4" t="s">
         <v>637</v>
       </c>
-      <c r="N34" s="4" t="s">
+      <c r="O34" s="4" t="s">
         <v>647</v>
       </c>
-      <c r="O34" t="s">
+      <c r="P34" t="s">
         <v>882</v>
       </c>
     </row>
@@ -10924,16 +13617,16 @@
       <c r="G35" t="s">
         <v>878</v>
       </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
         <v>623</v>
       </c>
-      <c r="I35" s="4" t="s">
+      <c r="J35" s="4" t="s">
         <v>636</v>
       </c>
-      <c r="N35" s="4" t="s">
+      <c r="O35" s="4" t="s">
         <v>648</v>
       </c>
-      <c r="O35" t="s">
+      <c r="P35" t="s">
         <v>882</v>
       </c>
     </row>
@@ -10956,19 +13649,19 @@
       <c r="F36" t="s">
         <v>878</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>623</v>
       </c>
-      <c r="I36" s="4" t="s">
+      <c r="J36" s="4" t="s">
         <v>640</v>
       </c>
-      <c r="J36" t="s">
+      <c r="K36" t="s">
         <v>641</v>
       </c>
-      <c r="N36" s="4" t="s">
+      <c r="O36" s="4" t="s">
         <v>644</v>
       </c>
-      <c r="O36" t="s">
+      <c r="P36" t="s">
         <v>882</v>
       </c>
     </row>
@@ -10991,16 +13684,16 @@
       <c r="F37" t="s">
         <v>878</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>623</v>
       </c>
-      <c r="I37" s="4" t="s">
+      <c r="J37" s="4" t="s">
         <v>642</v>
       </c>
-      <c r="N37" s="4" t="s">
+      <c r="O37" s="4" t="s">
         <v>643</v>
       </c>
-      <c r="O37" t="s">
+      <c r="P37" t="s">
         <v>882</v>
       </c>
     </row>
@@ -11023,16 +13716,16 @@
       <c r="F38" t="s">
         <v>878</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
         <v>623</v>
       </c>
-      <c r="I38" s="4" t="s">
+      <c r="J38" s="4" t="s">
         <v>631</v>
       </c>
-      <c r="N38" s="4" t="s">
+      <c r="O38" s="4" t="s">
         <v>649</v>
       </c>
-      <c r="O38" t="s">
+      <c r="P38" t="s">
         <v>882</v>
       </c>
     </row>
@@ -11055,16 +13748,16 @@
       <c r="F39" t="s">
         <v>878</v>
       </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
         <v>623</v>
       </c>
-      <c r="I39" s="4" t="s">
+      <c r="J39" s="4" t="s">
         <v>630</v>
       </c>
-      <c r="N39" s="4" t="s">
+      <c r="O39" s="4" t="s">
         <v>650</v>
       </c>
-      <c r="O39" t="s">
+      <c r="P39" t="s">
         <v>882</v>
       </c>
     </row>
@@ -11087,19 +13780,19 @@
       <c r="F40" t="s">
         <v>878</v>
       </c>
-      <c r="H40" t="s">
+      <c r="I40" t="s">
         <v>623</v>
       </c>
-      <c r="I40" s="4" t="s">
+      <c r="J40" s="4" t="s">
         <v>634</v>
       </c>
-      <c r="J40" t="s">
+      <c r="K40" t="s">
         <v>635</v>
       </c>
-      <c r="N40" s="4" t="s">
+      <c r="O40" s="4" t="s">
         <v>651</v>
       </c>
-      <c r="O40" t="s">
+      <c r="P40" t="s">
         <v>882</v>
       </c>
     </row>
@@ -11122,19 +13815,19 @@
       <c r="F41" t="s">
         <v>878</v>
       </c>
-      <c r="H41" t="s">
+      <c r="I41" t="s">
         <v>623</v>
       </c>
-      <c r="I41" s="4" t="s">
+      <c r="J41" s="4" t="s">
         <v>629</v>
       </c>
-      <c r="J41" t="s">
+      <c r="K41" t="s">
         <v>348</v>
       </c>
-      <c r="N41" s="4" t="s">
+      <c r="O41" s="4" t="s">
         <v>653</v>
       </c>
-      <c r="O41" t="s">
+      <c r="P41" t="s">
         <v>882</v>
       </c>
     </row>
@@ -11157,16 +13850,16 @@
       <c r="F42" t="s">
         <v>878</v>
       </c>
-      <c r="H42" t="s">
+      <c r="I42" t="s">
         <v>623</v>
       </c>
-      <c r="I42" s="4" t="s">
+      <c r="J42" s="4" t="s">
         <v>628</v>
       </c>
-      <c r="N42" s="4" t="s">
+      <c r="O42" s="4" t="s">
         <v>654</v>
       </c>
-      <c r="O42" t="s">
+      <c r="P42" t="s">
         <v>882</v>
       </c>
     </row>
@@ -11189,16 +13882,16 @@
       <c r="F43" t="s">
         <v>878</v>
       </c>
-      <c r="H43" t="s">
+      <c r="I43" t="s">
         <v>623</v>
       </c>
-      <c r="I43" s="4" t="s">
+      <c r="J43" s="4" t="s">
         <v>633</v>
       </c>
-      <c r="N43" s="4" t="s">
+      <c r="O43" s="4" t="s">
         <v>655</v>
       </c>
-      <c r="O43" t="s">
+      <c r="P43" t="s">
         <v>882</v>
       </c>
     </row>
@@ -11221,16 +13914,16 @@
       <c r="F44" t="s">
         <v>878</v>
       </c>
-      <c r="H44" t="s">
+      <c r="I44" t="s">
         <v>623</v>
       </c>
-      <c r="I44" s="4" t="s">
+      <c r="J44" s="4" t="s">
         <v>632</v>
       </c>
-      <c r="N44" s="4" t="s">
+      <c r="O44" s="4" t="s">
         <v>656</v>
       </c>
-      <c r="O44" t="s">
+      <c r="P44" t="s">
         <v>882</v>
       </c>
     </row>
@@ -11253,16 +13946,16 @@
       <c r="F45" t="s">
         <v>878</v>
       </c>
-      <c r="H45" t="s">
+      <c r="I45" t="s">
         <v>623</v>
       </c>
-      <c r="I45" s="4" t="s">
+      <c r="J45" s="4" t="s">
         <v>624</v>
       </c>
-      <c r="N45" s="4" t="s">
+      <c r="O45" s="4" t="s">
         <v>657</v>
       </c>
-      <c r="O45" t="s">
+      <c r="P45" t="s">
         <v>882</v>
       </c>
     </row>
@@ -11285,16 +13978,16 @@
       <c r="F46" t="s">
         <v>878</v>
       </c>
-      <c r="H46" t="s">
+      <c r="I46" t="s">
         <v>623</v>
       </c>
-      <c r="I46" s="4" t="s">
+      <c r="J46" s="4" t="s">
         <v>622</v>
       </c>
-      <c r="N46" s="4" t="s">
+      <c r="O46" s="4" t="s">
         <v>658</v>
       </c>
-      <c r="O46" t="s">
+      <c r="P46" t="s">
         <v>882</v>
       </c>
     </row>
@@ -11317,16 +14010,16 @@
       <c r="F47" t="s">
         <v>883</v>
       </c>
-      <c r="H47" t="s">
+      <c r="I47" t="s">
         <v>586</v>
       </c>
-      <c r="I47" t="s">
+      <c r="J47" t="s">
         <v>334</v>
       </c>
-      <c r="N47" t="s">
+      <c r="O47" t="s">
         <v>372</v>
       </c>
-      <c r="O47" t="s">
+      <c r="P47" t="s">
         <v>879</v>
       </c>
     </row>
@@ -11349,16 +14042,16 @@
       <c r="F48" t="s">
         <v>883</v>
       </c>
-      <c r="H48" t="s">
+      <c r="I48" t="s">
         <v>586</v>
       </c>
-      <c r="I48" t="s">
+      <c r="J48" t="s">
         <v>335</v>
       </c>
-      <c r="N48" t="s">
+      <c r="O48" t="s">
         <v>374</v>
       </c>
-      <c r="O48" t="s">
+      <c r="P48" t="s">
         <v>879</v>
       </c>
     </row>
@@ -11381,19 +14074,19 @@
       <c r="F49" t="s">
         <v>883</v>
       </c>
-      <c r="H49" t="s">
+      <c r="I49" t="s">
         <v>586</v>
       </c>
-      <c r="I49" t="s">
+      <c r="J49" t="s">
         <v>347</v>
       </c>
-      <c r="J49" t="s">
+      <c r="K49" t="s">
         <v>348</v>
       </c>
-      <c r="N49" t="s">
+      <c r="O49" t="s">
         <v>375</v>
       </c>
-      <c r="O49" t="s">
+      <c r="P49" t="s">
         <v>879</v>
       </c>
     </row>
@@ -11416,16 +14109,16 @@
       <c r="F50" t="s">
         <v>883</v>
       </c>
-      <c r="H50" t="s">
+      <c r="I50" t="s">
         <v>586</v>
       </c>
-      <c r="I50" t="s">
+      <c r="J50" t="s">
         <v>349</v>
       </c>
-      <c r="N50" t="s">
+      <c r="O50" t="s">
         <v>376</v>
       </c>
-      <c r="O50" t="s">
+      <c r="P50" t="s">
         <v>879</v>
       </c>
     </row>
@@ -11448,19 +14141,19 @@
       <c r="F51" t="s">
         <v>883</v>
       </c>
-      <c r="H51" t="s">
+      <c r="I51" t="s">
         <v>586</v>
       </c>
-      <c r="I51" t="s">
+      <c r="J51" t="s">
         <v>350</v>
       </c>
-      <c r="J51" t="s">
+      <c r="K51" t="s">
         <v>351</v>
       </c>
-      <c r="N51" t="s">
+      <c r="O51" t="s">
         <v>377</v>
       </c>
-      <c r="O51" t="s">
+      <c r="P51" t="s">
         <v>879</v>
       </c>
     </row>
@@ -11483,16 +14176,16 @@
       <c r="F52" t="s">
         <v>883</v>
       </c>
-      <c r="H52" t="s">
+      <c r="I52" t="s">
         <v>586</v>
       </c>
-      <c r="I52" t="s">
+      <c r="J52" t="s">
         <v>353</v>
       </c>
-      <c r="N52" t="s">
+      <c r="O52" t="s">
         <v>378</v>
       </c>
-      <c r="O52" t="s">
+      <c r="P52" t="s">
         <v>879</v>
       </c>
     </row>
@@ -11518,16 +14211,16 @@
       <c r="G53" t="s">
         <v>883</v>
       </c>
-      <c r="H53" t="s">
+      <c r="I53" t="s">
         <v>586</v>
       </c>
-      <c r="I53" t="s">
+      <c r="J53" t="s">
         <v>354</v>
       </c>
-      <c r="N53" t="s">
+      <c r="O53" t="s">
         <v>379</v>
       </c>
-      <c r="O53" t="s">
+      <c r="P53" t="s">
         <v>879</v>
       </c>
     </row>
@@ -11550,16 +14243,16 @@
       <c r="F54" t="s">
         <v>883</v>
       </c>
-      <c r="H54" t="s">
+      <c r="I54" t="s">
         <v>586</v>
       </c>
-      <c r="I54" t="s">
+      <c r="J54" t="s">
         <v>355</v>
       </c>
-      <c r="N54" t="s">
+      <c r="O54" t="s">
         <v>380</v>
       </c>
-      <c r="O54" t="s">
+      <c r="P54" t="s">
         <v>879</v>
       </c>
     </row>
@@ -11582,16 +14275,16 @@
       <c r="F55" t="s">
         <v>883</v>
       </c>
-      <c r="H55" t="s">
+      <c r="I55" t="s">
         <v>586</v>
       </c>
-      <c r="I55" t="s">
+      <c r="J55" t="s">
         <v>356</v>
       </c>
-      <c r="N55" t="s">
+      <c r="O55" t="s">
         <v>381</v>
       </c>
-      <c r="O55" t="s">
+      <c r="P55" t="s">
         <v>879</v>
       </c>
     </row>
@@ -11614,16 +14307,16 @@
       <c r="F56" t="s">
         <v>883</v>
       </c>
-      <c r="H56" t="s">
+      <c r="I56" t="s">
         <v>586</v>
       </c>
-      <c r="I56" t="s">
+      <c r="J56" t="s">
         <v>357</v>
       </c>
-      <c r="N56" t="s">
+      <c r="O56" t="s">
         <v>382</v>
       </c>
-      <c r="O56" t="s">
+      <c r="P56" t="s">
         <v>879</v>
       </c>
     </row>
@@ -11646,16 +14339,16 @@
       <c r="F57" t="s">
         <v>883</v>
       </c>
-      <c r="H57" t="s">
+      <c r="I57" t="s">
         <v>586</v>
       </c>
-      <c r="I57" t="s">
+      <c r="J57" t="s">
         <v>358</v>
       </c>
-      <c r="N57" t="s">
+      <c r="O57" t="s">
         <v>383</v>
       </c>
-      <c r="O57" t="s">
+      <c r="P57" t="s">
         <v>879</v>
       </c>
     </row>
@@ -11678,16 +14371,16 @@
       <c r="F58" t="s">
         <v>883</v>
       </c>
-      <c r="H58" t="s">
+      <c r="I58" t="s">
         <v>586</v>
       </c>
-      <c r="I58" t="s">
+      <c r="J58" t="s">
         <v>359</v>
       </c>
-      <c r="N58" t="s">
+      <c r="O58" t="s">
         <v>384</v>
       </c>
-      <c r="O58" t="s">
+      <c r="P58" t="s">
         <v>879</v>
       </c>
     </row>
@@ -11710,16 +14403,16 @@
       <c r="F59" t="s">
         <v>883</v>
       </c>
-      <c r="H59" t="s">
+      <c r="I59" t="s">
         <v>586</v>
       </c>
-      <c r="I59" t="s">
+      <c r="J59" t="s">
         <v>360</v>
       </c>
-      <c r="N59" t="s">
+      <c r="O59" t="s">
         <v>385</v>
       </c>
-      <c r="O59" t="s">
+      <c r="P59" t="s">
         <v>879</v>
       </c>
     </row>
@@ -11742,16 +14435,16 @@
       <c r="F60" t="s">
         <v>883</v>
       </c>
-      <c r="H60" t="s">
+      <c r="I60" t="s">
         <v>586</v>
       </c>
-      <c r="I60" t="s">
+      <c r="J60" t="s">
         <v>346</v>
       </c>
-      <c r="N60" t="s">
+      <c r="O60" t="s">
         <v>386</v>
       </c>
-      <c r="O60" t="s">
+      <c r="P60" t="s">
         <v>879</v>
       </c>
     </row>
@@ -11774,16 +14467,16 @@
       <c r="F61" t="s">
         <v>883</v>
       </c>
-      <c r="H61" t="s">
+      <c r="I61" t="s">
         <v>586</v>
       </c>
-      <c r="I61" t="s">
+      <c r="J61" t="s">
         <v>345</v>
       </c>
-      <c r="N61" t="s">
+      <c r="O61" t="s">
         <v>387</v>
       </c>
-      <c r="O61" t="s">
+      <c r="P61" t="s">
         <v>879</v>
       </c>
     </row>
@@ -11806,16 +14499,16 @@
       <c r="F62" t="s">
         <v>870</v>
       </c>
-      <c r="H62" t="s">
+      <c r="I62" t="s">
         <v>584</v>
       </c>
-      <c r="I62" t="s">
+      <c r="J62" t="s">
         <v>229</v>
       </c>
-      <c r="N62" t="s">
+      <c r="O62" t="s">
         <v>232</v>
       </c>
-      <c r="O62" t="s">
+      <c r="P62" t="s">
         <v>868</v>
       </c>
     </row>
@@ -11838,16 +14531,16 @@
       <c r="F63" t="s">
         <v>870</v>
       </c>
-      <c r="H63" t="s">
+      <c r="I63" t="s">
         <v>584</v>
       </c>
-      <c r="I63" t="s">
+      <c r="J63" t="s">
         <v>230</v>
       </c>
-      <c r="N63" t="s">
+      <c r="O63" t="s">
         <v>233</v>
       </c>
-      <c r="O63" t="s">
+      <c r="P63" t="s">
         <v>868</v>
       </c>
     </row>
@@ -11870,16 +14563,16 @@
       <c r="F64" t="s">
         <v>870</v>
       </c>
-      <c r="H64" t="s">
+      <c r="I64" t="s">
         <v>584</v>
       </c>
-      <c r="I64" t="s">
+      <c r="J64" t="s">
         <v>231</v>
       </c>
-      <c r="N64" t="s">
+      <c r="O64" t="s">
         <v>234</v>
       </c>
-      <c r="O64" t="s">
+      <c r="P64" t="s">
         <v>868</v>
       </c>
     </row>
@@ -11905,16 +14598,16 @@
       <c r="G65" t="s">
         <v>870</v>
       </c>
-      <c r="H65" t="s">
+      <c r="I65" t="s">
         <v>584</v>
       </c>
-      <c r="I65" t="s">
+      <c r="J65" t="s">
         <v>249</v>
       </c>
-      <c r="N65" t="s">
+      <c r="O65" t="s">
         <v>235</v>
       </c>
-      <c r="O65" t="s">
+      <c r="P65" t="s">
         <v>868</v>
       </c>
     </row>
@@ -11937,16 +14630,16 @@
       <c r="F66" t="s">
         <v>870</v>
       </c>
-      <c r="H66" t="s">
+      <c r="I66" t="s">
         <v>584</v>
       </c>
-      <c r="I66" t="s">
+      <c r="J66" t="s">
         <v>250</v>
       </c>
-      <c r="N66" t="s">
+      <c r="O66" t="s">
         <v>237</v>
       </c>
-      <c r="O66" t="s">
+      <c r="P66" t="s">
         <v>868</v>
       </c>
     </row>
@@ -11969,16 +14662,16 @@
       <c r="F67" t="s">
         <v>870</v>
       </c>
-      <c r="H67" t="s">
+      <c r="I67" t="s">
         <v>584</v>
       </c>
-      <c r="I67" t="s">
+      <c r="J67" t="s">
         <v>251</v>
       </c>
-      <c r="N67" t="s">
+      <c r="O67" t="s">
         <v>238</v>
       </c>
-      <c r="O67" t="s">
+      <c r="P67" t="s">
         <v>868</v>
       </c>
     </row>
@@ -12001,16 +14694,16 @@
       <c r="F68" t="s">
         <v>870</v>
       </c>
-      <c r="H68" t="s">
+      <c r="I68" t="s">
         <v>584</v>
       </c>
-      <c r="I68" t="s">
+      <c r="J68" t="s">
         <v>252</v>
       </c>
-      <c r="N68" t="s">
+      <c r="O68" t="s">
         <v>239</v>
       </c>
-      <c r="O68" t="s">
+      <c r="P68" t="s">
         <v>868</v>
       </c>
     </row>
@@ -12033,19 +14726,19 @@
       <c r="F69" t="s">
         <v>870</v>
       </c>
-      <c r="H69" t="s">
+      <c r="I69" t="s">
         <v>584</v>
       </c>
-      <c r="I69" t="s">
+      <c r="J69" t="s">
         <v>253</v>
       </c>
-      <c r="J69" t="s">
+      <c r="K69" t="s">
         <v>352</v>
       </c>
-      <c r="N69" t="s">
+      <c r="O69" t="s">
         <v>240</v>
       </c>
-      <c r="O69" t="s">
+      <c r="P69" t="s">
         <v>868</v>
       </c>
     </row>
@@ -12068,16 +14761,16 @@
       <c r="F70" t="s">
         <v>870</v>
       </c>
-      <c r="H70" t="s">
+      <c r="I70" t="s">
         <v>584</v>
       </c>
-      <c r="I70" t="s">
+      <c r="J70" t="s">
         <v>255</v>
       </c>
-      <c r="N70" t="s">
+      <c r="O70" t="s">
         <v>241</v>
       </c>
-      <c r="O70" t="s">
+      <c r="P70" t="s">
         <v>868</v>
       </c>
     </row>
@@ -12100,16 +14793,16 @@
       <c r="F71" t="s">
         <v>870</v>
       </c>
-      <c r="H71" t="s">
+      <c r="I71" t="s">
         <v>584</v>
       </c>
-      <c r="I71" t="s">
+      <c r="J71" t="s">
         <v>256</v>
       </c>
-      <c r="N71" t="s">
+      <c r="O71" t="s">
         <v>243</v>
       </c>
-      <c r="O71" t="s">
+      <c r="P71" t="s">
         <v>868</v>
       </c>
     </row>
@@ -12135,16 +14828,16 @@
       <c r="G72" t="s">
         <v>870</v>
       </c>
-      <c r="H72" t="s">
+      <c r="I72" t="s">
         <v>584</v>
       </c>
-      <c r="I72" t="s">
+      <c r="J72" t="s">
         <v>257</v>
       </c>
-      <c r="N72" t="s">
+      <c r="O72" t="s">
         <v>244</v>
       </c>
-      <c r="O72" t="s">
+      <c r="P72" t="s">
         <v>868</v>
       </c>
     </row>
@@ -12167,16 +14860,16 @@
       <c r="F73" t="s">
         <v>870</v>
       </c>
-      <c r="H73" t="s">
+      <c r="I73" t="s">
         <v>584</v>
       </c>
-      <c r="I73" t="s">
+      <c r="J73" t="s">
         <v>259</v>
       </c>
-      <c r="N73" t="s">
+      <c r="O73" t="s">
         <v>245</v>
       </c>
-      <c r="O73" t="s">
+      <c r="P73" t="s">
         <v>868</v>
       </c>
     </row>
@@ -12199,16 +14892,16 @@
       <c r="F74" t="s">
         <v>870</v>
       </c>
-      <c r="H74" t="s">
+      <c r="I74" t="s">
         <v>584</v>
       </c>
-      <c r="I74" t="s">
+      <c r="J74" t="s">
         <v>260</v>
       </c>
-      <c r="N74" t="s">
+      <c r="O74" t="s">
         <v>246</v>
       </c>
-      <c r="O74" t="s">
+      <c r="P74" t="s">
         <v>868</v>
       </c>
     </row>
@@ -12231,16 +14924,16 @@
       <c r="F75" t="s">
         <v>870</v>
       </c>
-      <c r="H75" t="s">
+      <c r="I75" t="s">
         <v>584</v>
       </c>
-      <c r="I75" t="s">
+      <c r="J75" t="s">
         <v>261</v>
       </c>
-      <c r="N75" t="s">
+      <c r="O75" t="s">
         <v>247</v>
       </c>
-      <c r="O75" t="s">
+      <c r="P75" t="s">
         <v>868</v>
       </c>
     </row>
@@ -12263,93 +14956,510 @@
       <c r="F76" t="s">
         <v>870</v>
       </c>
-      <c r="H76" t="s">
+      <c r="I76" t="s">
         <v>584</v>
       </c>
-      <c r="I76" t="s">
+      <c r="J76" t="s">
         <v>262</v>
       </c>
-      <c r="N76" t="s">
+      <c r="O76" t="s">
         <v>248</v>
       </c>
-      <c r="O76" t="s">
-        <v>867</v>
+      <c r="P76" t="s">
+        <v>868</v>
       </c>
     </row>
     <row r="77" customFormat="1" s="0">
       <c r="A77" s="57" t="s">
         <v>1125</v>
       </c>
+      <c r="B77" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C77" t="s">
+        <v>395</v>
+      </c>
+      <c r="D77" t="s">
+        <v>1287</v>
+      </c>
+      <c r="E77" t="s">
+        <v>871</v>
+      </c>
+      <c r="F77" t="s">
+        <v>1254</v>
+      </c>
+      <c r="I77" t="s">
+        <v>1255</v>
+      </c>
+      <c r="J77" t="s">
+        <v>1256</v>
+      </c>
+      <c r="O77" t="s">
+        <v>1285</v>
+      </c>
+      <c r="P77" t="s">
+        <v>1286</v>
+      </c>
     </row>
     <row r="78" customFormat="1" s="0">
       <c r="A78" s="57" t="s">
         <v>1125</v>
       </c>
+      <c r="B78" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C78" t="s">
+        <v>395</v>
+      </c>
+      <c r="D78" t="s">
+        <v>1288</v>
+      </c>
+      <c r="E78" t="s">
+        <v>873</v>
+      </c>
+      <c r="F78" t="s">
+        <v>1254</v>
+      </c>
+      <c r="I78" t="s">
+        <v>1255</v>
+      </c>
+      <c r="J78" t="s">
+        <v>1257</v>
+      </c>
+      <c r="O78" t="s">
+        <v>1284</v>
+      </c>
+      <c r="P78" t="s">
+        <v>1286</v>
+      </c>
     </row>
     <row r="79" customFormat="1" s="0">
       <c r="A79" s="57" t="s">
         <v>1125</v>
       </c>
+      <c r="B79" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C79" t="s">
+        <v>396</v>
+      </c>
+      <c r="D79" t="s">
+        <v>1289</v>
+      </c>
+      <c r="E79" t="s">
+        <v>872</v>
+      </c>
+      <c r="F79" t="s">
+        <v>1254</v>
+      </c>
+      <c r="I79" t="s">
+        <v>1255</v>
+      </c>
+      <c r="J79" t="s">
+        <v>1258</v>
+      </c>
+      <c r="O79" t="s">
+        <v>1283</v>
+      </c>
+      <c r="P79" t="s">
+        <v>1286</v>
+      </c>
     </row>
     <row r="80" customFormat="1" s="0">
       <c r="A80" s="57" t="s">
         <v>1125</v>
       </c>
+      <c r="B80" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C80" t="s">
+        <v>398</v>
+      </c>
+      <c r="D80" t="s">
+        <v>1290</v>
+      </c>
+      <c r="E80" t="s">
+        <v>872</v>
+      </c>
+      <c r="F80" t="s">
+        <v>1254</v>
+      </c>
+      <c r="G80" t="s">
+        <v>1254</v>
+      </c>
+      <c r="I80" t="s">
+        <v>1255</v>
+      </c>
+      <c r="J80" t="s">
+        <v>1259</v>
+      </c>
+      <c r="O80" t="s">
+        <v>1282</v>
+      </c>
+      <c r="P80" t="s">
+        <v>1286</v>
+      </c>
     </row>
     <row r="81" customFormat="1" s="0">
       <c r="A81" s="57" t="s">
         <v>1125</v>
       </c>
+      <c r="B81" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C81" t="s">
+        <v>396</v>
+      </c>
+      <c r="D81" t="s">
+        <v>1291</v>
+      </c>
+      <c r="E81" t="s">
+        <v>871</v>
+      </c>
+      <c r="F81" t="s">
+        <v>1254</v>
+      </c>
+      <c r="I81" t="s">
+        <v>1255</v>
+      </c>
+      <c r="J81" t="s">
+        <v>1260</v>
+      </c>
+      <c r="O81" t="s">
+        <v>1281</v>
+      </c>
+      <c r="P81" t="s">
+        <v>1286</v>
+      </c>
     </row>
     <row r="82" customFormat="1" s="0">
       <c r="A82" s="57" t="s">
         <v>1125</v>
       </c>
+      <c r="B82" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C82" t="s">
+        <v>398</v>
+      </c>
+      <c r="D82" t="s">
+        <v>1292</v>
+      </c>
+      <c r="E82" t="s">
+        <v>872</v>
+      </c>
+      <c r="F82" t="s">
+        <v>1254</v>
+      </c>
+      <c r="I82" t="s">
+        <v>1255</v>
+      </c>
+      <c r="J82" t="s">
+        <v>1261</v>
+      </c>
+      <c r="O82" t="s">
+        <v>1280</v>
+      </c>
+      <c r="P82" t="s">
+        <v>1286</v>
+      </c>
     </row>
     <row r="83" customFormat="1" s="0">
       <c r="A83" s="57" t="s">
         <v>1125</v>
       </c>
+      <c r="B83" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C83" t="s">
+        <v>398</v>
+      </c>
+      <c r="D83" t="s">
+        <v>1293</v>
+      </c>
+      <c r="E83" t="s">
+        <v>871</v>
+      </c>
+      <c r="F83" t="s">
+        <v>1254</v>
+      </c>
+      <c r="G83" t="s">
+        <v>1254</v>
+      </c>
+      <c r="I83" t="s">
+        <v>1255</v>
+      </c>
+      <c r="J83" t="s">
+        <v>1262</v>
+      </c>
+      <c r="O83" t="s">
+        <v>1279</v>
+      </c>
+      <c r="P83" t="s">
+        <v>1286</v>
+      </c>
     </row>
     <row r="84" customFormat="1" s="0">
       <c r="A84" s="57" t="s">
         <v>1125</v>
       </c>
+      <c r="B84" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C84" t="s">
+        <v>395</v>
+      </c>
+      <c r="D84" t="s">
+        <v>1294</v>
+      </c>
+      <c r="E84" t="s">
+        <v>873</v>
+      </c>
+      <c r="F84" t="s">
+        <v>1254</v>
+      </c>
+      <c r="I84" t="s">
+        <v>1255</v>
+      </c>
+      <c r="J84" t="s">
+        <v>1263</v>
+      </c>
+      <c r="O84" t="s">
+        <v>1278</v>
+      </c>
+      <c r="P84" t="s">
+        <v>1286</v>
+      </c>
     </row>
     <row r="85" customFormat="1" s="0">
       <c r="A85" s="57" t="s">
         <v>1125</v>
       </c>
+      <c r="B85" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C85" t="s">
+        <v>395</v>
+      </c>
+      <c r="D85" t="s">
+        <v>1295</v>
+      </c>
+      <c r="E85" t="s">
+        <v>871</v>
+      </c>
+      <c r="F85" t="s">
+        <v>1254</v>
+      </c>
+      <c r="I85" t="s">
+        <v>1255</v>
+      </c>
+      <c r="J85" t="s">
+        <v>1264</v>
+      </c>
+      <c r="O85" t="s">
+        <v>1277</v>
+      </c>
+      <c r="P85" t="s">
+        <v>1286</v>
+      </c>
     </row>
     <row r="86" customFormat="1" s="0">
       <c r="A86" s="57" t="s">
         <v>1125</v>
       </c>
+      <c r="B86" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C86" t="s">
+        <v>398</v>
+      </c>
+      <c r="D86" t="s">
+        <v>1296</v>
+      </c>
+      <c r="E86" t="s">
+        <v>869</v>
+      </c>
+      <c r="F86" t="s">
+        <v>1254</v>
+      </c>
+      <c r="I86" t="s">
+        <v>1255</v>
+      </c>
+      <c r="J86" t="s">
+        <v>1265</v>
+      </c>
+      <c r="O86" t="s">
+        <v>1276</v>
+      </c>
+      <c r="P86" t="s">
+        <v>1286</v>
+      </c>
     </row>
     <row r="87" customFormat="1" s="0">
       <c r="A87" s="57" t="s">
         <v>1125</v>
       </c>
+      <c r="B87" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C87" t="s">
+        <v>396</v>
+      </c>
+      <c r="D87" t="s">
+        <v>1297</v>
+      </c>
+      <c r="E87" t="s">
+        <v>871</v>
+      </c>
+      <c r="F87" t="s">
+        <v>1254</v>
+      </c>
+      <c r="I87" t="s">
+        <v>1255</v>
+      </c>
+      <c r="J87" t="s">
+        <v>1266</v>
+      </c>
+      <c r="O87" t="s">
+        <v>1275</v>
+      </c>
+      <c r="P87" t="s">
+        <v>1286</v>
+      </c>
     </row>
     <row r="88" customFormat="1" s="0">
       <c r="A88" s="57" t="s">
         <v>1125</v>
       </c>
+      <c r="B88" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C88" t="s">
+        <v>395</v>
+      </c>
+      <c r="D88" t="s">
+        <v>1298</v>
+      </c>
+      <c r="E88" t="s">
+        <v>871</v>
+      </c>
+      <c r="F88" t="s">
+        <v>1254</v>
+      </c>
+      <c r="G88" t="s">
+        <v>1254</v>
+      </c>
+      <c r="I88" t="s">
+        <v>1255</v>
+      </c>
+      <c r="J88" t="s">
+        <v>1267</v>
+      </c>
+      <c r="O88" t="s">
+        <v>1274</v>
+      </c>
+      <c r="P88" t="s">
+        <v>1286</v>
+      </c>
     </row>
     <row r="89" customFormat="1" s="0">
       <c r="A89" s="57" t="s">
         <v>1125</v>
       </c>
+      <c r="B89" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C89" t="s">
+        <v>398</v>
+      </c>
+      <c r="D89" t="s">
+        <v>1299</v>
+      </c>
+      <c r="E89" t="s">
+        <v>869</v>
+      </c>
+      <c r="F89" t="s">
+        <v>1254</v>
+      </c>
+      <c r="I89" t="s">
+        <v>1255</v>
+      </c>
+      <c r="J89" t="s">
+        <v>1268</v>
+      </c>
+      <c r="O89" t="s">
+        <v>1273</v>
+      </c>
+      <c r="P89" t="s">
+        <v>1286</v>
+      </c>
     </row>
     <row r="90" customFormat="1" s="0">
       <c r="A90" s="57" t="s">
         <v>1125</v>
       </c>
+      <c r="B90" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C90" t="s">
+        <v>396</v>
+      </c>
+      <c r="D90" t="s">
+        <v>1300</v>
+      </c>
+      <c r="E90" t="s">
+        <v>872</v>
+      </c>
+      <c r="F90" t="s">
+        <v>1254</v>
+      </c>
+      <c r="I90" t="s">
+        <v>1255</v>
+      </c>
+      <c r="J90" t="s">
+        <v>1269</v>
+      </c>
+      <c r="O90" t="s">
+        <v>1272</v>
+      </c>
+      <c r="P90" t="s">
+        <v>1286</v>
+      </c>
     </row>
     <row r="91" customFormat="1" s="0">
       <c r="A91" s="57" t="s">
         <v>1125</v>
       </c>
+      <c r="B91" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C91" t="s">
+        <v>399</v>
+      </c>
+      <c r="D91" t="s">
+        <v>1301</v>
+      </c>
+      <c r="E91" t="s">
+        <v>869</v>
+      </c>
+      <c r="F91" t="s">
+        <v>1254</v>
+      </c>
+      <c r="G91" t="s">
+        <v>1254</v>
+      </c>
+      <c r="I91" t="s">
+        <v>1255</v>
+      </c>
+      <c r="J91" t="s">
+        <v>1270</v>
+      </c>
+      <c r="O91" t="s">
+        <v>1271</v>
+      </c>
+      <c r="P91" t="s">
+        <v>1286</v>
+      </c>
     </row>
     <row r="92" customFormat="1" s="0">
       <c r="A92" s="30" t="s">
@@ -12370,16 +15480,16 @@
       <c r="F92" t="s">
         <v>876</v>
       </c>
-      <c r="H92" t="s">
+      <c r="I92" t="s">
         <v>587</v>
       </c>
-      <c r="I92" t="s">
+      <c r="J92" t="s">
         <v>489</v>
       </c>
-      <c r="N92" t="s">
+      <c r="O92" t="s">
         <v>518</v>
       </c>
-      <c r="O92" t="s">
+      <c r="P92" t="s">
         <v>880</v>
       </c>
     </row>
@@ -12402,16 +15512,16 @@
       <c r="F93" t="s">
         <v>876</v>
       </c>
-      <c r="H93" t="s">
+      <c r="I93" t="s">
         <v>587</v>
       </c>
-      <c r="I93" t="s">
+      <c r="J93" t="s">
         <v>490</v>
       </c>
-      <c r="N93" t="s">
+      <c r="O93" t="s">
         <v>517</v>
       </c>
-      <c r="O93" t="s">
+      <c r="P93" t="s">
         <v>880</v>
       </c>
     </row>
@@ -12434,19 +15544,19 @@
       <c r="F94" t="s">
         <v>876</v>
       </c>
-      <c r="H94" t="s">
+      <c r="I94" t="s">
         <v>587</v>
       </c>
-      <c r="I94" t="s">
+      <c r="J94" t="s">
         <v>491</v>
       </c>
-      <c r="J94" t="s">
+      <c r="K94" t="s">
         <v>348</v>
       </c>
-      <c r="N94" t="s">
+      <c r="O94" t="s">
         <v>516</v>
       </c>
-      <c r="O94" t="s">
+      <c r="P94" t="s">
         <v>880</v>
       </c>
     </row>
@@ -12469,16 +15579,16 @@
       <c r="F95" t="s">
         <v>876</v>
       </c>
-      <c r="H95" t="s">
+      <c r="I95" t="s">
         <v>587</v>
       </c>
-      <c r="I95" t="s">
+      <c r="J95" t="s">
         <v>492</v>
       </c>
-      <c r="N95" t="s">
+      <c r="O95" t="s">
         <v>515</v>
       </c>
-      <c r="O95" t="s">
+      <c r="P95" t="s">
         <v>880</v>
       </c>
     </row>
@@ -12501,16 +15611,16 @@
       <c r="F96" t="s">
         <v>876</v>
       </c>
-      <c r="H96" t="s">
+      <c r="I96" t="s">
         <v>587</v>
       </c>
-      <c r="I96" t="s">
+      <c r="J96" t="s">
         <v>493</v>
       </c>
-      <c r="N96" t="s">
+      <c r="O96" t="s">
         <v>514</v>
       </c>
-      <c r="O96" t="s">
+      <c r="P96" t="s">
         <v>880</v>
       </c>
     </row>
@@ -12536,16 +15646,16 @@
       <c r="G97" t="s">
         <v>876</v>
       </c>
-      <c r="H97" t="s">
+      <c r="I97" t="s">
         <v>587</v>
       </c>
-      <c r="I97" t="s">
+      <c r="J97" t="s">
         <v>494</v>
       </c>
-      <c r="N97" t="s">
+      <c r="O97" t="s">
         <v>513</v>
       </c>
-      <c r="O97" t="s">
+      <c r="P97" t="s">
         <v>880</v>
       </c>
     </row>
@@ -12568,16 +15678,16 @@
       <c r="F98" t="s">
         <v>876</v>
       </c>
-      <c r="H98" t="s">
+      <c r="I98" t="s">
         <v>587</v>
       </c>
-      <c r="I98" t="s">
+      <c r="J98" t="s">
         <v>496</v>
       </c>
-      <c r="N98" t="s">
+      <c r="O98" t="s">
         <v>512</v>
       </c>
-      <c r="O98" t="s">
+      <c r="P98" t="s">
         <v>880</v>
       </c>
     </row>
@@ -12600,16 +15710,16 @@
       <c r="F99" t="s">
         <v>876</v>
       </c>
-      <c r="H99" t="s">
+      <c r="I99" t="s">
         <v>587</v>
       </c>
-      <c r="I99" t="s">
+      <c r="J99" t="s">
         <v>497</v>
       </c>
-      <c r="N99" t="s">
+      <c r="O99" t="s">
         <v>511</v>
       </c>
-      <c r="O99" t="s">
+      <c r="P99" t="s">
         <v>880</v>
       </c>
     </row>
@@ -12632,19 +15742,19 @@
       <c r="F100" t="s">
         <v>876</v>
       </c>
-      <c r="H100" t="s">
+      <c r="I100" t="s">
         <v>587</v>
       </c>
-      <c r="I100" t="s">
+      <c r="J100" t="s">
         <v>498</v>
       </c>
-      <c r="J100" t="s">
+      <c r="K100" t="s">
         <v>348</v>
       </c>
-      <c r="N100" t="s">
+      <c r="O100" t="s">
         <v>510</v>
       </c>
-      <c r="O100" t="s">
+      <c r="P100" t="s">
         <v>880</v>
       </c>
     </row>
@@ -12667,16 +15777,16 @@
       <c r="F101" t="s">
         <v>876</v>
       </c>
-      <c r="H101" t="s">
+      <c r="I101" t="s">
         <v>587</v>
       </c>
-      <c r="I101" t="s">
+      <c r="J101" t="s">
         <v>499</v>
       </c>
-      <c r="N101" t="s">
+      <c r="O101" t="s">
         <v>509</v>
       </c>
-      <c r="O101" t="s">
+      <c r="P101" t="s">
         <v>880</v>
       </c>
     </row>
@@ -12699,16 +15809,16 @@
       <c r="F102" t="s">
         <v>876</v>
       </c>
-      <c r="H102" t="s">
+      <c r="I102" t="s">
         <v>587</v>
       </c>
-      <c r="I102" t="s">
+      <c r="J102" t="s">
         <v>500</v>
       </c>
-      <c r="N102" t="s">
+      <c r="O102" t="s">
         <v>508</v>
       </c>
-      <c r="O102" t="s">
+      <c r="P102" t="s">
         <v>880</v>
       </c>
     </row>
@@ -12731,16 +15841,16 @@
       <c r="F103" t="s">
         <v>876</v>
       </c>
-      <c r="H103" t="s">
+      <c r="I103" t="s">
         <v>587</v>
       </c>
-      <c r="I103" t="s">
+      <c r="J103" t="s">
         <v>501</v>
       </c>
-      <c r="N103" t="s">
+      <c r="O103" t="s">
         <v>507</v>
       </c>
-      <c r="O103" t="s">
+      <c r="P103" t="s">
         <v>880</v>
       </c>
     </row>
@@ -12763,19 +15873,19 @@
       <c r="F104" t="s">
         <v>876</v>
       </c>
-      <c r="H104" t="s">
+      <c r="I104" t="s">
         <v>587</v>
       </c>
-      <c r="I104" t="s">
+      <c r="J104" t="s">
         <v>502</v>
       </c>
-      <c r="J104" t="s">
+      <c r="K104" t="s">
         <v>351</v>
       </c>
-      <c r="N104" t="s">
+      <c r="O104" t="s">
         <v>506</v>
       </c>
-      <c r="O104" t="s">
+      <c r="P104" t="s">
         <v>880</v>
       </c>
     </row>
@@ -12798,16 +15908,16 @@
       <c r="F105" t="s">
         <v>876</v>
       </c>
-      <c r="H105" t="s">
+      <c r="I105" t="s">
         <v>587</v>
       </c>
-      <c r="I105" t="s">
+      <c r="J105" t="s">
         <v>249</v>
       </c>
-      <c r="N105" t="s">
+      <c r="O105" t="s">
         <v>505</v>
       </c>
-      <c r="O105" t="s">
+      <c r="P105" t="s">
         <v>880</v>
       </c>
     </row>
@@ -12833,16 +15943,16 @@
       <c r="G106" t="s">
         <v>876</v>
       </c>
-      <c r="H106" t="s">
+      <c r="I106" t="s">
         <v>587</v>
       </c>
-      <c r="I106" t="s">
+      <c r="J106" t="s">
         <v>503</v>
       </c>
-      <c r="N106" t="s">
+      <c r="O106" t="s">
         <v>504</v>
       </c>
-      <c r="O106" t="s">
+      <c r="P106" t="s">
         <v>880</v>
       </c>
     </row>
@@ -12855,11 +15965,810 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection activeCell="A1" activeCellId="0" sqref="1:1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="8.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="27" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="27" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="27" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="27" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="27" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="27" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="27" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="27" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="27" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="27" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="27" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="27" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="27" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="27" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="27" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="27" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="27" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="27" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="27" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="27" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="27" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="27" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="27" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="44" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="44" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="44" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="44" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="44" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="44" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="44" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="44" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="44" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="44" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="44" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="44" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="44" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="44" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="44" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="44" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="44" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="44" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="44" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="44" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="44" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="44" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="44" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="53" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="53" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="53" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="53" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="53" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="53" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="53" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="53" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="53" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="53" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="53" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="53" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="53" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="53" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="53" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="53" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="53" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="53" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="53" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="53" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="28" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="28" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="28" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="28" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="28" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="28" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="28" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="28" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="28" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="28" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="28" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="28" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="28" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="28" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="28" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="28" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="28" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="28" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="28" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="28" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="55" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="55" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="55" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="55" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="55" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="55" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="55" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="55" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="55" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="55" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="55" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="55" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="55" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="55" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="55" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="55" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="55" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="55" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="55" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="55" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="55" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="55" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="57" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="57" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="57" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="57" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="57" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="57" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="57" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="57" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="57" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="57" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="57" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="57" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="57" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="57" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="57" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="57" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="57" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="57" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="57" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="57" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="57" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="30" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="30" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="30" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="30" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="30" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="30" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="30" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="30" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="30" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="30" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="30" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="30" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="30" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="30" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="30" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="30" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="30" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="30" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="30" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="30" t="s">
+        <v>388</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -12867,12 +16776,811 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J24" activeCellId="0" sqref="J24"/>
+    <sheetView workbookViewId="0" tabSelected="1">
+      <selection activeCell="A1" activeCellId="0" sqref="1:1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="8.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="27" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="27" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="27" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="27" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="27" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="27" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="27" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="27" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="27" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="27" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="27" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="27" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="27" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="27" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="27" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="27" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="27" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="27" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="27" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="27" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="27" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="27" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="27" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="44" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="44" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="44" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="44" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="44" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="44" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="44" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="44" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="44" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="44" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="44" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="44" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="44" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="44" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="44" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="44" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="44" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="44" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="44" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="44" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="44" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="44" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="44" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="53" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="53" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="53" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="53" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="53" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="53" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="53" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="53" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="53" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="53" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="53" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="53" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="53" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="53" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="53" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="53" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="53" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="53" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="53" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="53" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="28" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="28" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="28" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="28" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="28" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="28" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="28" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="28" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="28" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="28" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="28" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="28" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="28" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="28" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="28" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="28" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="28" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="28" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="28" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="28" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="55" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="55" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="55" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="55" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="55" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="55" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="55" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="55" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="55" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="55" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="55" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="55" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="55" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="55" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="55" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="55" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="55" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="55" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="55" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="55" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="55" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="55" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="57" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="57" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="57" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="57" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="57" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="57" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="57" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="57" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="57" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="57" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="57" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="57" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="57" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="57" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="57" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="57" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="57" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="57" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="57" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="57" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="57" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="30" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="30" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="30" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="30" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="30" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="30" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="30" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="30" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="30" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="30" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="30" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="30" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="30" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="30" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="30" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="30" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="30" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="30" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="30" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="30" t="s">
+        <v>388</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/NetRealmsNanSetup/nanDECK/cards.xlsx
+++ b/NetRealmsNanSetup/nanDECK/cards.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="11820" activeTab="5"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="11820" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Lands" sheetId="1" r:id="rId1"/>
@@ -4250,7 +4250,7 @@
     <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Glitch\Units\Distracted Swordsman.jpeg</t>
   </si>
   <si>
-    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Meme\Units\Grumpy Cat Familiar
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Meme\Units\Grumpy Cat Familiar
 .jpeg</t>
   </si>
   <si>
@@ -4810,6 +4810,192 @@
   </si>
   <si>
     <t>A true hero always survives the final act.</t>
+  </si>
+  <si>
+    <t>Binary Overload</t>
+  </si>
+  <si>
+    <t>Debug the Void</t>
+  </si>
+  <si>
+    <t>Overclocked Directive</t>
+  </si>
+  <si>
+    <t>Data Purge</t>
+  </si>
+  <si>
+    <t>Corrupted Command</t>
+  </si>
+  <si>
+    <t>Firewall Protocol</t>
+  </si>
+  <si>
+    <t>Recursive Analysis</t>
+  </si>
+  <si>
+    <t>Packet Surge</t>
+  </si>
+  <si>
+    <t>Encrypt Reality</t>
+  </si>
+  <si>
+    <t>Syntax Error</t>
+  </si>
+  <si>
+    <t>Infinite Loop</t>
+  </si>
+  <si>
+    <t>Compile Failure</t>
+  </si>
+  <si>
+    <t>Algorithmic Precision</t>
+  </si>
+  <si>
+    <t>Cache Retrieval</t>
+  </si>
+  <si>
+    <t>Server Crash</t>
+  </si>
+  <si>
+    <t>Code Injection</t>
+  </si>
+  <si>
+    <t>System Reboot</t>
+  </si>
+  <si>
+    <t>Decrypt Secrets</t>
+  </si>
+  <si>
+    <t>Patch Update</t>
+  </si>
+  <si>
+    <t>Compile the Future</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Code\Programs\</t>
+  </si>
+  <si>
+    <t>Code Program</t>
+  </si>
+  <si>
+    <t>Exile the top ten cards of your archive. You may cast any number of Program cards exiled this way without paying their casting costs.</t>
+  </si>
+  <si>
+    <t>Target Unit you control gains +1/+1 until end of turn. Draw a card.</t>
+  </si>
+  <si>
+    <t>Look at target opponent’s hand. You may choose a Program card from it and cast it without paying its casting cost.</t>
+  </si>
+  <si>
+    <t>Shuffle all cards from your exile into your archive. Draw a card.</t>
+  </si>
+  <si>
+    <t>Target Unit gains +2/+2 and First Strike until end of turn.</t>
+  </si>
+  <si>
+    <t>Destroy all Units and Relics. Each player discards their hand, then draws that many cards.</t>
+  </si>
+  <si>
+    <t>Return up to two Relics from your exile to your archive.</t>
+  </si>
+  <si>
+    <t>Deal 3 damage to any target. If that target is a Unit, scry 2.</t>
+  </si>
+  <si>
+    <t>Exile target Unit unless its controller pays 1 Energy.</t>
+  </si>
+  <si>
+    <t>Return target Program card from your exile to your archive.</t>
+  </si>
+  <si>
+    <t>Counter target Program unless its controller pays an additional 2 Energy.</t>
+  </si>
+  <si>
+    <t>Units you control gain Hexproof until your next turn.</t>
+  </si>
+  <si>
+    <t>Draw a card, then discard a card.</t>
+  </si>
+  <si>
+    <t>Look at the top five cards of your archive. Put one into your hand and the rest into your exile.</t>
+  </si>
+  <si>
+    <t>Prevent all combat damage that would be dealt this turn.</t>
+  </si>
+  <si>
+    <t>Gain control of target Unit until end of turn. It gains haste.</t>
+  </si>
+  <si>
+    <t>Destroy target Relic.</t>
+  </si>
+  <si>
+    <t>All Units you control gain +2/+0 and haste until end of turn.</t>
+  </si>
+  <si>
+    <t>Exile target Unit. Its controller may draw a card.</t>
+  </si>
+  <si>
+    <t>Target player mills 5 cards. If three or more Programs are milled this way, draw a card.</t>
+  </si>
+  <si>
+    <t>When ones and zeroes collide, chaos is inevitable.</t>
+  </si>
+  <si>
+    <t>Some errors can't be fixed—only erased.</t>
+  </si>
+  <si>
+    <t>Push the system beyond its limits; greatness awaits.</t>
+  </si>
+  <si>
+    <t>The only solution is a clean slate.</t>
+  </si>
+  <si>
+    <t>One line of code can turn an ally into a pawn.</t>
+  </si>
+  <si>
+    <t>A wall of code as impenetrable as steel.</t>
+  </si>
+  <si>
+    <t>The answers lie in the code. Sometimes, you must dig deep to find them.</t>
+  </si>
+  <si>
+    <t>In the chaos of data transfer, clarity emerges.</t>
+  </si>
+  <si>
+    <t>When the world is hidden, danger cannot find you.</t>
+  </si>
+  <si>
+    <t>Even the strongest code can falter with one misplaced line.</t>
+  </si>
+  <si>
+    <t>The cycle of creation, destruction, and rebirth exists even in code.</t>
+  </si>
+  <si>
+    <t>Some code should never see the light of day.</t>
+  </si>
+  <si>
+    <t>Even the smallest error is a target.</t>
+  </si>
+  <si>
+    <t>The past holds treasures yet untapped</t>
+  </si>
+  <si>
+    <t>When the server fails, so does the world it sustains.</t>
+  </si>
+  <si>
+    <t>A few lines of code can rewrite an entire destiny.</t>
+  </si>
+  <si>
+    <t>When everything breaks, start from scratch.</t>
+  </si>
+  <si>
+    <t>Every locked code has a key.</t>
+  </si>
+  <si>
+    <t>Even perfection can be improved.</t>
+  </si>
+  <si>
+    <t>Build tomorrow, one line at a time.</t>
   </si>
 </sst>
 </file>
@@ -6530,8 +6716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1" zoomScale="70" zoomScaleNormal="70">
-      <selection activeCell="A1" activeCellId="0" sqref="A:A"/>
+    <sheetView workbookViewId="0" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70">
+      <selection activeCell="G4" activeCellId="0" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12455,8 +12641,8 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A72" zoomScale="70" zoomScaleNormal="70">
-      <selection activeCell="D77" activeCellId="0" sqref="D77:D91"/>
+    <sheetView workbookViewId="0" topLeftCell="O1" zoomScale="70" zoomScaleNormal="70">
+      <selection activeCell="P2" activeCellId="0" sqref="P2:P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" customHeight="false"/>
@@ -15964,6 +16150,1375 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetViews>
+    <sheetView workbookViewId="0" topLeftCell="A1" tabSelected="1">
+      <selection activeCell="P21" activeCellId="0" sqref="P21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="8.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.77734375" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" width="61.77734375" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" width="54.5546875" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" width="48.109375" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" width="57.77734375" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" width="57.77734375" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" width="57.77734375" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" width="12.6640625" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" width="108.6640625" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" width="60" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" width="51" customWidth="1" bestFit="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1585</v>
+      </c>
+      <c r="C2" t="s">
+        <v>396</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1605</v>
+      </c>
+      <c r="E2" t="s">
+        <v>871</v>
+      </c>
+      <c r="F2" t="s">
+        <v>874</v>
+      </c>
+      <c r="I2" t="s">
+        <v>1606</v>
+      </c>
+      <c r="J2" t="s">
+        <v>1626</v>
+      </c>
+      <c r="O2" t="s">
+        <v>1627</v>
+      </c>
+      <c r="P2" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1586</v>
+      </c>
+      <c r="C3" t="s">
+        <v>398</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1605</v>
+      </c>
+      <c r="E3" t="s">
+        <v>872</v>
+      </c>
+      <c r="F3" t="s">
+        <v>874</v>
+      </c>
+      <c r="I3" t="s">
+        <v>1606</v>
+      </c>
+      <c r="J3" t="s">
+        <v>1625</v>
+      </c>
+      <c r="O3" t="s">
+        <v>1628</v>
+      </c>
+      <c r="P3" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1587</v>
+      </c>
+      <c r="C4" t="s">
+        <v>397</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1605</v>
+      </c>
+      <c r="E4" t="s">
+        <v>869</v>
+      </c>
+      <c r="F4" t="s">
+        <v>874</v>
+      </c>
+      <c r="I4" t="s">
+        <v>1606</v>
+      </c>
+      <c r="J4" t="s">
+        <v>1624</v>
+      </c>
+      <c r="O4" t="s">
+        <v>1629</v>
+      </c>
+      <c r="P4" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1588</v>
+      </c>
+      <c r="C5" t="s">
+        <v>395</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1605</v>
+      </c>
+      <c r="E5" t="s">
+        <v>873</v>
+      </c>
+      <c r="F5" t="s">
+        <v>874</v>
+      </c>
+      <c r="I5" t="s">
+        <v>1606</v>
+      </c>
+      <c r="J5" t="s">
+        <v>1623</v>
+      </c>
+      <c r="O5" t="s">
+        <v>1630</v>
+      </c>
+      <c r="P5" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1589</v>
+      </c>
+      <c r="C6" t="s">
+        <v>398</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1605</v>
+      </c>
+      <c r="E6" t="s">
+        <v>872</v>
+      </c>
+      <c r="F6" t="s">
+        <v>874</v>
+      </c>
+      <c r="G6" t="s">
+        <v>874</v>
+      </c>
+      <c r="I6" t="s">
+        <v>1606</v>
+      </c>
+      <c r="J6" t="s">
+        <v>1622</v>
+      </c>
+      <c r="O6" t="s">
+        <v>1631</v>
+      </c>
+      <c r="P6" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1590</v>
+      </c>
+      <c r="C7" t="s">
+        <v>396</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1605</v>
+      </c>
+      <c r="E7" t="s">
+        <v>871</v>
+      </c>
+      <c r="F7" t="s">
+        <v>874</v>
+      </c>
+      <c r="I7" t="s">
+        <v>1606</v>
+      </c>
+      <c r="J7" t="s">
+        <v>1621</v>
+      </c>
+      <c r="O7" t="s">
+        <v>1632</v>
+      </c>
+      <c r="P7" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1591</v>
+      </c>
+      <c r="C8" t="s">
+        <v>398</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1605</v>
+      </c>
+      <c r="E8" t="s">
+        <v>872</v>
+      </c>
+      <c r="F8" t="s">
+        <v>874</v>
+      </c>
+      <c r="I8" t="s">
+        <v>1606</v>
+      </c>
+      <c r="J8" t="s">
+        <v>1620</v>
+      </c>
+      <c r="O8" t="s">
+        <v>1633</v>
+      </c>
+      <c r="P8" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1592</v>
+      </c>
+      <c r="C9" t="s">
+        <v>395</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1605</v>
+      </c>
+      <c r="E9" t="s">
+        <v>873</v>
+      </c>
+      <c r="F9" t="s">
+        <v>874</v>
+      </c>
+      <c r="I9" t="s">
+        <v>1606</v>
+      </c>
+      <c r="J9" t="s">
+        <v>1619</v>
+      </c>
+      <c r="O9" t="s">
+        <v>1634</v>
+      </c>
+      <c r="P9" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1593</v>
+      </c>
+      <c r="C10" t="s">
+        <v>397</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1605</v>
+      </c>
+      <c r="E10" t="s">
+        <v>869</v>
+      </c>
+      <c r="F10" t="s">
+        <v>874</v>
+      </c>
+      <c r="G10" t="s">
+        <v>874</v>
+      </c>
+      <c r="H10" t="s">
+        <v>874</v>
+      </c>
+      <c r="I10" t="s">
+        <v>1606</v>
+      </c>
+      <c r="J10" t="s">
+        <v>1618</v>
+      </c>
+      <c r="O10" t="s">
+        <v>1635</v>
+      </c>
+      <c r="P10" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1594</v>
+      </c>
+      <c r="C11" t="s">
+        <v>396</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1605</v>
+      </c>
+      <c r="E11" t="s">
+        <v>871</v>
+      </c>
+      <c r="F11" t="s">
+        <v>874</v>
+      </c>
+      <c r="I11" t="s">
+        <v>1606</v>
+      </c>
+      <c r="J11" t="s">
+        <v>1617</v>
+      </c>
+      <c r="O11" t="s">
+        <v>1636</v>
+      </c>
+      <c r="P11" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1595</v>
+      </c>
+      <c r="C12" t="s">
+        <v>398</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1605</v>
+      </c>
+      <c r="E12" t="s">
+        <v>869</v>
+      </c>
+      <c r="F12" t="s">
+        <v>874</v>
+      </c>
+      <c r="I12" t="s">
+        <v>1606</v>
+      </c>
+      <c r="J12" t="s">
+        <v>1616</v>
+      </c>
+      <c r="O12" t="s">
+        <v>1637</v>
+      </c>
+      <c r="P12" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1596</v>
+      </c>
+      <c r="C13" t="s">
+        <v>395</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1605</v>
+      </c>
+      <c r="E13" t="s">
+        <v>873</v>
+      </c>
+      <c r="F13" t="s">
+        <v>874</v>
+      </c>
+      <c r="I13" t="s">
+        <v>1606</v>
+      </c>
+      <c r="J13" t="s">
+        <v>1615</v>
+      </c>
+      <c r="O13" t="s">
+        <v>1638</v>
+      </c>
+      <c r="P13" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1597</v>
+      </c>
+      <c r="C14" t="s">
+        <v>398</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1605</v>
+      </c>
+      <c r="E14" t="s">
+        <v>872</v>
+      </c>
+      <c r="F14" t="s">
+        <v>874</v>
+      </c>
+      <c r="I14" t="s">
+        <v>1606</v>
+      </c>
+      <c r="J14" t="s">
+        <v>1614</v>
+      </c>
+      <c r="O14" t="s">
+        <v>1639</v>
+      </c>
+      <c r="P14" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1598</v>
+      </c>
+      <c r="C15" t="s">
+        <v>396</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1605</v>
+      </c>
+      <c r="E15" t="s">
+        <v>871</v>
+      </c>
+      <c r="F15" t="s">
+        <v>874</v>
+      </c>
+      <c r="I15" t="s">
+        <v>1606</v>
+      </c>
+      <c r="J15" t="s">
+        <v>1613</v>
+      </c>
+      <c r="O15" t="s">
+        <v>1640</v>
+      </c>
+      <c r="P15" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1599</v>
+      </c>
+      <c r="C16" t="s">
+        <v>397</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1605</v>
+      </c>
+      <c r="E16" t="s">
+        <v>869</v>
+      </c>
+      <c r="F16" t="s">
+        <v>874</v>
+      </c>
+      <c r="G16" t="s">
+        <v>874</v>
+      </c>
+      <c r="H16" t="s">
+        <v>874</v>
+      </c>
+      <c r="I16" t="s">
+        <v>1606</v>
+      </c>
+      <c r="J16" t="s">
+        <v>1612</v>
+      </c>
+      <c r="O16" t="s">
+        <v>1641</v>
+      </c>
+      <c r="P16" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1600</v>
+      </c>
+      <c r="C17" t="s">
+        <v>395</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1605</v>
+      </c>
+      <c r="E17" t="s">
+        <v>871</v>
+      </c>
+      <c r="F17" t="s">
+        <v>874</v>
+      </c>
+      <c r="I17" t="s">
+        <v>1606</v>
+      </c>
+      <c r="J17" t="s">
+        <v>1611</v>
+      </c>
+      <c r="O17" t="s">
+        <v>1642</v>
+      </c>
+      <c r="P17" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1601</v>
+      </c>
+      <c r="C18" t="s">
+        <v>398</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1605</v>
+      </c>
+      <c r="E18" t="s">
+        <v>869</v>
+      </c>
+      <c r="F18" t="s">
+        <v>874</v>
+      </c>
+      <c r="G18" t="s">
+        <v>874</v>
+      </c>
+      <c r="H18" t="s">
+        <v>874</v>
+      </c>
+      <c r="I18" t="s">
+        <v>1606</v>
+      </c>
+      <c r="J18" t="s">
+        <v>1610</v>
+      </c>
+      <c r="O18" t="s">
+        <v>1643</v>
+      </c>
+      <c r="P18" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1602</v>
+      </c>
+      <c r="C19" t="s">
+        <v>398</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1605</v>
+      </c>
+      <c r="E19" t="s">
+        <v>872</v>
+      </c>
+      <c r="F19" t="s">
+        <v>874</v>
+      </c>
+      <c r="I19" t="s">
+        <v>1606</v>
+      </c>
+      <c r="J19" t="s">
+        <v>1609</v>
+      </c>
+      <c r="O19" t="s">
+        <v>1644</v>
+      </c>
+      <c r="P19" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1603</v>
+      </c>
+      <c r="C20" t="s">
+        <v>395</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1605</v>
+      </c>
+      <c r="E20" t="s">
+        <v>873</v>
+      </c>
+      <c r="F20" t="s">
+        <v>874</v>
+      </c>
+      <c r="I20" t="s">
+        <v>1606</v>
+      </c>
+      <c r="J20" t="s">
+        <v>1608</v>
+      </c>
+      <c r="O20" t="s">
+        <v>1645</v>
+      </c>
+      <c r="P20" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1604</v>
+      </c>
+      <c r="C21" t="s">
+        <v>399</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1605</v>
+      </c>
+      <c r="E21" t="s">
+        <v>869</v>
+      </c>
+      <c r="F21" t="s">
+        <v>874</v>
+      </c>
+      <c r="I21" t="s">
+        <v>1606</v>
+      </c>
+      <c r="J21" t="s">
+        <v>1607</v>
+      </c>
+      <c r="O21" t="s">
+        <v>1646</v>
+      </c>
+      <c r="P21" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="44" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="44" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="44" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="44" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="44" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="44" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="44" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="44" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="44" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="44" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="44" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="44" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="44" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="44" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="44" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="44" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="44" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="44" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="44" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="44" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="44" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="44" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="44" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="53" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="53" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="53" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="53" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="53" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="53" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="53" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="53" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="53" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="53" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="53" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="53" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="53" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="53" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="53" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="53" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="53" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="53" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="53" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="53" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="28" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="28" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="28" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="28" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="28" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="28" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="28" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="28" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="28" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="28" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="28" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="28" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="28" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="28" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="28" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="28" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="28" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="28" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="28" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="28" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="55" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="55" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="55" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="55" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="55" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="55" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="55" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="55" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="55" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="55" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="55" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="55" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="55" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="55" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="55" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="55" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="55" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="55" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="55" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="55" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="55" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="55" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="57" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="57" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="57" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="57" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="57" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="57" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="57" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="57" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="57" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="57" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="57" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="57" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="57" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="57" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="57" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="57" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="57" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="57" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="57" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="57" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="57" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="30" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="30" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="30" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="30" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="30" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="30" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="30" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="30" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="30" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="30" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="30" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="30" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="30" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="30" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="30" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="30" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="30" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="30" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="30" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="30" t="s">
+        <v>388</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="1:1"/>
     </sheetView>
@@ -16771,816 +18326,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1">
-      <selection activeCell="A1" activeCellId="0" sqref="1:1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="8.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>264</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K1" t="s">
-        <v>44</v>
-      </c>
-      <c r="L1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" t="s">
-        <v>8</v>
-      </c>
-      <c r="O1" t="s">
-        <v>9</v>
-      </c>
-      <c r="P1" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="27" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="27" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="27" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="27" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="27" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="27" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="27" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="27" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="27" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="27" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="27" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="27" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="27" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="27" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="27" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="27" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="27" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="27" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="27" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="27" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="27" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="27" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="27" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="44" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="44" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="44" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="44" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="44" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="44" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="44" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="44" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="44" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="44" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="44" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="44" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="44" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="44" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="44" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="44" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="44" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="44" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="44" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="44" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="44" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="44" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="44" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="53" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="53" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="53" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="53" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="53" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="53" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="53" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="53" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="53" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="53" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="53" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="53" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="53" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="53" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="53" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="53" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="53" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="53" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="53" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="53" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="28" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="28" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="28" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="28" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="28" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="28" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="28" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="28" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="28" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="28" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="28" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="28" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="28" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="28" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="28" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="28" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="28" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="28" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="28" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="28" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="55" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="55" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="55" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="55" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="55" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="55" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="55" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="55" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="55" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="55" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="55" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="55" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="55" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="55" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="55" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="55" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="55" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="55" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="55" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="55" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="55" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="55" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="57" t="s">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="57" t="s">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="57" t="s">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="57" t="s">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="57" t="s">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="57" t="s">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="57" t="s">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="57" t="s">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="57" t="s">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="57" t="s">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="57" t="s">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="57" t="s">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="57" t="s">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="57" t="s">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="57" t="s">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="57" t="s">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="57" t="s">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="57" t="s">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="57" t="s">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="57" t="s">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="57" t="s">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="30" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="30" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="30" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="30" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="30" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="30" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="30" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="30" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="30" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="30" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="30" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="30" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="30" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="30" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="30" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="30" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="30" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="30" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="30" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="30" t="s">
-        <v>388</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>